--- a/leagues/The Mike Daisy Sports IQ League 2025.xlsx
+++ b/leagues/The Mike Daisy Sports IQ League 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="95">
   <si>
     <t>Njigba's in Paris</t>
   </si>
@@ -59,25 +59,25 @@
     <t>Matt Gay Team</t>
   </si>
   <si>
-    <t>2-4-0</t>
-  </si>
-  <si>
-    <t>4-2-0</t>
-  </si>
-  <si>
-    <t>3-3-0</t>
-  </si>
-  <si>
-    <t>5-1-0</t>
-  </si>
-  <si>
-    <t>1-5-0</t>
-  </si>
-  <si>
-    <t>0-6-0</t>
-  </si>
-  <si>
-    <t>6-0-0</t>
+    <t>2-4-1</t>
+  </si>
+  <si>
+    <t>4-2-1</t>
+  </si>
+  <si>
+    <t>3-3-1</t>
+  </si>
+  <si>
+    <t>5-1-1</t>
+  </si>
+  <si>
+    <t>1-5-1</t>
+  </si>
+  <si>
+    <t>0-6-1</t>
+  </si>
+  <si>
+    <t>6-0-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -158,55 +158,49 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>4-1</t>
-  </si>
-  <si>
-    <t>3-2</t>
-  </si>
-  <si>
-    <t>2-3</t>
-  </si>
-  <si>
-    <t>1-4</t>
-  </si>
-  <si>
-    <t>10.7-3.2</t>
-  </si>
-  <si>
-    <t>8.9-5.0-0.1</t>
-  </si>
-  <si>
-    <t>7.9-6.0-0.1</t>
-  </si>
-  <si>
-    <t>7.7-6.3</t>
-  </si>
-  <si>
-    <t>6.9-7.0-0.1</t>
-  </si>
-  <si>
-    <t>7.1-6.8-0.1</t>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>9.2-4.8-0.1</t>
+  </si>
+  <si>
+    <t>8.4-5.5-0.1</t>
+  </si>
+  <si>
+    <t>8.2-5.7-0.1</t>
+  </si>
+  <si>
+    <t>7.8-6.2-0.1</t>
+  </si>
+  <si>
+    <t>7.5-6.5</t>
+  </si>
+  <si>
+    <t>7.2-6.7-0.1</t>
   </si>
   <si>
     <t>6.7-7.2-0.1</t>
   </si>
   <si>
-    <t>6.5-7.4-0.1</t>
-  </si>
-  <si>
-    <t>6.2-7.7</t>
-  </si>
-  <si>
-    <t>5.4-8.5-0.1</t>
-  </si>
-  <si>
-    <t>5.0-9.0-0.1</t>
-  </si>
-  <si>
-    <t>4.5-9.4-0.1</t>
-  </si>
-  <si>
-    <t>11-3</t>
+    <t>6.1-7.9-0.1</t>
+  </si>
+  <si>
+    <t>6.3-7.7-0.1</t>
+  </si>
+  <si>
+    <t>5.6-8.3-0.1</t>
+  </si>
+  <si>
+    <t>5.5-8.4-0.1</t>
+  </si>
+  <si>
+    <t>5.2-8.8-0.1</t>
   </si>
   <si>
     <t>9-5</t>
@@ -224,9 +218,6 @@
     <t>5-9</t>
   </si>
   <si>
-    <t>4-10</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -272,24 +263,9 @@
     <t>Matt Peiffer</t>
   </si>
   <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑10</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -306,6 +282,9 @@
   </si>
   <si>
     <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
   </si>
   <si>
     <t>Week</t>
@@ -1705,527 +1684,527 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>77.7</v>
+        <v>46.1</v>
       </c>
       <c r="C2">
-        <v>15.3</v>
+        <v>23.7</v>
       </c>
       <c r="D2">
-        <v>4.2</v>
+        <v>10.1</v>
       </c>
       <c r="E2">
+        <v>7.8</v>
+      </c>
+      <c r="F2">
+        <v>4.9</v>
+      </c>
+      <c r="G2">
+        <v>2.3</v>
+      </c>
+      <c r="H2">
+        <v>1.9</v>
+      </c>
+      <c r="I2">
         <v>1.6</v>
       </c>
-      <c r="F2">
-        <v>0.9</v>
-      </c>
-      <c r="G2">
-        <v>0.1</v>
-      </c>
-      <c r="H2">
-        <v>0.2</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N2">
-        <v>99.8</v>
+        <v>94.90000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>13.2</v>
+        <v>14.4</v>
       </c>
       <c r="C3">
-        <v>30.3</v>
+        <v>17.4</v>
       </c>
       <c r="D3">
-        <v>21.4</v>
+        <v>20.1</v>
       </c>
       <c r="E3">
-        <v>14.2</v>
+        <v>14.7</v>
       </c>
       <c r="F3">
-        <v>8.9</v>
+        <v>10.9</v>
       </c>
       <c r="G3">
-        <v>5.9</v>
+        <v>7.8</v>
       </c>
       <c r="H3">
-        <v>3.7</v>
+        <v>6.9</v>
       </c>
       <c r="I3">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="J3">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="K3">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>93.90000000000001</v>
+        <v>85.3</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>2.2</v>
+        <v>17.2</v>
       </c>
       <c r="C4">
         <v>16.2</v>
       </c>
       <c r="D4">
-        <v>17.6</v>
+        <v>15.1</v>
       </c>
       <c r="E4">
-        <v>18</v>
+        <v>16.4</v>
       </c>
       <c r="F4">
-        <v>13.8</v>
+        <v>10.9</v>
       </c>
       <c r="G4">
-        <v>10.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H4">
-        <v>9.6</v>
+        <v>5.8</v>
       </c>
       <c r="I4">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="J4">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="K4">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M4">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="N4">
-        <v>78.40000000000001</v>
+        <v>84.09999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5">
+        <v>7.8</v>
+      </c>
+      <c r="C5">
+        <v>12.9</v>
+      </c>
+      <c r="D5">
+        <v>14.3</v>
+      </c>
+      <c r="E5">
+        <v>13.8</v>
+      </c>
+      <c r="F5">
+        <v>13.7</v>
+      </c>
+      <c r="G5">
+        <v>13.4</v>
+      </c>
+      <c r="H5">
+        <v>7.7</v>
+      </c>
+      <c r="I5">
+        <v>6.6</v>
+      </c>
+      <c r="J5">
+        <v>4.7</v>
+      </c>
+      <c r="K5">
         <v>3.6</v>
       </c>
-      <c r="C5">
-        <v>14.6</v>
-      </c>
-      <c r="D5">
-        <v>18.6</v>
-      </c>
-      <c r="E5">
-        <v>13.4</v>
-      </c>
-      <c r="F5">
-        <v>11.4</v>
-      </c>
-      <c r="G5">
-        <v>9.9</v>
-      </c>
-      <c r="H5">
-        <v>9.6</v>
-      </c>
-      <c r="I5">
-        <v>7.3</v>
-      </c>
-      <c r="J5">
-        <v>5.1</v>
-      </c>
-      <c r="K5">
-        <v>3.9</v>
-      </c>
       <c r="L5">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="M5">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="N5">
-        <v>71.5</v>
+        <v>75.90000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C6">
-        <v>6.8</v>
+        <v>14.4</v>
       </c>
       <c r="D6">
-        <v>10.1</v>
+        <v>13.6</v>
       </c>
       <c r="E6">
-        <v>12.7</v>
+        <v>11.8</v>
       </c>
       <c r="F6">
-        <v>13.1</v>
+        <v>12.1</v>
       </c>
       <c r="G6">
-        <v>12.7</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>12.5</v>
+        <v>8.4</v>
       </c>
       <c r="I6">
-        <v>12</v>
+        <v>8.6</v>
       </c>
       <c r="J6">
-        <v>7.1</v>
+        <v>5.4</v>
       </c>
       <c r="K6">
-        <v>6.7</v>
+        <v>3.9</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="M6">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>55.9</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="C7">
-        <v>6.7</v>
+        <v>5.3</v>
       </c>
       <c r="D7">
-        <v>8.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E7">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="F7">
-        <v>10.9</v>
+        <v>12.2</v>
       </c>
       <c r="G7">
-        <v>11.7</v>
+        <v>14.4</v>
       </c>
       <c r="H7">
-        <v>11.6</v>
+        <v>14.4</v>
       </c>
       <c r="I7">
-        <v>9.9</v>
+        <v>9.1</v>
       </c>
       <c r="J7">
-        <v>10.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K7">
-        <v>9.4</v>
+        <v>6.4</v>
       </c>
       <c r="L7">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="M7">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="N7">
-        <v>50.4</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="C8">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="D8">
-        <v>8.699999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="E8">
+        <v>8.4</v>
+      </c>
+      <c r="F8">
+        <v>10.6</v>
+      </c>
+      <c r="G8">
         <v>9.6</v>
       </c>
-      <c r="F8">
-        <v>13.1</v>
-      </c>
-      <c r="G8">
-        <v>13.7</v>
-      </c>
       <c r="H8">
-        <v>12.7</v>
+        <v>11.9</v>
       </c>
       <c r="I8">
-        <v>11.1</v>
+        <v>13.3</v>
       </c>
       <c r="J8">
-        <v>11.9</v>
+        <v>10.3</v>
       </c>
       <c r="K8">
-        <v>7.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L8">
-        <v>4.4</v>
+        <v>7.2</v>
       </c>
       <c r="M8">
-        <v>1.8</v>
+        <v>5.1</v>
       </c>
       <c r="N8">
-        <v>50.3</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="C9">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="D9">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>8.300000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="F9">
-        <v>12.4</v>
+        <v>7.4</v>
       </c>
       <c r="G9">
+        <v>10.7</v>
+      </c>
+      <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9">
         <v>12.1</v>
       </c>
-      <c r="H9">
-        <v>13.2</v>
-      </c>
-      <c r="I9">
-        <v>15.9</v>
-      </c>
       <c r="J9">
-        <v>13.3</v>
+        <v>12.1</v>
       </c>
       <c r="K9">
-        <v>9.199999999999999</v>
+        <v>12.1</v>
       </c>
       <c r="L9">
-        <v>5.7</v>
+        <v>11.5</v>
       </c>
       <c r="M9">
-        <v>1.8</v>
+        <v>10.2</v>
       </c>
       <c r="N9">
-        <v>40.9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="C10">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>3.9</v>
       </c>
       <c r="F10">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="G10">
-        <v>11.3</v>
+        <v>10.5</v>
       </c>
       <c r="H10">
-        <v>9.800000000000001</v>
+        <v>11.2</v>
       </c>
       <c r="I10">
-        <v>12.3</v>
+        <v>15.4</v>
       </c>
       <c r="J10">
-        <v>14.2</v>
+        <v>14.9</v>
       </c>
       <c r="K10">
-        <v>12.8</v>
+        <v>13.9</v>
       </c>
       <c r="L10">
-        <v>10.4</v>
+        <v>12.1</v>
       </c>
       <c r="M10">
-        <v>9.1</v>
+        <v>6.5</v>
       </c>
       <c r="N10">
-        <v>31.4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B11">
         <v>0.1</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D11">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="E11">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I11">
-        <v>10.6</v>
+        <v>10.2</v>
       </c>
       <c r="J11">
-        <v>16</v>
+        <v>14.3</v>
       </c>
       <c r="K11">
-        <v>21.3</v>
+        <v>14.8</v>
       </c>
       <c r="L11">
-        <v>20.1</v>
+        <v>16.9</v>
       </c>
       <c r="M11">
-        <v>11.6</v>
+        <v>18.3</v>
       </c>
       <c r="N11">
-        <v>13.4</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C12">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="D12">
         <v>0.8</v>
       </c>
       <c r="E12">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="F12">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="G12">
-        <v>5.4</v>
+        <v>2.8</v>
       </c>
       <c r="H12">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="I12">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="J12">
-        <v>10.9</v>
+        <v>12.5</v>
       </c>
       <c r="K12">
-        <v>15.1</v>
+        <v>16.2</v>
       </c>
       <c r="L12">
         <v>22.2</v>
       </c>
       <c r="M12">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="N12">
-        <v>11.8</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C13">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D13">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="E13">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="F13">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="G13">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="I13">
-        <v>5.1</v>
+        <v>7.4</v>
       </c>
       <c r="J13">
-        <v>6.9</v>
+        <v>10.2</v>
       </c>
       <c r="K13">
-        <v>11.7</v>
+        <v>16.1</v>
       </c>
       <c r="L13">
-        <v>25.1</v>
+        <v>20.7</v>
       </c>
       <c r="M13">
-        <v>44.9</v>
+        <v>30.9</v>
       </c>
       <c r="N13">
-        <v>2.3</v>
+        <v>9.4</v>
       </c>
     </row>
   </sheetData>
@@ -2275,126 +2254,126 @@
         <v>45</v>
       </c>
       <c r="C2">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2">
-        <v>151.316</v>
+        <v>141.9966666666667</v>
       </c>
       <c r="E2">
-        <v>756.58</v>
+        <v>851.98</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>45</v>
       </c>
       <c r="C3">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>131.144</v>
+        <v>126.4133333333333</v>
       </c>
       <c r="E3">
-        <v>655.72</v>
+        <v>758.48</v>
       </c>
       <c r="F3">
-        <v>99.3</v>
+        <v>95.8</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4">
-        <v>126.352</v>
+        <v>128.5433333333333</v>
       </c>
       <c r="E4">
-        <v>631.76</v>
+        <v>771.26</v>
       </c>
       <c r="F4">
-        <v>93.10000000000001</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
       </c>
       <c r="C5">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>127.968</v>
+        <v>127.51</v>
       </c>
       <c r="E5">
-        <v>639.84</v>
+        <v>765.0599999999999</v>
       </c>
       <c r="F5">
-        <v>88.40000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>125.36</v>
+        <v>135.5933333333333</v>
       </c>
       <c r="E6">
-        <v>626.8</v>
+        <v>813.5599999999999</v>
       </c>
       <c r="F6">
-        <v>80.40000000000001</v>
+        <v>87.2</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2405,178 +2384,178 @@
         <v>46</v>
       </c>
       <c r="C7">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>116.232</v>
+        <v>120.08</v>
       </c>
       <c r="E7">
-        <v>581.16</v>
+        <v>720.48</v>
       </c>
       <c r="F7">
-        <v>74.09999999999999</v>
+        <v>78.10000000000001</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>127.62</v>
+        <v>118.4566666666667</v>
       </c>
       <c r="E8">
-        <v>638.1</v>
+        <v>710.74</v>
       </c>
       <c r="F8">
-        <v>71.89999999999999</v>
+        <v>67.60000000000001</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>47</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D9">
-        <v>122.156</v>
+        <v>122.4066666666667</v>
       </c>
       <c r="E9">
-        <v>610.78</v>
+        <v>734.4400000000001</v>
       </c>
       <c r="F9">
-        <v>70</v>
+        <v>54.1</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
-        <v>115.804</v>
+        <v>114.7866666666667</v>
       </c>
       <c r="E10">
-        <v>579.02</v>
+        <v>688.72</v>
       </c>
       <c r="F10">
-        <v>53.5</v>
+        <v>52.6</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
         <v>47</v>
       </c>
       <c r="C11">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D11">
-        <v>113.528</v>
+        <v>113.7633333333333</v>
       </c>
       <c r="E11">
-        <v>567.64</v>
+        <v>682.5799999999999</v>
       </c>
       <c r="F11">
-        <v>31</v>
+        <v>35.7</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D12">
-        <v>113.82</v>
+        <v>104.7266666666667</v>
       </c>
       <c r="E12">
-        <v>569.1</v>
+        <v>628.36</v>
       </c>
       <c r="F12">
-        <v>26.9</v>
+        <v>24.1</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>47</v>
       </c>
       <c r="C13">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D13">
-        <v>101.556</v>
+        <v>109.8466666666666</v>
       </c>
       <c r="E13">
-        <v>507.78</v>
+        <v>659.08</v>
       </c>
       <c r="F13">
-        <v>11.4</v>
+        <v>22.1</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2597,16 +2576,16 @@
         <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2617,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D2">
         <v>31</v>
@@ -2626,7 +2605,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2637,7 +2616,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D3">
         <v>14</v>
@@ -2646,7 +2625,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2657,7 +2636,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -2666,7 +2645,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2677,7 +2656,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -2686,7 +2665,7 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2697,7 +2676,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -2706,7 +2685,7 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2717,7 +2696,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -2726,7 +2705,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2737,7 +2716,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -2746,7 +2725,7 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2757,7 +2736,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -2766,7 +2745,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2777,7 +2756,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D10">
         <v>-11</v>
@@ -2786,7 +2765,7 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2797,7 +2776,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D11">
         <v>-12</v>
@@ -2806,7 +2785,7 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2817,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D12">
         <v>-19</v>
@@ -2826,7 +2805,7 @@
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2837,7 +2816,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D13">
         <v>-30</v>
@@ -2846,7 +2825,7 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2856,36 +2835,39 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2907,11 +2889,14 @@
       <c r="G2">
         <v>31</v>
       </c>
-      <c r="H2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="H2">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2933,11 +2918,14 @@
       <c r="G3">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2959,11 +2947,14 @@
       <c r="G4">
         <v>8</v>
       </c>
-      <c r="H4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2985,11 +2976,14 @@
       <c r="G5">
         <v>6</v>
       </c>
-      <c r="H5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3011,11 +3005,14 @@
       <c r="G6">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -3037,11 +3034,14 @@
       <c r="G7">
         <v>4</v>
       </c>
-      <c r="H7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3063,11 +3063,14 @@
       <c r="G8">
         <v>2</v>
       </c>
-      <c r="H8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -3089,11 +3092,14 @@
       <c r="G9">
         <v>2</v>
       </c>
-      <c r="H9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -3115,11 +3121,14 @@
       <c r="G10">
         <v>-11</v>
       </c>
-      <c r="H10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="H10">
+        <v>-11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -3141,11 +3150,14 @@
       <c r="G11">
         <v>-12</v>
       </c>
-      <c r="H11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11">
+        <v>-12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -3167,11 +3179,14 @@
       <c r="G12">
         <v>-19</v>
       </c>
-      <c r="H12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="H12">
+        <v>-19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3193,8 +3208,11 @@
       <c r="G13">
         <v>-30</v>
       </c>
-      <c r="H13" t="s">
-        <v>87</v>
+      <c r="H13">
+        <v>-30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3212,25 +3230,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/The Mike Daisy Sports IQ League 2025.xlsx
+++ b/leagues/The Mike Daisy Sports IQ League 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="99">
   <si>
     <t>Njigba's in Paris</t>
   </si>
@@ -59,25 +59,25 @@
     <t>Matt Gay Team</t>
   </si>
   <si>
-    <t>2-4-1</t>
-  </si>
-  <si>
-    <t>4-2-1</t>
-  </si>
-  <si>
-    <t>3-3-1</t>
-  </si>
-  <si>
-    <t>5-1-1</t>
-  </si>
-  <si>
-    <t>1-5-1</t>
-  </si>
-  <si>
-    <t>0-6-1</t>
-  </si>
-  <si>
-    <t>6-0-1</t>
+    <t>2-4-0</t>
+  </si>
+  <si>
+    <t>4-2-0</t>
+  </si>
+  <si>
+    <t>3-3-0</t>
+  </si>
+  <si>
+    <t>5-1-0</t>
+  </si>
+  <si>
+    <t>1-5-0</t>
+  </si>
+  <si>
+    <t>0-6-0</t>
+  </si>
+  <si>
+    <t>6-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -167,16 +167,16 @@
     <t>2-4</t>
   </si>
   <si>
-    <t>9.2-4.8-0.1</t>
-  </si>
-  <si>
-    <t>8.4-5.5-0.1</t>
-  </si>
-  <si>
-    <t>8.2-5.7-0.1</t>
-  </si>
-  <si>
-    <t>7.8-6.2-0.1</t>
+    <t>9.1-4.8-0.1</t>
+  </si>
+  <si>
+    <t>8.5-5.4</t>
+  </si>
+  <si>
+    <t>8.1-5.8-0.1</t>
+  </si>
+  <si>
+    <t>7.7-6.2-0.1</t>
   </si>
   <si>
     <t>7.5-6.5</t>
@@ -185,22 +185,22 @@
     <t>7.2-6.7-0.1</t>
   </si>
   <si>
-    <t>6.7-7.2-0.1</t>
-  </si>
-  <si>
-    <t>6.1-7.9-0.1</t>
-  </si>
-  <si>
-    <t>6.3-7.7-0.1</t>
-  </si>
-  <si>
-    <t>5.6-8.3-0.1</t>
-  </si>
-  <si>
-    <t>5.5-8.4-0.1</t>
-  </si>
-  <si>
-    <t>5.2-8.8-0.1</t>
+    <t>6.7-7.3</t>
+  </si>
+  <si>
+    <t>6.1-7.9</t>
+  </si>
+  <si>
+    <t>6.2-7.7-0.1</t>
+  </si>
+  <si>
+    <t>5.7-8.2-0.1</t>
+  </si>
+  <si>
+    <t>5.2-8.7</t>
+  </si>
+  <si>
+    <t>5.4-8.5-0.1</t>
   </si>
   <si>
     <t>9-5</t>
@@ -263,9 +263,24 @@
     <t>Matt Peiffer</t>
   </si>
   <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑10</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -282,9 +297,6 @@
   </si>
   <si>
     <t>Week 6</t>
-  </si>
-  <si>
-    <t>Week 7</t>
   </si>
   <si>
     <t>Week</t>
@@ -1684,43 +1696,43 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>46.1</v>
+        <v>45.9</v>
       </c>
       <c r="C2">
-        <v>23.7</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>10.1</v>
+        <v>12.6</v>
       </c>
       <c r="E2">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>4.9</v>
+        <v>6.7</v>
       </c>
       <c r="G2">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="H2">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="I2">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K2">
         <v>0.5</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M2">
         <v>0.1</v>
       </c>
       <c r="N2">
-        <v>94.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1728,43 +1740,43 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>14.4</v>
+        <v>15.7</v>
       </c>
       <c r="C3">
-        <v>17.4</v>
+        <v>20.9</v>
       </c>
       <c r="D3">
-        <v>20.1</v>
+        <v>18.3</v>
       </c>
       <c r="E3">
-        <v>14.7</v>
+        <v>12.9</v>
       </c>
       <c r="F3">
-        <v>10.9</v>
+        <v>12.3</v>
       </c>
       <c r="G3">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H3">
-        <v>6.9</v>
+        <v>5.6</v>
       </c>
       <c r="I3">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="J3">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="L3">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>85.3</v>
+        <v>88.3</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1772,43 +1784,43 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>17.2</v>
+        <v>14.2</v>
       </c>
       <c r="C4">
         <v>16.2</v>
       </c>
       <c r="D4">
-        <v>15.1</v>
+        <v>15.9</v>
       </c>
       <c r="E4">
-        <v>16.4</v>
+        <v>14.9</v>
       </c>
       <c r="F4">
-        <v>10.9</v>
+        <v>11.4</v>
       </c>
       <c r="G4">
-        <v>8.300000000000001</v>
+        <v>11.2</v>
       </c>
       <c r="H4">
-        <v>5.8</v>
+        <v>7.1</v>
       </c>
       <c r="I4">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="J4">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="K4">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L4">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="N4">
-        <v>84.09999999999999</v>
+        <v>83.8</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1816,43 +1828,43 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="C5">
-        <v>12.9</v>
+        <v>14.5</v>
       </c>
       <c r="D5">
-        <v>14.3</v>
+        <v>13.3</v>
       </c>
       <c r="E5">
-        <v>13.8</v>
+        <v>16.1</v>
       </c>
       <c r="F5">
-        <v>13.7</v>
+        <v>13</v>
       </c>
       <c r="G5">
-        <v>13.4</v>
+        <v>11.2</v>
       </c>
       <c r="H5">
-        <v>7.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I5">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="J5">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="K5">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="M5">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="N5">
-        <v>75.90000000000001</v>
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1860,43 +1872,43 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>8.300000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="C6">
-        <v>14.4</v>
+        <v>13.4</v>
       </c>
       <c r="D6">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="E6">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="F6">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="I6">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="J6">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="K6">
         <v>3.9</v>
       </c>
       <c r="L6">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="N6">
-        <v>70.2</v>
+        <v>72.09999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1904,43 +1916,43 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="C7">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="D7">
         <v>9.300000000000001</v>
       </c>
       <c r="E7">
-        <v>10.9</v>
+        <v>13.1</v>
       </c>
       <c r="F7">
-        <v>12.2</v>
+        <v>11.4</v>
       </c>
       <c r="G7">
-        <v>14.4</v>
+        <v>13.4</v>
       </c>
       <c r="H7">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="I7">
-        <v>9.1</v>
+        <v>10.2</v>
       </c>
       <c r="J7">
-        <v>9.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K7">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="L7">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="M7">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="N7">
-        <v>54.6</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1948,43 +1960,43 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="E8">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="F8">
-        <v>10.6</v>
+        <v>9.4</v>
       </c>
       <c r="G8">
-        <v>9.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H8">
-        <v>11.9</v>
+        <v>10.9</v>
       </c>
       <c r="I8">
-        <v>13.3</v>
+        <v>14.2</v>
       </c>
       <c r="J8">
-        <v>10.3</v>
+        <v>13.1</v>
       </c>
       <c r="K8">
-        <v>9.800000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="L8">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="M8">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="N8">
-        <v>42.4</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1992,43 +2004,43 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="C9">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="E9">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="F9">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="G9">
+        <v>8.5</v>
+      </c>
+      <c r="H9">
+        <v>13.4</v>
+      </c>
+      <c r="I9">
+        <v>11.9</v>
+      </c>
+      <c r="J9">
+        <v>12.5</v>
+      </c>
+      <c r="K9">
+        <v>12.8</v>
+      </c>
+      <c r="L9">
         <v>10.7</v>
       </c>
-      <c r="H9">
-        <v>11</v>
-      </c>
-      <c r="I9">
-        <v>12.1</v>
-      </c>
-      <c r="J9">
-        <v>12.1</v>
-      </c>
-      <c r="K9">
-        <v>12.1</v>
-      </c>
-      <c r="L9">
-        <v>11.5</v>
-      </c>
       <c r="M9">
-        <v>10.2</v>
+        <v>9.9</v>
       </c>
       <c r="N9">
-        <v>31</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2039,40 +2051,40 @@
         <v>0.7</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="D10">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="E10">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="F10">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="G10">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="H10">
-        <v>11.2</v>
+        <v>11.6</v>
       </c>
       <c r="I10">
-        <v>15.4</v>
+        <v>14.4</v>
       </c>
       <c r="J10">
-        <v>14.9</v>
+        <v>16.6</v>
       </c>
       <c r="K10">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="L10">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="M10">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="N10">
-        <v>26</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2080,131 +2092,131 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="C11">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="D11">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="G11">
-        <v>6.3</v>
+        <v>7.2</v>
       </c>
       <c r="H11">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I11">
-        <v>10.2</v>
+        <v>10.8</v>
       </c>
       <c r="J11">
-        <v>14.3</v>
+        <v>12.5</v>
       </c>
       <c r="K11">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="L11">
-        <v>16.9</v>
+        <v>16.2</v>
       </c>
       <c r="M11">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="N11">
-        <v>16.7</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C12">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D12">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>2.1</v>
       </c>
       <c r="F12">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="G12">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="H12">
-        <v>6.7</v>
+        <v>5.7</v>
       </c>
       <c r="I12">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="J12">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="K12">
-        <v>16.2</v>
+        <v>15.3</v>
       </c>
       <c r="L12">
-        <v>22.2</v>
+        <v>21.8</v>
       </c>
       <c r="M12">
-        <v>25</v>
+        <v>27.8</v>
       </c>
       <c r="N12">
-        <v>9.5</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.1</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+      <c r="D13">
+        <v>0.5</v>
+      </c>
+      <c r="E13">
+        <v>1.5</v>
+      </c>
+      <c r="F13">
+        <v>2.3</v>
+      </c>
+      <c r="G13">
+        <v>2.9</v>
+      </c>
+      <c r="H13">
+        <v>5.4</v>
+      </c>
+      <c r="I13">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>0.4</v>
-      </c>
-      <c r="C13">
-        <v>0.4</v>
-      </c>
-      <c r="D13">
-        <v>1.3</v>
-      </c>
-      <c r="E13">
-        <v>1.3</v>
-      </c>
-      <c r="F13">
-        <v>2.1</v>
-      </c>
-      <c r="G13">
-        <v>3.9</v>
-      </c>
-      <c r="H13">
-        <v>5.3</v>
-      </c>
-      <c r="I13">
-        <v>7.4</v>
-      </c>
       <c r="J13">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="K13">
-        <v>16.1</v>
+        <v>18.1</v>
       </c>
       <c r="L13">
-        <v>20.7</v>
+        <v>21.9</v>
       </c>
       <c r="M13">
-        <v>30.9</v>
+        <v>26.7</v>
       </c>
       <c r="N13">
-        <v>9.4</v>
+        <v>7.8</v>
       </c>
     </row>
   </sheetData>
@@ -2263,7 +2275,7 @@
         <v>851.98</v>
       </c>
       <c r="F2">
-        <v>98.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="G2" t="s">
         <v>48</v>
@@ -2289,7 +2301,7 @@
         <v>758.48</v>
       </c>
       <c r="F3">
-        <v>95.8</v>
+        <v>96.5</v>
       </c>
       <c r="G3" t="s">
         <v>49</v>
@@ -2315,7 +2327,7 @@
         <v>771.26</v>
       </c>
       <c r="F4">
-        <v>94.09999999999999</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="G4" t="s">
         <v>50</v>
@@ -2341,7 +2353,7 @@
         <v>765.0599999999999</v>
       </c>
       <c r="F5">
-        <v>90.2</v>
+        <v>89.8</v>
       </c>
       <c r="G5" t="s">
         <v>51</v>
@@ -2367,7 +2379,7 @@
         <v>813.5599999999999</v>
       </c>
       <c r="F6">
-        <v>87.2</v>
+        <v>86.7</v>
       </c>
       <c r="G6" t="s">
         <v>52</v>
@@ -2393,7 +2405,7 @@
         <v>720.48</v>
       </c>
       <c r="F7">
-        <v>78.10000000000001</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="G7" t="s">
         <v>53</v>
@@ -2419,13 +2431,13 @@
         <v>710.74</v>
       </c>
       <c r="F8">
-        <v>67.60000000000001</v>
+        <v>63.9</v>
       </c>
       <c r="G8" t="s">
         <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2471,7 +2483,7 @@
         <v>688.72</v>
       </c>
       <c r="F10">
-        <v>52.6</v>
+        <v>50.8</v>
       </c>
       <c r="G10" t="s">
         <v>56</v>
@@ -2497,7 +2509,7 @@
         <v>682.5799999999999</v>
       </c>
       <c r="F11">
-        <v>35.7</v>
+        <v>38.3</v>
       </c>
       <c r="G11" t="s">
         <v>57</v>
@@ -2508,19 +2520,19 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D12">
-        <v>104.7266666666667</v>
+        <v>109.8466666666666</v>
       </c>
       <c r="E12">
-        <v>628.36</v>
+        <v>659.08</v>
       </c>
       <c r="F12">
         <v>24.1</v>
@@ -2534,22 +2546,22 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D13">
-        <v>109.8466666666666</v>
+        <v>104.7266666666667</v>
       </c>
       <c r="E13">
-        <v>659.08</v>
+        <v>628.36</v>
       </c>
       <c r="F13">
-        <v>22.1</v>
+        <v>23.2</v>
       </c>
       <c r="G13" t="s">
         <v>59</v>
@@ -2625,7 +2637,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2645,7 +2657,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2665,7 +2677,7 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2685,7 +2697,7 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2725,7 +2737,7 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2745,7 +2757,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2765,7 +2777,7 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2785,7 +2797,7 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2825,7 +2837,7 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2835,39 +2847,36 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2889,14 +2898,11 @@
       <c r="G2">
         <v>31</v>
       </c>
-      <c r="H2">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2918,14 +2924,11 @@
       <c r="G3">
         <v>14</v>
       </c>
-      <c r="H3">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="H3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2947,14 +2950,11 @@
       <c r="G4">
         <v>8</v>
       </c>
-      <c r="H4">
-        <v>8</v>
-      </c>
-      <c r="I4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="H4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2976,14 +2976,11 @@
       <c r="G5">
         <v>6</v>
       </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
-      <c r="I5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="H5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3005,14 +3002,11 @@
       <c r="G6">
         <v>5</v>
       </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="H6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -3034,14 +3028,11 @@
       <c r="G7">
         <v>4</v>
       </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="H7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3063,14 +3054,11 @@
       <c r="G8">
         <v>2</v>
       </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="H8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -3092,14 +3080,11 @@
       <c r="G9">
         <v>2</v>
       </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="H9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -3121,14 +3106,11 @@
       <c r="G10">
         <v>-11</v>
       </c>
-      <c r="H10">
-        <v>-11</v>
-      </c>
-      <c r="I10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="H10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -3150,14 +3132,11 @@
       <c r="G11">
         <v>-12</v>
       </c>
-      <c r="H11">
-        <v>-12</v>
-      </c>
-      <c r="I11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -3179,14 +3158,11 @@
       <c r="G12">
         <v>-19</v>
       </c>
-      <c r="H12">
-        <v>-19</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="H12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3208,11 +3184,8 @@
       <c r="G13">
         <v>-30</v>
       </c>
-      <c r="H13">
-        <v>-30</v>
-      </c>
-      <c r="I13" t="s">
-        <v>80</v>
+      <c r="H13" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3230,25 +3203,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/The Mike Daisy Sports IQ League 2025.xlsx
+++ b/leagues/The Mike Daisy Sports IQ League 2025.xlsx
@@ -11,17 +11,18 @@
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
-    <sheet name="Record Odds" sheetId="5" r:id="rId5"/>
-    <sheet name="Louie Power Index" sheetId="6" r:id="rId6"/>
-    <sheet name="LPI By Week" sheetId="7" r:id="rId7"/>
-    <sheet name="Biggest Upsets" sheetId="8" r:id="rId8"/>
+    <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
+    <sheet name="Record Odds" sheetId="6" r:id="rId6"/>
+    <sheet name="Louie Power Index" sheetId="7" r:id="rId7"/>
+    <sheet name="LPI By Week" sheetId="8" r:id="rId8"/>
+    <sheet name="Biggest Upsets" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="113">
   <si>
     <t>Njigba's in Paris</t>
   </si>
@@ -59,25 +60,28 @@
     <t>Matt Gay Team</t>
   </si>
   <si>
-    <t>2-4-0</t>
-  </si>
-  <si>
-    <t>4-2-0</t>
-  </si>
-  <si>
-    <t>3-3-0</t>
-  </si>
-  <si>
-    <t>5-1-0</t>
-  </si>
-  <si>
-    <t>1-5-0</t>
-  </si>
-  <si>
-    <t>0-6-0</t>
-  </si>
-  <si>
-    <t>6-0-0</t>
+    <t>3-4-0</t>
+  </si>
+  <si>
+    <t>5-2-0</t>
+  </si>
+  <si>
+    <t>4-3-0</t>
+  </si>
+  <si>
+    <t>6-1-0</t>
+  </si>
+  <si>
+    <t>2-5-0</t>
+  </si>
+  <si>
+    <t>1-6-0</t>
+  </si>
+  <si>
+    <t>0-7-0</t>
+  </si>
+  <si>
+    <t>7-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -137,6 +141,30 @@
     <t>Chance of Making Playoffs</t>
   </si>
   <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
+    <t>Week_7</t>
+  </si>
+  <si>
+    <t>Week_8</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -158,52 +186,55 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>4-2</t>
-  </si>
-  <si>
-    <t>3-3</t>
-  </si>
-  <si>
-    <t>2-4</t>
-  </si>
-  <si>
-    <t>9.1-4.8-0.1</t>
-  </si>
-  <si>
-    <t>8.5-5.4</t>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>9.5-4.4</t>
+  </si>
+  <si>
+    <t>8.3-5.7</t>
   </si>
   <si>
     <t>8.1-5.8-0.1</t>
   </si>
   <si>
-    <t>7.7-6.2-0.1</t>
-  </si>
-  <si>
-    <t>7.5-6.5</t>
-  </si>
-  <si>
-    <t>7.2-6.7-0.1</t>
-  </si>
-  <si>
-    <t>6.7-7.3</t>
-  </si>
-  <si>
-    <t>6.1-7.9</t>
-  </si>
-  <si>
-    <t>6.2-7.7-0.1</t>
-  </si>
-  <si>
-    <t>5.7-8.2-0.1</t>
-  </si>
-  <si>
-    <t>5.2-8.7</t>
-  </si>
-  <si>
-    <t>5.4-8.5-0.1</t>
-  </si>
-  <si>
-    <t>9-5</t>
+    <t>7.9-6.1</t>
+  </si>
+  <si>
+    <t>7.8-6.2-0.1</t>
+  </si>
+  <si>
+    <t>7.4-6.6</t>
+  </si>
+  <si>
+    <t>7.2-6.8</t>
+  </si>
+  <si>
+    <t>6.4-7.5</t>
+  </si>
+  <si>
+    <t>6.1-7.8</t>
+  </si>
+  <si>
+    <t>5.4-8.5</t>
+  </si>
+  <si>
+    <t>5.0-8.9-0.1</t>
+  </si>
+  <si>
+    <t>4.6-9.4</t>
+  </si>
+  <si>
+    <t>10-4</t>
   </si>
   <si>
     <t>8-6</t>
@@ -218,6 +249,9 @@
     <t>5-9</t>
   </si>
   <si>
+    <t>4-10</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -236,27 +270,27 @@
     <t>Rob Pernell</t>
   </si>
   <si>
+    <t>Dylan Sowers</t>
+  </si>
+  <si>
+    <t>Nick DiNunzio</t>
+  </si>
+  <si>
+    <t>Bobby  Schnur</t>
+  </si>
+  <si>
     <t>Michael Daisey</t>
   </si>
   <si>
-    <t>Dylan Sowers</t>
-  </si>
-  <si>
-    <t>Bobby  Schnur</t>
-  </si>
-  <si>
     <t>David O'Kane</t>
   </si>
   <si>
-    <t>Nick DiNunzio</t>
+    <t>Shjon Sowers</t>
   </si>
   <si>
     <t>Matthew Jennings</t>
   </si>
   <si>
-    <t>Shjon Sowers</t>
-  </si>
-  <si>
     <t>Julian LeMaire</t>
   </si>
   <si>
@@ -266,21 +300,27 @@
     <t>↓4</t>
   </si>
   <si>
-    <t>↑10</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓2</t>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓1</t>
   </si>
   <si>
     <t>↑2</t>
   </si>
   <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -297,6 +337,9 @@
   </si>
   <si>
     <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
   </si>
   <si>
     <t>Week</t>
@@ -736,7 +779,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -751,13 +794,13 @@
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -771,13 +814,13 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -792,13 +835,13 @@
         <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -806,40 +849,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s">
-        <v>15</v>
-      </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -874,13 +917,13 @@
         <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -894,19 +937,19 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
@@ -915,13 +958,13 @@
         <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -929,40 +972,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" t="s">
         <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1003,7 +1046,7 @@
         <v>16</v>
       </c>
       <c r="M8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1038,13 +1081,13 @@
         <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L9" t="s">
         <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1093,25 +1136,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
         <v>16</v>
       </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
         <v>16</v>
@@ -1120,13 +1163,13 @@
         <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1134,40 +1177,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1175,40 +1218,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
         <v>16</v>
       </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
       <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
         <v>17</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
         <v>16</v>
       </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" t="s">
-        <v>12</v>
-      </c>
       <c r="K13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1226,13 +1269,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1243,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1.666666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1257,10 +1300,10 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1271,7 +1314,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>2.416666666666667</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1282,13 +1325,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>2.5</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1296,10 +1339,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>2.75</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1310,13 +1353,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>3.166666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1324,13 +1367,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>3.166666666666667</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1338,10 +1381,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1352,13 +1395,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1366,13 +1409,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>3.583333333333333</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1380,13 +1423,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1394,13 +1437,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1418,16 +1461,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1438,10 +1481,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="D2">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -1452,16 +1495,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>3.666666666666667</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D3">
-        <v>-0.3333333333333335</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1469,16 +1512,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>3.583333333333333</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D4">
-        <v>-0.4166666666666665</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1486,13 +1529,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>3.583333333333333</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D5">
-        <v>0.5833333333333335</v>
+        <v>0.08333333333333304</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -1503,13 +1546,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>3.416666666666667</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>0.4166666666666665</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -1520,13 +1563,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>3.166666666666667</v>
+        <v>3.75</v>
       </c>
       <c r="D7">
-        <v>0.1666666666666665</v>
+        <v>-0.25</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -1537,13 +1580,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>3.083333333333333</v>
+        <v>3.5</v>
       </c>
       <c r="D8">
-        <v>0.08333333333333348</v>
+        <v>-0.5</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -1554,16 +1597,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>2.583333333333333</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D9">
-        <v>-0.4166666666666665</v>
+        <v>0.4166666666666665</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1571,13 +1614,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>2.583333333333333</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D10">
-        <v>0.5833333333333335</v>
+        <v>-0.1666666666666665</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1588,16 +1631,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>2.416666666666667</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D11">
-        <v>0.4166666666666665</v>
+        <v>0.8333333333333335</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1605,16 +1648,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>2.166666666666667</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="D12">
-        <v>0.1666666666666665</v>
+        <v>0.4166666666666665</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1625,13 +1668,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D13">
-        <v>-1.5</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1649,46 +1692,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1696,374 +1739,374 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>45.9</v>
+        <v>54.5</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="D2">
-        <v>12.6</v>
+        <v>10.2</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="F2">
-        <v>6.7</v>
+        <v>3.8</v>
       </c>
       <c r="G2">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="H2">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="J2">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K2">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="L2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>95.59999999999999</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>15.7</v>
+        <v>14.9</v>
       </c>
       <c r="C3">
-        <v>20.9</v>
+        <v>22.4</v>
       </c>
       <c r="D3">
-        <v>18.3</v>
+        <v>19.2</v>
       </c>
       <c r="E3">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>12.3</v>
+        <v>10.6</v>
       </c>
       <c r="G3">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="H3">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
       <c r="I3">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="K3">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N3">
-        <v>88.3</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>14.2</v>
+        <v>6.1</v>
       </c>
       <c r="C4">
         <v>16.2</v>
       </c>
       <c r="D4">
-        <v>15.9</v>
+        <v>17.1</v>
       </c>
       <c r="E4">
-        <v>14.9</v>
+        <v>16.9</v>
       </c>
       <c r="F4">
-        <v>11.4</v>
+        <v>15.1</v>
       </c>
       <c r="G4">
-        <v>11.2</v>
+        <v>9.9</v>
       </c>
       <c r="H4">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="I4">
-        <v>3.7</v>
+        <v>5.1</v>
       </c>
       <c r="J4">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="K4">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="L4">
         <v>0.6</v>
       </c>
       <c r="M4">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>83.8</v>
+        <v>81.3</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>7.3</v>
+        <v>11.9</v>
       </c>
       <c r="C5">
-        <v>14.5</v>
+        <v>16.3</v>
       </c>
       <c r="D5">
-        <v>13.3</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G5">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="H5">
-        <v>8.300000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="I5">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="J5">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L5">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="M5">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="N5">
-        <v>75.40000000000001</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>10.8</v>
+        <v>5.6</v>
       </c>
       <c r="C6">
-        <v>13.4</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>13.4</v>
+        <v>13</v>
       </c>
       <c r="E6">
-        <v>11.3</v>
+        <v>15.7</v>
       </c>
       <c r="F6">
-        <v>12.2</v>
+        <v>14.4</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>13.6</v>
       </c>
       <c r="H6">
-        <v>7.4</v>
+        <v>11.9</v>
       </c>
       <c r="I6">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J6">
-        <v>5.6</v>
+        <v>6.7</v>
       </c>
       <c r="K6">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="L6">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="M6">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="N6">
-        <v>72.09999999999999</v>
+        <v>69.3</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="C7">
+        <v>7.7</v>
+      </c>
+      <c r="D7">
+        <v>10.1</v>
+      </c>
+      <c r="E7">
+        <v>11.9</v>
+      </c>
+      <c r="F7">
+        <v>13.4</v>
+      </c>
+      <c r="G7">
+        <v>15.1</v>
+      </c>
+      <c r="H7">
+        <v>13.5</v>
+      </c>
+      <c r="I7">
+        <v>9.4</v>
+      </c>
+      <c r="J7">
+        <v>6.7</v>
+      </c>
+      <c r="K7">
         <v>5.9</v>
       </c>
-      <c r="D7">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="E7">
-        <v>13.1</v>
-      </c>
-      <c r="F7">
-        <v>11.4</v>
-      </c>
-      <c r="G7">
-        <v>13.4</v>
-      </c>
-      <c r="H7">
-        <v>14.2</v>
-      </c>
-      <c r="I7">
-        <v>10.2</v>
-      </c>
-      <c r="J7">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="K7">
-        <v>6</v>
-      </c>
       <c r="L7">
-        <v>4.3</v>
+        <v>2.1</v>
       </c>
       <c r="M7">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="N7">
-        <v>55</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>5.4</v>
       </c>
       <c r="D8">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="E8">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="F8">
-        <v>9.4</v>
+        <v>12.4</v>
       </c>
       <c r="G8">
-        <v>9.300000000000001</v>
+        <v>13</v>
       </c>
       <c r="H8">
-        <v>10.9</v>
+        <v>15.6</v>
       </c>
       <c r="I8">
-        <v>14.2</v>
+        <v>13.5</v>
       </c>
       <c r="J8">
-        <v>13.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K8">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="L8">
-        <v>7.8</v>
+        <v>2.7</v>
       </c>
       <c r="M8">
-        <v>5.7</v>
+        <v>1.4</v>
       </c>
       <c r="N8">
-        <v>38.8</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0.3</v>
+      </c>
+      <c r="C9">
+        <v>1.9</v>
+      </c>
+      <c r="D9">
+        <v>3.4</v>
+      </c>
+      <c r="E9">
+        <v>4.7</v>
+      </c>
+      <c r="F9">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="G9">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>0.7</v>
-      </c>
-      <c r="C9">
-        <v>2.3</v>
-      </c>
-      <c r="D9">
-        <v>3.7</v>
-      </c>
-      <c r="E9">
-        <v>6.1</v>
-      </c>
-      <c r="F9">
-        <v>7.5</v>
-      </c>
-      <c r="G9">
-        <v>8.5</v>
-      </c>
       <c r="H9">
-        <v>13.4</v>
+        <v>11.8</v>
       </c>
       <c r="I9">
-        <v>11.9</v>
+        <v>16.1</v>
       </c>
       <c r="J9">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="K9">
-        <v>12.8</v>
+        <v>14.1</v>
       </c>
       <c r="L9">
-        <v>10.7</v>
+        <v>9.5</v>
       </c>
       <c r="M9">
-        <v>9.9</v>
+        <v>4.4</v>
       </c>
       <c r="N9">
-        <v>28.8</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="C10">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="D10">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="F10">
-        <v>6.7</v>
+        <v>5.5</v>
       </c>
       <c r="G10">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H10">
         <v>11.6</v>
@@ -2072,63 +2115,63 @@
         <v>14.4</v>
       </c>
       <c r="J10">
-        <v>16.6</v>
+        <v>17.1</v>
       </c>
       <c r="K10">
-        <v>14</v>
+        <v>15.3</v>
       </c>
       <c r="L10">
-        <v>12</v>
+        <v>10.6</v>
       </c>
       <c r="M10">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="N10">
-        <v>24.8</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>0</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>0.4</v>
       </c>
-      <c r="C11">
-        <v>1.1</v>
-      </c>
       <c r="D11">
+        <v>0.9</v>
+      </c>
+      <c r="E11">
         <v>1.8</v>
-      </c>
-      <c r="E11">
-        <v>3.7</v>
       </c>
       <c r="F11">
         <v>4.6</v>
       </c>
       <c r="G11">
-        <v>7.2</v>
+        <v>5.7</v>
       </c>
       <c r="H11">
-        <v>8.699999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="I11">
-        <v>10.8</v>
+        <v>13.1</v>
       </c>
       <c r="J11">
-        <v>12.5</v>
+        <v>16.1</v>
       </c>
       <c r="K11">
-        <v>14.6</v>
+        <v>18.4</v>
       </c>
       <c r="L11">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="M11">
-        <v>18.4</v>
+        <v>14.1</v>
       </c>
       <c r="N11">
-        <v>18.8</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2136,43 +2179,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>2.1</v>
+        <v>0.1</v>
       </c>
       <c r="F12">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="G12">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>5.7</v>
+        <v>2.9</v>
       </c>
       <c r="I12">
-        <v>7.6</v>
+        <v>4.5</v>
       </c>
       <c r="J12">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="K12">
-        <v>15.3</v>
+        <v>13.7</v>
       </c>
       <c r="L12">
-        <v>21.8</v>
+        <v>24.8</v>
       </c>
       <c r="M12">
-        <v>27.8</v>
+        <v>43.2</v>
       </c>
       <c r="N12">
-        <v>10.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2180,43 +2223,43 @@
         <v>11</v>
       </c>
       <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.2</v>
+      </c>
+      <c r="E13">
         <v>0.1</v>
       </c>
-      <c r="C13">
-        <v>0.5</v>
-      </c>
-      <c r="D13">
-        <v>0.5</v>
-      </c>
-      <c r="E13">
-        <v>1.5</v>
-      </c>
       <c r="F13">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="G13">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H13">
-        <v>5.4</v>
+        <v>3.3</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>5.6</v>
       </c>
       <c r="J13">
-        <v>10.1</v>
+        <v>10.8</v>
       </c>
       <c r="K13">
-        <v>18.1</v>
+        <v>17.5</v>
       </c>
       <c r="L13">
-        <v>21.9</v>
+        <v>31.5</v>
       </c>
       <c r="M13">
-        <v>26.7</v>
+        <v>29.2</v>
       </c>
       <c r="N13">
-        <v>7.8</v>
+        <v>2.1</v>
       </c>
     </row>
   </sheetData>
@@ -2225,6 +2268,393 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="D2">
+        <v>98.8</v>
+      </c>
+      <c r="E2">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>99</v>
+      </c>
+      <c r="H2">
+        <v>99.8</v>
+      </c>
+      <c r="I2">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>38.9</v>
+      </c>
+      <c r="C3">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="D3">
+        <v>90.8</v>
+      </c>
+      <c r="E3">
+        <v>79.10000000000001</v>
+      </c>
+      <c r="F3">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="G3">
+        <v>90.8</v>
+      </c>
+      <c r="H3">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="I3">
+        <v>96.59999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C4">
+        <v>65.5</v>
+      </c>
+      <c r="D4">
+        <v>82.5</v>
+      </c>
+      <c r="E4">
+        <v>84.5</v>
+      </c>
+      <c r="F4">
+        <v>93</v>
+      </c>
+      <c r="G4">
+        <v>95.5</v>
+      </c>
+      <c r="H4">
+        <v>94.69999999999999</v>
+      </c>
+      <c r="I4">
+        <v>94.39999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>55.2</v>
+      </c>
+      <c r="C5">
+        <v>89.8</v>
+      </c>
+      <c r="D5">
+        <v>67.80000000000001</v>
+      </c>
+      <c r="E5">
+        <v>46.8</v>
+      </c>
+      <c r="F5">
+        <v>74.3</v>
+      </c>
+      <c r="G5">
+        <v>87.3</v>
+      </c>
+      <c r="H5">
+        <v>93.2</v>
+      </c>
+      <c r="I5">
+        <v>92.90000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="C6">
+        <v>63.1</v>
+      </c>
+      <c r="D6">
+        <v>68.5</v>
+      </c>
+      <c r="E6">
+        <v>71.89999999999999</v>
+      </c>
+      <c r="F6">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="G6">
+        <v>78.2</v>
+      </c>
+      <c r="H6">
+        <v>89.8</v>
+      </c>
+      <c r="I6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>86.8</v>
+      </c>
+      <c r="D7">
+        <v>96.3</v>
+      </c>
+      <c r="E7">
+        <v>98.5</v>
+      </c>
+      <c r="F7">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="G7">
+        <v>94.8</v>
+      </c>
+      <c r="H7">
+        <v>84.3</v>
+      </c>
+      <c r="I7">
+        <v>86.59999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>31.7</v>
+      </c>
+      <c r="C8">
+        <v>49.8</v>
+      </c>
+      <c r="D8">
+        <v>33.4</v>
+      </c>
+      <c r="E8">
+        <v>45</v>
+      </c>
+      <c r="F8">
+        <v>27.3</v>
+      </c>
+      <c r="G8">
+        <v>43.9</v>
+      </c>
+      <c r="H8">
+        <v>79</v>
+      </c>
+      <c r="I8">
+        <v>78.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>16.7</v>
+      </c>
+      <c r="C9">
+        <v>61.7</v>
+      </c>
+      <c r="D9">
+        <v>43.2</v>
+      </c>
+      <c r="E9">
+        <v>75</v>
+      </c>
+      <c r="F9">
+        <v>57.3</v>
+      </c>
+      <c r="G9">
+        <v>39</v>
+      </c>
+      <c r="H9">
+        <v>52.8</v>
+      </c>
+      <c r="I9">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>12.2</v>
+      </c>
+      <c r="C10">
+        <v>47.09999999999999</v>
+      </c>
+      <c r="D10">
+        <v>78.7</v>
+      </c>
+      <c r="E10">
+        <v>93</v>
+      </c>
+      <c r="F10">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="G10">
+        <v>62.2</v>
+      </c>
+      <c r="H10">
+        <v>52.7</v>
+      </c>
+      <c r="I10">
+        <v>49.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>99.3</v>
+      </c>
+      <c r="C11">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="D11">
+        <v>30.2</v>
+      </c>
+      <c r="E11">
+        <v>18.5</v>
+      </c>
+      <c r="F11">
+        <v>27.4</v>
+      </c>
+      <c r="G11">
+        <v>60.4</v>
+      </c>
+      <c r="H11">
+        <v>35.4</v>
+      </c>
+      <c r="I11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="C12">
+        <v>2.7</v>
+      </c>
+      <c r="D12">
+        <v>27.4</v>
+      </c>
+      <c r="E12">
+        <v>11.2</v>
+      </c>
+      <c r="F12">
+        <v>7.399999999999999</v>
+      </c>
+      <c r="G12">
+        <v>24.6</v>
+      </c>
+      <c r="H12">
+        <v>10.6</v>
+      </c>
+      <c r="I12">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="C13">
+        <v>79.60000000000001</v>
+      </c>
+      <c r="D13">
+        <v>82.39999999999999</v>
+      </c>
+      <c r="E13">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="F13">
+        <v>76.5</v>
+      </c>
+      <c r="G13">
+        <v>24.3</v>
+      </c>
+      <c r="H13">
+        <v>10.1</v>
+      </c>
+      <c r="I13">
+        <v>10.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -2234,28 +2664,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2263,311 +2693,311 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C2">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D2">
-        <v>141.9966666666667</v>
+        <v>139.7628571428571</v>
       </c>
       <c r="E2">
-        <v>851.98</v>
+        <v>978.34</v>
       </c>
       <c r="F2">
-        <v>98.59999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D3">
-        <v>126.4133333333333</v>
+        <v>137.7714285714286</v>
       </c>
       <c r="E3">
-        <v>758.48</v>
+        <v>964.4</v>
       </c>
       <c r="F3">
-        <v>96.5</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C4">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D4">
-        <v>128.5433333333333</v>
+        <v>127.4885714285714</v>
       </c>
       <c r="E4">
-        <v>771.26</v>
+        <v>892.4200000000001</v>
       </c>
       <c r="F4">
-        <v>94.59999999999999</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D5">
-        <v>127.51</v>
+        <v>135.86</v>
       </c>
       <c r="E5">
-        <v>765.0599999999999</v>
+        <v>951.0200000000001</v>
       </c>
       <c r="F5">
-        <v>89.8</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D6">
-        <v>135.5933333333333</v>
+        <v>123.06</v>
       </c>
       <c r="E6">
-        <v>813.5599999999999</v>
+        <v>861.4200000000001</v>
       </c>
       <c r="F6">
-        <v>86.7</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D7">
-        <v>120.08</v>
+        <v>124.2114285714286</v>
       </c>
       <c r="E7">
-        <v>720.48</v>
+        <v>869.48</v>
       </c>
       <c r="F7">
-        <v>79.40000000000001</v>
+        <v>84.7</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D8">
-        <v>118.4566666666667</v>
+        <v>120.6057142857143</v>
       </c>
       <c r="E8">
-        <v>710.74</v>
+        <v>844.24</v>
       </c>
       <c r="F8">
-        <v>63.9</v>
+        <v>78.7</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C9">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D9">
-        <v>122.4066666666667</v>
+        <v>116.68</v>
       </c>
       <c r="E9">
-        <v>734.4400000000001</v>
+        <v>816.76</v>
       </c>
       <c r="F9">
-        <v>54.1</v>
+        <v>55.50000000000001</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D10">
-        <v>114.7866666666667</v>
+        <v>118.5857142857143</v>
       </c>
       <c r="E10">
-        <v>688.72</v>
+        <v>830.1</v>
       </c>
       <c r="F10">
-        <v>50.8</v>
+        <v>51.2</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C11">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D11">
-        <v>113.7633333333333</v>
+        <v>119.1257142857143</v>
       </c>
       <c r="E11">
-        <v>682.5799999999999</v>
+        <v>833.8800000000001</v>
       </c>
       <c r="F11">
-        <v>38.3</v>
+        <v>35.4</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C12">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D12">
-        <v>109.8466666666666</v>
+        <v>103.8057142857143</v>
       </c>
       <c r="E12">
-        <v>659.08</v>
+        <v>726.64</v>
       </c>
       <c r="F12">
-        <v>24.1</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C13">
-        <v>0.5</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D13">
-        <v>104.7266666666667</v>
+        <v>107.16</v>
       </c>
       <c r="E13">
-        <v>628.36</v>
+        <v>750.1199999999999</v>
       </c>
       <c r="F13">
-        <v>23.2</v>
+        <v>10.9</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2575,7 +3005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -2585,19 +3015,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2608,16 +3038,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2628,16 +3058,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2648,16 +3078,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2665,19 +3095,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2685,19 +3115,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2708,16 +3138,16 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2725,19 +3155,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2745,19 +3175,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2765,19 +3195,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D10">
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2785,19 +3215,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D11">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2808,16 +3238,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D12">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2828,16 +3258,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D13">
-        <v>-30</v>
+        <v>-29</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2845,9 +3275,396 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>27</v>
+      </c>
+      <c r="F2">
+        <v>35</v>
+      </c>
+      <c r="G2">
+        <v>31</v>
+      </c>
+      <c r="H2">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>-3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>-2</v>
+      </c>
+      <c r="C4">
+        <v>-2</v>
+      </c>
+      <c r="D4">
+        <v>-7</v>
+      </c>
+      <c r="E4">
+        <v>-2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>-2</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>-4</v>
+      </c>
+      <c r="C6">
+        <v>-3</v>
+      </c>
+      <c r="D6">
+        <v>-6</v>
+      </c>
+      <c r="E6">
+        <v>-6</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>-8</v>
+      </c>
+      <c r="C7">
+        <v>-7</v>
+      </c>
+      <c r="D7">
+        <v>-4</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>-1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>-2</v>
+      </c>
+      <c r="C10">
+        <v>-5</v>
+      </c>
+      <c r="D10">
+        <v>-4</v>
+      </c>
+      <c r="E10">
+        <v>-8</v>
+      </c>
+      <c r="F10">
+        <v>-10</v>
+      </c>
+      <c r="G10">
+        <v>-12</v>
+      </c>
+      <c r="H10">
+        <v>-9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>-5</v>
+      </c>
+      <c r="F11">
+        <v>-11</v>
+      </c>
+      <c r="G11">
+        <v>-11</v>
+      </c>
+      <c r="H11">
+        <v>-10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>-3</v>
+      </c>
+      <c r="C12">
+        <v>-2</v>
+      </c>
+      <c r="D12">
+        <v>-9</v>
+      </c>
+      <c r="E12">
+        <v>-7</v>
+      </c>
+      <c r="F12">
+        <v>-15</v>
+      </c>
+      <c r="G12">
+        <v>-19</v>
+      </c>
+      <c r="H12">
+        <v>-18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>-6</v>
+      </c>
+      <c r="C13">
+        <v>-11</v>
+      </c>
+      <c r="D13">
+        <v>-15</v>
+      </c>
+      <c r="E13">
+        <v>-19</v>
+      </c>
+      <c r="F13">
+        <v>-28</v>
+      </c>
+      <c r="G13">
+        <v>-30</v>
+      </c>
+      <c r="H13">
+        <v>-29</v>
+      </c>
+      <c r="I13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2855,373 +3672,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>27</v>
-      </c>
-      <c r="F2">
-        <v>35</v>
-      </c>
-      <c r="G2">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>-3</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>-2</v>
-      </c>
-      <c r="C4">
-        <v>-2</v>
-      </c>
-      <c r="D4">
-        <v>-7</v>
-      </c>
-      <c r="E4">
-        <v>-2</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-      <c r="H5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>-1</v>
-      </c>
-      <c r="C6">
-        <v>-2</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>-8</v>
-      </c>
-      <c r="C7">
-        <v>-7</v>
-      </c>
-      <c r="D7">
-        <v>-4</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>8</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="H7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>11</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>-4</v>
-      </c>
-      <c r="C9">
-        <v>-3</v>
-      </c>
-      <c r="D9">
-        <v>-6</v>
-      </c>
-      <c r="E9">
-        <v>-6</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>-5</v>
-      </c>
-      <c r="F10">
-        <v>-11</v>
-      </c>
-      <c r="G10">
-        <v>-11</v>
-      </c>
-      <c r="H10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>-2</v>
-      </c>
-      <c r="C11">
-        <v>-5</v>
-      </c>
-      <c r="D11">
-        <v>-4</v>
-      </c>
-      <c r="E11">
-        <v>-8</v>
-      </c>
-      <c r="F11">
-        <v>-10</v>
-      </c>
-      <c r="G11">
-        <v>-12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>-3</v>
-      </c>
-      <c r="C12">
-        <v>-2</v>
-      </c>
-      <c r="D12">
-        <v>-9</v>
-      </c>
-      <c r="E12">
-        <v>-7</v>
-      </c>
-      <c r="F12">
-        <v>-15</v>
-      </c>
-      <c r="G12">
-        <v>-19</v>
-      </c>
-      <c r="H12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>-6</v>
-      </c>
-      <c r="C13">
-        <v>-11</v>
-      </c>
-      <c r="D13">
-        <v>-15</v>
-      </c>
-      <c r="E13">
-        <v>-19</v>
-      </c>
-      <c r="F13">
-        <v>-28</v>
-      </c>
-      <c r="G13">
-        <v>-30</v>
-      </c>
-      <c r="H13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3255,25 +3724,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>-15</v>
-      </c>
       <c r="F3">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3281,25 +3750,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>-11</v>
+        <v>-15</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3307,25 +3776,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>-11</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
         <v>9</v>
-      </c>
-      <c r="F5">
-        <v>-2</v>
-      </c>
-      <c r="G5">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3336,22 +3805,22 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>-7</v>
+        <v>9</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="G6">
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3359,25 +3828,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>-19</v>
+        <v>-7</v>
       </c>
       <c r="F7">
-        <v>-30</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3385,25 +3854,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>-19</v>
       </c>
       <c r="F8">
-        <v>-2</v>
+        <v>-30</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3411,25 +3880,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="G9">
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3437,25 +3906,25 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>-6</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>7</v>
-      </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3463,25 +3932,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="F11">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3489,25 +3958,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3515,24 +3984,50 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
         <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>6</v>
       </c>
       <c r="G13">
         <v>4</v>
       </c>
       <c r="H13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
         <v>8</v>
       </c>
     </row>

--- a/leagues/The Mike Daisy Sports IQ League 2025.xlsx
+++ b/leagues/The Mike Daisy Sports IQ League 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="115">
   <si>
     <t>Njigba's in Paris</t>
   </si>
@@ -180,6 +180,9 @@
     <t>Playoff_Chance_Pct</t>
   </si>
   <si>
+    <t>Last_Place_Chance_Pct</t>
+  </si>
+  <si>
     <t>Expected_Final_Record</t>
   </si>
   <si>
@@ -198,7 +201,7 @@
     <t>2-5</t>
   </si>
   <si>
-    <t>9.5-4.4</t>
+    <t>9.6-4.4</t>
   </si>
   <si>
     <t>8.3-5.7</t>
@@ -207,36 +210,39 @@
     <t>8.1-5.8-0.1</t>
   </si>
   <si>
-    <t>7.9-6.1</t>
+    <t>7.8-6.1</t>
   </si>
   <si>
     <t>7.8-6.2-0.1</t>
   </si>
   <si>
-    <t>7.4-6.6</t>
-  </si>
-  <si>
-    <t>7.2-6.8</t>
-  </si>
-  <si>
-    <t>6.4-7.5</t>
-  </si>
-  <si>
-    <t>6.1-7.8</t>
-  </si>
-  <si>
-    <t>5.4-8.5</t>
-  </si>
-  <si>
-    <t>5.0-8.9-0.1</t>
+    <t>7.4-6.5-0.1</t>
+  </si>
+  <si>
+    <t>7.2-6.8-0.1</t>
+  </si>
+  <si>
+    <t>6.4-7.6</t>
+  </si>
+  <si>
+    <t>6.1-7.9</t>
+  </si>
+  <si>
+    <t>5.5-8.5</t>
   </si>
   <si>
     <t>4.6-9.4</t>
   </si>
   <si>
+    <t>5.0-8.9</t>
+  </si>
+  <si>
     <t>10-4</t>
   </si>
   <si>
+    <t>9-5</t>
+  </si>
+  <si>
     <t>8-6</t>
   </si>
   <si>
@@ -246,10 +252,10 @@
     <t>6-8</t>
   </si>
   <si>
+    <t>4-10</t>
+  </si>
+  <si>
     <t>5-9</t>
-  </si>
-  <si>
-    <t>4-10</t>
   </si>
   <si>
     <t>Owners</t>
@@ -1745,28 +1751,28 @@
         <v>20.1</v>
       </c>
       <c r="D2">
-        <v>10.2</v>
+        <v>11.3</v>
       </c>
       <c r="E2">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="G2">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J2">
         <v>0.6</v>
       </c>
       <c r="K2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1775,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1783,43 +1789,43 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="C3">
-        <v>22.4</v>
+        <v>21.5</v>
       </c>
       <c r="D3">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>13.7</v>
       </c>
       <c r="F3">
-        <v>10.6</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="H3">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="J3">
+        <v>2.6</v>
+      </c>
+      <c r="K3">
         <v>1.7</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="M3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>88.5</v>
+        <v>87.7</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1827,43 +1833,43 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="C4">
-        <v>16.2</v>
+        <v>17.2</v>
       </c>
       <c r="D4">
-        <v>17.1</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>16.9</v>
+        <v>15.5</v>
       </c>
       <c r="F4">
-        <v>15.1</v>
+        <v>12.2</v>
       </c>
       <c r="G4">
-        <v>9.9</v>
+        <v>11.9</v>
       </c>
       <c r="H4">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="I4">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="J4">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="K4">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="L4">
         <v>0.6</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N4">
-        <v>81.3</v>
+        <v>83.2</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1871,43 +1877,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.9</v>
+        <v>13.3</v>
       </c>
       <c r="C5">
-        <v>16.3</v>
+        <v>15.4</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>13.4</v>
       </c>
       <c r="E5">
-        <v>15.4</v>
+        <v>14.2</v>
       </c>
       <c r="F5">
-        <v>9.800000000000001</v>
+        <v>12.7</v>
       </c>
       <c r="G5">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="H5">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="I5">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="J5">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="K5">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L5">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="M5">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N5">
-        <v>80</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1915,43 +1921,43 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>5.6</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>11.7</v>
       </c>
       <c r="E6">
-        <v>15.7</v>
+        <v>14.4</v>
       </c>
       <c r="F6">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="G6">
-        <v>13.6</v>
+        <v>13.9</v>
       </c>
       <c r="H6">
-        <v>11.9</v>
+        <v>12.9</v>
       </c>
       <c r="I6">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J6">
-        <v>6.7</v>
+        <v>5.5</v>
       </c>
       <c r="K6">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="L6">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="N6">
-        <v>69.3</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1959,43 +1965,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="D7">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="E7">
-        <v>11.9</v>
+        <v>14.1</v>
       </c>
       <c r="F7">
-        <v>13.4</v>
+        <v>14.2</v>
       </c>
       <c r="G7">
-        <v>15.1</v>
+        <v>13.3</v>
       </c>
       <c r="H7">
-        <v>13.5</v>
+        <v>12.9</v>
       </c>
       <c r="I7">
-        <v>9.4</v>
+        <v>10.7</v>
       </c>
       <c r="J7">
         <v>6.7</v>
       </c>
       <c r="K7">
-        <v>5.9</v>
+        <v>4.8</v>
       </c>
       <c r="L7">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="M7">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="N7">
-        <v>61.8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2003,43 +2009,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="C8">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="D8">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F8">
-        <v>12.4</v>
+        <v>13.6</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="H8">
-        <v>15.6</v>
+        <v>16.9</v>
       </c>
       <c r="I8">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="J8">
-        <v>9.699999999999999</v>
+        <v>11.4</v>
       </c>
       <c r="K8">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="L8">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="M8">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="N8">
-        <v>49.6</v>
+        <v>49.2</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2047,43 +2053,43 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>3.4</v>
       </c>
       <c r="E9">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="F9">
-        <v>8.300000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H9">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="I9">
-        <v>16.1</v>
+        <v>16.4</v>
       </c>
       <c r="J9">
-        <v>16.5</v>
+        <v>15.3</v>
       </c>
       <c r="K9">
-        <v>14.1</v>
+        <v>13.3</v>
       </c>
       <c r="L9">
-        <v>9.5</v>
+        <v>10.8</v>
       </c>
       <c r="M9">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="N9">
-        <v>27.6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2091,43 +2097,43 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="C10">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="E10">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="F10">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="G10">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H10">
-        <v>11.6</v>
+        <v>11</v>
       </c>
       <c r="I10">
-        <v>14.4</v>
+        <v>15.3</v>
       </c>
       <c r="J10">
-        <v>17.1</v>
+        <v>14.6</v>
       </c>
       <c r="K10">
-        <v>15.3</v>
+        <v>18.1</v>
       </c>
       <c r="L10">
-        <v>10.6</v>
+        <v>11.2</v>
       </c>
       <c r="M10">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="N10">
-        <v>25.2</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2135,48 +2141,48 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C11">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="D11">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="E11">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="F11">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="G11">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="H11">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I11">
-        <v>13.1</v>
+        <v>11.7</v>
       </c>
       <c r="J11">
-        <v>16.1</v>
+        <v>14.2</v>
       </c>
       <c r="K11">
-        <v>18.4</v>
+        <v>17.5</v>
       </c>
       <c r="L11">
-        <v>16</v>
+        <v>18.7</v>
       </c>
       <c r="M11">
-        <v>14.1</v>
+        <v>13.5</v>
       </c>
       <c r="N11">
-        <v>13.4</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2185,81 +2191,81 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E12">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="F12">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H12">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="I12">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J12">
-        <v>7.4</v>
+        <v>11.8</v>
       </c>
       <c r="K12">
-        <v>13.7</v>
+        <v>17.4</v>
       </c>
       <c r="L12">
-        <v>24.8</v>
+        <v>30.1</v>
       </c>
       <c r="M12">
-        <v>43.2</v>
+        <v>30.5</v>
       </c>
       <c r="N12">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D13">
+        <v>0.1</v>
+      </c>
+      <c r="E13">
         <v>0.2</v>
       </c>
-      <c r="E13">
-        <v>0.1</v>
-      </c>
       <c r="F13">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H13">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I13">
         <v>5.6</v>
       </c>
       <c r="J13">
-        <v>10.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K13">
-        <v>17.5</v>
+        <v>13.2</v>
       </c>
       <c r="L13">
-        <v>31.5</v>
+        <v>22.6</v>
       </c>
       <c r="M13">
-        <v>29.2</v>
+        <v>43.2</v>
       </c>
       <c r="N13">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
     </row>
   </sheetData>
@@ -2309,25 +2315,25 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>91.90000000000001</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="D2">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="E2">
+        <v>99.7</v>
+      </c>
+      <c r="F2">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G2">
         <v>98.8</v>
       </c>
-      <c r="E2">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
+      <c r="H2">
+        <v>99.5</v>
+      </c>
+      <c r="I2">
         <v>99</v>
-      </c>
-      <c r="H2">
-        <v>99.8</v>
-      </c>
-      <c r="I2">
-        <v>99.7</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2335,28 +2341,28 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>38.9</v>
+        <v>37.3</v>
       </c>
       <c r="C3">
-        <v>76.40000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="D3">
-        <v>90.8</v>
+        <v>92.2</v>
       </c>
       <c r="E3">
-        <v>79.10000000000001</v>
+        <v>78.10000000000001</v>
       </c>
       <c r="F3">
-        <v>75.90000000000001</v>
+        <v>75.2</v>
       </c>
       <c r="G3">
-        <v>90.8</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="H3">
-        <v>97.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="I3">
-        <v>96.59999999999999</v>
+        <v>95.3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2367,25 +2373,25 @@
         <v>99.90000000000001</v>
       </c>
       <c r="C4">
-        <v>65.5</v>
+        <v>67.5</v>
       </c>
       <c r="D4">
-        <v>82.5</v>
+        <v>79.2</v>
       </c>
       <c r="E4">
-        <v>84.5</v>
+        <v>84.89999999999999</v>
       </c>
       <c r="F4">
-        <v>93</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="G4">
-        <v>95.5</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="H4">
-        <v>94.69999999999999</v>
+        <v>95</v>
       </c>
       <c r="I4">
-        <v>94.39999999999999</v>
+        <v>95.09999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2393,28 +2399,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55.2</v>
+        <v>57.8</v>
       </c>
       <c r="C5">
-        <v>89.8</v>
+        <v>88</v>
       </c>
       <c r="D5">
-        <v>67.80000000000001</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E5">
-        <v>46.8</v>
+        <v>47.5</v>
       </c>
       <c r="F5">
-        <v>74.3</v>
+        <v>71.7</v>
       </c>
       <c r="G5">
-        <v>87.3</v>
+        <v>88.5</v>
       </c>
       <c r="H5">
-        <v>93.2</v>
+        <v>93</v>
       </c>
       <c r="I5">
-        <v>92.90000000000001</v>
+        <v>93.30000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2422,28 +2428,28 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>82.59999999999999</v>
+        <v>83</v>
       </c>
       <c r="C6">
-        <v>63.1</v>
+        <v>61.2</v>
       </c>
       <c r="D6">
-        <v>68.5</v>
+        <v>68.89999999999999</v>
       </c>
       <c r="E6">
-        <v>71.89999999999999</v>
+        <v>70.89999999999999</v>
       </c>
       <c r="F6">
-        <v>71.59999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="G6">
-        <v>78.2</v>
+        <v>78.3</v>
       </c>
       <c r="H6">
-        <v>89.8</v>
+        <v>91</v>
       </c>
       <c r="I6">
-        <v>90</v>
+        <v>91.90000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2454,25 +2460,25 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>86.8</v>
+        <v>88.2</v>
       </c>
       <c r="D7">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="E7">
-        <v>98.5</v>
+        <v>98.3</v>
       </c>
       <c r="F7">
-        <v>98.40000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="G7">
-        <v>94.8</v>
+        <v>95</v>
       </c>
       <c r="H7">
-        <v>84.3</v>
+        <v>85.2</v>
       </c>
       <c r="I7">
-        <v>86.59999999999999</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2480,28 +2486,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31.7</v>
+        <v>32.1</v>
       </c>
       <c r="C8">
-        <v>49.8</v>
+        <v>45.6</v>
       </c>
       <c r="D8">
-        <v>33.4</v>
+        <v>35.7</v>
       </c>
       <c r="E8">
-        <v>45</v>
+        <v>41.5</v>
       </c>
       <c r="F8">
-        <v>27.3</v>
+        <v>28.6</v>
       </c>
       <c r="G8">
-        <v>43.9</v>
+        <v>47.2</v>
       </c>
       <c r="H8">
-        <v>79</v>
+        <v>78.2</v>
       </c>
       <c r="I8">
-        <v>78.8</v>
+        <v>78.60000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2509,28 +2515,28 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>16.7</v>
+        <v>16.2</v>
       </c>
       <c r="C9">
-        <v>61.7</v>
+        <v>66.3</v>
       </c>
       <c r="D9">
-        <v>43.2</v>
+        <v>44.8</v>
       </c>
       <c r="E9">
-        <v>75</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F9">
-        <v>57.3</v>
+        <v>59</v>
       </c>
       <c r="G9">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="H9">
-        <v>52.8</v>
+        <v>52.2</v>
       </c>
       <c r="I9">
-        <v>53.5</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2538,28 +2544,28 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>12.2</v>
+        <v>11.6</v>
       </c>
       <c r="C10">
+        <v>47.8</v>
+      </c>
+      <c r="D10">
+        <v>79</v>
+      </c>
+      <c r="E10">
+        <v>94.39999999999999</v>
+      </c>
+      <c r="F10">
+        <v>90.2</v>
+      </c>
+      <c r="G10">
+        <v>63.3</v>
+      </c>
+      <c r="H10">
+        <v>49.1</v>
+      </c>
+      <c r="I10">
         <v>47.09999999999999</v>
-      </c>
-      <c r="D10">
-        <v>78.7</v>
-      </c>
-      <c r="E10">
-        <v>93</v>
-      </c>
-      <c r="F10">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="G10">
-        <v>62.2</v>
-      </c>
-      <c r="H10">
-        <v>52.7</v>
-      </c>
-      <c r="I10">
-        <v>49.8</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2567,28 +2573,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="C11">
-        <v>85.59999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="D11">
-        <v>30.2</v>
+        <v>28.1</v>
       </c>
       <c r="E11">
-        <v>18.5</v>
+        <v>20.7</v>
       </c>
       <c r="F11">
-        <v>27.4</v>
+        <v>25.1</v>
       </c>
       <c r="G11">
-        <v>60.4</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="H11">
-        <v>35.4</v>
+        <v>36.8</v>
       </c>
       <c r="I11">
-        <v>35</v>
+        <v>34.2</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2596,28 +2602,28 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>66.90000000000001</v>
+        <v>65</v>
       </c>
       <c r="C12">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="D12">
-        <v>27.4</v>
+        <v>30.3</v>
       </c>
       <c r="E12">
-        <v>11.2</v>
+        <v>12.8</v>
       </c>
       <c r="F12">
         <v>7.399999999999999</v>
       </c>
       <c r="G12">
-        <v>24.6</v>
+        <v>22.8</v>
       </c>
       <c r="H12">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="I12">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2625,28 +2631,28 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>96.59999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C13">
-        <v>79.60000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="D13">
-        <v>82.39999999999999</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="E13">
-        <v>76.90000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="F13">
-        <v>76.5</v>
+        <v>77.60000000000001</v>
       </c>
       <c r="G13">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="H13">
-        <v>10.1</v>
+        <v>13.1</v>
       </c>
       <c r="I13">
-        <v>10.1</v>
+        <v>11.4</v>
       </c>
     </row>
   </sheetData>
@@ -2656,13 +2662,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -2687,13 +2693,16 @@
       <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2">
         <v>0.7142857142857143</v>
@@ -2705,21 +2714,24 @@
         <v>978.34</v>
       </c>
       <c r="F2">
-        <v>99.2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>58</v>
+        <v>99.3</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3">
         <v>0.5714285714285714</v>
@@ -2731,21 +2743,24 @@
         <v>964.4</v>
       </c>
       <c r="F3">
-        <v>96.39999999999999</v>
-      </c>
-      <c r="G3" t="s">
-        <v>59</v>
+        <v>95.5</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4">
         <v>0.5714285714285714</v>
@@ -2757,21 +2772,24 @@
         <v>892.4200000000001</v>
       </c>
       <c r="F4">
-        <v>94.19999999999999</v>
-      </c>
-      <c r="G4" t="s">
-        <v>60</v>
+        <v>94.89999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.4</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5">
         <v>0.5714285714285714</v>
@@ -2783,21 +2801,24 @@
         <v>951.0200000000001</v>
       </c>
       <c r="F5">
-        <v>93.40000000000001</v>
-      </c>
-      <c r="G5" t="s">
-        <v>61</v>
+        <v>91.90000000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.2</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6">
         <v>0.5714285714285714</v>
@@ -2809,21 +2830,24 @@
         <v>861.4200000000001</v>
       </c>
       <c r="F6">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="G6" t="s">
-        <v>62</v>
+        <v>90.10000000000001</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7">
         <v>0.5714285714285714</v>
@@ -2835,21 +2859,24 @@
         <v>869.48</v>
       </c>
       <c r="F7">
-        <v>84.7</v>
-      </c>
-      <c r="G7" t="s">
-        <v>63</v>
+        <v>86.59999999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.2</v>
       </c>
       <c r="H7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <v>0.5714285714285714</v>
@@ -2861,21 +2888,24 @@
         <v>844.24</v>
       </c>
       <c r="F8">
-        <v>78.7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>64</v>
+        <v>78.60000000000001</v>
+      </c>
+      <c r="G8">
+        <v>0.3</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9">
         <v>0.4285714285714285</v>
@@ -2889,19 +2919,22 @@
       <c r="F9">
         <v>55.50000000000001</v>
       </c>
-      <c r="G9" t="s">
-        <v>65</v>
+      <c r="G9">
+        <v>5.1</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10">
         <v>0.4285714285714285</v>
@@ -2913,21 +2946,24 @@
         <v>830.1</v>
       </c>
       <c r="F10">
-        <v>51.2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>66</v>
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>6.1</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11">
         <v>0.2857142857142857</v>
@@ -2939,65 +2975,74 @@
         <v>833.8800000000001</v>
       </c>
       <c r="F11">
-        <v>35.4</v>
-      </c>
-      <c r="G11" t="s">
-        <v>67</v>
+        <v>36.1</v>
+      </c>
+      <c r="G11">
+        <v>13.5</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D12">
+        <v>107.16</v>
+      </c>
+      <c r="E12">
+        <v>750.1199999999999</v>
+      </c>
+      <c r="F12">
+        <v>11.3</v>
+      </c>
+      <c r="G12">
+        <v>43.2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="D12">
-        <v>103.8057142857143</v>
-      </c>
-      <c r="E12">
-        <v>726.64</v>
-      </c>
-      <c r="F12">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>57</v>
       </c>
       <c r="C13">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D13">
-        <v>107.16</v>
+        <v>103.8057142857143</v>
       </c>
       <c r="E13">
-        <v>750.1199999999999</v>
+        <v>726.64</v>
       </c>
       <c r="F13">
-        <v>10.9</v>
-      </c>
-      <c r="G13" t="s">
-        <v>69</v>
+        <v>10.2</v>
+      </c>
+      <c r="G13">
+        <v>30.5</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>70</v>
+      </c>
+      <c r="I13" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3018,16 +3063,16 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3038,7 +3083,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D2">
         <v>27</v>
@@ -3047,7 +3092,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3058,7 +3103,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D3">
         <v>18</v>
@@ -3067,7 +3112,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3078,7 +3123,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D4">
         <v>7</v>
@@ -3087,7 +3132,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3098,7 +3143,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -3107,7 +3152,7 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3118,7 +3163,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -3127,7 +3172,7 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3138,7 +3183,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -3147,7 +3192,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3158,7 +3203,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -3167,7 +3212,7 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3178,7 +3223,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D9">
         <v>-1</v>
@@ -3187,7 +3232,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3198,7 +3243,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D10">
         <v>-9</v>
@@ -3207,7 +3252,7 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3218,7 +3263,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D11">
         <v>-10</v>
@@ -3227,7 +3272,7 @@
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3238,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D12">
         <v>-18</v>
@@ -3247,7 +3292,7 @@
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3258,7 +3303,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D13">
         <v>-29</v>
@@ -3267,7 +3312,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3285,28 +3330,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3335,7 +3380,7 @@
         <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3364,7 +3409,7 @@
         <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3393,7 +3438,7 @@
         <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3422,7 +3467,7 @@
         <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3451,7 +3496,7 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3480,7 +3525,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3509,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3538,7 +3583,7 @@
         <v>-1</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3567,7 +3612,7 @@
         <v>-9</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3596,7 +3641,7 @@
         <v>-10</v>
       </c>
       <c r="I11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3625,7 +3670,7 @@
         <v>-18</v>
       </c>
       <c r="I12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3654,7 +3699,7 @@
         <v>-29</v>
       </c>
       <c r="I13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3672,25 +3717,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/The Mike Daisy Sports IQ League 2025.xlsx
+++ b/leagues/The Mike Daisy Sports IQ League 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="117">
   <si>
     <t>Njigba's in Paris</t>
   </si>
@@ -60,28 +60,28 @@
     <t>Matt Gay Team</t>
   </si>
   <si>
-    <t>3-4-0</t>
-  </si>
-  <si>
-    <t>5-2-0</t>
-  </si>
-  <si>
-    <t>4-3-0</t>
-  </si>
-  <si>
-    <t>6-1-0</t>
-  </si>
-  <si>
-    <t>2-5-0</t>
-  </si>
-  <si>
-    <t>1-6-0</t>
-  </si>
-  <si>
-    <t>0-7-0</t>
-  </si>
-  <si>
-    <t>7-0-0</t>
+    <t>3-5-0</t>
+  </si>
+  <si>
+    <t>5-3-0</t>
+  </si>
+  <si>
+    <t>4-4-0</t>
+  </si>
+  <si>
+    <t>7-1-0</t>
+  </si>
+  <si>
+    <t>2-6-0</t>
+  </si>
+  <si>
+    <t>6-2-0</t>
+  </si>
+  <si>
+    <t>1-7-0</t>
+  </si>
+  <si>
+    <t>0-8-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -165,6 +165,9 @@
     <t>Week_8</t>
   </si>
   <si>
+    <t>Week_9</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -189,52 +192,52 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>5-2</t>
-  </si>
-  <si>
-    <t>4-3</t>
-  </si>
-  <si>
-    <t>3-4</t>
-  </si>
-  <si>
-    <t>2-5</t>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>4-4</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>2-6</t>
   </si>
   <si>
     <t>9.6-4.4</t>
   </si>
   <si>
-    <t>8.3-5.7</t>
-  </si>
-  <si>
-    <t>8.1-5.8-0.1</t>
-  </si>
-  <si>
-    <t>7.8-6.1</t>
-  </si>
-  <si>
-    <t>7.8-6.2-0.1</t>
-  </si>
-  <si>
-    <t>7.4-6.5-0.1</t>
-  </si>
-  <si>
-    <t>7.2-6.8-0.1</t>
-  </si>
-  <si>
-    <t>6.4-7.6</t>
-  </si>
-  <si>
-    <t>6.1-7.9</t>
-  </si>
-  <si>
-    <t>5.5-8.5</t>
-  </si>
-  <si>
-    <t>4.6-9.4</t>
-  </si>
-  <si>
-    <t>5.0-8.9</t>
+    <t>8.7-5.3</t>
+  </si>
+  <si>
+    <t>8.4-5.5-0.1</t>
+  </si>
+  <si>
+    <t>8.2-5.7</t>
+  </si>
+  <si>
+    <t>7.7-6.2</t>
+  </si>
+  <si>
+    <t>6.7-7.3</t>
+  </si>
+  <si>
+    <t>6.7-7.3-0.1</t>
+  </si>
+  <si>
+    <t>6.2-7.8</t>
+  </si>
+  <si>
+    <t>5.9-8.1</t>
+  </si>
+  <si>
+    <t>4.8-9.2-0.1</t>
+  </si>
+  <si>
+    <t>4.2-9.8</t>
   </si>
   <si>
     <t>10-4</t>
@@ -252,12 +255,12 @@
     <t>6-8</t>
   </si>
   <si>
+    <t>5-9</t>
+  </si>
+  <si>
     <t>4-10</t>
   </si>
   <si>
-    <t>5-9</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -303,28 +306,28 @@
     <t>Matt Peiffer</t>
   </si>
   <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↑1</t>
+    <t>↓9</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -346,6 +349,9 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
   </si>
   <si>
     <t>Week</t>
@@ -803,7 +809,7 @@
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
         <v>14</v>
@@ -817,13 +823,13 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -832,13 +838,13 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
@@ -847,7 +853,7 @@
         <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -858,16 +864,16 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -876,19 +882,19 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L4" t="s">
         <v>12</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -896,19 +902,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -917,19 +923,19 @@
         <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L5" t="s">
         <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -940,37 +946,37 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -981,13 +987,13 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -1011,7 +1017,7 @@
         <v>12</v>
       </c>
       <c r="M7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1022,16 +1028,16 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
@@ -1046,13 +1052,13 @@
         <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
       </c>
       <c r="M8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1063,37 +1069,37 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1104,31 +1110,31 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
         <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -1142,40 +1148,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1186,13 +1192,13 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
@@ -1210,13 +1216,13 @@
         <v>12</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L12" t="s">
         <v>16</v>
       </c>
       <c r="M12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1227,22 +1233,22 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
       </c>
       <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
         <v>18</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
@@ -1254,7 +1260,7 @@
         <v>16</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M13" t="s">
         <v>12</v>
@@ -1289,13 +1295,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1303,13 +1309,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2.5</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1317,10 +1323,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>2.833333333333333</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1331,13 +1337,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>3.166666666666667</v>
+        <v>3.75</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1345,10 +1351,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>3.416666666666667</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1359,13 +1365,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>3.5</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1373,13 +1379,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>3.666666666666667</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1387,10 +1393,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>3.75</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1401,13 +1407,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1415,13 +1421,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>4.083333333333333</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1429,13 +1435,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>4.25</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1443,10 +1449,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>4.333333333333333</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -1484,13 +1490,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>4.75</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D2">
-        <v>-0.25</v>
+        <v>0.08333333333333304</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -1501,16 +1507,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>4.416666666666667</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>0.416666666666667</v>
+        <v>-1</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1518,16 +1524,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>4.333333333333333</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1538,13 +1544,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>4.083333333333333</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D5">
-        <v>0.08333333333333304</v>
+        <v>-0.08333333333333304</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1552,13 +1558,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -1569,13 +1575,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>3.75</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D7">
-        <v>-0.25</v>
+        <v>0.08333333333333304</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -1586,13 +1592,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -1603,16 +1609,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>3.416666666666667</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D9">
-        <v>0.4166666666666665</v>
+        <v>-0.08333333333333348</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1620,13 +1626,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>2.833333333333333</v>
+        <v>3.75</v>
       </c>
       <c r="D10">
-        <v>-0.1666666666666665</v>
+        <v>0.75</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1637,16 +1643,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2.833333333333333</v>
       </c>
       <c r="D11">
-        <v>0.8333333333333335</v>
+        <v>-0.1666666666666665</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1657,10 +1663,10 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>2.416666666666667</v>
+        <v>2.75</v>
       </c>
       <c r="D12">
-        <v>0.4166666666666665</v>
+        <v>0.75</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
@@ -1674,10 +1680,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.666666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="D13">
-        <v>-1.333333333333333</v>
+        <v>-1.25</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -1745,34 +1751,34 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>54.5</v>
+        <v>50.7</v>
       </c>
       <c r="C2">
-        <v>20.1</v>
+        <v>20.6</v>
       </c>
       <c r="D2">
-        <v>11.3</v>
+        <v>12.2</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="F2">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="G2">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H2">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="I2">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="J2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="K2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1781,183 +1787,183 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>97.8</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C3">
-        <v>21.5</v>
+        <v>21.2</v>
       </c>
       <c r="D3">
-        <v>18.7</v>
+        <v>21.1</v>
       </c>
       <c r="E3">
-        <v>13.7</v>
+        <v>16.5</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="G3">
-        <v>8.6</v>
+        <v>7.1</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="I3">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="J3">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="K3">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="L3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>87.7</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>6.4</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>17.2</v>
+        <v>18.2</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>15.4</v>
       </c>
       <c r="E4">
-        <v>15.5</v>
+        <v>16.3</v>
       </c>
       <c r="F4">
-        <v>12.2</v>
+        <v>13.2</v>
       </c>
       <c r="G4">
-        <v>11.9</v>
+        <v>8.4</v>
       </c>
       <c r="H4">
-        <v>7.1</v>
+        <v>6.2</v>
       </c>
       <c r="I4">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="J4">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="K4">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="L4">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="M4">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>83.2</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>13.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C5">
-        <v>15.4</v>
+        <v>18.3</v>
       </c>
       <c r="D5">
-        <v>13.4</v>
+        <v>19.1</v>
       </c>
       <c r="E5">
+        <v>16.8</v>
+      </c>
+      <c r="F5">
         <v>14.2</v>
       </c>
-      <c r="F5">
-        <v>12.7</v>
-      </c>
       <c r="G5">
-        <v>10.5</v>
+        <v>10.1</v>
       </c>
       <c r="H5">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="I5">
-        <v>5.6</v>
+        <v>4.3</v>
       </c>
       <c r="J5">
-        <v>5.1</v>
+        <v>1.7</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="L5">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="M5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="N5">
-        <v>79.5</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>7.4</v>
       </c>
       <c r="C6">
-        <v>9.5</v>
+        <v>12.4</v>
       </c>
       <c r="D6">
-        <v>11.7</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>14.4</v>
+        <v>17.2</v>
       </c>
       <c r="F6">
-        <v>14.5</v>
+        <v>15.2</v>
       </c>
       <c r="G6">
-        <v>13.9</v>
+        <v>10.9</v>
       </c>
       <c r="H6">
-        <v>12.9</v>
+        <v>7.9</v>
       </c>
       <c r="I6">
-        <v>9.199999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="J6">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="K6">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M6">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="N6">
-        <v>68</v>
+        <v>80.09999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1965,43 +1971,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="C7">
-        <v>7.2</v>
+        <v>2.1</v>
       </c>
       <c r="D7">
-        <v>10.2</v>
+        <v>4.2</v>
       </c>
       <c r="E7">
-        <v>14.1</v>
+        <v>6.8</v>
       </c>
       <c r="F7">
-        <v>14.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G7">
-        <v>13.3</v>
+        <v>15.4</v>
       </c>
       <c r="H7">
-        <v>12.9</v>
+        <v>15.5</v>
       </c>
       <c r="I7">
-        <v>10.7</v>
+        <v>16.4</v>
       </c>
       <c r="J7">
-        <v>6.7</v>
+        <v>14</v>
       </c>
       <c r="K7">
-        <v>4.8</v>
+        <v>10.1</v>
       </c>
       <c r="L7">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="M7">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="N7">
-        <v>63</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2009,175 +2015,175 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="C8">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="E8">
-        <v>9.800000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="F8">
-        <v>13.6</v>
+        <v>9.9</v>
       </c>
       <c r="G8">
-        <v>13.2</v>
+        <v>13.7</v>
       </c>
       <c r="H8">
-        <v>16.9</v>
+        <v>16.4</v>
       </c>
       <c r="I8">
+        <v>16.7</v>
+      </c>
+      <c r="J8">
         <v>12.5</v>
       </c>
-      <c r="J8">
-        <v>11.4</v>
-      </c>
       <c r="K8">
-        <v>7.2</v>
+        <v>12.6</v>
       </c>
       <c r="L8">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="M8">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="N8">
-        <v>49.2</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="D9">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="E9">
-        <v>4.9</v>
+        <v>6.8</v>
       </c>
       <c r="F9">
-        <v>7.4</v>
+        <v>10.4</v>
       </c>
       <c r="G9">
-        <v>9.199999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="H9">
-        <v>12.1</v>
+        <v>13.7</v>
       </c>
       <c r="I9">
-        <v>16.4</v>
+        <v>15.5</v>
       </c>
       <c r="J9">
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="K9">
-        <v>13.3</v>
+        <v>11.8</v>
       </c>
       <c r="L9">
-        <v>10.8</v>
+        <v>4.6</v>
       </c>
       <c r="M9">
-        <v>5.1</v>
+        <v>1.1</v>
       </c>
       <c r="N9">
-        <v>27</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C10">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="D10">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="E10">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="F10">
-        <v>6.1</v>
+        <v>7.9</v>
       </c>
       <c r="G10">
-        <v>8.199999999999999</v>
+        <v>11.3</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>13.2</v>
       </c>
       <c r="I10">
         <v>15.3</v>
       </c>
       <c r="J10">
-        <v>14.6</v>
+        <v>18.4</v>
       </c>
       <c r="K10">
-        <v>18.1</v>
+        <v>13.8</v>
       </c>
       <c r="L10">
-        <v>11.2</v>
+        <v>7.6</v>
       </c>
       <c r="M10">
-        <v>6.1</v>
+        <v>3.8</v>
       </c>
       <c r="N10">
-        <v>23.7</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="D11">
+        <v>1.4</v>
+      </c>
+      <c r="E11">
         <v>1.7</v>
       </c>
-      <c r="E11">
-        <v>2.6</v>
-      </c>
       <c r="F11">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="G11">
-        <v>5.9</v>
+        <v>7.3</v>
       </c>
       <c r="H11">
-        <v>8.800000000000001</v>
+        <v>11.3</v>
       </c>
       <c r="I11">
-        <v>11.7</v>
+        <v>13</v>
       </c>
       <c r="J11">
-        <v>14.2</v>
+        <v>17.1</v>
       </c>
       <c r="K11">
-        <v>17.5</v>
+        <v>21.1</v>
       </c>
       <c r="L11">
-        <v>18.7</v>
+        <v>14.1</v>
       </c>
       <c r="M11">
-        <v>13.5</v>
+        <v>8.9</v>
       </c>
       <c r="N11">
-        <v>15.6</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2191,37 +2197,37 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E12">
+        <v>0.3</v>
+      </c>
+      <c r="F12">
         <v>0.5</v>
       </c>
-      <c r="F12">
-        <v>0.7</v>
-      </c>
       <c r="G12">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H12">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="J12">
-        <v>11.8</v>
+        <v>7</v>
       </c>
       <c r="K12">
-        <v>17.4</v>
+        <v>14.4</v>
       </c>
       <c r="L12">
-        <v>30.1</v>
+        <v>38.3</v>
       </c>
       <c r="M12">
-        <v>30.5</v>
+        <v>33</v>
       </c>
       <c r="N12">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2232,40 +2238,40 @@
         <v>0</v>
       </c>
       <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>0.1</v>
       </c>
-      <c r="D13">
-        <v>0.1</v>
-      </c>
-      <c r="E13">
-        <v>0.2</v>
-      </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G13">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H13">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="I13">
-        <v>5.6</v>
+        <v>2.9</v>
       </c>
       <c r="J13">
-        <v>9.699999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="K13">
-        <v>13.2</v>
+        <v>11.8</v>
       </c>
       <c r="L13">
-        <v>22.6</v>
+        <v>26.6</v>
       </c>
       <c r="M13">
-        <v>43.2</v>
+        <v>50.7</v>
       </c>
       <c r="N13">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>
@@ -2275,13 +2281,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
@@ -2306,8 +2312,11 @@
       <c r="I1" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2315,344 +2324,380 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>93.60000000000001</v>
+        <v>92.80000000000001</v>
       </c>
       <c r="D2">
+        <v>98.8</v>
+      </c>
+      <c r="E2">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>99.2</v>
+      </c>
+      <c r="H2">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="I2">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J2">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C3">
+        <v>70.39999999999999</v>
+      </c>
+      <c r="D3">
+        <v>79.80000000000001</v>
+      </c>
+      <c r="E3">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="F3">
+        <v>92.80000000000001</v>
+      </c>
+      <c r="G3">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="H3">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="I3">
+        <v>98.5</v>
+      </c>
+      <c r="J3">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>57.59999999999999</v>
+      </c>
+      <c r="C4">
+        <v>90</v>
+      </c>
+      <c r="D4">
+        <v>65.7</v>
+      </c>
+      <c r="E4">
+        <v>47.4</v>
+      </c>
+      <c r="F4">
+        <v>73.5</v>
+      </c>
+      <c r="G4">
+        <v>87.2</v>
+      </c>
+      <c r="H4">
+        <v>94.19999999999999</v>
+      </c>
+      <c r="I4">
+        <v>97.2</v>
+      </c>
+      <c r="J4">
+        <v>97.89999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>81.5</v>
+      </c>
+      <c r="C5">
+        <v>63</v>
+      </c>
+      <c r="D5">
+        <v>67.80000000000001</v>
+      </c>
+      <c r="E5">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="F5">
+        <v>71.89999999999999</v>
+      </c>
+      <c r="G5">
+        <v>77.3</v>
+      </c>
+      <c r="H5">
+        <v>90.60000000000001</v>
+      </c>
+      <c r="I5">
+        <v>97</v>
+      </c>
+      <c r="J5">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>36.4</v>
+      </c>
+      <c r="C6">
+        <v>75.3</v>
+      </c>
+      <c r="D6">
+        <v>88.8</v>
+      </c>
+      <c r="E6">
+        <v>81</v>
+      </c>
+      <c r="F6">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="G6">
+        <v>87.7</v>
+      </c>
+      <c r="H6">
+        <v>97</v>
+      </c>
+      <c r="I6">
+        <v>93.7</v>
+      </c>
+      <c r="J6">
+        <v>94.59999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>32.9</v>
+      </c>
+      <c r="C7">
+        <v>45</v>
+      </c>
+      <c r="D7">
+        <v>34.3</v>
+      </c>
+      <c r="E7">
+        <v>46</v>
+      </c>
+      <c r="F7">
+        <v>31.4</v>
+      </c>
+      <c r="G7">
+        <v>47.9</v>
+      </c>
+      <c r="H7">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="I7">
+        <v>68.2</v>
+      </c>
+      <c r="J7">
+        <v>70.39999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C8">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="D8">
+        <v>96.3</v>
+      </c>
+      <c r="E8">
+        <v>98.5</v>
+      </c>
+      <c r="F8">
         <v>98.59999999999999</v>
       </c>
-      <c r="E2">
+      <c r="G8">
+        <v>95.3</v>
+      </c>
+      <c r="H8">
+        <v>83.89999999999999</v>
+      </c>
+      <c r="I8">
+        <v>68.60000000000001</v>
+      </c>
+      <c r="J8">
+        <v>70.19999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>46.6</v>
+      </c>
+      <c r="D9">
+        <v>81.8</v>
+      </c>
+      <c r="E9">
+        <v>93.2</v>
+      </c>
+      <c r="F9">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="G9">
+        <v>63.4</v>
+      </c>
+      <c r="H9">
+        <v>46.8</v>
+      </c>
+      <c r="I9">
+        <v>67.60000000000001</v>
+      </c>
+      <c r="J9">
+        <v>66.90000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>99.7</v>
       </c>
-      <c r="F2">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="G2">
-        <v>98.8</v>
-      </c>
-      <c r="H2">
-        <v>99.5</v>
-      </c>
-      <c r="I2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>37.3</v>
-      </c>
-      <c r="C3">
-        <v>75.5</v>
-      </c>
-      <c r="D3">
-        <v>92.2</v>
-      </c>
-      <c r="E3">
-        <v>78.10000000000001</v>
-      </c>
-      <c r="F3">
-        <v>75.2</v>
-      </c>
-      <c r="G3">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="H3">
-        <v>96.5</v>
-      </c>
-      <c r="I3">
-        <v>95.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="C4">
-        <v>67.5</v>
-      </c>
-      <c r="D4">
-        <v>79.2</v>
-      </c>
-      <c r="E4">
-        <v>84.89999999999999</v>
-      </c>
-      <c r="F4">
-        <v>93.60000000000001</v>
-      </c>
-      <c r="G4">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="H4">
-        <v>95</v>
-      </c>
-      <c r="I4">
-        <v>95.09999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>57.8</v>
-      </c>
-      <c r="C5">
-        <v>88</v>
-      </c>
-      <c r="D5">
-        <v>65.40000000000001</v>
-      </c>
-      <c r="E5">
-        <v>47.5</v>
-      </c>
-      <c r="F5">
-        <v>71.7</v>
-      </c>
-      <c r="G5">
-        <v>88.5</v>
-      </c>
-      <c r="H5">
-        <v>93</v>
-      </c>
-      <c r="I5">
-        <v>93.30000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>83</v>
-      </c>
-      <c r="C6">
-        <v>61.2</v>
-      </c>
-      <c r="D6">
-        <v>68.89999999999999</v>
-      </c>
-      <c r="E6">
-        <v>70.89999999999999</v>
-      </c>
-      <c r="F6">
-        <v>72.8</v>
-      </c>
-      <c r="G6">
-        <v>78.3</v>
-      </c>
-      <c r="H6">
-        <v>91</v>
-      </c>
-      <c r="I6">
-        <v>91.90000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>100</v>
-      </c>
-      <c r="C7">
-        <v>88.2</v>
-      </c>
-      <c r="D7">
-        <v>96.2</v>
-      </c>
-      <c r="E7">
-        <v>98.3</v>
-      </c>
-      <c r="F7">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="G7">
-        <v>95</v>
-      </c>
-      <c r="H7">
-        <v>85.2</v>
-      </c>
-      <c r="I7">
-        <v>84.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>32.1</v>
-      </c>
-      <c r="C8">
-        <v>45.6</v>
-      </c>
-      <c r="D8">
-        <v>35.7</v>
-      </c>
-      <c r="E8">
-        <v>41.5</v>
-      </c>
-      <c r="F8">
+      <c r="C10">
+        <v>83.89999999999999</v>
+      </c>
+      <c r="D10">
         <v>28.6</v>
       </c>
-      <c r="G8">
-        <v>47.2</v>
-      </c>
-      <c r="H8">
-        <v>78.2</v>
-      </c>
-      <c r="I8">
-        <v>78.60000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
+      <c r="E10">
+        <v>20.4</v>
+      </c>
+      <c r="F10">
+        <v>30.8</v>
+      </c>
+      <c r="G10">
+        <v>56.7</v>
+      </c>
+      <c r="H10">
+        <v>39.1</v>
+      </c>
+      <c r="I10">
+        <v>61.4</v>
+      </c>
+      <c r="J10">
+        <v>53.90000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>16.2</v>
       </c>
-      <c r="C9">
+      <c r="C11">
         <v>66.3</v>
       </c>
-      <c r="D9">
-        <v>44.8</v>
-      </c>
-      <c r="E9">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="F9">
-        <v>59</v>
-      </c>
-      <c r="G9">
-        <v>38.9</v>
-      </c>
-      <c r="H9">
-        <v>52.2</v>
-      </c>
-      <c r="I9">
+      <c r="D11">
+        <v>46</v>
+      </c>
+      <c r="E11">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="F11">
+        <v>56.39999999999999</v>
+      </c>
+      <c r="G11">
+        <v>38.8</v>
+      </c>
+      <c r="H11">
         <v>56.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>11.6</v>
-      </c>
-      <c r="C10">
-        <v>47.8</v>
-      </c>
-      <c r="D10">
-        <v>79</v>
-      </c>
-      <c r="E10">
-        <v>94.39999999999999</v>
-      </c>
-      <c r="F10">
-        <v>90.2</v>
-      </c>
-      <c r="G10">
-        <v>63.3</v>
-      </c>
-      <c r="H10">
-        <v>49.1</v>
-      </c>
-      <c r="I10">
-        <v>47.09999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>99.5</v>
-      </c>
-      <c r="C11">
-        <v>85.7</v>
-      </c>
-      <c r="D11">
-        <v>28.1</v>
-      </c>
-      <c r="E11">
-        <v>20.7</v>
-      </c>
-      <c r="F11">
-        <v>25.1</v>
-      </c>
-      <c r="G11">
-        <v>56.00000000000001</v>
-      </c>
-      <c r="H11">
-        <v>36.8</v>
-      </c>
       <c r="I11">
-        <v>34.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>35.5</v>
+      </c>
+      <c r="J11">
+        <v>37.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C12">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>30.3</v>
+        <v>31.3</v>
       </c>
       <c r="E12">
-        <v>12.8</v>
+        <v>11.4</v>
       </c>
       <c r="F12">
-        <v>7.399999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G12">
-        <v>22.8</v>
+        <v>24.4</v>
       </c>
       <c r="H12">
-        <v>10.4</v>
+        <v>10.6</v>
       </c>
       <c r="I12">
-        <v>12.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>6.5</v>
+      </c>
+      <c r="J12">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B13">
-        <v>97.59999999999999</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="C13">
-        <v>78.2</v>
+        <v>76.8</v>
       </c>
       <c r="D13">
-        <v>81.59999999999999</v>
+        <v>80.80000000000001</v>
       </c>
       <c r="E13">
-        <v>76.8</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="F13">
-        <v>77.60000000000001</v>
+        <v>72.8</v>
       </c>
       <c r="G13">
-        <v>24.7</v>
+        <v>26</v>
       </c>
       <c r="H13">
-        <v>13.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I13">
-        <v>11.4</v>
+        <v>6.2</v>
+      </c>
+      <c r="J13">
+        <v>4.399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2673,28 +2718,28 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2702,86 +2747,86 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="D2">
-        <v>139.7628571428571</v>
+        <v>133.895</v>
       </c>
       <c r="E2">
-        <v>978.34</v>
+        <v>1071.16</v>
       </c>
       <c r="F2">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="D3">
-        <v>137.7714285714286</v>
+        <v>129.06</v>
       </c>
       <c r="E3">
-        <v>964.4</v>
+        <v>1032.48</v>
       </c>
       <c r="F3">
-        <v>95.5</v>
+        <v>98.2</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="D4">
-        <v>127.4885714285714</v>
+        <v>126.7975</v>
       </c>
       <c r="E4">
-        <v>892.4200000000001</v>
+        <v>1014.38</v>
       </c>
       <c r="F4">
-        <v>94.89999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="G4">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2789,57 +2834,57 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="D5">
-        <v>135.86</v>
+        <v>135.88</v>
       </c>
       <c r="E5">
-        <v>951.0200000000001</v>
+        <v>1087.04</v>
       </c>
       <c r="F5">
-        <v>91.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="G5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C6">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>123.06</v>
+        <v>136.5325</v>
       </c>
       <c r="E6">
-        <v>861.4200000000001</v>
+        <v>1092.26</v>
       </c>
       <c r="F6">
-        <v>90.10000000000001</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="G6">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2847,28 +2892,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>124.2114285714286</v>
+        <v>120.67</v>
       </c>
       <c r="E7">
-        <v>869.48</v>
+        <v>965.36</v>
       </c>
       <c r="F7">
-        <v>86.59999999999999</v>
+        <v>70.7</v>
       </c>
       <c r="G7">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2876,173 +2921,173 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>120.6057142857143</v>
+        <v>120.7025</v>
       </c>
       <c r="E8">
-        <v>844.24</v>
+        <v>965.62</v>
       </c>
       <c r="F8">
-        <v>78.60000000000001</v>
+        <v>70</v>
       </c>
       <c r="G8">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>116.68</v>
+        <v>120.21</v>
       </c>
       <c r="E9">
-        <v>816.76</v>
+        <v>961.6800000000001</v>
       </c>
       <c r="F9">
-        <v>55.50000000000001</v>
+        <v>65.7</v>
       </c>
       <c r="G9">
-        <v>5.1</v>
+        <v>1.1</v>
       </c>
       <c r="H9" t="s">
         <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C10">
-        <v>0.4285714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="D10">
-        <v>118.5857142857143</v>
+        <v>122.15</v>
       </c>
       <c r="E10">
-        <v>830.1</v>
+        <v>977.2</v>
       </c>
       <c r="F10">
-        <v>50</v>
+        <v>56.39999999999999</v>
       </c>
       <c r="G10">
-        <v>6.1</v>
+        <v>3.8</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11">
-        <v>0.2857142857142857</v>
+        <v>0.375</v>
       </c>
       <c r="D11">
-        <v>119.1257142857143</v>
+        <v>113.3925</v>
       </c>
       <c r="E11">
-        <v>833.8800000000001</v>
+        <v>907.14</v>
       </c>
       <c r="F11">
-        <v>36.1</v>
+        <v>38.8</v>
       </c>
       <c r="G11">
-        <v>13.5</v>
+        <v>8.9</v>
       </c>
       <c r="H11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12">
-        <v>0.2857142857142857</v>
+        <v>0.375</v>
       </c>
       <c r="D12">
-        <v>107.16</v>
+        <v>102.1675</v>
       </c>
       <c r="E12">
-        <v>750.1199999999999</v>
+        <v>817.34</v>
       </c>
       <c r="F12">
-        <v>11.3</v>
+        <v>7.3</v>
       </c>
       <c r="G12">
-        <v>43.2</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C13">
-        <v>0.4285714285714285</v>
+        <v>0.25</v>
       </c>
       <c r="D13">
-        <v>103.8057142857143</v>
+        <v>105.9675</v>
       </c>
       <c r="E13">
-        <v>726.64</v>
+        <v>847.7399999999999</v>
       </c>
       <c r="F13">
-        <v>10.2</v>
+        <v>5.5</v>
       </c>
       <c r="G13">
-        <v>30.5</v>
+        <v>50.7</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3063,16 +3108,16 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3083,16 +3128,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3103,16 +3148,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3123,16 +3168,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3143,16 +3188,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3163,16 +3208,16 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3183,16 +3228,16 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3203,10 +3248,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -3223,16 +3268,16 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3243,16 +3288,16 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D10">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3263,16 +3308,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D11">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3283,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D12">
-        <v>-18</v>
+        <v>-22</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -3303,16 +3348,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D13">
-        <v>-29</v>
+        <v>-38</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3322,39 +3367,42 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3379,11 +3427,14 @@
       <c r="H2">
         <v>27</v>
       </c>
-      <c r="I2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3408,11 +3459,14 @@
       <c r="H3">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -3437,11 +3491,14 @@
       <c r="H4">
         <v>7</v>
       </c>
-      <c r="I4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3466,11 +3523,14 @@
       <c r="H5">
         <v>7</v>
       </c>
-      <c r="I5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -3495,11 +3555,14 @@
       <c r="H6">
         <v>5</v>
       </c>
-      <c r="I6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -3524,11 +3587,14 @@
       <c r="H7">
         <v>3</v>
       </c>
-      <c r="I7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3553,11 +3619,14 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -3582,11 +3651,14 @@
       <c r="H9">
         <v>-1</v>
       </c>
-      <c r="I9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -3611,11 +3683,14 @@
       <c r="H10">
         <v>-9</v>
       </c>
-      <c r="I10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10">
+        <v>-5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3640,11 +3715,14 @@
       <c r="H11">
         <v>-10</v>
       </c>
-      <c r="I11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I11">
+        <v>-7</v>
+      </c>
+      <c r="J11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -3669,11 +3747,14 @@
       <c r="H12">
         <v>-18</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12">
+        <v>-22</v>
+      </c>
+      <c r="J12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3698,8 +3779,11 @@
       <c r="H13">
         <v>-29</v>
       </c>
-      <c r="I13" t="s">
-        <v>100</v>
+      <c r="I13">
+        <v>-38</v>
+      </c>
+      <c r="J13" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3709,7 +3793,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3717,25 +3801,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3977,25 +4061,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4003,76 +4087,24 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="F12">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <v>8</v>
-      </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
-      <c r="H13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>6</v>
-      </c>
-      <c r="G14">
-        <v>4</v>
-      </c>
-      <c r="H14" t="s">
         <v>8</v>
       </c>
     </row>

--- a/leagues/The Mike Daisy Sports IQ League 2025.xlsx
+++ b/leagues/The Mike Daisy Sports IQ League 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="122">
   <si>
     <t>Njigba's in Paris</t>
   </si>
@@ -60,28 +60,31 @@
     <t>Matt Gay Team</t>
   </si>
   <si>
-    <t>3-5-0</t>
-  </si>
-  <si>
-    <t>5-3-0</t>
-  </si>
-  <si>
-    <t>4-4-0</t>
-  </si>
-  <si>
-    <t>7-1-0</t>
-  </si>
-  <si>
-    <t>2-6-0</t>
-  </si>
-  <si>
-    <t>6-2-0</t>
-  </si>
-  <si>
-    <t>1-7-0</t>
-  </si>
-  <si>
-    <t>0-8-0</t>
+    <t>4-5-0</t>
+  </si>
+  <si>
+    <t>6-3-0</t>
+  </si>
+  <si>
+    <t>5-4-0</t>
+  </si>
+  <si>
+    <t>8-1-0</t>
+  </si>
+  <si>
+    <t>3-6-0</t>
+  </si>
+  <si>
+    <t>2-7-0</t>
+  </si>
+  <si>
+    <t>7-2-0</t>
+  </si>
+  <si>
+    <t>1-8-0</t>
+  </si>
+  <si>
+    <t>0-9-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -168,6 +171,9 @@
     <t>Week_9</t>
   </si>
   <si>
+    <t>Week_10</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -192,52 +198,58 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>6-2</t>
-  </si>
-  <si>
-    <t>5-3</t>
-  </si>
-  <si>
-    <t>4-4</t>
-  </si>
-  <si>
-    <t>3-5</t>
-  </si>
-  <si>
-    <t>2-6</t>
-  </si>
-  <si>
-    <t>9.6-4.4</t>
-  </si>
-  <si>
-    <t>8.7-5.3</t>
-  </si>
-  <si>
-    <t>8.4-5.5-0.1</t>
-  </si>
-  <si>
-    <t>8.2-5.7</t>
-  </si>
-  <si>
-    <t>7.7-6.2</t>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>10.1-3.8</t>
+  </si>
+  <si>
+    <t>9.0-5.0</t>
+  </si>
+  <si>
+    <t>8.3-5.7</t>
+  </si>
+  <si>
+    <t>8.1-5.9</t>
+  </si>
+  <si>
+    <t>7.8-6.1</t>
+  </si>
+  <si>
+    <t>7.3-6.7</t>
   </si>
   <si>
     <t>6.7-7.3</t>
   </si>
   <si>
-    <t>6.7-7.3-0.1</t>
+    <t>6.3-7.7</t>
+  </si>
+  <si>
+    <t>6.1-7.8</t>
   </si>
   <si>
     <t>6.2-7.8</t>
   </si>
   <si>
-    <t>5.9-8.1</t>
-  </si>
-  <si>
-    <t>4.8-9.2-0.1</t>
-  </si>
-  <si>
-    <t>4.2-9.8</t>
+    <t>3.6-10.4</t>
+  </si>
+  <si>
+    <t>4.3-9.6</t>
   </si>
   <si>
     <t>10-4</t>
@@ -255,7 +267,7 @@
     <t>6-8</t>
   </si>
   <si>
-    <t>5-9</t>
+    <t>3-11</t>
   </si>
   <si>
     <t>4-10</t>
@@ -279,57 +291,57 @@
     <t>Rob Pernell</t>
   </si>
   <si>
+    <t>Nick DiNunzio</t>
+  </si>
+  <si>
+    <t>Bobby  Schnur</t>
+  </si>
+  <si>
     <t>Dylan Sowers</t>
   </si>
   <si>
-    <t>Nick DiNunzio</t>
-  </si>
-  <si>
-    <t>Bobby  Schnur</t>
-  </si>
-  <si>
     <t>Michael Daisey</t>
   </si>
   <si>
+    <t>Matthew Jennings</t>
+  </si>
+  <si>
     <t>David O'Kane</t>
   </si>
   <si>
     <t>Shjon Sowers</t>
   </si>
   <si>
-    <t>Matthew Jennings</t>
-  </si>
-  <si>
     <t>Julian LeMaire</t>
   </si>
   <si>
     <t>Matt Peiffer</t>
   </si>
   <si>
-    <t>↓7</t>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓6</t>
   </si>
   <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -352,6 +364,9 @@
   </si>
   <si>
     <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
   </si>
   <si>
     <t>Week</t>
@@ -782,28 +797,28 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
@@ -812,7 +827,7 @@
         <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -823,7 +838,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -838,13 +853,13 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
@@ -864,37 +879,37 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L4" t="s">
         <v>12</v>
       </c>
       <c r="M4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -908,26 +923,26 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
       <c r="K5" t="s">
         <v>14</v>
       </c>
@@ -935,7 +950,7 @@
         <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -949,25 +964,25 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
@@ -976,7 +991,7 @@
         <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -990,10 +1005,10 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -1017,7 +1032,7 @@
         <v>12</v>
       </c>
       <c r="M7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1028,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" t="s">
         <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1072,25 +1087,25 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
         <v>13</v>
@@ -1099,7 +1114,7 @@
         <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1113,7 +1128,7 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -1122,7 +1137,7 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -1134,13 +1149,13 @@
         <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
       </c>
       <c r="M10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1154,7 +1169,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -1189,40 +1204,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
         <v>16</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>16</v>
       </c>
-      <c r="H12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" t="s">
-        <v>12</v>
-      </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K12" t="s">
         <v>12</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1230,40 +1245,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
         <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1281,13 +1296,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1298,10 +1313,10 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1309,13 +1324,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>3.333333333333333</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1323,13 +1338,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>3.583333333333333</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1340,10 +1355,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1354,7 +1369,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>3.916666666666667</v>
+        <v>4.25</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1368,10 +1383,10 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>3.916666666666667</v>
+        <v>4.25</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1382,7 +1397,7 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>4.083333333333333</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -1393,10 +1408,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>4.333333333333333</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1407,10 +1422,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>4.333333333333333</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -1421,13 +1436,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>4.416666666666667</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1435,10 +1450,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>4.666666666666667</v>
+        <v>5.25</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -1449,10 +1464,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>4.916666666666667</v>
+        <v>5.5</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -1473,16 +1488,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1490,16 +1505,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>5.083333333333333</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>0.08333333333333304</v>
+        <v>-1</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1507,16 +1522,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1524,16 +1539,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1541,16 +1556,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>4.916666666666667</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D5">
-        <v>-0.08333333333333304</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1558,16 +1573,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>4.916666666666667</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D6">
-        <v>0.916666666666667</v>
+        <v>-0.583333333333333</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1575,13 +1590,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>4.083333333333333</v>
+        <v>4.75</v>
       </c>
       <c r="D7">
-        <v>0.08333333333333304</v>
+        <v>-0.25</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -1592,16 +1607,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1609,16 +1624,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>3.916666666666667</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D9">
-        <v>-0.08333333333333348</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1626,13 +1641,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>3.75</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D10">
-        <v>0.75</v>
+        <v>0.08333333333333304</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1646,10 +1661,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2.833333333333333</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D11">
-        <v>-0.1666666666666665</v>
+        <v>-0.8333333333333335</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1663,13 +1678,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>2.75</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D12">
-        <v>0.75</v>
+        <v>0.8333333333333335</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1686,7 +1701,7 @@
         <v>-1.25</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1704,46 +1719,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1751,34 +1766,34 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>50.7</v>
+        <v>67.2</v>
       </c>
       <c r="C2">
-        <v>20.6</v>
+        <v>16.2</v>
       </c>
       <c r="D2">
-        <v>12.2</v>
+        <v>8.5</v>
       </c>
       <c r="E2">
-        <v>5.9</v>
+        <v>4.2</v>
       </c>
       <c r="F2">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="G2">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H2">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="I2">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1787,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>96.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1795,34 +1810,34 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>15.1</v>
+        <v>11.3</v>
       </c>
       <c r="C3">
-        <v>21.2</v>
+        <v>26.9</v>
       </c>
       <c r="D3">
-        <v>21.1</v>
+        <v>21.8</v>
       </c>
       <c r="E3">
-        <v>16.5</v>
+        <v>17.7</v>
       </c>
       <c r="F3">
         <v>10.5</v>
       </c>
       <c r="G3">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="H3">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="J3">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="K3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1831,42 +1846,42 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>91.5</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C4">
-        <v>18.2</v>
+        <v>23.9</v>
       </c>
       <c r="D4">
-        <v>15.4</v>
+        <v>23.9</v>
       </c>
       <c r="E4">
-        <v>16.3</v>
+        <v>17.6</v>
       </c>
       <c r="F4">
-        <v>13.2</v>
+        <v>9.6</v>
       </c>
       <c r="G4">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H4">
-        <v>6.2</v>
+        <v>3.7</v>
       </c>
       <c r="I4">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="J4">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="K4">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="L4">
         <v>0.1</v>
@@ -1875,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>87.5</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1883,31 +1898,31 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>8.699999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="C5">
-        <v>18.3</v>
+        <v>12.1</v>
       </c>
       <c r="D5">
-        <v>19.1</v>
+        <v>16.9</v>
       </c>
       <c r="E5">
-        <v>16.8</v>
+        <v>19.3</v>
       </c>
       <c r="F5">
-        <v>14.2</v>
+        <v>18.9</v>
       </c>
       <c r="G5">
-        <v>10.1</v>
+        <v>13.9</v>
       </c>
       <c r="H5">
-        <v>5.8</v>
+        <v>7.7</v>
       </c>
       <c r="I5">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="J5">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="K5">
         <v>0.8</v>
@@ -1916,54 +1931,54 @@
         <v>0.1</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>87.2</v>
+        <v>97.09999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>7.4</v>
+        <v>8.1</v>
       </c>
       <c r="C6">
-        <v>12.4</v>
+        <v>13.8</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>15.6</v>
       </c>
       <c r="E6">
-        <v>17.2</v>
+        <v>16.2</v>
       </c>
       <c r="F6">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="G6">
-        <v>10.9</v>
+        <v>12</v>
       </c>
       <c r="H6">
-        <v>7.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I6">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="J6">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="L6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N6">
-        <v>80.09999999999999</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1971,87 +1986,87 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="C7">
-        <v>2.1</v>
+        <v>4.3</v>
       </c>
       <c r="D7">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>6.8</v>
+        <v>10.5</v>
       </c>
       <c r="F7">
-        <v>9.800000000000001</v>
+        <v>15.2</v>
       </c>
       <c r="G7">
-        <v>15.4</v>
+        <v>19.8</v>
       </c>
       <c r="H7">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="I7">
-        <v>16.4</v>
+        <v>12.5</v>
       </c>
       <c r="J7">
-        <v>14</v>
+        <v>9.6</v>
       </c>
       <c r="K7">
-        <v>10.1</v>
+        <v>3.6</v>
       </c>
       <c r="L7">
-        <v>3.7</v>
+        <v>0.2</v>
       </c>
       <c r="M7">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>38.8</v>
+        <v>86.59999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="C8">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="D8">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="E8">
-        <v>7.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F8">
-        <v>9.9</v>
+        <v>13.2</v>
       </c>
       <c r="G8">
-        <v>13.7</v>
+        <v>16.3</v>
       </c>
       <c r="H8">
-        <v>16.4</v>
+        <v>14.8</v>
       </c>
       <c r="I8">
-        <v>16.7</v>
+        <v>15.1</v>
       </c>
       <c r="J8">
-        <v>12.5</v>
+        <v>13.1</v>
       </c>
       <c r="K8">
-        <v>12.6</v>
+        <v>10.4</v>
       </c>
       <c r="L8">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="M8">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N8">
-        <v>36.9</v>
+        <v>73.90000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2059,87 +2074,87 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="C9">
-        <v>3.1</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="E9">
+        <v>2.3</v>
+      </c>
+      <c r="F9">
         <v>6.8</v>
       </c>
-      <c r="F9">
-        <v>10.4</v>
-      </c>
       <c r="G9">
-        <v>11.7</v>
+        <v>8.4</v>
       </c>
       <c r="H9">
-        <v>13.7</v>
+        <v>15.9</v>
       </c>
       <c r="I9">
-        <v>15.5</v>
+        <v>18.8</v>
       </c>
       <c r="J9">
-        <v>16.8</v>
+        <v>21.3</v>
       </c>
       <c r="K9">
-        <v>11.8</v>
+        <v>17.3</v>
       </c>
       <c r="L9">
-        <v>4.6</v>
+        <v>6.1</v>
       </c>
       <c r="M9">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="N9">
-        <v>36.5</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="F10">
-        <v>7.9</v>
+        <v>3.9</v>
       </c>
       <c r="G10">
-        <v>11.3</v>
+        <v>6</v>
       </c>
       <c r="H10">
-        <v>13.2</v>
+        <v>12.7</v>
       </c>
       <c r="I10">
-        <v>15.3</v>
+        <v>22</v>
       </c>
       <c r="J10">
-        <v>18.4</v>
+        <v>23.5</v>
       </c>
       <c r="K10">
-        <v>13.8</v>
+        <v>22.1</v>
       </c>
       <c r="L10">
-        <v>7.6</v>
+        <v>5.5</v>
       </c>
       <c r="M10">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="N10">
-        <v>27.9</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2153,42 +2168,42 @@
         <v>0.3</v>
       </c>
       <c r="D11">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>4.3</v>
+      </c>
+      <c r="G11">
+        <v>7.6</v>
+      </c>
+      <c r="H11">
+        <v>13.3</v>
+      </c>
+      <c r="I11">
+        <v>16.1</v>
+      </c>
+      <c r="J11">
+        <v>20.6</v>
+      </c>
+      <c r="K11">
+        <v>25.9</v>
+      </c>
+      <c r="L11">
+        <v>8.5</v>
+      </c>
+      <c r="M11">
         <v>1.7</v>
       </c>
-      <c r="F11">
-        <v>3.8</v>
-      </c>
-      <c r="G11">
-        <v>7.3</v>
-      </c>
-      <c r="H11">
-        <v>11.3</v>
-      </c>
-      <c r="I11">
-        <v>13</v>
-      </c>
-      <c r="J11">
-        <v>17.1</v>
-      </c>
-      <c r="K11">
-        <v>21.1</v>
-      </c>
-      <c r="L11">
-        <v>14.1</v>
-      </c>
-      <c r="M11">
-        <v>8.9</v>
-      </c>
       <c r="N11">
-        <v>14.5</v>
+        <v>43.3</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2197,34 +2212,34 @@
         <v>0</v>
       </c>
       <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>0.1</v>
       </c>
-      <c r="E12">
-        <v>0.3</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.6</v>
       </c>
-      <c r="H12">
-        <v>2.1</v>
-      </c>
       <c r="I12">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="K12">
-        <v>14.4</v>
+        <v>7.7</v>
       </c>
       <c r="L12">
-        <v>38.3</v>
+        <v>29.4</v>
       </c>
       <c r="M12">
-        <v>33</v>
+        <v>59.7</v>
       </c>
       <c r="N12">
         <v>1.5</v>
@@ -2232,7 +2247,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2244,34 +2259,34 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="H13">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="I13">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="J13">
-        <v>5.4</v>
+        <v>3.2</v>
       </c>
       <c r="K13">
-        <v>11.8</v>
+        <v>10.6</v>
       </c>
       <c r="L13">
-        <v>26.6</v>
+        <v>47.9</v>
       </c>
       <c r="M13">
-        <v>50.7</v>
+        <v>36.9</v>
       </c>
       <c r="N13">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
@@ -2281,42 +2296,45 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2324,380 +2342,416 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>92.80000000000001</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="D2">
-        <v>98.8</v>
+        <v>98.5</v>
       </c>
       <c r="E2">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="F2">
         <v>100</v>
       </c>
       <c r="G2">
-        <v>99.2</v>
+        <v>98.7</v>
       </c>
       <c r="H2">
         <v>99.40000000000001</v>
       </c>
       <c r="I2">
-        <v>99.59999999999999</v>
+        <v>99</v>
       </c>
       <c r="J2">
-        <v>99.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>99.8</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="C3">
-        <v>70.39999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D3">
-        <v>79.80000000000001</v>
+        <v>82.19999999999999</v>
       </c>
       <c r="E3">
-        <v>82.59999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="F3">
-        <v>92.80000000000001</v>
+        <v>93.10000000000001</v>
       </c>
       <c r="G3">
-        <v>96.09999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="H3">
-        <v>95.59999999999999</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="I3">
+        <v>98.7</v>
+      </c>
+      <c r="J3">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="K3">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>36.2</v>
+      </c>
+      <c r="C4">
+        <v>75.8</v>
+      </c>
+      <c r="D4">
+        <v>90.2</v>
+      </c>
+      <c r="E4">
+        <v>79</v>
+      </c>
+      <c r="F4">
+        <v>76.5</v>
+      </c>
+      <c r="G4">
+        <v>89.3</v>
+      </c>
+      <c r="H4">
+        <v>96.2</v>
+      </c>
+      <c r="I4">
+        <v>94.5</v>
+      </c>
+      <c r="J4">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="K4">
         <v>98.5</v>
       </c>
-      <c r="J3">
-        <v>98.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>57.59999999999999</v>
-      </c>
-      <c r="C4">
-        <v>90</v>
-      </c>
-      <c r="D4">
-        <v>65.7</v>
-      </c>
-      <c r="E4">
-        <v>47.4</v>
-      </c>
-      <c r="F4">
-        <v>73.5</v>
-      </c>
-      <c r="G4">
-        <v>87.2</v>
-      </c>
-      <c r="H4">
-        <v>94.19999999999999</v>
-      </c>
-      <c r="I4">
-        <v>97.2</v>
-      </c>
-      <c r="J4">
-        <v>97.89999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>81.5</v>
+        <v>82.39999999999999</v>
       </c>
       <c r="C5">
-        <v>63</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="D5">
-        <v>67.80000000000001</v>
+        <v>67.10000000000001</v>
       </c>
       <c r="E5">
-        <v>71.59999999999999</v>
+        <v>69.3</v>
       </c>
       <c r="F5">
-        <v>71.89999999999999</v>
+        <v>73.3</v>
       </c>
       <c r="G5">
-        <v>77.3</v>
+        <v>79.10000000000001</v>
       </c>
       <c r="H5">
-        <v>90.60000000000001</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="I5">
+        <v>96.89999999999999</v>
+      </c>
+      <c r="J5">
         <v>97</v>
       </c>
-      <c r="J5">
-        <v>97.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>97.59999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>36.4</v>
+        <v>59</v>
       </c>
       <c r="C6">
-        <v>75.3</v>
+        <v>89.2</v>
       </c>
       <c r="D6">
-        <v>88.8</v>
+        <v>65.2</v>
       </c>
       <c r="E6">
-        <v>81</v>
+        <v>49.9</v>
       </c>
       <c r="F6">
-        <v>75.40000000000001</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="G6">
-        <v>87.7</v>
+        <v>87.2</v>
       </c>
       <c r="H6">
-        <v>97</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="I6">
+        <v>97.89999999999999</v>
+      </c>
+      <c r="J6">
         <v>93.7</v>
       </c>
-      <c r="J6">
-        <v>94.59999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>94.69999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>32.9</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D7">
-        <v>34.3</v>
+        <v>95.39999999999999</v>
       </c>
       <c r="E7">
-        <v>46</v>
+        <v>98.3</v>
       </c>
       <c r="F7">
-        <v>31.4</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="G7">
-        <v>47.9</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="H7">
-        <v>77.40000000000001</v>
+        <v>84.2</v>
       </c>
       <c r="I7">
-        <v>68.2</v>
+        <v>69</v>
       </c>
       <c r="J7">
-        <v>70.39999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="K7">
+        <v>87.09999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>99.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C8">
-        <v>86.90000000000001</v>
+        <v>86.3</v>
       </c>
       <c r="D8">
-        <v>96.3</v>
+        <v>26.4</v>
       </c>
       <c r="E8">
-        <v>98.5</v>
+        <v>18.2</v>
       </c>
       <c r="F8">
-        <v>98.59999999999999</v>
+        <v>25.4</v>
       </c>
       <c r="G8">
-        <v>95.3</v>
+        <v>55.3</v>
       </c>
       <c r="H8">
-        <v>83.89999999999999</v>
+        <v>37.3</v>
       </c>
       <c r="I8">
-        <v>68.60000000000001</v>
+        <v>56.59999999999999</v>
       </c>
       <c r="J8">
-        <v>70.19999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>77</v>
+      </c>
+      <c r="K8">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="C9">
-        <v>46.6</v>
+        <v>45.9</v>
       </c>
       <c r="D9">
-        <v>81.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="E9">
-        <v>93.2</v>
+        <v>93.7</v>
       </c>
       <c r="F9">
-        <v>87.09999999999999</v>
+        <v>89.8</v>
       </c>
       <c r="G9">
-        <v>63.4</v>
+        <v>66.3</v>
       </c>
       <c r="H9">
-        <v>46.8</v>
+        <v>49.8</v>
       </c>
       <c r="I9">
-        <v>67.60000000000001</v>
+        <v>68</v>
       </c>
       <c r="J9">
-        <v>66.90000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>50.2</v>
+      </c>
+      <c r="K9">
+        <v>51.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>99.7</v>
+        <v>31.1</v>
       </c>
       <c r="C10">
-        <v>83.89999999999999</v>
+        <v>45.9</v>
       </c>
       <c r="D10">
-        <v>28.6</v>
+        <v>32.7</v>
       </c>
       <c r="E10">
-        <v>20.4</v>
+        <v>48</v>
       </c>
       <c r="F10">
-        <v>30.8</v>
+        <v>28.8</v>
       </c>
       <c r="G10">
-        <v>56.7</v>
+        <v>45.5</v>
       </c>
       <c r="H10">
-        <v>39.1</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I10">
-        <v>61.4</v>
+        <v>70.7</v>
       </c>
       <c r="J10">
-        <v>53.90000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>46.3</v>
+      </c>
+      <c r="K10">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B11">
-        <v>16.2</v>
+        <v>16.5</v>
       </c>
       <c r="C11">
-        <v>66.3</v>
+        <v>64.3</v>
       </c>
       <c r="D11">
-        <v>46</v>
+        <v>49.3</v>
       </c>
       <c r="E11">
-        <v>74.90000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="F11">
-        <v>56.39999999999999</v>
+        <v>56.89999999999999</v>
       </c>
       <c r="G11">
-        <v>38.8</v>
+        <v>39.7</v>
       </c>
       <c r="H11">
-        <v>56.7</v>
+        <v>54.6</v>
       </c>
       <c r="I11">
         <v>35.5</v>
       </c>
       <c r="J11">
-        <v>37.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>49</v>
+      </c>
+      <c r="K11">
+        <v>45.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>69</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="D12">
-        <v>31.3</v>
+        <v>30</v>
       </c>
       <c r="E12">
-        <v>11.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F12">
-        <v>9.300000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="G12">
-        <v>24.4</v>
+        <v>23.1</v>
       </c>
       <c r="H12">
-        <v>10.6</v>
+        <v>10.9</v>
       </c>
       <c r="I12">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="J12">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>2.8</v>
+      </c>
+      <c r="K12">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B13">
-        <v>96.89999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="C13">
-        <v>76.8</v>
+        <v>78.10000000000001</v>
       </c>
       <c r="D13">
-        <v>80.80000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E13">
-        <v>73.09999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="F13">
-        <v>72.8</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="G13">
-        <v>26</v>
+        <v>25.1</v>
       </c>
       <c r="H13">
-        <v>8.699999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="I13">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="J13">
-        <v>4.399999999999999</v>
+        <v>1.4</v>
+      </c>
+      <c r="K13">
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>
@@ -2715,31 +2769,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2747,28 +2801,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D2">
-        <v>133.895</v>
+        <v>136.9533333333333</v>
       </c>
       <c r="E2">
-        <v>1071.16</v>
+        <v>1232.58</v>
       </c>
       <c r="F2">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2776,74 +2830,74 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>129.06</v>
+        <v>126.6577777777778</v>
       </c>
       <c r="E3">
-        <v>1032.48</v>
+        <v>1139.92</v>
       </c>
       <c r="F3">
-        <v>98.2</v>
+        <v>99.5</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C4">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D4">
-        <v>126.7975</v>
+        <v>138.04</v>
       </c>
       <c r="E4">
-        <v>1014.38</v>
+        <v>1242.36</v>
       </c>
       <c r="F4">
-        <v>97.3</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="G4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C5">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D5">
-        <v>135.88</v>
+        <v>127.9422222222222</v>
       </c>
       <c r="E5">
-        <v>1087.04</v>
+        <v>1151.48</v>
       </c>
       <c r="F5">
         <v>97.09999999999999</v>
@@ -2852,39 +2906,39 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D6">
-        <v>136.5325</v>
+        <v>134.3822222222222</v>
       </c>
       <c r="E6">
-        <v>1092.26</v>
+        <v>1209.44</v>
       </c>
       <c r="F6">
-        <v>93.60000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="G6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2892,57 +2946,57 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D7">
-        <v>120.67</v>
+        <v>123.2177777777778</v>
       </c>
       <c r="E7">
-        <v>965.36</v>
+        <v>1108.96</v>
       </c>
       <c r="F7">
-        <v>70.7</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="G7">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D8">
-        <v>120.7025</v>
+        <v>125.5488888888889</v>
       </c>
       <c r="E8">
-        <v>965.62</v>
+        <v>1129.94</v>
       </c>
       <c r="F8">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="G8">
+        <v>0.4</v>
+      </c>
+      <c r="H8" t="s">
         <v>70</v>
       </c>
-      <c r="G8">
-        <v>0.8</v>
-      </c>
-      <c r="H8" t="s">
-        <v>67</v>
-      </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2950,57 +3004,57 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D9">
-        <v>120.21</v>
+        <v>118.2822222222222</v>
       </c>
       <c r="E9">
-        <v>961.6800000000001</v>
+        <v>1064.54</v>
       </c>
       <c r="F9">
-        <v>65.7</v>
+        <v>54.7</v>
       </c>
       <c r="G9">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10">
-        <v>0.375</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D10">
-        <v>122.15</v>
+        <v>117.4777777777778</v>
       </c>
       <c r="E10">
-        <v>977.2</v>
+        <v>1057.3</v>
       </c>
       <c r="F10">
-        <v>56.39999999999999</v>
+        <v>48.4</v>
       </c>
       <c r="G10">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3008,86 +3062,86 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C11">
-        <v>0.375</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D11">
-        <v>113.3925</v>
+        <v>111.8666666666667</v>
       </c>
       <c r="E11">
-        <v>907.14</v>
+        <v>1006.8</v>
       </c>
       <c r="F11">
-        <v>38.8</v>
+        <v>43.3</v>
       </c>
       <c r="G11">
-        <v>8.9</v>
+        <v>1.7</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C12">
-        <v>0.375</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="D12">
-        <v>102.1675</v>
+        <v>104.1266666666667</v>
       </c>
       <c r="E12">
-        <v>817.34</v>
+        <v>937.1399999999999</v>
       </c>
       <c r="F12">
-        <v>7.3</v>
+        <v>1.5</v>
       </c>
       <c r="G12">
-        <v>33</v>
+        <v>59.7</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C13">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D13">
-        <v>105.9675</v>
+        <v>99.45999999999999</v>
       </c>
       <c r="E13">
-        <v>847.7399999999999</v>
+        <v>895.14</v>
       </c>
       <c r="F13">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="G13">
-        <v>50.7</v>
+        <v>36.9</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3105,19 +3159,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3128,16 +3182,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3148,16 +3202,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3168,16 +3222,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3185,19 +3239,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3205,19 +3259,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3225,19 +3279,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3248,10 +3302,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -3265,19 +3319,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3285,19 +3339,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D10">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3305,19 +3359,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D11">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3328,16 +3382,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D12">
-        <v>-22</v>
+        <v>-28</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3348,16 +3402,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D13">
-        <v>-38</v>
+        <v>-40</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3367,42 +3421,45 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>114</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3430,11 +3487,14 @@
       <c r="I2">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3462,11 +3522,14 @@
       <c r="I3">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="J3">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -3494,107 +3557,119 @@
       <c r="I4">
         <v>13</v>
       </c>
-      <c r="J4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="J4">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>-4</v>
+      </c>
+      <c r="C5">
+        <v>-3</v>
+      </c>
+      <c r="D5">
+        <v>-6</v>
+      </c>
+      <c r="E5">
+        <v>-6</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>-8</v>
+      </c>
+      <c r="C6">
+        <v>-7</v>
+      </c>
+      <c r="D6">
+        <v>-4</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>-1</v>
-      </c>
-      <c r="C5">
-        <v>-2</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5">
+      <c r="H6">
         <v>3</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
-      <c r="J5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>-4</v>
-      </c>
-      <c r="C6">
-        <v>-3</v>
-      </c>
-      <c r="D6">
-        <v>-6</v>
-      </c>
-      <c r="E6">
-        <v>-6</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
       </c>
       <c r="I6">
         <v>6</v>
       </c>
-      <c r="J6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="J6">
+        <v>9</v>
+      </c>
+      <c r="K6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="C7">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="D7">
-        <v>-4</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I7">
-        <v>6</v>
-      </c>
-      <c r="J7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3622,107 +3697,119 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>-5</v>
+      </c>
+      <c r="F9">
+        <v>-11</v>
+      </c>
+      <c r="G9">
+        <v>-11</v>
+      </c>
+      <c r="H9">
+        <v>-10</v>
+      </c>
+      <c r="I9">
+        <v>-7</v>
+      </c>
+      <c r="J9">
+        <v>-7</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>4</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>6</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>11</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>4</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>2</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>-1</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>-8</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>-2</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>-5</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>-4</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>-8</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>-10</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>-12</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>-9</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>-5</v>
       </c>
-      <c r="J10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>-5</v>
-      </c>
-      <c r="F11">
-        <v>-11</v>
-      </c>
-      <c r="G11">
-        <v>-11</v>
-      </c>
-      <c r="H11">
+      <c r="J11">
         <v>-10</v>
       </c>
-      <c r="I11">
-        <v>-7</v>
-      </c>
-      <c r="J11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -3750,11 +3837,14 @@
       <c r="I12">
         <v>-22</v>
       </c>
-      <c r="J12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="J12">
+        <v>-28</v>
+      </c>
+      <c r="K12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3782,8 +3872,11 @@
       <c r="I13">
         <v>-38</v>
       </c>
-      <c r="J13" t="s">
-        <v>101</v>
+      <c r="J13">
+        <v>-40</v>
+      </c>
+      <c r="K13" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3793,7 +3886,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3801,25 +3894,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3879,25 +3972,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>-15</v>
+        <v>-8</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>-28</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3905,25 +3998,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>-11</v>
+        <v>-15</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3931,25 +4024,25 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>-11</v>
+      </c>
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="G6">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
         <v>9</v>
-      </c>
-      <c r="F6">
-        <v>-2</v>
-      </c>
-      <c r="G6">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3960,22 +4053,22 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>-7</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="G7">
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3983,25 +4076,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>-19</v>
+        <v>-7</v>
       </c>
       <c r="F8">
-        <v>-30</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4009,25 +4102,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>-19</v>
       </c>
       <c r="F9">
-        <v>-2</v>
+        <v>-30</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4035,25 +4128,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="G10">
         <v>10</v>
       </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>11</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
       <c r="H10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4061,25 +4154,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>-7</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="G11">
         <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4087,25 +4180,51 @@
         <v>10</v>
       </c>
       <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
         <v>3</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12">
         <v>8</v>
       </c>
-      <c r="D12" t="s">
+      <c r="H12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="E12">
-        <v>-6</v>
-      </c>
-      <c r="F12">
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>-7</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="G12">
-        <v>7</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="G13">
         <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/The Mike Daisy Sports IQ League 2025.xlsx
+++ b/leagues/The Mike Daisy Sports IQ League 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="128">
   <si>
     <t>Njigba's in Paris</t>
   </si>
@@ -60,31 +60,34 @@
     <t>Matt Gay Team</t>
   </si>
   <si>
-    <t>4-5-0</t>
-  </si>
-  <si>
-    <t>6-3-0</t>
-  </si>
-  <si>
-    <t>5-4-0</t>
-  </si>
-  <si>
-    <t>8-1-0</t>
-  </si>
-  <si>
-    <t>3-6-0</t>
-  </si>
-  <si>
-    <t>2-7-0</t>
-  </si>
-  <si>
-    <t>7-2-0</t>
-  </si>
-  <si>
-    <t>1-8-0</t>
-  </si>
-  <si>
-    <t>0-9-0</t>
+    <t>5-5-0</t>
+  </si>
+  <si>
+    <t>7-3-0</t>
+  </si>
+  <si>
+    <t>6-4-0</t>
+  </si>
+  <si>
+    <t>9-1-0</t>
+  </si>
+  <si>
+    <t>4-6-0</t>
+  </si>
+  <si>
+    <t>3-7-0</t>
+  </si>
+  <si>
+    <t>2-8-0</t>
+  </si>
+  <si>
+    <t>1-9-0</t>
+  </si>
+  <si>
+    <t>8-2-0</t>
+  </si>
+  <si>
+    <t>0-10-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -174,6 +177,9 @@
     <t>Week_10</t>
   </si>
   <si>
+    <t>Week_11</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -198,66 +204,60 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>7-2</t>
-  </si>
-  <si>
-    <t>6-3</t>
-  </si>
-  <si>
-    <t>5-4</t>
-  </si>
-  <si>
-    <t>4-5</t>
-  </si>
-  <si>
-    <t>2-7</t>
-  </si>
-  <si>
-    <t>3-6</t>
-  </si>
-  <si>
-    <t>10.1-3.8</t>
-  </si>
-  <si>
-    <t>9.0-5.0</t>
-  </si>
-  <si>
-    <t>8.3-5.7</t>
-  </si>
-  <si>
-    <t>8.1-5.9</t>
-  </si>
-  <si>
-    <t>7.8-6.1</t>
-  </si>
-  <si>
-    <t>7.3-6.7</t>
-  </si>
-  <si>
-    <t>6.7-7.3</t>
-  </si>
-  <si>
-    <t>6.3-7.7</t>
-  </si>
-  <si>
-    <t>6.1-7.8</t>
+    <t>7-3</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>2-8</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>9.4-4.6</t>
+  </si>
+  <si>
+    <t>9.6-4.3</t>
+  </si>
+  <si>
+    <t>8.7-5.3</t>
+  </si>
+  <si>
+    <t>8.4-5.5</t>
+  </si>
+  <si>
+    <t>8.2-5.8</t>
+  </si>
+  <si>
+    <t>6.8-7.2</t>
   </si>
   <si>
     <t>6.2-7.8</t>
   </si>
   <si>
-    <t>3.6-10.4</t>
-  </si>
-  <si>
-    <t>4.3-9.6</t>
+    <t>5.5-8.5</t>
+  </si>
+  <si>
+    <t>3.4-10.6</t>
+  </si>
+  <si>
+    <t>4.0-9.9</t>
+  </si>
+  <si>
+    <t>9-5</t>
   </si>
   <si>
     <t>10-4</t>
   </si>
   <si>
-    <t>9-5</t>
-  </si>
-  <si>
     <t>8-6</t>
   </si>
   <si>
@@ -267,6 +267,9 @@
     <t>6-8</t>
   </si>
   <si>
+    <t>5-9</t>
+  </si>
+  <si>
     <t>3-11</t>
   </si>
   <si>
@@ -288,27 +291,27 @@
     <t>Mark Yanzuk</t>
   </si>
   <si>
+    <t>Nick DiNunzio</t>
+  </si>
+  <si>
+    <t>Bobby  Schnur</t>
+  </si>
+  <si>
     <t>Rob Pernell</t>
   </si>
   <si>
-    <t>Nick DiNunzio</t>
-  </si>
-  <si>
-    <t>Bobby  Schnur</t>
-  </si>
-  <si>
     <t>Dylan Sowers</t>
   </si>
   <si>
     <t>Michael Daisey</t>
   </si>
   <si>
+    <t>David O'Kane</t>
+  </si>
+  <si>
     <t>Matthew Jennings</t>
   </si>
   <si>
-    <t>David O'Kane</t>
-  </si>
-  <si>
     <t>Shjon Sowers</t>
   </si>
   <si>
@@ -321,25 +324,37 @@
     <t>↑5</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑10</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑2</t>
   </si>
   <si>
     <t>↓8</t>
   </si>
   <si>
-    <t>↓5</t>
-  </si>
-  <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>↓2</t>
+    <t>↓9</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -367,6 +382,9 @@
   </si>
   <si>
     <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
   </si>
   <si>
     <t>Week</t>
@@ -797,19 +815,19 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -818,10 +836,10 @@
         <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
         <v>19</v>
@@ -838,13 +856,13 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -853,19 +871,19 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M3" t="s">
         <v>13</v>
@@ -879,7 +897,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -900,13 +918,13 @@
         <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
@@ -929,7 +947,7 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -947,7 +965,7 @@
         <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M5" t="s">
         <v>14</v>
@@ -961,13 +979,13 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -982,13 +1000,13 @@
         <v>14</v>
       </c>
       <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" t="s">
         <v>14</v>
       </c>
-      <c r="K6" t="s">
-        <v>13</v>
-      </c>
       <c r="L6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M6" t="s">
         <v>14</v>
@@ -1002,34 +1020,34 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
         <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
       </c>
       <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
         <v>12</v>
       </c>
-      <c r="K7" t="s">
-        <v>14</v>
-      </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M7" t="s">
         <v>13</v>
@@ -1040,40 +1058,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="L8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" t="s">
         <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1084,34 +1102,34 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
         <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M9" t="s">
         <v>14</v>
@@ -1137,7 +1155,7 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -1149,13 +1167,13 @@
         <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
       </c>
       <c r="M10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1166,13 +1184,13 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1187,13 +1205,13 @@
         <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" t="s">
         <v>12</v>
-      </c>
-      <c r="L11" t="s">
-        <v>14</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
@@ -1207,7 +1225,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -1228,13 +1246,13 @@
         <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K12" t="s">
         <v>12</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M12" t="s">
         <v>12</v>
@@ -1251,34 +1269,34 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13" t="s">
         <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L13" t="s">
         <v>19</v>
       </c>
       <c r="M13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1296,13 +1314,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1313,10 +1331,10 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>3.5</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1324,13 +1342,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>3.666666666666667</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1338,13 +1356,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>3.916666666666667</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1355,7 +1373,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1369,10 +1387,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>4.25</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1380,10 +1398,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1394,13 +1412,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>4.833333333333333</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1408,13 +1426,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>4.833333333333333</v>
+        <v>5.5</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1425,10 +1443,10 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>4.916666666666667</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1436,10 +1454,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>5.083333333333333</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -1450,13 +1468,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>5.25</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1467,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.5</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -1488,16 +1506,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1505,16 +1523,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>6.75</v>
       </c>
       <c r="D2">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1522,16 +1540,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>5.75</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D3">
-        <v>0.75</v>
+        <v>-0.416666666666667</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1542,10 +1560,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>5.583333333333333</v>
+        <v>6.5</v>
       </c>
       <c r="D4">
-        <v>0.583333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1556,16 +1574,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>5.583333333333333</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D5">
-        <v>0.583333333333333</v>
+        <v>-1.083333333333333</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1573,16 +1591,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>5.416666666666667</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D6">
-        <v>-0.583333333333333</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1590,16 +1608,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>4.75</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D7">
-        <v>-0.25</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1610,13 +1628,13 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>4.666666666666667</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D8">
-        <v>0.666666666666667</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1624,13 +1642,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>4.416666666666667</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>0.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1650,7 +1668,7 @@
         <v>0.08333333333333304</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1661,10 +1679,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.166666666666667</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D11">
-        <v>-0.8333333333333335</v>
+        <v>-1.416666666666667</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1678,13 +1696,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>2.833333333333333</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D12">
-        <v>0.8333333333333335</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1695,13 +1713,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.75</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D13">
-        <v>-1.25</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1719,72 +1737,72 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>67.2</v>
+        <v>20.3</v>
       </c>
       <c r="C2">
-        <v>16.2</v>
+        <v>24.7</v>
       </c>
       <c r="D2">
-        <v>8.5</v>
+        <v>23.1</v>
       </c>
       <c r="E2">
-        <v>4.2</v>
+        <v>18.7</v>
       </c>
       <c r="F2">
-        <v>2.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G2">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1807,37 +1825,37 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>11.3</v>
+        <v>45.4</v>
       </c>
       <c r="C3">
-        <v>26.9</v>
+        <v>23.5</v>
       </c>
       <c r="D3">
-        <v>21.8</v>
+        <v>15.5</v>
       </c>
       <c r="E3">
-        <v>17.7</v>
+        <v>9.1</v>
       </c>
       <c r="F3">
-        <v>10.5</v>
+        <v>4.1</v>
       </c>
       <c r="G3">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>0.3</v>
       </c>
       <c r="I3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="K3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1846,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>99.5</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1854,131 +1872,131 @@
         <v>8</v>
       </c>
       <c r="B4">
+        <v>19.3</v>
+      </c>
+      <c r="C4">
+        <v>23.8</v>
+      </c>
+      <c r="D4">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>16.1</v>
+      </c>
+      <c r="F4">
         <v>8.300000000000001</v>
       </c>
-      <c r="C4">
-        <v>23.9</v>
-      </c>
-      <c r="D4">
-        <v>23.9</v>
-      </c>
-      <c r="E4">
-        <v>17.6</v>
-      </c>
-      <c r="F4">
-        <v>9.6</v>
-      </c>
       <c r="G4">
-        <v>8.300000000000001</v>
+        <v>4.6</v>
       </c>
       <c r="H4">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="I4">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="J4">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="K4">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>97.90000000000001</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5">
+        <v>12.5</v>
+      </c>
+      <c r="C5">
+        <v>16.9</v>
+      </c>
+      <c r="D5">
+        <v>20.5</v>
+      </c>
+      <c r="E5">
+        <v>23.1</v>
+      </c>
+      <c r="F5">
+        <v>13.3</v>
+      </c>
+      <c r="G5">
+        <v>7.7</v>
+      </c>
+      <c r="H5">
         <v>3.3</v>
       </c>
-      <c r="C5">
-        <v>12.1</v>
-      </c>
-      <c r="D5">
-        <v>16.9</v>
-      </c>
-      <c r="E5">
-        <v>19.3</v>
-      </c>
-      <c r="F5">
-        <v>18.9</v>
-      </c>
-      <c r="G5">
-        <v>13.9</v>
-      </c>
-      <c r="H5">
-        <v>7.7</v>
-      </c>
       <c r="I5">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="K5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>97.09999999999999</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>8.1</v>
+        <v>2.2</v>
       </c>
       <c r="C6">
-        <v>13.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D6">
-        <v>15.6</v>
+        <v>12.2</v>
       </c>
       <c r="E6">
-        <v>16.2</v>
+        <v>18.5</v>
       </c>
       <c r="F6">
-        <v>15</v>
+        <v>28.2</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>16.8</v>
       </c>
       <c r="H6">
-        <v>9.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I6">
-        <v>5.7</v>
+        <v>3.1</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="K6">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>95.7</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1986,219 +2004,219 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.3</v>
+        <v>0.1</v>
       </c>
       <c r="C7">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>0.8</v>
       </c>
       <c r="E7">
-        <v>10.5</v>
+        <v>4.4</v>
       </c>
       <c r="F7">
-        <v>15.2</v>
+        <v>11.5</v>
       </c>
       <c r="G7">
-        <v>19.8</v>
+        <v>20.5</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>21.6</v>
       </c>
       <c r="I7">
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
       <c r="J7">
-        <v>9.6</v>
+        <v>15.5</v>
       </c>
       <c r="K7">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="L7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>86.59999999999999</v>
+        <v>78.3</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C8">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="D8">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="E8">
-        <v>8.800000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="F8">
-        <v>13.2</v>
+        <v>9.9</v>
       </c>
       <c r="G8">
-        <v>16.3</v>
+        <v>13.3</v>
       </c>
       <c r="H8">
-        <v>14.8</v>
+        <v>24.3</v>
       </c>
       <c r="I8">
-        <v>15.1</v>
+        <v>19.7</v>
       </c>
       <c r="J8">
-        <v>13.1</v>
+        <v>17.7</v>
       </c>
       <c r="K8">
-        <v>10.4</v>
+        <v>6.7</v>
       </c>
       <c r="L8">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="M8">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="N8">
-        <v>73.90000000000001</v>
+        <v>74.90000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B9">
+        <v>0.1</v>
+      </c>
+      <c r="C9">
         <v>0.2</v>
       </c>
-      <c r="C9">
-        <v>0.4</v>
-      </c>
       <c r="D9">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="F9">
         <v>6.8</v>
       </c>
       <c r="G9">
-        <v>8.4</v>
+        <v>15.2</v>
       </c>
       <c r="H9">
-        <v>15.9</v>
+        <v>17</v>
       </c>
       <c r="I9">
-        <v>18.8</v>
+        <v>21.8</v>
       </c>
       <c r="J9">
-        <v>21.3</v>
+        <v>22.2</v>
       </c>
       <c r="K9">
-        <v>17.3</v>
+        <v>11.4</v>
       </c>
       <c r="L9">
-        <v>6.1</v>
+        <v>1.3</v>
       </c>
       <c r="M9">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="N9">
-        <v>54.7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
+        <v>0.2</v>
+      </c>
+      <c r="D10">
         <v>0.4</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
       <c r="E10">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="F10">
-        <v>3.9</v>
+        <v>7.1</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>14.4</v>
       </c>
       <c r="H10">
-        <v>12.7</v>
+        <v>16.4</v>
       </c>
       <c r="I10">
-        <v>22</v>
+        <v>23.7</v>
       </c>
       <c r="J10">
-        <v>23.5</v>
+        <v>18.4</v>
       </c>
       <c r="K10">
-        <v>22.1</v>
+        <v>13.8</v>
       </c>
       <c r="L10">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="M10">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="N10">
-        <v>48.4</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F11">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="G11">
-        <v>7.6</v>
+        <v>2.5</v>
       </c>
       <c r="H11">
-        <v>13.3</v>
+        <v>5.3</v>
       </c>
       <c r="I11">
-        <v>16.1</v>
+        <v>10.5</v>
       </c>
       <c r="J11">
-        <v>20.6</v>
+        <v>19.3</v>
       </c>
       <c r="K11">
-        <v>25.9</v>
+        <v>44.1</v>
       </c>
       <c r="L11">
-        <v>8.5</v>
+        <v>14.1</v>
       </c>
       <c r="M11">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="N11">
-        <v>43.3</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2221,28 +2239,28 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="I12">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J12">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="K12">
-        <v>7.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L12">
-        <v>29.4</v>
+        <v>34.6</v>
       </c>
       <c r="M12">
-        <v>59.7</v>
+        <v>54</v>
       </c>
       <c r="N12">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2265,28 +2283,28 @@
         <v>0</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0.1</v>
+      </c>
+      <c r="I13">
+        <v>0.1</v>
+      </c>
+      <c r="J13">
+        <v>2.2</v>
+      </c>
+      <c r="K13">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="L13">
+        <v>46.8</v>
+      </c>
+      <c r="M13">
+        <v>42.1</v>
+      </c>
+      <c r="N13">
         <v>0.2</v>
-      </c>
-      <c r="H13">
-        <v>0.6</v>
-      </c>
-      <c r="I13">
-        <v>0.6</v>
-      </c>
-      <c r="J13">
-        <v>3.2</v>
-      </c>
-      <c r="K13">
-        <v>10.6</v>
-      </c>
-      <c r="L13">
-        <v>47.9</v>
-      </c>
-      <c r="M13">
-        <v>36.9</v>
-      </c>
-      <c r="N13">
-        <v>1.4</v>
       </c>
     </row>
   </sheetData>
@@ -2296,45 +2314,48 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>50</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2342,34 +2363,37 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>91.90000000000001</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="D2">
-        <v>98.5</v>
+        <v>98.2</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="F2">
         <v>100</v>
       </c>
       <c r="G2">
-        <v>98.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H2">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="I2">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="J2">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="K2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2377,45 +2401,48 @@
         <v>99.8</v>
       </c>
       <c r="C3">
-        <v>67.90000000000001</v>
+        <v>68.60000000000001</v>
       </c>
       <c r="D3">
-        <v>82.19999999999999</v>
+        <v>79.60000000000001</v>
       </c>
       <c r="E3">
-        <v>83.7</v>
+        <v>84</v>
       </c>
       <c r="F3">
-        <v>93.10000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="G3">
-        <v>95.8</v>
+        <v>96</v>
       </c>
       <c r="H3">
-        <v>94.89999999999999</v>
+        <v>95</v>
       </c>
       <c r="I3">
-        <v>98.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J3">
-        <v>99.09999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="K3">
-        <v>99.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>36.2</v>
+        <v>35.2</v>
       </c>
       <c r="C4">
-        <v>75.8</v>
+        <v>79.10000000000001</v>
       </c>
       <c r="D4">
-        <v>90.2</v>
+        <v>89.7</v>
       </c>
       <c r="E4">
         <v>79</v>
@@ -2424,92 +2451,101 @@
         <v>76.5</v>
       </c>
       <c r="G4">
-        <v>89.3</v>
+        <v>89.7</v>
       </c>
       <c r="H4">
-        <v>96.2</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="I4">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="J4">
-        <v>97.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="K4">
-        <v>98.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>99.8</v>
+      </c>
+      <c r="L4">
+        <v>99.59999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>58.2</v>
+      </c>
+      <c r="C5">
+        <v>89.60000000000001</v>
+      </c>
+      <c r="D5">
+        <v>66.10000000000001</v>
+      </c>
+      <c r="E5">
+        <v>48.2</v>
+      </c>
+      <c r="F5">
+        <v>70.8</v>
+      </c>
+      <c r="G5">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="H5">
+        <v>93.10000000000001</v>
+      </c>
+      <c r="I5">
+        <v>96.7</v>
+      </c>
+      <c r="J5">
+        <v>94.8</v>
+      </c>
+      <c r="K5">
+        <v>99.2</v>
+      </c>
+      <c r="L5">
+        <v>99.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>82.39999999999999</v>
-      </c>
-      <c r="C5">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="D5">
-        <v>67.10000000000001</v>
-      </c>
-      <c r="E5">
-        <v>69.3</v>
-      </c>
-      <c r="F5">
-        <v>73.3</v>
-      </c>
-      <c r="G5">
-        <v>79.10000000000001</v>
-      </c>
-      <c r="H5">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="I5">
-        <v>96.89999999999999</v>
-      </c>
-      <c r="J5">
-        <v>97</v>
-      </c>
-      <c r="K5">
-        <v>97.59999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B6">
-        <v>59</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="C6">
-        <v>89.2</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="D6">
-        <v>65.2</v>
+        <v>69.8</v>
       </c>
       <c r="E6">
-        <v>49.9</v>
+        <v>70.3</v>
       </c>
       <c r="F6">
-        <v>73.09999999999999</v>
+        <v>72.7</v>
       </c>
       <c r="G6">
-        <v>87.2</v>
+        <v>79.7</v>
       </c>
       <c r="H6">
-        <v>92.90000000000001</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="I6">
-        <v>97.89999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="J6">
-        <v>93.7</v>
+        <v>96.8</v>
       </c>
       <c r="K6">
-        <v>94.69999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="L6">
+        <v>98.40000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2517,241 +2553,262 @@
         <v>99.90000000000001</v>
       </c>
       <c r="C7">
-        <v>88.09999999999999</v>
+        <v>86.3</v>
       </c>
       <c r="D7">
-        <v>95.39999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="E7">
-        <v>98.3</v>
+        <v>98.5</v>
       </c>
       <c r="F7">
-        <v>98.90000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="G7">
-        <v>94.89999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="H7">
+        <v>81</v>
+      </c>
+      <c r="I7">
+        <v>67</v>
+      </c>
+      <c r="J7">
         <v>84.2</v>
       </c>
-      <c r="I7">
-        <v>69</v>
-      </c>
-      <c r="J7">
-        <v>86.09999999999999</v>
-      </c>
       <c r="K7">
-        <v>87.09999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="L7">
+        <v>81.10000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>10.9</v>
+      </c>
+      <c r="C8">
+        <v>48.2</v>
+      </c>
+      <c r="D8">
+        <v>80.2</v>
+      </c>
+      <c r="E8">
+        <v>93.30000000000001</v>
+      </c>
+      <c r="F8">
+        <v>89.2</v>
+      </c>
+      <c r="G8">
+        <v>61</v>
+      </c>
+      <c r="H8">
+        <v>49.8</v>
+      </c>
+      <c r="I8">
+        <v>66.5</v>
+      </c>
+      <c r="J8">
+        <v>47.5</v>
+      </c>
+      <c r="K8">
+        <v>71.8</v>
+      </c>
+      <c r="L8">
+        <v>73.40000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>15.3</v>
+      </c>
+      <c r="C9">
+        <v>63</v>
+      </c>
+      <c r="D9">
+        <v>47.9</v>
+      </c>
+      <c r="E9">
+        <v>72</v>
+      </c>
+      <c r="F9">
+        <v>58.8</v>
+      </c>
+      <c r="G9">
+        <v>40.2</v>
+      </c>
+      <c r="H9">
+        <v>56.8</v>
+      </c>
+      <c r="I9">
+        <v>38.4</v>
+      </c>
+      <c r="J9">
+        <v>51.1</v>
+      </c>
+      <c r="K9">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="L9">
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="C8">
-        <v>86.3</v>
-      </c>
-      <c r="D8">
-        <v>26.4</v>
-      </c>
-      <c r="E8">
-        <v>18.2</v>
-      </c>
-      <c r="F8">
+      <c r="B10">
+        <v>99</v>
+      </c>
+      <c r="C10">
+        <v>84.7</v>
+      </c>
+      <c r="D10">
+        <v>28.2</v>
+      </c>
+      <c r="E10">
+        <v>18.5</v>
+      </c>
+      <c r="F10">
         <v>25.4</v>
       </c>
-      <c r="G8">
-        <v>55.3</v>
-      </c>
-      <c r="H8">
-        <v>37.3</v>
-      </c>
-      <c r="I8">
-        <v>56.59999999999999</v>
-      </c>
-      <c r="J8">
-        <v>77</v>
-      </c>
-      <c r="K8">
-        <v>73.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>11.1</v>
-      </c>
-      <c r="C9">
-        <v>45.9</v>
-      </c>
-      <c r="D9">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="E9">
-        <v>93.7</v>
-      </c>
-      <c r="F9">
-        <v>89.8</v>
-      </c>
-      <c r="G9">
-        <v>66.3</v>
-      </c>
-      <c r="H9">
-        <v>49.8</v>
-      </c>
-      <c r="I9">
-        <v>68</v>
-      </c>
-      <c r="J9">
-        <v>50.2</v>
-      </c>
-      <c r="K9">
-        <v>51.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
+      <c r="G10">
+        <v>58.5</v>
+      </c>
+      <c r="H10">
+        <v>39.6</v>
+      </c>
+      <c r="I10">
+        <v>59</v>
+      </c>
+      <c r="J10">
+        <v>75.5</v>
+      </c>
+      <c r="K10">
+        <v>62.6</v>
+      </c>
+      <c r="L10">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
-        <v>31.1</v>
-      </c>
-      <c r="C10">
-        <v>45.9</v>
-      </c>
-      <c r="D10">
-        <v>32.7</v>
-      </c>
-      <c r="E10">
-        <v>48</v>
-      </c>
-      <c r="F10">
-        <v>28.8</v>
-      </c>
-      <c r="G10">
-        <v>45.5</v>
-      </c>
-      <c r="H10">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="I10">
-        <v>70.7</v>
-      </c>
-      <c r="J10">
-        <v>46.3</v>
-      </c>
-      <c r="K10">
-        <v>48.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B11">
-        <v>16.5</v>
+        <v>35</v>
       </c>
       <c r="C11">
-        <v>64.3</v>
+        <v>44.5</v>
       </c>
       <c r="D11">
-        <v>49.3</v>
+        <v>33.4</v>
       </c>
       <c r="E11">
-        <v>72.2</v>
+        <v>45.1</v>
       </c>
       <c r="F11">
-        <v>56.89999999999999</v>
+        <v>28.4</v>
       </c>
       <c r="G11">
-        <v>39.7</v>
+        <v>44.1</v>
       </c>
       <c r="H11">
-        <v>54.6</v>
+        <v>79.10000000000001</v>
       </c>
       <c r="I11">
-        <v>35.5</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="J11">
-        <v>49</v>
+        <v>48.1</v>
       </c>
       <c r="K11">
-        <v>45.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>23.3</v>
+      </c>
+      <c r="L11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>96.5</v>
+      </c>
+      <c r="C12">
+        <v>77.5</v>
+      </c>
+      <c r="D12">
+        <v>82.69999999999999</v>
+      </c>
+      <c r="E12">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="F12">
+        <v>75.2</v>
+      </c>
+      <c r="G12">
+        <v>25.6</v>
+      </c>
+      <c r="H12">
+        <v>9.5</v>
+      </c>
+      <c r="I12">
+        <v>5.1</v>
+      </c>
+      <c r="J12">
+        <v>1.6</v>
+      </c>
+      <c r="K12">
+        <v>0.6</v>
+      </c>
+      <c r="L12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="C12">
-        <v>2.2</v>
-      </c>
-      <c r="D12">
-        <v>30</v>
-      </c>
-      <c r="E12">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="F12">
-        <v>7.8</v>
-      </c>
-      <c r="G12">
-        <v>23.1</v>
-      </c>
-      <c r="H12">
-        <v>10.9</v>
-      </c>
-      <c r="I12">
-        <v>7.1</v>
-      </c>
-      <c r="J12">
-        <v>2.8</v>
-      </c>
-      <c r="K12">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1" t="s">
+      <c r="B13">
+        <v>67.30000000000001</v>
+      </c>
+      <c r="C13">
+        <v>1.8</v>
+      </c>
+      <c r="D13">
+        <v>28.5</v>
+      </c>
+      <c r="E13">
+        <v>11.4</v>
+      </c>
+      <c r="F13">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>96.7</v>
-      </c>
-      <c r="C13">
-        <v>78.10000000000001</v>
-      </c>
-      <c r="D13">
-        <v>82.09999999999999</v>
-      </c>
-      <c r="E13">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="F13">
-        <v>76.40000000000001</v>
-      </c>
       <c r="G13">
-        <v>25.1</v>
+        <v>23.4</v>
       </c>
       <c r="H13">
         <v>11.5</v>
       </c>
       <c r="I13">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="J13">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="K13">
-        <v>1.1</v>
+        <v>0.6</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -2769,48 +2826,48 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2">
-        <v>0.7777777777777778</v>
+        <v>0.7</v>
       </c>
       <c r="D2">
-        <v>136.9533333333333</v>
+        <v>125.964</v>
       </c>
       <c r="E2">
-        <v>1232.58</v>
+        <v>1259.64</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -2819,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I2" t="s">
         <v>76</v>
@@ -2827,28 +2884,28 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="D3">
-        <v>126.6577777777778</v>
+        <v>135.842</v>
       </c>
       <c r="E3">
-        <v>1139.92</v>
+        <v>1358.42</v>
       </c>
       <c r="F3">
-        <v>99.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I3" t="s">
         <v>77</v>
@@ -2859,83 +2916,83 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="D4">
-        <v>138.04</v>
+        <v>142.906</v>
       </c>
       <c r="E4">
-        <v>1242.36</v>
+        <v>1429.06</v>
       </c>
       <c r="F4">
-        <v>97.89999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="D5">
-        <v>127.9422222222222</v>
+        <v>138.124</v>
       </c>
       <c r="E5">
-        <v>1151.48</v>
+        <v>1381.24</v>
       </c>
       <c r="F5">
-        <v>97.09999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="D6">
-        <v>134.3822222222222</v>
+        <v>125.204</v>
       </c>
       <c r="E6">
-        <v>1209.44</v>
+        <v>1252.04</v>
       </c>
       <c r="F6">
-        <v>95.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="G6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I6" t="s">
         <v>78</v>
@@ -2946,25 +3003,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C7">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>123.2177777777778</v>
+        <v>121.448</v>
       </c>
       <c r="E7">
-        <v>1108.96</v>
+        <v>1214.48</v>
       </c>
       <c r="F7">
-        <v>86.59999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s">
         <v>79</v>
@@ -2972,28 +3029,28 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>125.5488888888889</v>
+        <v>119.126</v>
       </c>
       <c r="E8">
-        <v>1129.94</v>
+        <v>1191.26</v>
       </c>
       <c r="F8">
-        <v>73.90000000000001</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="G8">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s">
         <v>79</v>
@@ -3001,54 +3058,54 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>118.2822222222222</v>
+        <v>112.37</v>
       </c>
       <c r="E9">
-        <v>1064.54</v>
+        <v>1123.7</v>
       </c>
       <c r="F9">
-        <v>54.7</v>
+        <v>65</v>
       </c>
       <c r="G9">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H9" t="s">
         <v>71</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C10">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
-        <v>117.4777777777778</v>
+        <v>125.152</v>
       </c>
       <c r="E10">
-        <v>1057.3</v>
+        <v>1251.52</v>
       </c>
       <c r="F10">
-        <v>48.4</v>
+        <v>64.8</v>
       </c>
       <c r="G10">
-        <v>0.5</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="H10" t="s">
         <v>72</v>
@@ -3059,31 +3116,31 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C11">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="D11">
-        <v>111.8666666666667</v>
+        <v>110.44</v>
       </c>
       <c r="E11">
-        <v>1006.8</v>
+        <v>1104.4</v>
       </c>
       <c r="F11">
-        <v>43.3</v>
+        <v>19.5</v>
       </c>
       <c r="G11">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H11" t="s">
         <v>73</v>
       </c>
       <c r="I11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3091,28 +3148,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C12">
-        <v>0.2222222222222222</v>
+        <v>0.2</v>
       </c>
       <c r="D12">
-        <v>104.1266666666667</v>
+        <v>107.258</v>
       </c>
       <c r="E12">
-        <v>937.1399999999999</v>
+        <v>1072.58</v>
       </c>
       <c r="F12">
-        <v>1.5</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="G12">
-        <v>59.7</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
         <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3120,28 +3177,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C13">
-        <v>0.3333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="D13">
-        <v>99.45999999999999</v>
+        <v>99.48400000000001</v>
       </c>
       <c r="E13">
-        <v>895.14</v>
+        <v>994.84</v>
       </c>
       <c r="F13">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="G13">
-        <v>36.9</v>
+        <v>42.1</v>
       </c>
       <c r="H13" t="s">
         <v>75</v>
       </c>
       <c r="I13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3159,19 +3216,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3182,16 +3239,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3202,16 +3259,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3219,19 +3276,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3239,19 +3296,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3259,19 +3316,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3282,16 +3339,16 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3302,16 +3359,16 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3319,19 +3376,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D9">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3339,19 +3396,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D10">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3362,16 +3419,16 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D11">
-        <v>-10</v>
+        <v>-18</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3382,16 +3439,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D12">
-        <v>-28</v>
+        <v>-34</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3402,16 +3459,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D13">
-        <v>-40</v>
+        <v>-49</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3421,45 +3478,48 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3490,11 +3550,14 @@
       <c r="J2">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3525,116 +3588,128 @@
       <c r="J3">
         <v>19</v>
       </c>
-      <c r="K3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="C4">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D4">
+        <v>-6</v>
+      </c>
+      <c r="E4">
+        <v>-6</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>-8</v>
+      </c>
+      <c r="C5">
         <v>-7</v>
       </c>
-      <c r="E4">
-        <v>-2</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="D5">
+        <v>-4</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>8</v>
       </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-      <c r="I4">
-        <v>13</v>
-      </c>
-      <c r="J4">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>-4</v>
-      </c>
-      <c r="C5">
-        <v>-3</v>
-      </c>
-      <c r="D5">
-        <v>-6</v>
-      </c>
-      <c r="E5">
-        <v>-6</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>6</v>
       </c>
       <c r="J5">
-        <v>11</v>
-      </c>
-      <c r="K5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>13</v>
+      </c>
+      <c r="L5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="C6">
+        <v>-2</v>
+      </c>
+      <c r="D6">
         <v>-7</v>
       </c>
-      <c r="D6">
-        <v>-4</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>8</v>
       </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
       <c r="H6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I6">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J6">
+        <v>16</v>
+      </c>
+      <c r="K6">
         <v>9</v>
       </c>
-      <c r="K6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3665,11 +3740,14 @@
       <c r="J7">
         <v>7</v>
       </c>
-      <c r="K7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3700,81 +3778,90 @@
       <c r="J8">
         <v>6</v>
       </c>
-      <c r="K8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>-1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>-8</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>6</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>-5</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>-11</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>-11</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>-10</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>-7</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>-7</v>
       </c>
-      <c r="K9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>11</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>-1</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>-8</v>
-      </c>
-      <c r="K10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10">
+        <v>-5</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -3805,11 +3892,14 @@
       <c r="J11">
         <v>-10</v>
       </c>
-      <c r="K11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="K11">
+        <v>-18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -3840,11 +3930,14 @@
       <c r="J12">
         <v>-28</v>
       </c>
-      <c r="K12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="K12">
+        <v>-34</v>
+      </c>
+      <c r="L12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3875,8 +3968,11 @@
       <c r="J13">
         <v>-40</v>
       </c>
-      <c r="K13" t="s">
-        <v>105</v>
+      <c r="K13">
+        <v>-49</v>
+      </c>
+      <c r="L13" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3886,7 +3982,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3894,25 +3990,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4024,25 +4120,25 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
       <c r="E6">
-        <v>-11</v>
+        <v>-34</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>-18</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4050,25 +4146,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>-11</v>
+      </c>
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
         <v>9</v>
-      </c>
-      <c r="F7">
-        <v>-2</v>
-      </c>
-      <c r="G7">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4079,22 +4175,22 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>-7</v>
+        <v>9</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="G8">
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4102,25 +4198,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>-19</v>
+        <v>-7</v>
       </c>
       <c r="F9">
-        <v>-30</v>
+        <v>4</v>
       </c>
       <c r="G9">
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4128,25 +4224,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>-19</v>
       </c>
       <c r="F10">
-        <v>16</v>
+        <v>-30</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4154,10 +4250,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -4166,13 +4262,13 @@
         <v>6</v>
       </c>
       <c r="F11">
-        <v>-2</v>
+        <v>16</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4180,51 +4276,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F12">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="G12">
         <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>-7</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>8</v>
-      </c>
-      <c r="H13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/The Mike Daisy Sports IQ League 2025.xlsx
+++ b/leagues/The Mike Daisy Sports IQ League 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="133">
   <si>
     <t>Njigba's in Paris</t>
   </si>
@@ -60,34 +60,37 @@
     <t>Matt Gay Team</t>
   </si>
   <si>
-    <t>5-5-0</t>
-  </si>
-  <si>
-    <t>7-3-0</t>
-  </si>
-  <si>
-    <t>6-4-0</t>
-  </si>
-  <si>
-    <t>9-1-0</t>
-  </si>
-  <si>
-    <t>4-6-0</t>
-  </si>
-  <si>
-    <t>3-7-0</t>
-  </si>
-  <si>
-    <t>2-8-0</t>
-  </si>
-  <si>
-    <t>1-9-0</t>
-  </si>
-  <si>
-    <t>8-2-0</t>
-  </si>
-  <si>
-    <t>0-10-0</t>
+    <t>5-6-0</t>
+  </si>
+  <si>
+    <t>7-4-0</t>
+  </si>
+  <si>
+    <t>6-5-0</t>
+  </si>
+  <si>
+    <t>9-2-0</t>
+  </si>
+  <si>
+    <t>8-3-0</t>
+  </si>
+  <si>
+    <t>4-7-0</t>
+  </si>
+  <si>
+    <t>3-8-0</t>
+  </si>
+  <si>
+    <t>2-9-0</t>
+  </si>
+  <si>
+    <t>1-10-0</t>
+  </si>
+  <si>
+    <t>10-1-0</t>
+  </si>
+  <si>
+    <t>0-11-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -180,6 +183,9 @@
     <t>Week_11</t>
   </si>
   <si>
+    <t>Week_12</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -204,78 +210,87 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>7-3</t>
-  </si>
-  <si>
-    <t>6-4</t>
-  </si>
-  <si>
-    <t>5-5</t>
-  </si>
-  <si>
-    <t>4-6</t>
-  </si>
-  <si>
-    <t>2-8</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>9.4-4.6</t>
-  </si>
-  <si>
-    <t>9.6-4.3</t>
-  </si>
-  <si>
-    <t>8.7-5.3</t>
-  </si>
-  <si>
-    <t>8.4-5.5</t>
-  </si>
-  <si>
-    <t>8.2-5.8</t>
-  </si>
-  <si>
-    <t>6.8-7.2</t>
-  </si>
-  <si>
-    <t>6.2-7.8</t>
-  </si>
-  <si>
-    <t>5.5-8.5</t>
-  </si>
-  <si>
-    <t>3.4-10.6</t>
-  </si>
-  <si>
-    <t>4.0-9.9</t>
+    <t>8-3</t>
+  </si>
+  <si>
+    <t>7-4</t>
+  </si>
+  <si>
+    <t>6-5</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>4-7</t>
+  </si>
+  <si>
+    <t>3-8</t>
+  </si>
+  <si>
+    <t>2-9</t>
+  </si>
+  <si>
+    <t>9.9-4.0</t>
+  </si>
+  <si>
+    <t>8.9-5.1</t>
+  </si>
+  <si>
+    <t>9.6-4.4</t>
+  </si>
+  <si>
+    <t>9.0-5.0</t>
+  </si>
+  <si>
+    <t>7.4-6.6</t>
+  </si>
+  <si>
+    <t>7.5-6.5</t>
+  </si>
+  <si>
+    <t>7.3-6.6</t>
+  </si>
+  <si>
+    <t>6.4-7.6</t>
+  </si>
+  <si>
+    <t>5.7-8.2</t>
+  </si>
+  <si>
+    <t>5.2-8.8</t>
+  </si>
+  <si>
+    <t>3.8-10.1</t>
+  </si>
+  <si>
+    <t>3.1-10.9</t>
+  </si>
+  <si>
+    <t>10-4</t>
   </si>
   <si>
     <t>9-5</t>
   </si>
   <si>
-    <t>10-4</t>
+    <t>7-7</t>
   </si>
   <si>
     <t>8-6</t>
   </si>
   <si>
-    <t>7-7</t>
-  </si>
-  <si>
     <t>6-8</t>
   </si>
   <si>
     <t>5-9</t>
   </si>
   <si>
+    <t>4-10</t>
+  </si>
+  <si>
     <t>3-11</t>
   </si>
   <si>
-    <t>4-10</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -297,21 +312,21 @@
     <t>Bobby  Schnur</t>
   </si>
   <si>
+    <t>Michael Daisey</t>
+  </si>
+  <si>
+    <t>David O'Kane</t>
+  </si>
+  <si>
     <t>Rob Pernell</t>
   </si>
   <si>
+    <t>Matthew Jennings</t>
+  </si>
+  <si>
     <t>Dylan Sowers</t>
   </si>
   <si>
-    <t>Michael Daisey</t>
-  </si>
-  <si>
-    <t>David O'Kane</t>
-  </si>
-  <si>
-    <t>Matthew Jennings</t>
-  </si>
-  <si>
     <t>Shjon Sowers</t>
   </si>
   <si>
@@ -324,34 +339,31 @@
     <t>↑5</t>
   </si>
   <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑10</t>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓6</t>
   </si>
   <si>
     <t>↑4</t>
   </si>
   <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
     <t>↓7</t>
   </si>
   <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↓6</t>
+    <t>0</t>
   </si>
   <si>
     <t>↓9</t>
@@ -385,6 +397,9 @@
   </si>
   <si>
     <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
   </si>
   <si>
     <t>Week</t>
@@ -815,37 +830,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
       </c>
       <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -856,37 +871,37 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -897,37 +912,37 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -938,37 +953,37 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="s">
         <v>13</v>
-      </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -982,13 +997,13 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
         <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -1009,7 +1024,7 @@
         <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1017,40 +1032,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="M7" t="s">
         <v>16</v>
-      </c>
-      <c r="K7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1061,37 +1076,37 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
         <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1102,13 +1117,13 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -1143,37 +1158,37 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
         <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
         <v>15</v>
       </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
       <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
         <v>13</v>
       </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1184,37 +1199,37 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
         <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" t="s">
-        <v>16</v>
       </c>
       <c r="L11" t="s">
         <v>12</v>
       </c>
       <c r="M11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1222,16 +1237,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -1240,10 +1255,10 @@
         <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
         <v>17</v>
@@ -1252,10 +1267,10 @@
         <v>12</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1263,40 +1278,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
       <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
         <v>18</v>
       </c>
-      <c r="F13" t="s">
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" t="s">
         <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1314,13 +1329,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1331,10 +1346,10 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>3.583333333333333</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1345,10 +1360,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.083333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1356,13 +1371,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>4.083333333333333</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1370,10 +1385,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>4.333333333333333</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1387,10 +1402,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>4.833333333333333</v>
+        <v>5.5</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1401,10 +1416,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1415,7 +1430,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>5.083333333333333</v>
+        <v>5.75</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1426,13 +1441,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1443,10 +1458,10 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>5.583333333333333</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1454,10 +1469,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>5.583333333333333</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -1468,13 +1483,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>5.916666666666667</v>
+        <v>6.5</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1482,13 +1497,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>6.416666666666667</v>
+        <v>6.75</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1506,16 +1521,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1523,16 +1538,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>6.75</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D2">
-        <v>0.75</v>
+        <v>-0.583333333333333</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1540,13 +1555,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>6.583333333333333</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D3">
-        <v>-0.416666666666667</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -1557,16 +1572,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>6.5</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1577,13 +1592,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>5.916666666666667</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D5">
-        <v>-1.083333333333333</v>
+        <v>-1.833333333333333</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1591,13 +1606,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>5.833333333333333</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>-0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -1608,16 +1623,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>5.166666666666667</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D7">
-        <v>0.166666666666667</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1628,13 +1643,13 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>5.166666666666667</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D8">
-        <v>1.166666666666667</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1642,16 +1657,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-0.416666666666667</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1662,13 +1677,13 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>4.083333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="D10">
-        <v>0.08333333333333304</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1676,16 +1691,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>3.583333333333333</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D11">
-        <v>-1.416666666666667</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1693,16 +1708,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>3.583333333333333</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D12">
-        <v>1.583333333333333</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1713,13 +1728,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.833333333333333</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="D13">
-        <v>-1.166666666666667</v>
+        <v>-1.083333333333333</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1737,72 +1752,72 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>20.3</v>
+        <v>50.2</v>
       </c>
       <c r="C2">
-        <v>24.7</v>
+        <v>23.2</v>
       </c>
       <c r="D2">
-        <v>23.1</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>18.7</v>
+        <v>6.7</v>
       </c>
       <c r="F2">
-        <v>9.699999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H2">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1825,34 +1840,34 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>45.4</v>
+        <v>16</v>
       </c>
       <c r="C3">
+        <v>23.7</v>
+      </c>
+      <c r="D3">
+        <v>23.2</v>
+      </c>
+      <c r="E3">
         <v>23.5</v>
       </c>
-      <c r="D3">
-        <v>15.5</v>
-      </c>
-      <c r="E3">
-        <v>9.1</v>
-      </c>
       <c r="F3">
-        <v>4.1</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H3">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1864,39 +1879,39 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>19.3</v>
+        <v>16.4</v>
       </c>
       <c r="C4">
-        <v>23.8</v>
+        <v>26.5</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>21.9</v>
       </c>
       <c r="E4">
-        <v>16.1</v>
+        <v>24.9</v>
       </c>
       <c r="F4">
-        <v>8.300000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="G4">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="H4">
-        <v>2.8</v>
+        <v>0.3</v>
       </c>
       <c r="I4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1908,39 +1923,39 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>99.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>12.5</v>
+        <v>17.2</v>
       </c>
       <c r="C5">
-        <v>16.9</v>
+        <v>24.4</v>
       </c>
       <c r="D5">
-        <v>20.5</v>
+        <v>27.5</v>
       </c>
       <c r="E5">
-        <v>23.1</v>
+        <v>19</v>
       </c>
       <c r="F5">
-        <v>13.3</v>
+        <v>7.8</v>
       </c>
       <c r="G5">
-        <v>7.7</v>
+        <v>3.1</v>
       </c>
       <c r="H5">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1952,39 +1967,39 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>98.59999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>2.2</v>
+        <v>0.1</v>
       </c>
       <c r="C6">
-        <v>9.199999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="D6">
-        <v>12.2</v>
+        <v>4.9</v>
       </c>
       <c r="E6">
-        <v>18.5</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>28.2</v>
+        <v>27.6</v>
       </c>
       <c r="G6">
-        <v>16.8</v>
+        <v>23.4</v>
       </c>
       <c r="H6">
-        <v>8.199999999999999</v>
+        <v>16.6</v>
       </c>
       <c r="I6">
-        <v>3.1</v>
+        <v>11.9</v>
       </c>
       <c r="J6">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="K6">
         <v>0.2</v>
@@ -1996,51 +2011,51 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>98.40000000000001</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0.1</v>
       </c>
       <c r="C7">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="D7">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="E7">
-        <v>4.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F7">
-        <v>11.5</v>
+        <v>24.1</v>
       </c>
       <c r="G7">
-        <v>20.5</v>
+        <v>27.4</v>
       </c>
       <c r="H7">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="I7">
-        <v>18.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J7">
-        <v>15.5</v>
+        <v>4.7</v>
       </c>
       <c r="K7">
-        <v>5.9</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>78.3</v>
+        <v>94.3</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2048,43 +2063,43 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="D8">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="E8">
-        <v>4.5</v>
+        <v>6.9</v>
       </c>
       <c r="F8">
-        <v>9.9</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>13.3</v>
+        <v>22.6</v>
       </c>
       <c r="H8">
-        <v>24.3</v>
+        <v>27.3</v>
       </c>
       <c r="I8">
-        <v>19.7</v>
+        <v>13.7</v>
       </c>
       <c r="J8">
-        <v>17.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K8">
-        <v>6.7</v>
+        <v>0.9</v>
       </c>
       <c r="L8">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>74.90000000000001</v>
+        <v>89.40000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2092,43 +2107,43 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>0.2</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
+      <c r="F9">
         <v>2.9</v>
       </c>
-      <c r="F9">
-        <v>6.8</v>
-      </c>
       <c r="G9">
-        <v>15.2</v>
+        <v>7</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>15.7</v>
       </c>
       <c r="I9">
-        <v>21.8</v>
+        <v>26.8</v>
       </c>
       <c r="J9">
-        <v>22.2</v>
+        <v>33.4</v>
       </c>
       <c r="K9">
-        <v>11.4</v>
+        <v>13.4</v>
       </c>
       <c r="L9">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="M9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>65</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2139,40 +2154,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>7.1</v>
+        <v>3.6</v>
       </c>
       <c r="G10">
-        <v>14.4</v>
+        <v>9.4</v>
       </c>
       <c r="H10">
-        <v>16.4</v>
+        <v>12.6</v>
       </c>
       <c r="I10">
-        <v>23.7</v>
+        <v>26.3</v>
       </c>
       <c r="J10">
-        <v>18.4</v>
+        <v>28.4</v>
       </c>
       <c r="K10">
-        <v>13.8</v>
+        <v>17.6</v>
       </c>
       <c r="L10">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="M10">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="N10">
-        <v>64.8</v>
+        <v>51.9</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2189,39 +2204,39 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="G11">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H11">
-        <v>5.3</v>
+        <v>3.3</v>
       </c>
       <c r="I11">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="J11">
-        <v>19.3</v>
+        <v>18.2</v>
       </c>
       <c r="K11">
-        <v>44.1</v>
+        <v>54.5</v>
       </c>
       <c r="L11">
-        <v>14.1</v>
+        <v>10.9</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="N11">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2242,30 +2257,30 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>0.2</v>
       </c>
-      <c r="I12">
-        <v>0.5</v>
-      </c>
       <c r="J12">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="K12">
-        <v>9.199999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="L12">
-        <v>34.6</v>
+        <v>51.6</v>
       </c>
       <c r="M12">
-        <v>54</v>
+        <v>41.4</v>
       </c>
       <c r="N12">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2286,25 +2301,25 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0.1</v>
       </c>
       <c r="J13">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="K13">
-        <v>8.699999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="L13">
-        <v>46.8</v>
+        <v>35.1</v>
       </c>
       <c r="M13">
-        <v>42.1</v>
+        <v>57.4</v>
       </c>
       <c r="N13">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -2314,48 +2329,51 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>52</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2363,25 +2381,25 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>92.60000000000001</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="D2">
-        <v>98.2</v>
+        <v>99</v>
       </c>
       <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G2">
+        <v>98.7</v>
+      </c>
+      <c r="H2">
+        <v>98.8</v>
+      </c>
+      <c r="I2">
         <v>99.8</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="H2">
-        <v>99.3</v>
-      </c>
-      <c r="I2">
-        <v>99.09999999999999</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -2392,423 +2410,459 @@
       <c r="L2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>99.8</v>
+        <v>54.50000000000001</v>
       </c>
       <c r="C3">
-        <v>68.60000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="D3">
-        <v>79.60000000000001</v>
+        <v>67</v>
       </c>
       <c r="E3">
-        <v>84</v>
+        <v>48.5</v>
       </c>
       <c r="F3">
-        <v>94.5</v>
+        <v>71.3</v>
       </c>
       <c r="G3">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H3">
-        <v>95</v>
+        <v>93.30000000000001</v>
       </c>
       <c r="I3">
-        <v>99.59999999999999</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="J3">
-        <v>99.3</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>98.8</v>
       </c>
       <c r="L3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>99.8</v>
+      </c>
+      <c r="C4">
+        <v>65.7</v>
+      </c>
+      <c r="D4">
+        <v>82.3</v>
+      </c>
+      <c r="E4">
+        <v>82.39999999999999</v>
+      </c>
+      <c r="F4">
+        <v>92.5</v>
+      </c>
+      <c r="G4">
+        <v>96.89999999999999</v>
+      </c>
+      <c r="H4">
+        <v>94.8</v>
+      </c>
+      <c r="I4">
+        <v>98.2</v>
+      </c>
+      <c r="J4">
+        <v>99.2</v>
+      </c>
+      <c r="K4">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>35.2</v>
-      </c>
-      <c r="C4">
-        <v>79.10000000000001</v>
-      </c>
-      <c r="D4">
-        <v>89.7</v>
-      </c>
-      <c r="E4">
-        <v>79</v>
-      </c>
-      <c r="F4">
-        <v>76.5</v>
-      </c>
-      <c r="G4">
-        <v>89.7</v>
-      </c>
-      <c r="H4">
-        <v>96.39999999999999</v>
-      </c>
-      <c r="I4">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="J4">
-        <v>98.2</v>
-      </c>
-      <c r="K4">
-        <v>99.8</v>
-      </c>
-      <c r="L4">
-        <v>99.59999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B5">
-        <v>58.2</v>
+        <v>40.40000000000001</v>
       </c>
       <c r="C5">
-        <v>89.60000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="D5">
-        <v>66.10000000000001</v>
+        <v>90.5</v>
       </c>
       <c r="E5">
-        <v>48.2</v>
+        <v>80.5</v>
       </c>
       <c r="F5">
-        <v>70.8</v>
+        <v>75.5</v>
       </c>
       <c r="G5">
-        <v>87.90000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="H5">
-        <v>93.10000000000001</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="I5">
-        <v>96.7</v>
+        <v>93.8</v>
       </c>
       <c r="J5">
-        <v>94.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="K5">
-        <v>99.2</v>
+        <v>99.5</v>
       </c>
       <c r="L5">
-        <v>99.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>100</v>
+      </c>
+      <c r="M5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>87.3</v>
+      </c>
+      <c r="D6">
+        <v>95.8</v>
+      </c>
+      <c r="E6">
+        <v>99</v>
+      </c>
+      <c r="F6">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="G6">
+        <v>94.19999999999999</v>
+      </c>
+      <c r="H6">
+        <v>82.89999999999999</v>
+      </c>
+      <c r="I6">
+        <v>69.19999999999999</v>
+      </c>
+      <c r="J6">
+        <v>86.5</v>
+      </c>
+      <c r="K6">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="L6">
+        <v>94.89999999999999</v>
+      </c>
+      <c r="M6">
+        <v>95.89999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>82.89999999999999</v>
-      </c>
-      <c r="C6">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="D6">
-        <v>69.8</v>
-      </c>
-      <c r="E6">
-        <v>70.3</v>
-      </c>
-      <c r="F6">
-        <v>72.7</v>
-      </c>
-      <c r="G6">
-        <v>79.7</v>
-      </c>
-      <c r="H6">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="I6">
-        <v>97.3</v>
-      </c>
-      <c r="J6">
-        <v>96.8</v>
-      </c>
-      <c r="K6">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="L6">
-        <v>98.40000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B7">
-        <v>99.90000000000001</v>
+        <v>82.39999999999999</v>
       </c>
       <c r="C7">
-        <v>86.3</v>
+        <v>65.2</v>
       </c>
       <c r="D7">
-        <v>95.7</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E7">
-        <v>98.5</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="F7">
-        <v>98.5</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="G7">
-        <v>94.8</v>
+        <v>78.2</v>
       </c>
       <c r="H7">
-        <v>81</v>
+        <v>92.2</v>
       </c>
       <c r="I7">
-        <v>67</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="J7">
-        <v>84.2</v>
+        <v>95.39999999999999</v>
       </c>
       <c r="K7">
-        <v>74.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="L7">
-        <v>81.10000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>93.30000000000001</v>
+      </c>
+      <c r="M7">
+        <v>94.09999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8">
-        <v>10.9</v>
+        <v>11.5</v>
       </c>
       <c r="C8">
-        <v>48.2</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>80.2</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="E8">
-        <v>93.30000000000001</v>
+        <v>92.5</v>
       </c>
       <c r="F8">
-        <v>89.2</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="G8">
-        <v>61</v>
+        <v>65.5</v>
       </c>
       <c r="H8">
-        <v>49.8</v>
+        <v>49.6</v>
       </c>
       <c r="I8">
-        <v>66.5</v>
+        <v>68.10000000000001</v>
       </c>
       <c r="J8">
-        <v>47.5</v>
+        <v>50.8</v>
       </c>
       <c r="K8">
-        <v>71.8</v>
+        <v>72.2</v>
       </c>
       <c r="L8">
-        <v>73.40000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>90.3</v>
+      </c>
+      <c r="M8">
+        <v>90.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>15.3</v>
+        <v>99.5</v>
       </c>
       <c r="C9">
-        <v>63</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="D9">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>18.4</v>
+      </c>
+      <c r="F9">
+        <v>27.9</v>
+      </c>
+      <c r="G9">
+        <v>57.3</v>
+      </c>
+      <c r="H9">
+        <v>37.2</v>
+      </c>
+      <c r="I9">
+        <v>56.89999999999999</v>
+      </c>
+      <c r="J9">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="K9">
+        <v>62.5</v>
+      </c>
+      <c r="L9">
+        <v>49</v>
+      </c>
+      <c r="M9">
+        <v>51.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>15.2</v>
+      </c>
+      <c r="C10">
+        <v>63.9</v>
+      </c>
+      <c r="D10">
+        <v>46.40000000000001</v>
+      </c>
+      <c r="E10">
+        <v>73.5</v>
+      </c>
+      <c r="F10">
+        <v>57.8</v>
+      </c>
+      <c r="G10">
+        <v>39.3</v>
+      </c>
+      <c r="H10">
+        <v>53</v>
+      </c>
+      <c r="I10">
+        <v>34.9</v>
+      </c>
+      <c r="J10">
         <v>47.9</v>
       </c>
-      <c r="E9">
-        <v>72</v>
-      </c>
-      <c r="F9">
-        <v>58.8</v>
-      </c>
-      <c r="G9">
-        <v>40.2</v>
-      </c>
-      <c r="H9">
-        <v>56.8</v>
-      </c>
-      <c r="I9">
-        <v>38.4</v>
-      </c>
-      <c r="J9">
-        <v>51.1</v>
-      </c>
-      <c r="K9">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="L9">
-        <v>65.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>99</v>
-      </c>
-      <c r="C10">
-        <v>84.7</v>
-      </c>
-      <c r="D10">
-        <v>28.2</v>
-      </c>
-      <c r="E10">
-        <v>18.5</v>
-      </c>
-      <c r="F10">
-        <v>25.4</v>
-      </c>
-      <c r="G10">
-        <v>58.5</v>
-      </c>
-      <c r="H10">
-        <v>39.6</v>
-      </c>
-      <c r="I10">
-        <v>59</v>
-      </c>
-      <c r="J10">
-        <v>75.5</v>
-      </c>
       <c r="K10">
-        <v>62.6</v>
+        <v>67.5</v>
       </c>
       <c r="L10">
-        <v>61.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="M10">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B11">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11">
-        <v>44.5</v>
+        <v>46.1</v>
       </c>
       <c r="D11">
-        <v>33.4</v>
+        <v>33.7</v>
       </c>
       <c r="E11">
-        <v>45.1</v>
+        <v>45.4</v>
       </c>
       <c r="F11">
-        <v>28.4</v>
+        <v>30</v>
       </c>
       <c r="G11">
-        <v>44.1</v>
+        <v>44.8</v>
       </c>
       <c r="H11">
-        <v>79.10000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="I11">
-        <v>69.59999999999999</v>
+        <v>71.2</v>
       </c>
       <c r="J11">
-        <v>48.1</v>
+        <v>47.09999999999999</v>
       </c>
       <c r="K11">
+        <v>23.8</v>
+      </c>
+      <c r="L11">
+        <v>16</v>
+      </c>
+      <c r="M11">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>67.60000000000001</v>
+      </c>
+      <c r="C12">
+        <v>2.6</v>
+      </c>
+      <c r="D12">
+        <v>24.2</v>
+      </c>
+      <c r="E12">
+        <v>10.7</v>
+      </c>
+      <c r="F12">
+        <v>7.6</v>
+      </c>
+      <c r="G12">
         <v>23.3</v>
       </c>
-      <c r="L11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
+      <c r="H12">
+        <v>10.9</v>
+      </c>
+      <c r="I12">
+        <v>8.200000000000001</v>
+      </c>
+      <c r="J12">
+        <v>2.6</v>
+      </c>
+      <c r="K12">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="L12">
+        <v>0.3</v>
+      </c>
+      <c r="M12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>96.5</v>
-      </c>
-      <c r="C12">
-        <v>77.5</v>
-      </c>
-      <c r="D12">
-        <v>82.69999999999999</v>
-      </c>
-      <c r="E12">
-        <v>79.90000000000001</v>
-      </c>
-      <c r="F12">
-        <v>75.2</v>
-      </c>
-      <c r="G12">
-        <v>25.6</v>
-      </c>
-      <c r="H12">
-        <v>9.5</v>
-      </c>
-      <c r="I12">
-        <v>5.1</v>
-      </c>
-      <c r="J12">
-        <v>1.6</v>
-      </c>
-      <c r="K12">
-        <v>0.6</v>
-      </c>
-      <c r="L12">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="B13">
-        <v>67.30000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="C13">
-        <v>1.8</v>
+        <v>77.3</v>
       </c>
       <c r="D13">
-        <v>28.5</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="E13">
-        <v>11.4</v>
+        <v>78.5</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>78.2</v>
       </c>
       <c r="G13">
-        <v>23.4</v>
+        <v>25.3</v>
       </c>
       <c r="H13">
-        <v>11.5</v>
+        <v>12.6</v>
       </c>
       <c r="I13">
-        <v>7.1</v>
+        <v>5.4</v>
       </c>
       <c r="J13">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="K13">
-        <v>0.6</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="L13">
-        <v>0.5</v>
+        <v>0.2</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2826,48 +2880,48 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2">
-        <v>0.7</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D2">
-        <v>125.964</v>
+        <v>136.1363636363636</v>
       </c>
       <c r="E2">
-        <v>1259.64</v>
+        <v>1497.5</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -2876,155 +2930,155 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C3">
-        <v>0.7</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D3">
-        <v>135.842</v>
+        <v>138.3145454545455</v>
       </c>
       <c r="E3">
-        <v>1358.42</v>
+        <v>1521.46</v>
       </c>
       <c r="F3">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4">
-        <v>0.6</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D4">
-        <v>142.906</v>
+        <v>122.7490909090909</v>
       </c>
       <c r="E4">
-        <v>1429.06</v>
+        <v>1350.24</v>
       </c>
       <c r="F4">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C5">
-        <v>0.6</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D5">
-        <v>138.124</v>
+        <v>139.9636363636364</v>
       </c>
       <c r="E5">
-        <v>1381.24</v>
+        <v>1539.6</v>
       </c>
       <c r="F5">
-        <v>98.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C6">
-        <v>0.6</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D6">
-        <v>125.204</v>
+        <v>125.8363636363636</v>
       </c>
       <c r="E6">
-        <v>1252.04</v>
+        <v>1384.2</v>
       </c>
       <c r="F6">
-        <v>98.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D7">
-        <v>121.448</v>
+        <v>118.8363636363636</v>
       </c>
       <c r="E7">
-        <v>1214.48</v>
+        <v>1307.2</v>
       </c>
       <c r="F7">
-        <v>78.3</v>
+        <v>94.3</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3032,28 +3086,28 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D8">
-        <v>119.126</v>
+        <v>117.4054545454545</v>
       </c>
       <c r="E8">
-        <v>1191.26</v>
+        <v>1291.46</v>
       </c>
       <c r="F8">
-        <v>74.90000000000001</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="G8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3061,28 +3115,28 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D9">
-        <v>112.37</v>
+        <v>110.7036363636364</v>
       </c>
       <c r="E9">
-        <v>1123.7</v>
+        <v>1217.74</v>
       </c>
       <c r="F9">
-        <v>65</v>
+        <v>52.6</v>
       </c>
       <c r="G9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3090,28 +3144,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C10">
-        <v>0.4</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D10">
-        <v>125.152</v>
+        <v>126.2472727272727</v>
       </c>
       <c r="E10">
-        <v>1251.52</v>
+        <v>1388.72</v>
       </c>
       <c r="F10">
-        <v>64.8</v>
+        <v>51.9</v>
       </c>
       <c r="G10">
-        <v>0.7000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3119,86 +3173,86 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C11">
-        <v>0.4</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D11">
-        <v>110.44</v>
+        <v>109.9145454545454</v>
       </c>
       <c r="E11">
-        <v>1104.4</v>
+        <v>1209.06</v>
       </c>
       <c r="F11">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C12">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="D12">
+        <v>98.28727272727274</v>
+      </c>
+      <c r="E12">
+        <v>1081.16</v>
+      </c>
+      <c r="F12">
         <v>0.2</v>
       </c>
-      <c r="D12">
-        <v>107.258</v>
-      </c>
-      <c r="E12">
-        <v>1072.58</v>
-      </c>
-      <c r="F12">
-        <v>0.7000000000000001</v>
-      </c>
       <c r="G12">
-        <v>54</v>
+        <v>41.4</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C13">
-        <v>0.3</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="D13">
-        <v>99.48400000000001</v>
+        <v>107.2090909090909</v>
       </c>
       <c r="E13">
-        <v>994.84</v>
+        <v>1179.3</v>
       </c>
       <c r="F13">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G13">
-        <v>42.1</v>
+        <v>57.4</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I13" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3216,19 +3270,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3239,16 +3293,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3259,16 +3313,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3279,16 +3333,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3299,16 +3353,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3316,19 +3370,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3336,19 +3390,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3356,19 +3410,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3376,19 +3430,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3396,19 +3450,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D10">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3419,16 +3473,16 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D11">
         <v>-18</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3439,16 +3493,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D12">
-        <v>-34</v>
+        <v>-32</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3459,16 +3513,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D13">
-        <v>-49</v>
+        <v>-58</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3478,48 +3532,51 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>125</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3553,11 +3610,14 @@
       <c r="K2">
         <v>30</v>
       </c>
-      <c r="L2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3591,11 +3651,14 @@
       <c r="K3">
         <v>26</v>
       </c>
-      <c r="L3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3629,11 +3692,14 @@
       <c r="K4">
         <v>21</v>
       </c>
-      <c r="L4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="L4">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -3667,201 +3733,219 @@
       <c r="K5">
         <v>13</v>
       </c>
-      <c r="L5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>-1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>-8</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B8">
         <v>-2</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <v>-2</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <v>-7</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>-2</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>8</v>
       </c>
-      <c r="H6">
+      <c r="H8">
         <v>7</v>
       </c>
-      <c r="I6">
+      <c r="I8">
         <v>13</v>
       </c>
-      <c r="J6">
+      <c r="J8">
         <v>16</v>
       </c>
-      <c r="K6">
+      <c r="K8">
         <v>9</v>
       </c>
-      <c r="L6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>-5</v>
+      </c>
+      <c r="F9">
+        <v>-11</v>
+      </c>
+      <c r="G9">
+        <v>-11</v>
+      </c>
+      <c r="H9">
+        <v>-10</v>
+      </c>
+      <c r="I9">
+        <v>-7</v>
+      </c>
+      <c r="J9">
+        <v>-7</v>
+      </c>
+      <c r="K9">
+        <v>-5</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B10">
         <v>-1</v>
       </c>
-      <c r="C7">
+      <c r="C10">
         <v>-2</v>
       </c>
-      <c r="D7">
+      <c r="D10">
         <v>7</v>
       </c>
-      <c r="E7">
+      <c r="E10">
         <v>3</v>
       </c>
-      <c r="F7">
+      <c r="F10">
         <v>7</v>
       </c>
-      <c r="G7">
+      <c r="G10">
         <v>5</v>
       </c>
-      <c r="H7">
+      <c r="H10">
         <v>7</v>
       </c>
-      <c r="I7">
+      <c r="I10">
         <v>10</v>
       </c>
-      <c r="J7">
+      <c r="J10">
         <v>7</v>
       </c>
-      <c r="K7">
+      <c r="K10">
         <v>5</v>
       </c>
-      <c r="L7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>6</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>-1</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>-8</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>-5</v>
-      </c>
-      <c r="F10">
-        <v>-11</v>
-      </c>
-      <c r="G10">
-        <v>-11</v>
-      </c>
-      <c r="H10">
-        <v>-10</v>
-      </c>
-      <c r="I10">
-        <v>-7</v>
-      </c>
-      <c r="J10">
-        <v>-7</v>
-      </c>
-      <c r="K10">
-        <v>-5</v>
-      </c>
-      <c r="L10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="L10">
+        <v>-2</v>
+      </c>
+      <c r="M10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -3895,11 +3979,14 @@
       <c r="K11">
         <v>-18</v>
       </c>
-      <c r="L11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="L11">
+        <v>-18</v>
+      </c>
+      <c r="M11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -3933,11 +4020,14 @@
       <c r="K12">
         <v>-34</v>
       </c>
-      <c r="L12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="L12">
+        <v>-32</v>
+      </c>
+      <c r="M12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3971,8 +4061,11 @@
       <c r="K13">
         <v>-49</v>
       </c>
-      <c r="L13" t="s">
-        <v>110</v>
+      <c r="L13">
+        <v>-58</v>
+      </c>
+      <c r="M13" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3982,7 +4075,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3990,25 +4083,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4217,84 +4310,6 @@
       </c>
       <c r="H9" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>-19</v>
-      </c>
-      <c r="F10">
-        <v>-30</v>
-      </c>
-      <c r="G10">
-        <v>11</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-      <c r="F11">
-        <v>16</v>
-      </c>
-      <c r="G11">
-        <v>10</v>
-      </c>
-      <c r="H11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
-      <c r="F12">
-        <v>-2</v>
-      </c>
-      <c r="G12">
-        <v>8</v>
-      </c>
-      <c r="H12" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/The Mike Daisy Sports IQ League 2025.xlsx
+++ b/leagues/The Mike Daisy Sports IQ League 2025.xlsx
@@ -12,17 +12,18 @@
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
     <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
-    <sheet name="Record Odds" sheetId="6" r:id="rId6"/>
-    <sheet name="Louie Power Index" sheetId="7" r:id="rId7"/>
-    <sheet name="LPI By Week" sheetId="8" r:id="rId8"/>
-    <sheet name="Biggest Upsets" sheetId="9" r:id="rId9"/>
+    <sheet name="Remaining Schedule Difficulty" sheetId="6" r:id="rId6"/>
+    <sheet name="Record Odds" sheetId="7" r:id="rId7"/>
+    <sheet name="Louie Power Index" sheetId="8" r:id="rId8"/>
+    <sheet name="LPI By Week" sheetId="9" r:id="rId9"/>
+    <sheet name="Biggest Upsets" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="140">
   <si>
     <t>Njigba's in Paris</t>
   </si>
@@ -186,6 +187,63 @@
     <t>Week_12</t>
   </si>
   <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Michael Daisey</t>
+  </si>
+  <si>
+    <t>Dylan Sowers</t>
+  </si>
+  <si>
+    <t>Shjon Sowers</t>
+  </si>
+  <si>
+    <t>Matt Peiffer</t>
+  </si>
+  <si>
+    <t>Rob Pernell</t>
+  </si>
+  <si>
+    <t>David O'Kane</t>
+  </si>
+  <si>
+    <t>Matthew Jennings</t>
+  </si>
+  <si>
+    <t>Bobby  Schnur</t>
+  </si>
+  <si>
+    <t>Julian LeMaire</t>
+  </si>
+  <si>
+    <t>Mark Yanzuk</t>
+  </si>
+  <si>
+    <t>Nick DiNunzio</t>
+  </si>
+  <si>
+    <t>Benjamin Frost</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -219,52 +277,52 @@
     <t>6-5</t>
   </si>
   <si>
+    <t>4-7</t>
+  </si>
+  <si>
     <t>5-6</t>
   </si>
   <si>
-    <t>4-7</t>
+    <t>2-9</t>
   </si>
   <si>
     <t>3-8</t>
   </si>
   <si>
-    <t>2-9</t>
-  </si>
-  <si>
-    <t>9.9-4.0</t>
+    <t>10.0-4.0</t>
   </si>
   <si>
     <t>8.9-5.1</t>
   </si>
   <si>
-    <t>9.6-4.4</t>
-  </si>
-  <si>
-    <t>9.0-5.0</t>
+    <t>9.5-4.4</t>
+  </si>
+  <si>
+    <t>8.9-5.0</t>
+  </si>
+  <si>
+    <t>7.3-6.7</t>
+  </si>
+  <si>
+    <t>7.5-6.5</t>
   </si>
   <si>
     <t>7.4-6.6</t>
   </si>
   <si>
-    <t>7.5-6.5</t>
-  </si>
-  <si>
-    <t>7.3-6.6</t>
-  </si>
-  <si>
-    <t>6.4-7.6</t>
-  </si>
-  <si>
-    <t>5.7-8.2</t>
+    <t>5.7-8.3</t>
+  </si>
+  <si>
+    <t>6.3-7.6</t>
   </si>
   <si>
     <t>5.2-8.8</t>
   </si>
   <si>
-    <t>3.8-10.1</t>
-  </si>
-  <si>
-    <t>3.1-10.9</t>
+    <t>3.2-10.8</t>
+  </si>
+  <si>
+    <t>3.9-10.1</t>
   </si>
   <si>
     <t>10-4</t>
@@ -285,12 +343,12 @@
     <t>5-9</t>
   </si>
   <si>
+    <t>3-11</t>
+  </si>
+  <si>
     <t>4-10</t>
   </si>
   <si>
-    <t>3-11</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -298,42 +356,6 @@
   </si>
   <si>
     <t>Change From Last Week</t>
-  </si>
-  <si>
-    <t>Benjamin Frost</t>
-  </si>
-  <si>
-    <t>Mark Yanzuk</t>
-  </si>
-  <si>
-    <t>Nick DiNunzio</t>
-  </si>
-  <si>
-    <t>Bobby  Schnur</t>
-  </si>
-  <si>
-    <t>Michael Daisey</t>
-  </si>
-  <si>
-    <t>David O'Kane</t>
-  </si>
-  <si>
-    <t>Rob Pernell</t>
-  </si>
-  <si>
-    <t>Matthew Jennings</t>
-  </si>
-  <si>
-    <t>Dylan Sowers</t>
-  </si>
-  <si>
-    <t>Shjon Sowers</t>
-  </si>
-  <si>
-    <t>Julian LeMaire</t>
-  </si>
-  <si>
-    <t>Matt Peiffer</t>
   </si>
   <si>
     <t>↑5</t>
@@ -1319,6 +1341,250 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>31</v>
+      </c>
+      <c r="F2">
+        <v>-12</v>
+      </c>
+      <c r="G2">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>-18</v>
+      </c>
+      <c r="G3">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>-8</v>
+      </c>
+      <c r="F4">
+        <v>-28</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>-15</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>-34</v>
+      </c>
+      <c r="F6">
+        <v>-18</v>
+      </c>
+      <c r="G6">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>-11</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>-2</v>
+      </c>
+      <c r="G8">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>-7</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
@@ -1799,22 +2065,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>50.2</v>
+        <v>48.9</v>
       </c>
       <c r="C2">
-        <v>23.2</v>
+        <v>27.2</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>16.6</v>
       </c>
       <c r="E2">
-        <v>6.7</v>
+        <v>4.7</v>
       </c>
       <c r="F2">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="G2">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H2">
         <v>0.1</v>
@@ -1843,28 +2109,28 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>17.7</v>
       </c>
       <c r="C3">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="D3">
-        <v>23.2</v>
+        <v>20.5</v>
       </c>
       <c r="E3">
-        <v>23.5</v>
+        <v>25.1</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="G3">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="H3">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1887,22 +2153,22 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="C4">
-        <v>26.5</v>
+        <v>24.5</v>
       </c>
       <c r="D4">
-        <v>21.9</v>
+        <v>22.9</v>
       </c>
       <c r="E4">
-        <v>24.9</v>
+        <v>25.3</v>
       </c>
       <c r="F4">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="G4">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>0.3</v>
@@ -1931,28 +2197,28 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>17.2</v>
+        <v>16.7</v>
       </c>
       <c r="C5">
-        <v>24.4</v>
+        <v>22.5</v>
       </c>
       <c r="D5">
-        <v>27.5</v>
+        <v>29.5</v>
       </c>
       <c r="E5">
-        <v>19</v>
+        <v>18.6</v>
       </c>
       <c r="F5">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1975,34 +2241,34 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="D6">
-        <v>4.9</v>
+        <v>3.3</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>11.2</v>
       </c>
       <c r="F6">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="G6">
-        <v>23.4</v>
+        <v>22.7</v>
       </c>
       <c r="H6">
-        <v>16.6</v>
+        <v>16.9</v>
       </c>
       <c r="I6">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="J6">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="K6">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -2011,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>96</v>
+        <v>95.40000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2025,28 +2291,28 @@
         <v>0.4</v>
       </c>
       <c r="D7">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="E7">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="F7">
-        <v>24.1</v>
+        <v>23</v>
       </c>
       <c r="G7">
-        <v>27.4</v>
+        <v>25.8</v>
       </c>
       <c r="H7">
-        <v>21.8</v>
+        <v>22.9</v>
       </c>
       <c r="I7">
-        <v>9.800000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="J7">
         <v>4.7</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -2055,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>94.3</v>
+        <v>94.40000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2066,31 +2332,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D8">
         <v>3.6</v>
       </c>
       <c r="E8">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>16.7</v>
       </c>
       <c r="G8">
-        <v>22.6</v>
+        <v>24.9</v>
       </c>
       <c r="H8">
-        <v>27.3</v>
+        <v>26.8</v>
       </c>
       <c r="I8">
-        <v>13.7</v>
+        <v>12.5</v>
       </c>
       <c r="J8">
-        <v>9.699999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="K8">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -2099,12 +2365,12 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>89.40000000000001</v>
+        <v>91.40000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2116,39 +2382,39 @@
         <v>0</v>
       </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H9">
+        <v>12.7</v>
+      </c>
+      <c r="I9">
+        <v>27.9</v>
+      </c>
+      <c r="J9">
+        <v>27.7</v>
+      </c>
+      <c r="K9">
+        <v>16.2</v>
+      </c>
+      <c r="L9">
+        <v>3.5</v>
+      </c>
+      <c r="M9">
         <v>0.2</v>
       </c>
-      <c r="F9">
-        <v>2.9</v>
-      </c>
-      <c r="G9">
-        <v>7</v>
-      </c>
-      <c r="H9">
-        <v>15.7</v>
-      </c>
-      <c r="I9">
-        <v>26.8</v>
-      </c>
-      <c r="J9">
-        <v>33.4</v>
-      </c>
-      <c r="K9">
-        <v>13.4</v>
-      </c>
-      <c r="L9">
-        <v>0.6</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9">
-        <v>52.6</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2160,34 +2426,34 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F10">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="G10">
-        <v>9.4</v>
+        <v>6.7</v>
       </c>
       <c r="H10">
-        <v>12.6</v>
+        <v>13.4</v>
       </c>
       <c r="I10">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="J10">
-        <v>28.4</v>
+        <v>32.9</v>
       </c>
       <c r="K10">
-        <v>17.6</v>
+        <v>15.3</v>
       </c>
       <c r="L10">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>51.9</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2210,33 +2476,33 @@
         <v>0.2</v>
       </c>
       <c r="G11">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H11">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I11">
-        <v>10.6</v>
+        <v>9.9</v>
       </c>
       <c r="J11">
-        <v>18.2</v>
+        <v>20.5</v>
       </c>
       <c r="K11">
-        <v>54.5</v>
+        <v>51.5</v>
       </c>
       <c r="L11">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="M11">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="N11">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2260,27 +2526,27 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J12">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>5.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L12">
-        <v>51.6</v>
+        <v>34.9</v>
       </c>
       <c r="M12">
-        <v>41.4</v>
+        <v>55.7</v>
       </c>
       <c r="N12">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2307,16 +2573,16 @@
         <v>0.1</v>
       </c>
       <c r="J13">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="K13">
         <v>6.7</v>
       </c>
       <c r="L13">
-        <v>35.1</v>
+        <v>49.8</v>
       </c>
       <c r="M13">
-        <v>57.4</v>
+        <v>42.3</v>
       </c>
       <c r="N13">
         <v>0.1</v>
@@ -2381,25 +2647,25 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>92.30000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="D2">
         <v>99</v>
       </c>
       <c r="E2">
+        <v>99.8</v>
+      </c>
+      <c r="F2">
         <v>100</v>
       </c>
-      <c r="F2">
+      <c r="G2">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="H2">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="I2">
         <v>99.90000000000001</v>
-      </c>
-      <c r="G2">
-        <v>98.7</v>
-      </c>
-      <c r="H2">
-        <v>98.8</v>
-      </c>
-      <c r="I2">
-        <v>99.8</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -2419,31 +2685,31 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>54.50000000000001</v>
+        <v>55.40000000000001</v>
       </c>
       <c r="C3">
-        <v>89.2</v>
+        <v>88.7</v>
       </c>
       <c r="D3">
-        <v>67</v>
+        <v>66.60000000000001</v>
       </c>
       <c r="E3">
-        <v>48.5</v>
+        <v>47.09999999999999</v>
       </c>
       <c r="F3">
-        <v>71.3</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="G3">
-        <v>87</v>
+        <v>88.7</v>
       </c>
       <c r="H3">
-        <v>93.30000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="I3">
-        <v>97.39999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="J3">
-        <v>94.09999999999999</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="K3">
         <v>98.8</v>
@@ -2463,31 +2729,31 @@
         <v>99.8</v>
       </c>
       <c r="C4">
-        <v>65.7</v>
+        <v>66.60000000000001</v>
       </c>
       <c r="D4">
-        <v>82.3</v>
+        <v>80.30000000000001</v>
       </c>
       <c r="E4">
-        <v>82.39999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="F4">
-        <v>92.5</v>
+        <v>92.2</v>
       </c>
       <c r="G4">
-        <v>96.89999999999999</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="H4">
-        <v>94.8</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="I4">
-        <v>98.2</v>
+        <v>98.8</v>
       </c>
       <c r="J4">
-        <v>99.2</v>
+        <v>99.7</v>
       </c>
       <c r="K4">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="L4">
         <v>100</v>
@@ -2501,37 +2767,37 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>40.40000000000001</v>
+        <v>37.9</v>
       </c>
       <c r="C5">
-        <v>79.3</v>
+        <v>77.5</v>
       </c>
       <c r="D5">
         <v>90.5</v>
       </c>
       <c r="E5">
-        <v>80.5</v>
+        <v>78.3</v>
       </c>
       <c r="F5">
-        <v>75.5</v>
+        <v>78.3</v>
       </c>
       <c r="G5">
-        <v>89.5</v>
+        <v>90.10000000000001</v>
       </c>
       <c r="H5">
-        <v>96.89999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="I5">
-        <v>93.8</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="J5">
-        <v>98.40000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="K5">
         <v>99.5</v>
       </c>
       <c r="L5">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="M5">
         <v>100</v>
@@ -2542,40 +2808,40 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C6">
-        <v>87.3</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="D6">
-        <v>95.8</v>
+        <v>96.3</v>
       </c>
       <c r="E6">
-        <v>99</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="F6">
-        <v>99.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="G6">
-        <v>94.19999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="H6">
-        <v>82.89999999999999</v>
+        <v>79.80000000000001</v>
       </c>
       <c r="I6">
-        <v>69.19999999999999</v>
+        <v>70.39999999999999</v>
       </c>
       <c r="J6">
-        <v>86.5</v>
+        <v>86.3</v>
       </c>
       <c r="K6">
-        <v>75.90000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="L6">
-        <v>94.89999999999999</v>
+        <v>93.10000000000001</v>
       </c>
       <c r="M6">
-        <v>95.89999999999999</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2583,40 +2849,40 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>82.39999999999999</v>
+        <v>83.89999999999999</v>
       </c>
       <c r="C7">
-        <v>65.2</v>
+        <v>67</v>
       </c>
       <c r="D7">
-        <v>72.09999999999999</v>
+        <v>69.89999999999999</v>
       </c>
       <c r="E7">
-        <v>70.59999999999999</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="F7">
-        <v>71.59999999999999</v>
+        <v>71.5</v>
       </c>
       <c r="G7">
-        <v>78.2</v>
+        <v>77.7</v>
       </c>
       <c r="H7">
-        <v>92.2</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="I7">
-        <v>96.89999999999999</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="J7">
-        <v>95.39999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="K7">
-        <v>98.3</v>
+        <v>99.2</v>
       </c>
       <c r="L7">
         <v>93.30000000000001</v>
       </c>
       <c r="M7">
-        <v>94.09999999999999</v>
+        <v>92.80000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2624,40 +2890,40 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="C8">
-        <v>47</v>
+        <v>47.8</v>
       </c>
       <c r="D8">
-        <v>78.90000000000001</v>
+        <v>78.60000000000001</v>
       </c>
       <c r="E8">
-        <v>92.5</v>
+        <v>93.7</v>
       </c>
       <c r="F8">
-        <v>88.59999999999999</v>
+        <v>89.60000000000001</v>
       </c>
       <c r="G8">
-        <v>65.5</v>
+        <v>63.1</v>
       </c>
       <c r="H8">
-        <v>49.6</v>
+        <v>52.8</v>
       </c>
       <c r="I8">
-        <v>68.10000000000001</v>
+        <v>69</v>
       </c>
       <c r="J8">
-        <v>50.8</v>
+        <v>48.4</v>
       </c>
       <c r="K8">
-        <v>72.2</v>
+        <v>70</v>
       </c>
       <c r="L8">
-        <v>90.3</v>
+        <v>90.60000000000001</v>
       </c>
       <c r="M8">
-        <v>90.8</v>
+        <v>89.40000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2665,40 +2931,40 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C9">
-        <v>84.09999999999999</v>
+        <v>85.39999999999999</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>29.7</v>
       </c>
       <c r="E9">
-        <v>18.4</v>
+        <v>17.6</v>
       </c>
       <c r="F9">
-        <v>27.9</v>
+        <v>26.7</v>
       </c>
       <c r="G9">
-        <v>57.3</v>
+        <v>58.5</v>
       </c>
       <c r="H9">
-        <v>37.2</v>
+        <v>36.8</v>
       </c>
       <c r="I9">
-        <v>56.89999999999999</v>
+        <v>57.9</v>
       </c>
       <c r="J9">
-        <v>76.59999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K9">
-        <v>62.5</v>
+        <v>63.6</v>
       </c>
       <c r="L9">
-        <v>49</v>
+        <v>50.4</v>
       </c>
       <c r="M9">
-        <v>51.9</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2706,16 +2972,16 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="C10">
         <v>63.9</v>
       </c>
       <c r="D10">
-        <v>46.40000000000001</v>
+        <v>46.2</v>
       </c>
       <c r="E10">
-        <v>73.5</v>
+        <v>71.3</v>
       </c>
       <c r="F10">
         <v>57.8</v>
@@ -2724,22 +2990,22 @@
         <v>39.3</v>
       </c>
       <c r="H10">
-        <v>53</v>
+        <v>53.40000000000001</v>
       </c>
       <c r="I10">
-        <v>34.9</v>
+        <v>35.9</v>
       </c>
       <c r="J10">
-        <v>47.9</v>
+        <v>46.6</v>
       </c>
       <c r="K10">
-        <v>67.5</v>
+        <v>68.10000000000001</v>
       </c>
       <c r="L10">
-        <v>56.00000000000001</v>
+        <v>55.60000000000001</v>
       </c>
       <c r="M10">
-        <v>51.7</v>
+        <v>51.4</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2747,78 +3013,78 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>33</v>
+        <v>32.7</v>
       </c>
       <c r="C11">
-        <v>46.1</v>
+        <v>44.4</v>
       </c>
       <c r="D11">
-        <v>33.7</v>
+        <v>31.6</v>
       </c>
       <c r="E11">
-        <v>45.4</v>
+        <v>47.2</v>
       </c>
       <c r="F11">
-        <v>30</v>
+        <v>27.3</v>
       </c>
       <c r="G11">
-        <v>44.8</v>
+        <v>47</v>
       </c>
       <c r="H11">
-        <v>77.8</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="I11">
-        <v>71.2</v>
+        <v>67.60000000000001</v>
       </c>
       <c r="J11">
-        <v>47.09999999999999</v>
+        <v>44.5</v>
       </c>
       <c r="K11">
-        <v>23.8</v>
+        <v>22.4</v>
       </c>
       <c r="L11">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="M11">
-        <v>15.5</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>67.60000000000001</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="C12">
-        <v>2.6</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D12">
-        <v>24.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E12">
-        <v>10.7</v>
+        <v>78.7</v>
       </c>
       <c r="F12">
-        <v>7.6</v>
+        <v>76.5</v>
       </c>
       <c r="G12">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="H12">
-        <v>10.9</v>
+        <v>12.6</v>
       </c>
       <c r="I12">
-        <v>8.200000000000001</v>
+        <v>5</v>
       </c>
       <c r="J12">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="K12">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0.1</v>
@@ -2826,43 +3092,43 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>96.09999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="C13">
-        <v>77.3</v>
+        <v>1.9</v>
       </c>
       <c r="D13">
-        <v>83.09999999999999</v>
+        <v>29.2</v>
       </c>
       <c r="E13">
-        <v>78.5</v>
+        <v>11.8</v>
       </c>
       <c r="F13">
-        <v>78.2</v>
+        <v>7.5</v>
       </c>
       <c r="G13">
-        <v>25.3</v>
+        <v>22.3</v>
       </c>
       <c r="H13">
-        <v>12.6</v>
+        <v>10.5</v>
       </c>
       <c r="I13">
-        <v>5.4</v>
+        <v>6.5</v>
       </c>
       <c r="J13">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="K13">
-        <v>0.7000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="L13">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -2879,380 +3145,377 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="D2">
+        <v>125.84</v>
+      </c>
+      <c r="E2">
+        <v>0.545</v>
+      </c>
+      <c r="F2">
+        <v>134.12</v>
+      </c>
+      <c r="G2">
+        <v>0.576</v>
+      </c>
+      <c r="H2">
+        <v>19.7</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>62</v>
       </c>
-      <c r="C2">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="D2">
-        <v>136.1363636363636</v>
-      </c>
-      <c r="E2">
-        <v>1497.5</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D3">
+        <v>122.75</v>
+      </c>
+      <c r="E3">
+        <v>0.727</v>
+      </c>
+      <c r="F3">
+        <v>120.98</v>
+      </c>
+      <c r="G3">
+        <v>0.455</v>
+      </c>
+      <c r="H3">
+        <v>14.7</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4">
+        <v>109.91</v>
+      </c>
+      <c r="E4">
+        <v>0.364</v>
+      </c>
+      <c r="F4">
+        <v>127.07</v>
+      </c>
+      <c r="G4">
+        <v>0.545</v>
+      </c>
+      <c r="H4">
+        <v>12.3</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5">
+        <v>98.29000000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.273</v>
+      </c>
+      <c r="F5">
+        <v>128.93</v>
+      </c>
+      <c r="G5">
+        <v>0.606</v>
+      </c>
+      <c r="H5">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6">
+        <v>118.84</v>
+      </c>
+      <c r="E6">
+        <v>0.545</v>
+      </c>
+      <c r="F6">
+        <v>118.48</v>
+      </c>
+      <c r="G6">
+        <v>0.394</v>
+      </c>
+      <c r="H6">
+        <v>6.3</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7">
+        <v>107.21</v>
+      </c>
+      <c r="E7">
+        <v>0.182</v>
+      </c>
+      <c r="F7">
+        <v>122.61</v>
+      </c>
+      <c r="G7">
+        <v>0.545</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8">
+        <v>126.25</v>
+      </c>
+      <c r="E8">
+        <v>0.364</v>
+      </c>
+      <c r="F8">
+        <v>114.32</v>
+      </c>
+      <c r="G8">
+        <v>0.364</v>
+      </c>
+      <c r="H8">
+        <v>-3</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9">
+        <v>117.41</v>
+      </c>
+      <c r="E9">
+        <v>0.545</v>
+      </c>
+      <c r="F9">
+        <v>124.47</v>
+      </c>
+      <c r="G9">
+        <v>0.606</v>
+      </c>
+      <c r="H9">
+        <v>-3.7</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
         <v>69</v>
       </c>
-      <c r="I2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="D10">
+        <v>110.7</v>
+      </c>
+      <c r="E10">
+        <v>0.455</v>
+      </c>
+      <c r="F10">
+        <v>118</v>
+      </c>
+      <c r="G10">
+        <v>0.485</v>
+      </c>
+      <c r="H10">
+        <v>-5.7</v>
+      </c>
+      <c r="I10">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="D3">
-        <v>138.3145454545455</v>
-      </c>
-      <c r="E3">
-        <v>1521.46</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
         <v>70</v>
       </c>
-      <c r="I3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="D4">
-        <v>122.7490909090909</v>
-      </c>
-      <c r="E4">
-        <v>1350.24</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="D11">
+        <v>138.31</v>
+      </c>
+      <c r="E11">
+        <v>0.636</v>
+      </c>
+      <c r="F11">
+        <v>117.43</v>
+      </c>
+      <c r="G11">
+        <v>0.576</v>
+      </c>
+      <c r="H11">
+        <v>-11</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
         <v>71</v>
       </c>
-      <c r="I4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="D5">
-        <v>139.9636363636364</v>
-      </c>
-      <c r="E5">
-        <v>1539.6</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="D12">
+        <v>139.96</v>
+      </c>
+      <c r="E12">
+        <v>0.636</v>
+      </c>
+      <c r="F12">
+        <v>113.84</v>
+      </c>
+      <c r="G12">
+        <v>0.455</v>
+      </c>
+      <c r="H12">
+        <v>-15</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>72</v>
       </c>
-      <c r="I5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="D6">
-        <v>125.8363636363636</v>
-      </c>
-      <c r="E6">
-        <v>1384.2</v>
-      </c>
-      <c r="F6">
-        <v>96</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="D7">
-        <v>118.8363636363636</v>
-      </c>
-      <c r="E7">
-        <v>1307.2</v>
-      </c>
-      <c r="F7">
-        <v>94.3</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="D8">
-        <v>117.4054545454545</v>
-      </c>
-      <c r="E8">
-        <v>1291.46</v>
-      </c>
-      <c r="F8">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D9">
-        <v>110.7036363636364</v>
-      </c>
-      <c r="E9">
-        <v>1217.74</v>
-      </c>
-      <c r="F9">
-        <v>52.6</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="D10">
-        <v>126.2472727272727</v>
-      </c>
-      <c r="E10">
-        <v>1388.72</v>
-      </c>
-      <c r="F10">
-        <v>51.9</v>
-      </c>
-      <c r="G10">
-        <v>0.3</v>
-      </c>
-      <c r="H10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="D11">
-        <v>109.9145454545454</v>
-      </c>
-      <c r="E11">
-        <v>1209.06</v>
-      </c>
-      <c r="F11">
-        <v>15.5</v>
-      </c>
-      <c r="G11">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="H11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="D12">
-        <v>98.28727272727274</v>
-      </c>
-      <c r="E12">
-        <v>1081.16</v>
-      </c>
-      <c r="F12">
-        <v>0.2</v>
-      </c>
-      <c r="G12">
-        <v>41.4</v>
-      </c>
-      <c r="H12" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13">
-        <v>0.1818181818181818</v>
-      </c>
       <c r="D13">
-        <v>107.2090909090909</v>
+        <v>136.14</v>
       </c>
       <c r="E13">
-        <v>1179.3</v>
+        <v>0.727</v>
       </c>
       <c r="F13">
-        <v>0.1</v>
+        <v>111.35</v>
       </c>
       <c r="G13">
-        <v>57.4</v>
-      </c>
-      <c r="H13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" t="s">
-        <v>88</v>
+        <v>0.394</v>
+      </c>
+      <c r="H13">
+        <v>-23.3</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3261,6 +3524,396 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="D2">
+        <v>136.1363636363636</v>
+      </c>
+      <c r="E2">
+        <v>1497.5</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="D3">
+        <v>138.3145454545455</v>
+      </c>
+      <c r="E3">
+        <v>1521.46</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="D4">
+        <v>122.7490909090909</v>
+      </c>
+      <c r="E4">
+        <v>1350.24</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="D5">
+        <v>139.9636363636364</v>
+      </c>
+      <c r="E5">
+        <v>1539.6</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="D6">
+        <v>125.8363636363636</v>
+      </c>
+      <c r="E6">
+        <v>1384.2</v>
+      </c>
+      <c r="F6">
+        <v>95.39999999999999</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="D7">
+        <v>118.8363636363636</v>
+      </c>
+      <c r="E7">
+        <v>1307.2</v>
+      </c>
+      <c r="F7">
+        <v>94.39999999999999</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="D8">
+        <v>117.4054545454545</v>
+      </c>
+      <c r="E8">
+        <v>1291.46</v>
+      </c>
+      <c r="F8">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="D9">
+        <v>126.2472727272727</v>
+      </c>
+      <c r="E9">
+        <v>1388.72</v>
+      </c>
+      <c r="F9">
+        <v>52.40000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D10">
+        <v>110.7036363636364</v>
+      </c>
+      <c r="E10">
+        <v>1217.74</v>
+      </c>
+      <c r="F10">
+        <v>50.8</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="D11">
+        <v>109.9145454545454</v>
+      </c>
+      <c r="E11">
+        <v>1209.06</v>
+      </c>
+      <c r="F11">
+        <v>15.4</v>
+      </c>
+      <c r="G11">
+        <v>1.8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="D12">
+        <v>107.2090909090909</v>
+      </c>
+      <c r="E12">
+        <v>1179.3</v>
+      </c>
+      <c r="F12">
+        <v>0.1</v>
+      </c>
+      <c r="G12">
+        <v>55.7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="D13">
+        <v>98.28727272727274</v>
+      </c>
+      <c r="E13">
+        <v>1081.16</v>
+      </c>
+      <c r="F13">
+        <v>0.1</v>
+      </c>
+      <c r="G13">
+        <v>42.3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -3273,16 +3926,16 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3293,7 +3946,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D2">
         <v>35</v>
@@ -3302,7 +3955,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3313,7 +3966,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D3">
         <v>34</v>
@@ -3322,7 +3975,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3333,7 +3986,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D4">
         <v>23</v>
@@ -3342,7 +3995,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3353,7 +4006,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -3362,7 +4015,7 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3373,7 +4026,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -3382,7 +4035,7 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3393,7 +4046,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -3402,7 +4055,7 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3413,7 +4066,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -3422,7 +4075,7 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3433,7 +4086,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3442,7 +4095,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3453,7 +4106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="D10">
         <v>-2</v>
@@ -3462,7 +4115,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3473,7 +4126,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="D11">
         <v>-18</v>
@@ -3482,7 +4135,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3493,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="D12">
         <v>-32</v>
@@ -3502,7 +4155,7 @@
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3513,7 +4166,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="D13">
         <v>-58</v>
@@ -3522,7 +4175,7 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3530,7 +4183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M13"/>
   <sheetViews>
@@ -3540,40 +4193,40 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3614,7 +4267,7 @@
         <v>35</v>
       </c>
       <c r="M2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3655,7 +4308,7 @@
         <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3696,7 +4349,7 @@
         <v>23</v>
       </c>
       <c r="M4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3737,7 +4390,7 @@
         <v>7</v>
       </c>
       <c r="M5" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3778,7 +4431,7 @@
         <v>6</v>
       </c>
       <c r="M6" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3819,7 +4472,7 @@
         <v>3</v>
       </c>
       <c r="M7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3860,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3901,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3942,7 +4595,7 @@
         <v>-2</v>
       </c>
       <c r="M10" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3983,7 +4636,7 @@
         <v>-18</v>
       </c>
       <c r="M11" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4024,7 +4677,7 @@
         <v>-32</v>
       </c>
       <c r="M12" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -4065,251 +4718,7 @@
         <v>-58</v>
       </c>
       <c r="M13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>31</v>
-      </c>
-      <c r="F2">
-        <v>-12</v>
-      </c>
-      <c r="G2">
-        <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>-18</v>
-      </c>
-      <c r="G3">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>-8</v>
-      </c>
-      <c r="F4">
-        <v>-28</v>
-      </c>
-      <c r="G4">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>-15</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>-34</v>
-      </c>
-      <c r="F6">
-        <v>-18</v>
-      </c>
-      <c r="G6">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>-11</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>9</v>
-      </c>
-      <c r="F8">
-        <v>-2</v>
-      </c>
-      <c r="G8">
-        <v>11</v>
-      </c>
-      <c r="H8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>-7</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s">
-        <v>2</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/The Mike Daisy Sports IQ League 2025.xlsx
+++ b/leagues/The Mike Daisy Sports IQ League 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="140">
   <si>
     <t>Njigba's in Paris</t>
   </si>
@@ -193,7 +193,7 @@
     <t>Avg_Points_For</t>
   </si>
   <si>
-    <t>Win_Pct</t>
+    <t>Team_Record</t>
   </si>
   <si>
     <t>Avg_Opp_Points_For</t>
@@ -277,12 +277,12 @@
     <t>6-5</t>
   </si>
   <si>
+    <t>5-6</t>
+  </si>
+  <si>
     <t>4-7</t>
   </si>
   <si>
-    <t>5-6</t>
-  </si>
-  <si>
     <t>2-9</t>
   </si>
   <si>
@@ -295,10 +295,10 @@
     <t>8.9-5.1</t>
   </si>
   <si>
-    <t>9.5-4.4</t>
-  </si>
-  <si>
-    <t>8.9-5.0</t>
+    <t>9.6-4.4</t>
+  </si>
+  <si>
+    <t>9.0-5.0</t>
   </si>
   <si>
     <t>7.3-6.7</t>
@@ -307,22 +307,22 @@
     <t>7.5-6.5</t>
   </si>
   <si>
-    <t>7.4-6.6</t>
+    <t>7.3-6.6</t>
+  </si>
+  <si>
+    <t>6.4-7.6</t>
   </si>
   <si>
     <t>5.7-8.3</t>
   </si>
   <si>
-    <t>6.3-7.6</t>
-  </si>
-  <si>
     <t>5.2-8.8</t>
   </si>
   <si>
     <t>3.2-10.8</t>
   </si>
   <si>
-    <t>3.9-10.1</t>
+    <t>3.8-10.1</t>
   </si>
   <si>
     <t>10-4</t>
@@ -2065,22 +2065,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>48.9</v>
+        <v>52.6</v>
       </c>
       <c r="C2">
-        <v>27.2</v>
+        <v>23.2</v>
       </c>
       <c r="D2">
-        <v>16.6</v>
+        <v>14.5</v>
       </c>
       <c r="E2">
-        <v>4.7</v>
+        <v>7.6</v>
       </c>
       <c r="F2">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="G2">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H2">
         <v>0.1</v>
@@ -2109,28 +2109,28 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>17.7</v>
+        <v>14.5</v>
       </c>
       <c r="C3">
-        <v>23.3</v>
+        <v>22.2</v>
       </c>
       <c r="D3">
-        <v>20.5</v>
+        <v>26.3</v>
       </c>
       <c r="E3">
-        <v>25.1</v>
+        <v>24.5</v>
       </c>
       <c r="F3">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="G3">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="I3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2153,22 +2153,22 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>16.6</v>
+        <v>15.9</v>
       </c>
       <c r="C4">
-        <v>24.5</v>
+        <v>26.4</v>
       </c>
       <c r="D4">
-        <v>22.9</v>
+        <v>21.6</v>
       </c>
       <c r="E4">
         <v>25.3</v>
       </c>
       <c r="F4">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H4">
         <v>0.3</v>
@@ -2197,28 +2197,28 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="C5">
-        <v>22.5</v>
+        <v>26.2</v>
       </c>
       <c r="D5">
-        <v>29.5</v>
+        <v>28.6</v>
       </c>
       <c r="E5">
         <v>18.6</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="G5">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="H5">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="I5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2241,34 +2241,34 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C6">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="D6">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="E6">
-        <v>11.2</v>
+        <v>9.5</v>
       </c>
       <c r="F6">
-        <v>27.4</v>
+        <v>29.5</v>
       </c>
       <c r="G6">
-        <v>22.7</v>
+        <v>20.5</v>
       </c>
       <c r="H6">
-        <v>16.9</v>
+        <v>18.7</v>
       </c>
       <c r="I6">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="J6">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="K6">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -2277,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>95.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2288,28 +2288,28 @@
         <v>0.1</v>
       </c>
       <c r="C7">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D7">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="E7">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="F7">
+        <v>22.3</v>
+      </c>
+      <c r="G7">
+        <v>27.9</v>
+      </c>
+      <c r="H7">
         <v>23</v>
       </c>
-      <c r="G7">
-        <v>25.8</v>
-      </c>
-      <c r="H7">
-        <v>22.9</v>
-      </c>
       <c r="I7">
-        <v>10.2</v>
+        <v>9</v>
       </c>
       <c r="J7">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="K7">
         <v>0.9</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>94.40000000000001</v>
+        <v>93.09999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2332,31 +2332,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="E8">
         <v>6.5</v>
       </c>
       <c r="F8">
-        <v>16.7</v>
+        <v>18.8</v>
       </c>
       <c r="G8">
-        <v>24.9</v>
+        <v>22.4</v>
       </c>
       <c r="H8">
-        <v>26.8</v>
+        <v>24.5</v>
       </c>
       <c r="I8">
-        <v>12.5</v>
+        <v>13.7</v>
       </c>
       <c r="J8">
-        <v>7.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K8">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -2365,12 +2365,12 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>91.40000000000001</v>
+        <v>89.59999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2382,39 +2382,39 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="G9">
-        <v>8.800000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="H9">
-        <v>12.7</v>
+        <v>14.9</v>
       </c>
       <c r="I9">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="J9">
-        <v>27.7</v>
+        <v>34.4</v>
       </c>
       <c r="K9">
-        <v>16.2</v>
+        <v>11</v>
       </c>
       <c r="L9">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="M9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="N9">
-        <v>52.4</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2426,34 +2426,34 @@
         <v>0</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>3.6</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>12.2</v>
+      </c>
+      <c r="I10">
+        <v>27.6</v>
+      </c>
+      <c r="J10">
+        <v>25.6</v>
+      </c>
+      <c r="K10">
+        <v>18.1</v>
+      </c>
+      <c r="L10">
+        <v>2.7</v>
+      </c>
+      <c r="M10">
         <v>0.2</v>
       </c>
-      <c r="F10">
-        <v>4.1</v>
-      </c>
-      <c r="G10">
-        <v>6.7</v>
-      </c>
-      <c r="H10">
-        <v>13.4</v>
-      </c>
-      <c r="I10">
-        <v>26.4</v>
-      </c>
-      <c r="J10">
-        <v>32.9</v>
-      </c>
-      <c r="K10">
-        <v>15.3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
-        <v>50.8</v>
+        <v>53.4</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2476,28 +2476,28 @@
         <v>0.2</v>
       </c>
       <c r="G11">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I11">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J11">
-        <v>20.5</v>
+        <v>17.9</v>
       </c>
       <c r="K11">
-        <v>51.5</v>
+        <v>54.2</v>
       </c>
       <c r="L11">
-        <v>10.8</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="N11">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2529,16 +2529,16 @@
         <v>0.1</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K12">
-        <v>8.300000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="L12">
-        <v>34.9</v>
+        <v>36.4</v>
       </c>
       <c r="M12">
-        <v>55.7</v>
+        <v>55.6</v>
       </c>
       <c r="N12">
         <v>0.1</v>
@@ -2573,16 +2573,16 @@
         <v>0.1</v>
       </c>
       <c r="J13">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="L13">
-        <v>49.8</v>
+        <v>50</v>
       </c>
       <c r="M13">
-        <v>42.3</v>
+        <v>41.9</v>
       </c>
       <c r="N13">
         <v>0.1</v>
@@ -2647,31 +2647,31 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>93.5</v>
+        <v>92.2</v>
       </c>
       <c r="D2">
-        <v>99</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E2">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G2">
-        <v>98.59999999999999</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H2">
         <v>99.59999999999999</v>
       </c>
       <c r="I2">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="J2">
         <v>100</v>
       </c>
       <c r="K2">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="L2">
         <v>100</v>
@@ -2685,34 +2685,34 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>55.40000000000001</v>
+        <v>57.49999999999999</v>
       </c>
       <c r="C3">
-        <v>88.7</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>66.60000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="E3">
-        <v>47.09999999999999</v>
+        <v>47.9</v>
       </c>
       <c r="F3">
-        <v>73.90000000000001</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="G3">
-        <v>88.7</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="H3">
         <v>92.90000000000001</v>
       </c>
       <c r="I3">
-        <v>96.2</v>
+        <v>98</v>
       </c>
       <c r="J3">
-        <v>94.39999999999999</v>
+        <v>95.19999999999999</v>
       </c>
       <c r="K3">
-        <v>98.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="L3">
         <v>100</v>
@@ -2726,31 +2726,31 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C4">
-        <v>66.60000000000001</v>
+        <v>69.8</v>
       </c>
       <c r="D4">
-        <v>80.30000000000001</v>
+        <v>81.89999999999999</v>
       </c>
       <c r="E4">
-        <v>83.5</v>
+        <v>84.89999999999999</v>
       </c>
       <c r="F4">
-        <v>92.2</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="G4">
-        <v>96.39999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="H4">
-        <v>94.09999999999999</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="I4">
-        <v>98.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="J4">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="K4">
         <v>100</v>
@@ -2767,37 +2767,37 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="C5">
-        <v>77.5</v>
+        <v>76.5</v>
       </c>
       <c r="D5">
-        <v>90.5</v>
+        <v>89.7</v>
       </c>
       <c r="E5">
-        <v>78.3</v>
+        <v>79.60000000000001</v>
       </c>
       <c r="F5">
-        <v>78.3</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="G5">
-        <v>90.10000000000001</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="H5">
-        <v>97.3</v>
+        <v>96.8</v>
       </c>
       <c r="I5">
-        <v>94.89999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="J5">
-        <v>98.2</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="K5">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="L5">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="M5">
         <v>100</v>
@@ -2808,40 +2808,40 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="C6">
-        <v>86.90000000000001</v>
+        <v>87.7</v>
       </c>
       <c r="D6">
-        <v>96.3</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="E6">
-        <v>97.89999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="F6">
-        <v>98.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="G6">
-        <v>94.8</v>
+        <v>94.3</v>
       </c>
       <c r="H6">
-        <v>79.80000000000001</v>
+        <v>83.39999999999999</v>
       </c>
       <c r="I6">
-        <v>70.39999999999999</v>
+        <v>69.39999999999999</v>
       </c>
       <c r="J6">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="K6">
-        <v>76.90000000000001</v>
+        <v>75.8</v>
       </c>
       <c r="L6">
-        <v>93.10000000000001</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="M6">
-        <v>96.2</v>
+        <v>96.09999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2849,40 +2849,40 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>83.89999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="C7">
-        <v>67</v>
+        <v>60.7</v>
       </c>
       <c r="D7">
-        <v>69.89999999999999</v>
+        <v>69.8</v>
       </c>
       <c r="E7">
-        <v>73.09999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="F7">
-        <v>71.5</v>
+        <v>74</v>
       </c>
       <c r="G7">
-        <v>77.7</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="H7">
-        <v>94.09999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="I7">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="J7">
+        <v>96.2</v>
+      </c>
+      <c r="K7">
         <v>97.89999999999999</v>
       </c>
-      <c r="J7">
-        <v>95.7</v>
-      </c>
-      <c r="K7">
-        <v>99.2</v>
-      </c>
       <c r="L7">
-        <v>93.30000000000001</v>
+        <v>92.2</v>
       </c>
       <c r="M7">
-        <v>92.80000000000001</v>
+        <v>93.60000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2890,122 +2890,122 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>11.2</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>47.8</v>
+        <v>48.9</v>
       </c>
       <c r="D8">
-        <v>78.60000000000001</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="E8">
-        <v>93.7</v>
+        <v>93.10000000000001</v>
       </c>
       <c r="F8">
-        <v>89.60000000000001</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="G8">
-        <v>63.1</v>
+        <v>63.8</v>
       </c>
       <c r="H8">
-        <v>52.8</v>
+        <v>49.2</v>
       </c>
       <c r="I8">
-        <v>69</v>
+        <v>67.2</v>
       </c>
       <c r="J8">
-        <v>48.4</v>
+        <v>50</v>
       </c>
       <c r="K8">
-        <v>70</v>
+        <v>71.5</v>
       </c>
       <c r="L8">
-        <v>90.60000000000001</v>
+        <v>91.10000000000001</v>
       </c>
       <c r="M8">
-        <v>89.40000000000001</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>99.59999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="C9">
-        <v>85.39999999999999</v>
+        <v>62.2</v>
       </c>
       <c r="D9">
-        <v>29.7</v>
+        <v>42.7</v>
       </c>
       <c r="E9">
-        <v>17.6</v>
+        <v>70.8</v>
       </c>
       <c r="F9">
-        <v>26.7</v>
+        <v>55.3</v>
       </c>
       <c r="G9">
-        <v>58.5</v>
+        <v>38.4</v>
       </c>
       <c r="H9">
-        <v>36.8</v>
+        <v>54.7</v>
       </c>
       <c r="I9">
-        <v>57.9</v>
+        <v>34.5</v>
       </c>
       <c r="J9">
-        <v>81.2</v>
+        <v>47.7</v>
       </c>
       <c r="K9">
-        <v>63.6</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="L9">
-        <v>50.4</v>
+        <v>52.1</v>
       </c>
       <c r="M9">
-        <v>55.7</v>
+        <v>55.50000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>15.7</v>
+        <v>99.5</v>
       </c>
       <c r="C10">
-        <v>63.9</v>
+        <v>86</v>
       </c>
       <c r="D10">
-        <v>46.2</v>
+        <v>29.4</v>
       </c>
       <c r="E10">
-        <v>71.3</v>
+        <v>18.5</v>
       </c>
       <c r="F10">
-        <v>57.8</v>
+        <v>24</v>
       </c>
       <c r="G10">
-        <v>39.3</v>
+        <v>55.90000000000001</v>
       </c>
       <c r="H10">
-        <v>53.40000000000001</v>
+        <v>35.9</v>
       </c>
       <c r="I10">
-        <v>35.9</v>
+        <v>59.2</v>
       </c>
       <c r="J10">
-        <v>46.6</v>
+        <v>77.2</v>
       </c>
       <c r="K10">
-        <v>68.10000000000001</v>
+        <v>64.5</v>
       </c>
       <c r="L10">
-        <v>55.60000000000001</v>
+        <v>51.3</v>
       </c>
       <c r="M10">
-        <v>51.4</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3013,40 +3013,40 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>32.7</v>
+        <v>31.7</v>
       </c>
       <c r="C11">
-        <v>44.4</v>
+        <v>45.2</v>
       </c>
       <c r="D11">
-        <v>31.6</v>
+        <v>35.9</v>
       </c>
       <c r="E11">
-        <v>47.2</v>
+        <v>45.3</v>
       </c>
       <c r="F11">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="G11">
-        <v>47</v>
+        <v>48.5</v>
       </c>
       <c r="H11">
-        <v>76.09999999999999</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="I11">
-        <v>67.60000000000001</v>
+        <v>70.3</v>
       </c>
       <c r="J11">
-        <v>44.5</v>
+        <v>46.5</v>
       </c>
       <c r="K11">
-        <v>22.4</v>
+        <v>23.4</v>
       </c>
       <c r="L11">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="M11">
-        <v>14.3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3054,40 +3054,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>96.39999999999999</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="C12">
-        <v>76.40000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="D12">
-        <v>82.09999999999999</v>
+        <v>82.19999999999999</v>
       </c>
       <c r="E12">
-        <v>78.7</v>
+        <v>77.7</v>
       </c>
       <c r="F12">
-        <v>76.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="G12">
-        <v>23.5</v>
+        <v>28.5</v>
       </c>
       <c r="H12">
-        <v>12.6</v>
+        <v>10.7</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J12">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M12">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3095,40 +3095,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>67.5</v>
+        <v>65.5</v>
       </c>
       <c r="C13">
-        <v>1.9</v>
+        <v>4.3</v>
       </c>
       <c r="D13">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="E13">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F13">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="G13">
-        <v>22.3</v>
+        <v>20.1</v>
       </c>
       <c r="H13">
         <v>10.5</v>
       </c>
       <c r="I13">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="J13">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="K13">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="L13">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="M13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3183,8 +3183,8 @@
       <c r="D2">
         <v>125.84</v>
       </c>
-      <c r="E2">
-        <v>0.545</v>
+      <c r="E2" t="s">
+        <v>14</v>
       </c>
       <c r="F2">
         <v>134.12</v>
@@ -3212,8 +3212,8 @@
       <c r="D3">
         <v>122.75</v>
       </c>
-      <c r="E3">
-        <v>0.727</v>
+      <c r="E3" t="s">
+        <v>16</v>
       </c>
       <c r="F3">
         <v>120.98</v>
@@ -3241,8 +3241,8 @@
       <c r="D4">
         <v>109.91</v>
       </c>
-      <c r="E4">
-        <v>0.364</v>
+      <c r="E4" t="s">
+        <v>17</v>
       </c>
       <c r="F4">
         <v>127.07</v>
@@ -3270,8 +3270,8 @@
       <c r="D5">
         <v>98.29000000000001</v>
       </c>
-      <c r="E5">
-        <v>0.273</v>
+      <c r="E5" t="s">
+        <v>18</v>
       </c>
       <c r="F5">
         <v>128.93</v>
@@ -3299,8 +3299,8 @@
       <c r="D6">
         <v>118.84</v>
       </c>
-      <c r="E6">
-        <v>0.545</v>
+      <c r="E6" t="s">
+        <v>14</v>
       </c>
       <c r="F6">
         <v>118.48</v>
@@ -3328,8 +3328,8 @@
       <c r="D7">
         <v>107.21</v>
       </c>
-      <c r="E7">
-        <v>0.182</v>
+      <c r="E7" t="s">
+        <v>19</v>
       </c>
       <c r="F7">
         <v>122.61</v>
@@ -3357,8 +3357,8 @@
       <c r="D8">
         <v>126.25</v>
       </c>
-      <c r="E8">
-        <v>0.364</v>
+      <c r="E8" t="s">
+        <v>17</v>
       </c>
       <c r="F8">
         <v>114.32</v>
@@ -3386,8 +3386,8 @@
       <c r="D9">
         <v>117.41</v>
       </c>
-      <c r="E9">
-        <v>0.545</v>
+      <c r="E9" t="s">
+        <v>14</v>
       </c>
       <c r="F9">
         <v>124.47</v>
@@ -3415,8 +3415,8 @@
       <c r="D10">
         <v>110.7</v>
       </c>
-      <c r="E10">
-        <v>0.455</v>
+      <c r="E10" t="s">
+        <v>12</v>
       </c>
       <c r="F10">
         <v>118</v>
@@ -3444,8 +3444,8 @@
       <c r="D11">
         <v>138.31</v>
       </c>
-      <c r="E11">
-        <v>0.636</v>
+      <c r="E11" t="s">
+        <v>13</v>
       </c>
       <c r="F11">
         <v>117.43</v>
@@ -3473,8 +3473,8 @@
       <c r="D12">
         <v>139.96</v>
       </c>
-      <c r="E12">
-        <v>0.636</v>
+      <c r="E12" t="s">
+        <v>13</v>
       </c>
       <c r="F12">
         <v>113.84</v>
@@ -3502,8 +3502,8 @@
       <c r="D13">
         <v>136.14</v>
       </c>
-      <c r="E13">
-        <v>0.727</v>
+      <c r="E13" t="s">
+        <v>16</v>
       </c>
       <c r="F13">
         <v>111.35</v>
@@ -3644,7 +3644,7 @@
         <v>90</v>
       </c>
       <c r="I4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3693,7 +3693,7 @@
         <v>1384.2</v>
       </c>
       <c r="F6">
-        <v>95.39999999999999</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3722,7 +3722,7 @@
         <v>1307.2</v>
       </c>
       <c r="F7">
-        <v>94.39999999999999</v>
+        <v>93.10000000000001</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>1291.46</v>
       </c>
       <c r="F8">
-        <v>91.40000000000001</v>
+        <v>89.60000000000001</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3765,25 +3765,25 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
       </c>
       <c r="C9">
-        <v>0.3636363636363636</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D9">
-        <v>126.2472727272727</v>
+        <v>110.7036363636364</v>
       </c>
       <c r="E9">
-        <v>1388.72</v>
+        <v>1217.74</v>
       </c>
       <c r="F9">
-        <v>52.40000000000001</v>
+        <v>53.6</v>
       </c>
       <c r="G9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H9" t="s">
         <v>95</v>
@@ -3794,25 +3794,25 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
       </c>
       <c r="C10">
-        <v>0.4545454545454545</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D10">
-        <v>110.7036363636364</v>
+        <v>126.2472727272727</v>
       </c>
       <c r="E10">
-        <v>1217.74</v>
+        <v>1388.72</v>
       </c>
       <c r="F10">
-        <v>50.8</v>
+        <v>53.40000000000001</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H10" t="s">
         <v>96</v>
@@ -3826,7 +3826,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C11">
         <v>0.3636363636363636</v>
@@ -3838,10 +3838,10 @@
         <v>1209.06</v>
       </c>
       <c r="F11">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="G11">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="s">
         <v>97</v>
@@ -3870,7 +3870,7 @@
         <v>0.1</v>
       </c>
       <c r="G12">
-        <v>55.7</v>
+        <v>55.60000000000001</v>
       </c>
       <c r="H12" t="s">
         <v>98</v>
@@ -3899,7 +3899,7 @@
         <v>0.1</v>
       </c>
       <c r="G13">
-        <v>42.3</v>
+        <v>41.9</v>
       </c>
       <c r="H13" t="s">
         <v>99</v>

--- a/leagues/The Mike Daisy Sports IQ League 2025.xlsx
+++ b/leagues/The Mike Daisy Sports IQ League 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="139">
   <si>
     <t>Njigba's in Paris</t>
   </si>
@@ -61,37 +61,34 @@
     <t>Matt Gay Team</t>
   </si>
   <si>
-    <t>5-6-0</t>
-  </si>
-  <si>
-    <t>7-4-0</t>
-  </si>
-  <si>
-    <t>6-5-0</t>
-  </si>
-  <si>
-    <t>9-2-0</t>
-  </si>
-  <si>
-    <t>8-3-0</t>
-  </si>
-  <si>
-    <t>4-7-0</t>
-  </si>
-  <si>
-    <t>3-8-0</t>
-  </si>
-  <si>
-    <t>2-9-0</t>
-  </si>
-  <si>
-    <t>1-10-0</t>
-  </si>
-  <si>
-    <t>10-1-0</t>
-  </si>
-  <si>
-    <t>0-11-0</t>
+    <t>6-6-0</t>
+  </si>
+  <si>
+    <t>8-4-0</t>
+  </si>
+  <si>
+    <t>7-5-0</t>
+  </si>
+  <si>
+    <t>10-2-0</t>
+  </si>
+  <si>
+    <t>9-3-0</t>
+  </si>
+  <si>
+    <t>5-7-0</t>
+  </si>
+  <si>
+    <t>3-9-0</t>
+  </si>
+  <si>
+    <t>4-8-0</t>
+  </si>
+  <si>
+    <t>2-10-0</t>
+  </si>
+  <si>
+    <t>1-11-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -187,6 +184,9 @@
     <t>Week_12</t>
   </si>
   <si>
+    <t>Week_13</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -208,33 +208,33 @@
     <t>Games_Remaining</t>
   </si>
   <si>
+    <t>Matt Peiffer</t>
+  </si>
+  <si>
+    <t>Julian LeMaire</t>
+  </si>
+  <si>
     <t>Michael Daisey</t>
   </si>
   <si>
     <t>Dylan Sowers</t>
   </si>
   <si>
+    <t>David O'Kane</t>
+  </si>
+  <si>
     <t>Shjon Sowers</t>
   </si>
   <si>
-    <t>Matt Peiffer</t>
+    <t>Bobby  Schnur</t>
   </si>
   <si>
     <t>Rob Pernell</t>
   </si>
   <si>
-    <t>David O'Kane</t>
-  </si>
-  <si>
     <t>Matthew Jennings</t>
   </si>
   <si>
-    <t>Bobby  Schnur</t>
-  </si>
-  <si>
-    <t>Julian LeMaire</t>
-  </si>
-  <si>
     <t>Mark Yanzuk</t>
   </si>
   <si>
@@ -268,61 +268,64 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>8-3</t>
-  </si>
-  <si>
-    <t>7-4</t>
-  </si>
-  <si>
-    <t>6-5</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>4-7</t>
-  </si>
-  <si>
-    <t>2-9</t>
-  </si>
-  <si>
-    <t>3-8</t>
-  </si>
-  <si>
-    <t>10.0-4.0</t>
-  </si>
-  <si>
-    <t>8.9-5.1</t>
-  </si>
-  <si>
-    <t>9.6-4.4</t>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>4-8</t>
+  </si>
+  <si>
+    <t>2-10</t>
+  </si>
+  <si>
+    <t>3-9</t>
+  </si>
+  <si>
+    <t>10.3-3.6</t>
+  </si>
+  <si>
+    <t>9.2-4.8</t>
   </si>
   <si>
     <t>9.0-5.0</t>
   </si>
   <si>
-    <t>7.3-6.7</t>
-  </si>
-  <si>
-    <t>7.5-6.5</t>
-  </si>
-  <si>
-    <t>7.3-6.6</t>
-  </si>
-  <si>
-    <t>6.4-7.6</t>
-  </si>
-  <si>
-    <t>5.7-8.3</t>
-  </si>
-  <si>
-    <t>5.2-8.8</t>
-  </si>
-  <si>
-    <t>3.2-10.8</t>
-  </si>
-  <si>
-    <t>3.8-10.1</t>
+    <t>8.3-5.7</t>
+  </si>
+  <si>
+    <t>7.9-6.0</t>
+  </si>
+  <si>
+    <t>7.9-6.1</t>
+  </si>
+  <si>
+    <t>7.1-6.9</t>
+  </si>
+  <si>
+    <t>6.9-7.1</t>
+  </si>
+  <si>
+    <t>6.1-7.9</t>
+  </si>
+  <si>
+    <t>4.9-9.1</t>
+  </si>
+  <si>
+    <t>2.8-11.2</t>
+  </si>
+  <si>
+    <t>3.5-10.5</t>
   </si>
   <si>
     <t>10-4</t>
@@ -331,12 +334,12 @@
     <t>9-5</t>
   </si>
   <si>
+    <t>8-6</t>
+  </si>
+  <si>
     <t>7-7</t>
   </si>
   <si>
-    <t>8-6</t>
-  </si>
-  <si>
     <t>6-8</t>
   </si>
   <si>
@@ -346,9 +349,6 @@
     <t>3-11</t>
   </si>
   <si>
-    <t>4-10</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -358,39 +358,33 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
     <t>↑5</t>
   </si>
   <si>
-    <t>↑8</t>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑1</t>
   </si>
   <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>↓9</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -422,6 +416,9 @@
   </si>
   <si>
     <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
   </si>
   <si>
     <t>Week</t>
@@ -852,25 +849,25 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
@@ -902,7 +899,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -923,7 +920,7 @@
         <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -934,7 +931,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -964,7 +961,7 @@
         <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -975,37 +972,37 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
         <v>13</v>
       </c>
       <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" t="s">
         <v>14</v>
-      </c>
-      <c r="M5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1019,19 +1016,19 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
@@ -1043,10 +1040,10 @@
         <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1060,19 +1057,19 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
         <v>14</v>
@@ -1084,10 +1081,10 @@
         <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1107,28 +1104,28 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s">
         <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1139,37 +1136,37 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
         <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
       <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
         <v>14</v>
       </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>13</v>
-      </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" t="s">
         <v>12</v>
-      </c>
-      <c r="M9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1177,40 +1174,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
         <v>16</v>
-      </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1227,16 +1224,16 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
         <v>14</v>
@@ -1251,7 +1248,7 @@
         <v>12</v>
       </c>
       <c r="M11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1262,37 +1259,37 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
       </c>
       <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
         <v>17</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" t="s">
         <v>12</v>
-      </c>
-      <c r="J12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1303,34 +1300,34 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
         <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M13" t="s">
         <v>18</v>
@@ -1343,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1351,25 +1348,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1507,77 +1504,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>-11</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>9</v>
-      </c>
-      <c r="F8">
-        <v>-2</v>
-      </c>
-      <c r="G8">
-        <v>11</v>
-      </c>
-      <c r="H8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
         <v>5</v>
-      </c>
-      <c r="E9">
-        <v>-7</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1595,13 +1540,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1612,10 +1557,10 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>3.833333333333333</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1626,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -1637,13 +1582,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>4.583333333333333</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1651,13 +1596,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1665,10 +1610,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1679,13 +1624,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1693,10 +1638,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>5.75</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1707,13 +1652,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>5.75</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1721,10 +1666,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -1738,10 +1683,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>6.333333333333333</v>
+        <v>6.5</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1749,13 +1694,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>6.5</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1763,13 +1708,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>6.75</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1787,16 +1732,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1807,10 +1752,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>7.416666666666667</v>
+        <v>8.25</v>
       </c>
       <c r="D2">
-        <v>-0.583333333333333</v>
+        <v>-0.75</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -1824,10 +1769,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>7.416666666666667</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="D3">
-        <v>0.416666666666667</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -1847,7 +1792,7 @@
         <v>0.416666666666667</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1858,13 +1803,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>6.166666666666667</v>
+        <v>6.75</v>
       </c>
       <c r="D5">
-        <v>-1.833333333333333</v>
+        <v>-1.25</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1875,10 +1820,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.416666666666667</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -1889,16 +1834,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>5.833333333333333</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D7">
-        <v>-0.166666666666667</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1906,16 +1851,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>5.833333333333333</v>
+        <v>6.5</v>
       </c>
       <c r="D8">
-        <v>1.833333333333333</v>
+        <v>-0.5</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1923,16 +1868,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>5.583333333333333</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>-0.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1943,13 +1888,13 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>4.5</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1957,16 +1902,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>4.083333333333333</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D11">
-        <v>2.083333333333333</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1974,16 +1919,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>3.833333333333333</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D12">
-        <v>-1.166666666666667</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1994,10 +1939,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.916666666666667</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>-1.083333333333333</v>
+        <v>-1</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
@@ -2018,46 +1963,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2065,25 +2010,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>52.6</v>
+        <v>77.8</v>
       </c>
       <c r="C2">
-        <v>23.2</v>
+        <v>18.3</v>
       </c>
       <c r="D2">
-        <v>14.5</v>
+        <v>2.9</v>
       </c>
       <c r="E2">
-        <v>7.6</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2109,28 +2054,28 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>14.5</v>
+        <v>18.7</v>
       </c>
       <c r="C3">
-        <v>22.2</v>
+        <v>42.2</v>
       </c>
       <c r="D3">
-        <v>26.3</v>
+        <v>20.9</v>
       </c>
       <c r="E3">
-        <v>24.5</v>
+        <v>13.2</v>
       </c>
       <c r="F3">
-        <v>7.1</v>
+        <v>4.6</v>
       </c>
       <c r="G3">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="H3">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2153,25 +2098,25 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>15.9</v>
+        <v>2.2</v>
       </c>
       <c r="C4">
-        <v>26.4</v>
+        <v>24.9</v>
       </c>
       <c r="D4">
-        <v>21.6</v>
+        <v>21.9</v>
       </c>
       <c r="E4">
-        <v>25.3</v>
+        <v>29.2</v>
       </c>
       <c r="F4">
-        <v>7.6</v>
+        <v>15.2</v>
       </c>
       <c r="G4">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="H4">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2197,31 +2142,31 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>16.8</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>26.2</v>
+        <v>11.6</v>
       </c>
       <c r="D5">
-        <v>28.6</v>
+        <v>32.9</v>
       </c>
       <c r="E5">
-        <v>18.6</v>
+        <v>23.4</v>
       </c>
       <c r="F5">
-        <v>6.5</v>
+        <v>15.4</v>
       </c>
       <c r="G5">
-        <v>2.4</v>
+        <v>10</v>
       </c>
       <c r="H5">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="I5">
-        <v>0.1</v>
+        <v>1.8</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2233,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>100</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2241,34 +2186,34 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C6">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="D6">
-        <v>3.4</v>
+        <v>11.4</v>
       </c>
       <c r="E6">
-        <v>9.5</v>
+        <v>19.5</v>
       </c>
       <c r="F6">
-        <v>29.5</v>
+        <v>33.3</v>
       </c>
       <c r="G6">
-        <v>20.5</v>
+        <v>15</v>
       </c>
       <c r="H6">
-        <v>18.7</v>
+        <v>12.1</v>
       </c>
       <c r="I6">
-        <v>11.8</v>
+        <v>5.6</v>
       </c>
       <c r="J6">
-        <v>5.3</v>
+        <v>0.6</v>
       </c>
       <c r="K6">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -2277,42 +2222,42 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>94.40000000000001</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D7">
-        <v>2.4</v>
+        <v>9.9</v>
       </c>
       <c r="E7">
-        <v>7.8</v>
+        <v>12.2</v>
       </c>
       <c r="F7">
-        <v>22.3</v>
+        <v>16.3</v>
       </c>
       <c r="G7">
-        <v>27.9</v>
+        <v>30.7</v>
       </c>
       <c r="H7">
-        <v>23</v>
+        <v>15.3</v>
       </c>
       <c r="I7">
-        <v>9</v>
+        <v>12.1</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="K7">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -2321,42 +2266,42 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>93.09999999999999</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>3.2</v>
+        <v>0.1</v>
       </c>
       <c r="E8">
-        <v>6.5</v>
+        <v>1.4</v>
       </c>
       <c r="F8">
-        <v>18.8</v>
+        <v>7.8</v>
       </c>
       <c r="G8">
-        <v>22.4</v>
+        <v>16.7</v>
       </c>
       <c r="H8">
-        <v>24.5</v>
+        <v>31.7</v>
       </c>
       <c r="I8">
-        <v>13.7</v>
+        <v>22.7</v>
       </c>
       <c r="J8">
-        <v>9.300000000000001</v>
+        <v>17.9</v>
       </c>
       <c r="K8">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -2365,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>89.59999999999999</v>
+        <v>80.40000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2382,34 +2327,34 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F9">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="G9">
-        <v>8.1</v>
+        <v>11.4</v>
       </c>
       <c r="H9">
-        <v>14.9</v>
+        <v>20.5</v>
       </c>
       <c r="I9">
-        <v>27.6</v>
+        <v>31.3</v>
       </c>
       <c r="J9">
-        <v>34.4</v>
+        <v>30.3</v>
       </c>
       <c r="K9">
-        <v>11</v>
+        <v>1.7</v>
       </c>
       <c r="L9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>53.6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2429,31 +2374,31 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>10.3</v>
       </c>
       <c r="H10">
-        <v>12.2</v>
+        <v>15.1</v>
       </c>
       <c r="I10">
-        <v>27.6</v>
+        <v>22.7</v>
       </c>
       <c r="J10">
-        <v>25.6</v>
+        <v>40.2</v>
       </c>
       <c r="K10">
-        <v>18.1</v>
+        <v>9</v>
       </c>
       <c r="L10">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>53.4</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2473,31 +2418,31 @@
         <v>0</v>
       </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.5</v>
+      </c>
+      <c r="I11">
+        <v>3.8</v>
+      </c>
+      <c r="J11">
+        <v>8.1</v>
+      </c>
+      <c r="K11">
+        <v>82.8</v>
+      </c>
+      <c r="L11">
+        <v>4.6</v>
+      </c>
+      <c r="M11">
         <v>0.2</v>
       </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>3.7</v>
-      </c>
-      <c r="I11">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="J11">
-        <v>17.9</v>
-      </c>
-      <c r="K11">
-        <v>54.2</v>
-      </c>
-      <c r="L11">
-        <v>10</v>
-      </c>
-      <c r="M11">
-        <v>2.2</v>
-      </c>
       <c r="N11">
-        <v>15.7</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2526,22 +2471,22 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>7.4</v>
+        <v>2.8</v>
       </c>
       <c r="L12">
-        <v>36.4</v>
+        <v>39.1</v>
       </c>
       <c r="M12">
-        <v>55.6</v>
+        <v>58.1</v>
       </c>
       <c r="N12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2570,22 +2515,22 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>50</v>
+        <v>56.3</v>
       </c>
       <c r="M13">
-        <v>41.9</v>
+        <v>41.7</v>
       </c>
       <c r="N13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2595,51 +2540,54 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2647,31 +2595,31 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>92.2</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="D2">
-        <v>98.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="E2">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F2">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="G2">
         <v>99.09999999999999</v>
       </c>
       <c r="H2">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I2">
+        <v>99.5</v>
+      </c>
+      <c r="J2">
+        <v>99.8</v>
+      </c>
+      <c r="K2">
         <v>100</v>
-      </c>
-      <c r="J2">
-        <v>100</v>
-      </c>
-      <c r="K2">
-        <v>99.90000000000001</v>
       </c>
       <c r="L2">
         <v>100</v>
@@ -2679,49 +2627,55 @@
       <c r="M2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>57.49999999999999</v>
+        <v>53.2</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>89.7</v>
       </c>
       <c r="D3">
-        <v>66.7</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E3">
-        <v>47.9</v>
+        <v>51</v>
       </c>
       <c r="F3">
-        <v>74.40000000000001</v>
+        <v>75.3</v>
       </c>
       <c r="G3">
-        <v>87.59999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="H3">
-        <v>92.90000000000001</v>
+        <v>93.10000000000001</v>
       </c>
       <c r="I3">
-        <v>98</v>
+        <v>97.3</v>
       </c>
       <c r="J3">
-        <v>95.19999999999999</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="K3">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="L3">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="M3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2729,28 +2683,28 @@
         <v>99.90000000000001</v>
       </c>
       <c r="C4">
-        <v>69.8</v>
+        <v>66.5</v>
       </c>
       <c r="D4">
-        <v>81.89999999999999</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="E4">
-        <v>84.89999999999999</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="F4">
-        <v>94.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="G4">
-        <v>96.5</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="H4">
-        <v>94.59999999999999</v>
+        <v>94.3</v>
       </c>
       <c r="I4">
-        <v>99.40000000000001</v>
+        <v>99</v>
       </c>
       <c r="J4">
-        <v>99.5</v>
+        <v>99.3</v>
       </c>
       <c r="K4">
         <v>100</v>
@@ -2761,254 +2715,275 @@
       <c r="M4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>38</v>
+        <v>38.3</v>
       </c>
       <c r="C5">
-        <v>76.5</v>
+        <v>78.3</v>
       </c>
       <c r="D5">
-        <v>89.7</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="E5">
-        <v>79.60000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="F5">
-        <v>76.09999999999999</v>
+        <v>77.60000000000001</v>
       </c>
       <c r="G5">
-        <v>89.40000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="H5">
-        <v>96.8</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="I5">
         <v>92.90000000000001</v>
       </c>
       <c r="J5">
-        <v>98.40000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="L5">
         <v>100</v>
       </c>
       <c r="M5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>98.8</v>
+      </c>
+      <c r="N5">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="C6">
-        <v>87.7</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="D6">
-        <v>94.89999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="E6">
-        <v>98.3</v>
+        <v>98.7</v>
       </c>
       <c r="F6">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="G6">
-        <v>94.3</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="H6">
-        <v>83.39999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="I6">
-        <v>69.39999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="J6">
-        <v>86.2</v>
+        <v>85.5</v>
       </c>
       <c r="K6">
-        <v>75.8</v>
+        <v>78.10000000000001</v>
       </c>
       <c r="L6">
-        <v>95.89999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="M6">
         <v>96.09999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>11.3</v>
+      </c>
+      <c r="C7">
+        <v>48</v>
+      </c>
+      <c r="D7">
+        <v>81.39999999999999</v>
+      </c>
+      <c r="E7">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="F7">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="G7">
+        <v>65.3</v>
+      </c>
+      <c r="H7">
+        <v>50.5</v>
+      </c>
+      <c r="I7">
+        <v>66.10000000000001</v>
+      </c>
+      <c r="J7">
+        <v>49.9</v>
+      </c>
+      <c r="K7">
+        <v>72.7</v>
+      </c>
+      <c r="L7">
+        <v>89.60000000000001</v>
+      </c>
+      <c r="M7">
+        <v>92.5</v>
+      </c>
+      <c r="N7">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>82.8</v>
-      </c>
-      <c r="C7">
-        <v>60.7</v>
-      </c>
-      <c r="D7">
-        <v>69.8</v>
-      </c>
-      <c r="E7">
-        <v>72.3</v>
-      </c>
-      <c r="F7">
-        <v>74</v>
-      </c>
-      <c r="G7">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="H7">
-        <v>91.3</v>
-      </c>
-      <c r="I7">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="J7">
-        <v>96.2</v>
-      </c>
-      <c r="K7">
-        <v>97.89999999999999</v>
-      </c>
-      <c r="L7">
-        <v>92.2</v>
-      </c>
-      <c r="M7">
-        <v>93.60000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B8">
-        <v>12</v>
+        <v>82.19999999999999</v>
       </c>
       <c r="C8">
-        <v>48.9</v>
+        <v>63</v>
       </c>
       <c r="D8">
-        <v>78.90000000000001</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="E8">
-        <v>93.10000000000001</v>
+        <v>70.89999999999999</v>
       </c>
       <c r="F8">
-        <v>89.90000000000001</v>
+        <v>70</v>
       </c>
       <c r="G8">
-        <v>63.8</v>
+        <v>77.10000000000001</v>
       </c>
       <c r="H8">
-        <v>49.2</v>
+        <v>90.7</v>
       </c>
       <c r="I8">
-        <v>67.2</v>
+        <v>97</v>
       </c>
       <c r="J8">
-        <v>50</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="K8">
-        <v>71.5</v>
+        <v>98.3</v>
       </c>
       <c r="L8">
-        <v>91.10000000000001</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="M8">
-        <v>90.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="N8">
+        <v>79.80000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B9">
-        <v>17.4</v>
+        <v>19.1</v>
       </c>
       <c r="C9">
-        <v>62.2</v>
+        <v>63</v>
       </c>
       <c r="D9">
-        <v>42.7</v>
+        <v>44.6</v>
       </c>
       <c r="E9">
-        <v>70.8</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="F9">
-        <v>55.3</v>
+        <v>53.8</v>
       </c>
       <c r="G9">
-        <v>38.4</v>
+        <v>37.8</v>
       </c>
       <c r="H9">
-        <v>54.7</v>
+        <v>55.50000000000001</v>
       </c>
       <c r="I9">
-        <v>34.5</v>
+        <v>37.8</v>
       </c>
       <c r="J9">
-        <v>47.7</v>
+        <v>47.3</v>
       </c>
       <c r="K9">
-        <v>66.90000000000001</v>
+        <v>64.2</v>
       </c>
       <c r="L9">
-        <v>52.1</v>
+        <v>54.40000000000001</v>
       </c>
       <c r="M9">
-        <v>55.50000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>70.3</v>
+      </c>
+      <c r="N9">
+        <v>65.10000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C10">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="D10">
-        <v>29.4</v>
+        <v>27.4</v>
       </c>
       <c r="E10">
-        <v>18.5</v>
+        <v>17.6</v>
       </c>
       <c r="F10">
-        <v>24</v>
+        <v>26.3</v>
       </c>
       <c r="G10">
-        <v>55.90000000000001</v>
+        <v>56.7</v>
       </c>
       <c r="H10">
-        <v>35.9</v>
+        <v>37.5</v>
       </c>
       <c r="I10">
-        <v>59.2</v>
+        <v>60.7</v>
       </c>
       <c r="J10">
-        <v>77.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="K10">
-        <v>64.5</v>
+        <v>64.3</v>
       </c>
       <c r="L10">
-        <v>51.3</v>
+        <v>50.6</v>
       </c>
       <c r="M10">
-        <v>47.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>61.3</v>
+      </c>
+      <c r="N10">
+        <v>54.40000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -3016,118 +2991,127 @@
         <v>31.7</v>
       </c>
       <c r="C11">
-        <v>45.2</v>
+        <v>44.3</v>
       </c>
       <c r="D11">
-        <v>35.9</v>
+        <v>33.8</v>
       </c>
       <c r="E11">
+        <v>44.8</v>
+      </c>
+      <c r="F11">
+        <v>28.5</v>
+      </c>
+      <c r="G11">
         <v>45.3</v>
       </c>
-      <c r="F11">
-        <v>28</v>
-      </c>
-      <c r="G11">
-        <v>48.5</v>
-      </c>
       <c r="H11">
-        <v>80.40000000000001</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="I11">
-        <v>70.3</v>
+        <v>68.8</v>
       </c>
       <c r="J11">
-        <v>46.5</v>
+        <v>49.5</v>
       </c>
       <c r="K11">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="L11">
-        <v>16.6</v>
+        <v>16</v>
       </c>
       <c r="M11">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>4.6</v>
+      </c>
+      <c r="N11">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>95.89999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="C12">
-        <v>77.5</v>
+        <v>79.5</v>
       </c>
       <c r="D12">
-        <v>82.19999999999999</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="E12">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="F12">
-        <v>76.90000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="G12">
-        <v>28.5</v>
+        <v>26.5</v>
       </c>
       <c r="H12">
-        <v>10.7</v>
+        <v>11.1</v>
       </c>
       <c r="I12">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="J12">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="K12">
-        <v>0.7000000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="L12">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="M12">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>65.5</v>
+        <v>68.2</v>
       </c>
       <c r="C13">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="D13">
-        <v>29.3</v>
+        <v>27.3</v>
       </c>
       <c r="E13">
-        <v>11.9</v>
+        <v>12.4</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>10.3</v>
       </c>
       <c r="G13">
-        <v>20.1</v>
+        <v>23.6</v>
       </c>
       <c r="H13">
-        <v>10.5</v>
+        <v>11.8</v>
       </c>
       <c r="I13">
-        <v>6.4</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="J13">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K13">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="L13">
         <v>0.2</v>
       </c>
       <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
         <v>0</v>
       </c>
     </row>
@@ -3146,7 +3130,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>54</v>
@@ -3175,28 +3159,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
       </c>
       <c r="D2">
-        <v>125.84</v>
+        <v>98.38</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>134.12</v>
+        <v>134.72</v>
       </c>
       <c r="G2">
-        <v>0.576</v>
+        <v>0.667</v>
       </c>
       <c r="H2">
-        <v>19.7</v>
+        <v>28</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3204,28 +3188,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>62</v>
       </c>
       <c r="D3">
-        <v>122.75</v>
+        <v>114.67</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>120.98</v>
+        <v>127.46</v>
       </c>
       <c r="G3">
-        <v>0.455</v>
+        <v>0.625</v>
       </c>
       <c r="H3">
-        <v>14.7</v>
+        <v>22</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3233,28 +3217,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
       </c>
       <c r="D4">
-        <v>109.91</v>
+        <v>125.66</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>127.07</v>
+        <v>131.43</v>
       </c>
       <c r="G4">
-        <v>0.545</v>
+        <v>0.583</v>
       </c>
       <c r="H4">
-        <v>12.3</v>
+        <v>20.5</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3262,28 +3246,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>64</v>
       </c>
       <c r="D5">
-        <v>98.29000000000001</v>
+        <v>123.14</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F5">
-        <v>128.93</v>
+        <v>121.24</v>
       </c>
       <c r="G5">
-        <v>0.606</v>
+        <v>0.417</v>
       </c>
       <c r="H5">
-        <v>8.699999999999999</v>
+        <v>16</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3291,28 +3275,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
       </c>
       <c r="D6">
-        <v>118.84</v>
+        <v>106.96</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>118.48</v>
+        <v>120.21</v>
       </c>
       <c r="G6">
-        <v>0.394</v>
+        <v>0.583</v>
       </c>
       <c r="H6">
-        <v>6.3</v>
+        <v>-1</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3320,28 +3304,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>66</v>
       </c>
       <c r="D7">
-        <v>107.21</v>
+        <v>110.95</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
       </c>
       <c r="F7">
-        <v>122.61</v>
+        <v>121.94</v>
       </c>
       <c r="G7">
-        <v>0.545</v>
+        <v>0.458</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3349,28 +3333,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>67</v>
       </c>
       <c r="D8">
-        <v>126.25</v>
+        <v>119.41</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>114.32</v>
+        <v>123.92</v>
       </c>
       <c r="G8">
-        <v>0.364</v>
+        <v>0.542</v>
       </c>
       <c r="H8">
-        <v>-3</v>
+        <v>-6.5</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3378,28 +3362,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>68</v>
       </c>
       <c r="D9">
-        <v>117.41</v>
+        <v>117.29</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F9">
-        <v>124.47</v>
+        <v>108.95</v>
       </c>
       <c r="G9">
-        <v>0.606</v>
+        <v>0.25</v>
       </c>
       <c r="H9">
-        <v>-3.7</v>
+        <v>-7</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3407,28 +3391,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>69</v>
       </c>
       <c r="D10">
-        <v>110.7</v>
+        <v>126.59</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F10">
-        <v>118</v>
+        <v>118.3</v>
       </c>
       <c r="G10">
-        <v>0.485</v>
+        <v>0.458</v>
       </c>
       <c r="H10">
-        <v>-5.7</v>
+        <v>-7</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3442,22 +3426,22 @@
         <v>70</v>
       </c>
       <c r="D11">
-        <v>138.31</v>
+        <v>135.51</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
       <c r="F11">
-        <v>117.43</v>
+        <v>118.91</v>
       </c>
       <c r="G11">
-        <v>0.576</v>
+        <v>0.583</v>
       </c>
       <c r="H11">
-        <v>-11</v>
+        <v>-13.5</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3471,22 +3455,22 @@
         <v>71</v>
       </c>
       <c r="D12">
-        <v>139.96</v>
+        <v>133.17</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12">
-        <v>113.84</v>
+        <v>108.89</v>
       </c>
       <c r="G12">
-        <v>0.455</v>
+        <v>0.417</v>
       </c>
       <c r="H12">
-        <v>-15</v>
+        <v>-22</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3500,22 +3484,22 @@
         <v>72</v>
       </c>
       <c r="D13">
-        <v>136.14</v>
+        <v>136.27</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
       </c>
       <c r="F13">
-        <v>111.35</v>
+        <v>112.02</v>
       </c>
       <c r="G13">
-        <v>0.394</v>
+        <v>0.417</v>
       </c>
       <c r="H13">
-        <v>-23.3</v>
+        <v>-28</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3533,7 +3517,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>73</v>
@@ -3568,13 +3552,13 @@
         <v>81</v>
       </c>
       <c r="C2">
-        <v>0.7272727272727273</v>
+        <v>0.75</v>
       </c>
       <c r="D2">
-        <v>136.1363636363636</v>
+        <v>136.2683333333333</v>
       </c>
       <c r="E2">
-        <v>1497.5</v>
+        <v>1635.22</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3583,10 +3567,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3597,13 +3581,13 @@
         <v>82</v>
       </c>
       <c r="C3">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>138.3145454545455</v>
+        <v>135.51</v>
       </c>
       <c r="E3">
-        <v>1521.46</v>
+        <v>1626.12</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -3612,10 +3596,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3623,16 +3607,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4">
-        <v>0.7272727272727273</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4">
-        <v>122.7490909090909</v>
+        <v>123.1416666666667</v>
       </c>
       <c r="E4">
-        <v>1350.24</v>
+        <v>1477.7</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -3641,10 +3625,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3652,28 +3636,28 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5">
-        <v>0.6363636363636364</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D5">
-        <v>139.9636363636364</v>
+        <v>133.175</v>
       </c>
       <c r="E5">
-        <v>1539.6</v>
+        <v>1598.1</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3684,51 +3668,51 @@
         <v>83</v>
       </c>
       <c r="C6">
-        <v>0.5454545454545454</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D6">
-        <v>125.8363636363636</v>
+        <v>125.6566666666667</v>
       </c>
       <c r="E6">
-        <v>1384.2</v>
+        <v>1507.88</v>
       </c>
       <c r="F6">
-        <v>94.39999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>83</v>
       </c>
       <c r="C7">
-        <v>0.5454545454545454</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D7">
-        <v>118.8363636363636</v>
+        <v>119.4116666666667</v>
       </c>
       <c r="E7">
-        <v>1307.2</v>
+        <v>1432.94</v>
       </c>
       <c r="F7">
-        <v>93.10000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I7" t="s">
         <v>103</v>
@@ -3736,31 +3720,31 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C8">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>117.4054545454545</v>
+        <v>117.285</v>
       </c>
       <c r="E8">
-        <v>1291.46</v>
+        <v>1407.42</v>
       </c>
       <c r="F8">
-        <v>89.60000000000001</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3771,22 +3755,22 @@
         <v>84</v>
       </c>
       <c r="C9">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>110.7036363636364</v>
+        <v>114.675</v>
       </c>
       <c r="E9">
-        <v>1217.74</v>
+        <v>1376.1</v>
       </c>
       <c r="F9">
-        <v>53.6</v>
+        <v>68</v>
       </c>
       <c r="G9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I9" t="s">
         <v>104</v>
@@ -3800,25 +3784,25 @@
         <v>85</v>
       </c>
       <c r="C10">
-        <v>0.3636363636363636</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D10">
-        <v>126.2472727272727</v>
+        <v>126.5866666666667</v>
       </c>
       <c r="E10">
-        <v>1388.72</v>
+        <v>1519.04</v>
       </c>
       <c r="F10">
-        <v>53.40000000000001</v>
+        <v>50.8</v>
       </c>
       <c r="G10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3826,28 +3810,28 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11">
-        <v>0.3636363636363636</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D11">
-        <v>109.9145454545454</v>
+        <v>110.95</v>
       </c>
       <c r="E11">
-        <v>1209.06</v>
+        <v>1331.4</v>
       </c>
       <c r="F11">
-        <v>15.7</v>
+        <v>4.3</v>
       </c>
       <c r="G11">
-        <v>2.2</v>
+        <v>0.2</v>
       </c>
       <c r="H11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3855,28 +3839,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C12">
-        <v>0.1818181818181818</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D12">
-        <v>107.2090909090909</v>
+        <v>106.96</v>
       </c>
       <c r="E12">
-        <v>1179.3</v>
+        <v>1283.52</v>
       </c>
       <c r="F12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>55.60000000000001</v>
+        <v>58.09999999999999</v>
       </c>
       <c r="H12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3884,25 +3868,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C13">
-        <v>0.2727272727272727</v>
+        <v>0.25</v>
       </c>
       <c r="D13">
-        <v>98.28727272727274</v>
+        <v>98.37666666666667</v>
       </c>
       <c r="E13">
-        <v>1081.16</v>
+        <v>1180.52</v>
       </c>
       <c r="F13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>41.9</v>
+        <v>41.7</v>
       </c>
       <c r="H13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I13" t="s">
         <v>107</v>
@@ -3923,7 +3907,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>108</v>
@@ -3932,7 +3916,7 @@
         <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>110</v>
@@ -3949,7 +3933,7 @@
         <v>72</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -3969,7 +3953,7 @@
         <v>70</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -3989,10 +3973,10 @@
         <v>71</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>113</v>
@@ -4006,10 +3990,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -4023,16 +4007,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
         <v>115</v>
@@ -4043,19 +4027,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4063,19 +4047,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>65</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4086,16 +4070,16 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4103,19 +4087,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D10">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4126,16 +4110,16 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D11">
-        <v>-18</v>
+        <v>-16</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4146,16 +4130,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D12">
-        <v>-32</v>
+        <v>-30</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4166,7 +4150,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D13">
         <v>-58</v>
@@ -4175,7 +4159,7 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4185,51 +4169,54 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4266,11 +4253,14 @@
       <c r="L2">
         <v>35</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2">
+        <v>39</v>
+      </c>
+      <c r="N2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4307,11 +4297,14 @@
       <c r="L3">
         <v>34</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -4348,11 +4341,14 @@
       <c r="L4">
         <v>23</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4">
+        <v>17</v>
+      </c>
+      <c r="N4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -4389,134 +4385,146 @@
       <c r="L5">
         <v>7</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5">
+        <v>14</v>
+      </c>
+      <c r="N5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>-2</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="K6">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>6</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
       <c r="L6">
-        <v>6</v>
-      </c>
-      <c r="M6" t="s">
+        <v>-2</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="E7">
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
         <v>11</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>4</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>2</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>-1</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>-8</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>3</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>-2</v>
-      </c>
-      <c r="C8">
-        <v>-2</v>
-      </c>
-      <c r="D8">
-        <v>-7</v>
-      </c>
-      <c r="E8">
-        <v>-2</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-      <c r="H8">
-        <v>7</v>
-      </c>
-      <c r="I8">
-        <v>13</v>
-      </c>
-      <c r="J8">
-        <v>16</v>
-      </c>
-      <c r="K8">
-        <v>9</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -4553,52 +4561,58 @@
       <c r="L9">
         <v>1</v>
       </c>
-      <c r="M9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="C10">
         <v>-2</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>7</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="K10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L10">
-        <v>-2</v>
-      </c>
-      <c r="M10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>-5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -4635,11 +4649,14 @@
       <c r="L11">
         <v>-18</v>
       </c>
-      <c r="M11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="M11">
+        <v>-16</v>
+      </c>
+      <c r="N11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -4676,11 +4693,14 @@
       <c r="L12">
         <v>-32</v>
       </c>
-      <c r="M12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="M12">
+        <v>-30</v>
+      </c>
+      <c r="N12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -4717,8 +4737,11 @@
       <c r="L13">
         <v>-58</v>
       </c>
-      <c r="M13" t="s">
-        <v>121</v>
+      <c r="M13">
+        <v>-58</v>
+      </c>
+      <c r="N13" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/The Mike Daisy Sports IQ League 2025.xlsx
+++ b/leagues/The Mike Daisy Sports IQ League 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="141">
   <si>
     <t>Njigba's in Paris</t>
   </si>
@@ -61,34 +61,37 @@
     <t>Matt Gay Team</t>
   </si>
   <si>
-    <t>6-6-0</t>
-  </si>
-  <si>
-    <t>8-4-0</t>
-  </si>
-  <si>
-    <t>7-5-0</t>
-  </si>
-  <si>
-    <t>10-2-0</t>
-  </si>
-  <si>
-    <t>9-3-0</t>
-  </si>
-  <si>
-    <t>5-7-0</t>
-  </si>
-  <si>
-    <t>3-9-0</t>
-  </si>
-  <si>
-    <t>4-8-0</t>
-  </si>
-  <si>
-    <t>2-10-0</t>
-  </si>
-  <si>
-    <t>1-11-0</t>
+    <t>7-6-0</t>
+  </si>
+  <si>
+    <t>9-4-0</t>
+  </si>
+  <si>
+    <t>10-3-0</t>
+  </si>
+  <si>
+    <t>8-5-0</t>
+  </si>
+  <si>
+    <t>5-8-0</t>
+  </si>
+  <si>
+    <t>4-9-0</t>
+  </si>
+  <si>
+    <t>6-7-0</t>
+  </si>
+  <si>
+    <t>3-10-0</t>
+  </si>
+  <si>
+    <t>2-11-0</t>
+  </si>
+  <si>
+    <t>1-12-0</t>
+  </si>
+  <si>
+    <t>11-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -187,6 +190,9 @@
     <t>Week_13</t>
   </si>
   <si>
+    <t>Week_14</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -214,33 +220,33 @@
     <t>Julian LeMaire</t>
   </si>
   <si>
+    <t>Bobby  Schnur</t>
+  </si>
+  <si>
+    <t>Nick DiNunzio</t>
+  </si>
+  <si>
+    <t>Matthew Jennings</t>
+  </si>
+  <si>
     <t>Michael Daisey</t>
   </si>
   <si>
+    <t>David O'Kane</t>
+  </si>
+  <si>
     <t>Dylan Sowers</t>
   </si>
   <si>
-    <t>David O'Kane</t>
-  </si>
-  <si>
     <t>Shjon Sowers</t>
   </si>
   <si>
-    <t>Bobby  Schnur</t>
-  </si>
-  <si>
     <t>Rob Pernell</t>
   </si>
   <si>
-    <t>Matthew Jennings</t>
-  </si>
-  <si>
     <t>Mark Yanzuk</t>
   </si>
   <si>
-    <t>Nick DiNunzio</t>
-  </si>
-  <si>
     <t>Benjamin Frost</t>
   </si>
   <si>
@@ -268,64 +274,61 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>9-3</t>
-  </si>
-  <si>
-    <t>8-4</t>
-  </si>
-  <si>
-    <t>7-5</t>
-  </si>
-  <si>
-    <t>6-6</t>
-  </si>
-  <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>4-8</t>
-  </si>
-  <si>
-    <t>2-10</t>
-  </si>
-  <si>
-    <t>3-9</t>
-  </si>
-  <si>
-    <t>10.3-3.6</t>
-  </si>
-  <si>
-    <t>9.2-4.8</t>
-  </si>
-  <si>
-    <t>9.0-5.0</t>
-  </si>
-  <si>
-    <t>8.3-5.7</t>
-  </si>
-  <si>
-    <t>7.9-6.0</t>
-  </si>
-  <si>
-    <t>7.9-6.1</t>
-  </si>
-  <si>
-    <t>7.1-6.9</t>
-  </si>
-  <si>
-    <t>6.9-7.1</t>
-  </si>
-  <si>
-    <t>6.1-7.9</t>
-  </si>
-  <si>
-    <t>4.9-9.1</t>
-  </si>
-  <si>
-    <t>2.8-11.2</t>
-  </si>
-  <si>
-    <t>3.5-10.5</t>
+    <t>10-3</t>
+  </si>
+  <si>
+    <t>9-4</t>
+  </si>
+  <si>
+    <t>8-5</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>4-9</t>
+  </si>
+  <si>
+    <t>2-11</t>
+  </si>
+  <si>
+    <t>10.8-3.2</t>
+  </si>
+  <si>
+    <t>9.6-4.3</t>
+  </si>
+  <si>
+    <t>8.6-5.4</t>
+  </si>
+  <si>
+    <t>7.6-6.4</t>
+  </si>
+  <si>
+    <t>7.5-6.5</t>
+  </si>
+  <si>
+    <t>7.4-6.6</t>
+  </si>
+  <si>
+    <t>7.3-6.6</t>
+  </si>
+  <si>
+    <t>6.5-7.5</t>
+  </si>
+  <si>
+    <t>4.5-9.5</t>
+  </si>
+  <si>
+    <t>2.4-11.6</t>
+  </si>
+  <si>
+    <t>4.2-9.8</t>
+  </si>
+  <si>
+    <t>11-3</t>
   </si>
   <si>
     <t>10-4</t>
@@ -343,10 +346,10 @@
     <t>6-8</t>
   </si>
   <si>
-    <t>5-9</t>
-  </si>
-  <si>
-    <t>3-11</t>
+    <t>4-10</t>
+  </si>
+  <si>
+    <t>2-12</t>
   </si>
   <si>
     <t>Owners</t>
@@ -358,31 +361,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑5</t>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑2</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↓7</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -419,6 +422,9 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
   </si>
   <si>
     <t>Week</t>
@@ -849,37 +855,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
       </c>
       <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -890,34 +896,34 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
       <c r="L3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M3" t="s">
         <v>13</v>
@@ -928,40 +934,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
         <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -981,16 +987,16 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
       </c>
       <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
         <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
@@ -1002,7 +1008,7 @@
         <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1010,40 +1016,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" t="s">
         <v>16</v>
       </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="M6" t="s">
         <v>12</v>
-      </c>
-      <c r="K6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1051,37 +1057,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M7" t="s">
         <v>13</v>
@@ -1092,40 +1098,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
       </c>
       <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" t="s">
         <v>19</v>
       </c>
-      <c r="K8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" t="s">
-        <v>20</v>
-      </c>
       <c r="M8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1133,40 +1139,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1174,40 +1180,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="K10" t="s">
         <v>15</v>
       </c>
-      <c r="G10" t="s">
+      <c r="L10" t="s">
         <v>16</v>
       </c>
-      <c r="H10" t="s">
+      <c r="M10" t="s">
         <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1218,37 +1224,37 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L11" t="s">
         <v>12</v>
       </c>
       <c r="M11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1256,40 +1262,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
         <v>17</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
         <v>17</v>
       </c>
-      <c r="H12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" t="s">
-        <v>19</v>
-      </c>
       <c r="K12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L12" t="s">
         <v>20</v>
       </c>
       <c r="M12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1297,16 +1303,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -1318,19 +1324,19 @@
         <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" t="s">
         <v>20</v>
       </c>
-      <c r="K13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" t="s">
-        <v>21</v>
-      </c>
       <c r="M13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1348,25 +1354,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1374,25 +1380,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>-12</v>
+        <v>-58</v>
       </c>
       <c r="G2">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1400,25 +1406,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F3">
-        <v>-18</v>
+        <v>-12</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1426,22 +1432,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>-8</v>
+        <v>-28</v>
       </c>
       <c r="F4">
-        <v>-28</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
@@ -1452,25 +1458,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>-15</v>
-      </c>
       <c r="F5">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1478,22 +1484,22 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>-34</v>
+        <v>-8</v>
       </c>
       <c r="F6">
-        <v>-18</v>
+        <v>-28</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -1504,25 +1510,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>-15</v>
       </c>
       <c r="F7">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1540,13 +1546,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1557,7 +1563,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>4.166666666666667</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -1571,10 +1577,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1585,10 +1591,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>5.333333333333333</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1599,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>5.333333333333333</v>
+        <v>6.25</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1613,10 +1619,10 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1624,13 +1630,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>6.25</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1641,10 +1647,10 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>6.416666666666667</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1652,13 +1658,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>6.416666666666667</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1669,10 +1675,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>6.416666666666667</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1680,13 +1686,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>6.5</v>
+        <v>7.25</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1697,10 +1703,10 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>6.833333333333333</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1711,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.333333333333333</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -1732,16 +1738,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1752,13 +1758,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>8.25</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="D2">
-        <v>-0.75</v>
+        <v>-0.8333333333333339</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1769,10 +1775,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>7.833333333333333</v>
+        <v>8.833333333333334</v>
       </c>
       <c r="D3">
-        <v>-0.166666666666667</v>
+        <v>-0.1666666666666661</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -1786,13 +1792,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>7.416666666666667</v>
+        <v>7.75</v>
       </c>
       <c r="D4">
-        <v>0.416666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1800,16 +1806,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>6.75</v>
+        <v>7.25</v>
       </c>
       <c r="D5">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1817,16 +1823,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>6.583333333333333</v>
+        <v>7.25</v>
       </c>
       <c r="D6">
-        <v>-0.416666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1834,16 +1840,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>6.583333333333333</v>
+        <v>6.75</v>
       </c>
       <c r="D7">
-        <v>1.583333333333333</v>
+        <v>-1.25</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1854,13 +1860,13 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="D8">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1871,10 +1877,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1885,16 +1891,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>4.916666666666667</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D10">
-        <v>0.916666666666667</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1902,16 +1908,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>4.833333333333333</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D11">
-        <v>-1.166666666666667</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1922,10 +1928,10 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>4.333333333333333</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D12">
-        <v>2.333333333333333</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
@@ -1939,13 +1945,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>-1.416666666666667</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1963,46 +1969,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2010,16 +2016,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>77.8</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="C2">
-        <v>18.3</v>
+        <v>13.4</v>
       </c>
       <c r="D2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2054,22 +2060,22 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>18.7</v>
+        <v>13.4</v>
       </c>
       <c r="C3">
-        <v>42.2</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="D3">
-        <v>20.9</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>13.2</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2098,25 +2104,25 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>24.9</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>21.9</v>
+        <v>65.5</v>
       </c>
       <c r="E4">
-        <v>29.2</v>
+        <v>13.9</v>
       </c>
       <c r="F4">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="G4">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="H4">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2142,31 +2148,31 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>32.9</v>
+        <v>20.2</v>
       </c>
       <c r="E5">
-        <v>23.4</v>
+        <v>36.1</v>
       </c>
       <c r="F5">
-        <v>15.4</v>
+        <v>4.8</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>12.3</v>
       </c>
       <c r="H5">
-        <v>3.7</v>
+        <v>17.1</v>
       </c>
       <c r="I5">
-        <v>1.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J5">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2178,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>99.8</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2186,31 +2192,31 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>11.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E6">
-        <v>19.5</v>
+        <v>23.8</v>
       </c>
       <c r="F6">
-        <v>33.3</v>
+        <v>17.8</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>9.9</v>
       </c>
       <c r="H6">
-        <v>12.1</v>
+        <v>23.7</v>
       </c>
       <c r="I6">
-        <v>5.6</v>
+        <v>13</v>
       </c>
       <c r="J6">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2222,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>99.40000000000001</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2233,28 +2239,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>9.9</v>
+        <v>4.4</v>
       </c>
       <c r="E7">
-        <v>12.2</v>
+        <v>16.1</v>
       </c>
       <c r="F7">
-        <v>16.3</v>
+        <v>15.7</v>
       </c>
       <c r="G7">
-        <v>30.7</v>
+        <v>11.6</v>
       </c>
       <c r="H7">
-        <v>15.3</v>
+        <v>21.4</v>
       </c>
       <c r="I7">
-        <v>12.1</v>
+        <v>21.9</v>
       </c>
       <c r="J7">
-        <v>2.7</v>
+        <v>8.9</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -2266,12 +2272,12 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>97.3</v>
+        <v>91.09999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2280,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="E8">
-        <v>1.4</v>
+        <v>4.6</v>
       </c>
       <c r="F8">
-        <v>7.8</v>
+        <v>14.2</v>
       </c>
       <c r="G8">
-        <v>16.7</v>
+        <v>16</v>
       </c>
       <c r="H8">
-        <v>31.7</v>
+        <v>17.1</v>
       </c>
       <c r="I8">
-        <v>22.7</v>
+        <v>30</v>
       </c>
       <c r="J8">
-        <v>17.9</v>
+        <v>17.4</v>
       </c>
       <c r="K8">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -2310,12 +2316,12 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>80.40000000000001</v>
+        <v>82.59999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2324,28 +2330,28 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E9">
-        <v>0.1</v>
+        <v>5.5</v>
       </c>
       <c r="F9">
-        <v>4.7</v>
+        <v>20.3</v>
       </c>
       <c r="G9">
-        <v>11.4</v>
+        <v>21.1</v>
       </c>
       <c r="H9">
-        <v>20.5</v>
+        <v>9.1</v>
       </c>
       <c r="I9">
-        <v>31.3</v>
+        <v>24.8</v>
       </c>
       <c r="J9">
-        <v>30.3</v>
+        <v>18.8</v>
       </c>
       <c r="K9">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -2354,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>68</v>
+        <v>81.2</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2374,22 +2380,22 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.7</v>
+        <v>11.9</v>
       </c>
       <c r="G10">
-        <v>10.3</v>
+        <v>24.7</v>
       </c>
       <c r="H10">
-        <v>15.1</v>
+        <v>10.7</v>
       </c>
       <c r="I10">
-        <v>22.7</v>
+        <v>1.6</v>
       </c>
       <c r="J10">
-        <v>40.2</v>
+        <v>51.1</v>
       </c>
       <c r="K10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -2398,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>50.8</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2424,25 +2430,25 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>82.8</v>
+        <v>88.2</v>
       </c>
       <c r="L11">
-        <v>4.6</v>
+        <v>11.8</v>
       </c>
       <c r="M11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>4.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2477,13 +2483,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>39.1</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>58.1</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2521,13 +2527,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>11.8</v>
       </c>
       <c r="L13">
-        <v>56.3</v>
+        <v>88.2</v>
       </c>
       <c r="M13">
-        <v>41.7</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2540,54 +2546,57 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>54</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2595,28 +2604,28 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>92.60000000000001</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="D2">
-        <v>98.8</v>
+        <v>98.3</v>
       </c>
       <c r="E2">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="F2">
         <v>100</v>
       </c>
       <c r="G2">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="H2">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I2">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="J2">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="K2">
         <v>100</v>
@@ -2630,43 +2639,46 @@
       <c r="N2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>53.2</v>
+        <v>54.8</v>
       </c>
       <c r="C3">
-        <v>89.7</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="D3">
-        <v>66.40000000000001</v>
+        <v>69.8</v>
       </c>
       <c r="E3">
-        <v>51</v>
+        <v>52.6</v>
       </c>
       <c r="F3">
-        <v>75.3</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="G3">
-        <v>88.5</v>
+        <v>86.5</v>
       </c>
       <c r="H3">
-        <v>93.10000000000001</v>
+        <v>92.5</v>
       </c>
       <c r="I3">
-        <v>97.3</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J3">
-        <v>94.39999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="K3">
-        <v>98.5</v>
+        <v>99</v>
       </c>
       <c r="L3">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="M3">
         <v>100</v>
@@ -2674,40 +2686,43 @@
       <c r="N3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C4">
-        <v>66.5</v>
+        <v>68</v>
       </c>
       <c r="D4">
-        <v>80.90000000000001</v>
+        <v>80.10000000000001</v>
       </c>
       <c r="E4">
-        <v>83.59999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="F4">
-        <v>92.7</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="G4">
-        <v>96.89999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="H4">
-        <v>94.3</v>
+        <v>95.39999999999999</v>
       </c>
       <c r="I4">
-        <v>99</v>
+        <v>99.2</v>
       </c>
       <c r="J4">
-        <v>99.3</v>
+        <v>99.7</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="L4">
         <v>100</v>
@@ -2716,98 +2731,107 @@
         <v>100</v>
       </c>
       <c r="N4">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="O4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>38.3</v>
+        <v>37.4</v>
       </c>
       <c r="C5">
-        <v>78.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="D5">
-        <v>90.40000000000001</v>
+        <v>90</v>
       </c>
       <c r="E5">
-        <v>78.8</v>
+        <v>77.7</v>
       </c>
       <c r="F5">
-        <v>77.60000000000001</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="G5">
-        <v>89.09999999999999</v>
+        <v>89.8</v>
       </c>
       <c r="H5">
-        <v>95.89999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="I5">
-        <v>92.90000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="J5">
-        <v>98.09999999999999</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="K5">
-        <v>99.7</v>
+        <v>99.2</v>
       </c>
       <c r="L5">
         <v>100</v>
       </c>
       <c r="M5">
-        <v>98.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="N5">
-        <v>99.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>97</v>
+      </c>
+      <c r="O5">
+        <v>99.09999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="C6">
-        <v>86.59999999999999</v>
+        <v>87.7</v>
       </c>
       <c r="D6">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="E6">
-        <v>98.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F6">
-        <v>98.7</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="G6">
-        <v>94.09999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="H6">
-        <v>84.3</v>
+        <v>84</v>
       </c>
       <c r="I6">
-        <v>68.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="J6">
-        <v>85.5</v>
+        <v>84.7</v>
       </c>
       <c r="K6">
-        <v>78.10000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="L6">
-        <v>94.8</v>
+        <v>93.89999999999999</v>
       </c>
       <c r="M6">
-        <v>96.09999999999999</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="N6">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>92.30000000000001</v>
+      </c>
+      <c r="O6">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -2815,254 +2839,269 @@
         <v>11.3</v>
       </c>
       <c r="C7">
-        <v>48</v>
+        <v>46.8</v>
       </c>
       <c r="D7">
-        <v>81.39999999999999</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E7">
-        <v>92.90000000000001</v>
+        <v>93.89999999999999</v>
       </c>
       <c r="F7">
-        <v>88.90000000000001</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="G7">
-        <v>65.3</v>
+        <v>63.5</v>
       </c>
       <c r="H7">
-        <v>50.5</v>
+        <v>47.7</v>
       </c>
       <c r="I7">
-        <v>66.10000000000001</v>
+        <v>65.60000000000001</v>
       </c>
       <c r="J7">
-        <v>49.9</v>
+        <v>52</v>
       </c>
       <c r="K7">
-        <v>72.7</v>
+        <v>71.5</v>
       </c>
       <c r="L7">
-        <v>89.60000000000001</v>
+        <v>90.10000000000001</v>
       </c>
       <c r="M7">
-        <v>92.5</v>
+        <v>94.69999999999999</v>
       </c>
       <c r="N7">
-        <v>97.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>79.10000000000001</v>
+      </c>
+      <c r="O7">
+        <v>89.40000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>17.7</v>
+      </c>
+      <c r="C8">
+        <v>62.9</v>
+      </c>
+      <c r="D8">
+        <v>44.2</v>
+      </c>
+      <c r="E8">
+        <v>70.7</v>
+      </c>
+      <c r="F8">
+        <v>53.5</v>
+      </c>
+      <c r="G8">
+        <v>40.3</v>
+      </c>
+      <c r="H8">
+        <v>57.09999999999999</v>
+      </c>
+      <c r="I8">
+        <v>36.2</v>
+      </c>
+      <c r="J8">
+        <v>47.5</v>
+      </c>
+      <c r="K8">
+        <v>65.7</v>
+      </c>
+      <c r="L8">
+        <v>51.9</v>
+      </c>
+      <c r="M8">
+        <v>68.30000000000001</v>
+      </c>
+      <c r="N8">
+        <v>77.8</v>
+      </c>
+      <c r="O8">
+        <v>82.59999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>82.19999999999999</v>
-      </c>
-      <c r="C8">
-        <v>63</v>
-      </c>
-      <c r="D8">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="E8">
-        <v>70.89999999999999</v>
-      </c>
-      <c r="F8">
-        <v>70</v>
-      </c>
-      <c r="G8">
-        <v>77.10000000000001</v>
-      </c>
-      <c r="H8">
-        <v>90.7</v>
-      </c>
-      <c r="I8">
-        <v>97</v>
-      </c>
-      <c r="J8">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="K8">
-        <v>98.3</v>
-      </c>
-      <c r="L8">
-        <v>94.09999999999999</v>
-      </c>
-      <c r="M8">
-        <v>76.40000000000001</v>
-      </c>
-      <c r="N8">
-        <v>79.80000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B9">
-        <v>19.1</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="C9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9">
-        <v>44.6</v>
+        <v>69</v>
       </c>
       <c r="E9">
-        <v>71.59999999999999</v>
+        <v>69.89999999999999</v>
       </c>
       <c r="F9">
-        <v>53.8</v>
+        <v>74</v>
       </c>
       <c r="G9">
-        <v>37.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="H9">
-        <v>55.50000000000001</v>
+        <v>91.3</v>
       </c>
       <c r="I9">
-        <v>37.8</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="J9">
-        <v>47.3</v>
+        <v>96.2</v>
       </c>
       <c r="K9">
-        <v>64.2</v>
+        <v>98.8</v>
       </c>
       <c r="L9">
-        <v>54.40000000000001</v>
+        <v>93.30000000000001</v>
       </c>
       <c r="M9">
-        <v>70.3</v>
+        <v>77</v>
       </c>
       <c r="N9">
-        <v>65.10000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>83.8</v>
+      </c>
+      <c r="O9">
+        <v>82.59999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>99.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="C10">
-        <v>85.90000000000001</v>
+        <v>83.39999999999999</v>
       </c>
       <c r="D10">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="E10">
-        <v>17.6</v>
+        <v>18.9</v>
       </c>
       <c r="F10">
-        <v>26.3</v>
+        <v>28</v>
       </c>
       <c r="G10">
-        <v>56.7</v>
+        <v>55.60000000000001</v>
       </c>
       <c r="H10">
-        <v>37.5</v>
+        <v>39.5</v>
       </c>
       <c r="I10">
-        <v>60.7</v>
+        <v>59.7</v>
       </c>
       <c r="J10">
-        <v>76.09999999999999</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K10">
-        <v>64.3</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="L10">
-        <v>50.6</v>
+        <v>55.2</v>
       </c>
       <c r="M10">
-        <v>61.3</v>
+        <v>59.3</v>
       </c>
       <c r="N10">
-        <v>54.40000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>70.39999999999999</v>
+      </c>
+      <c r="O10">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B11">
-        <v>31.7</v>
+        <v>34.2</v>
       </c>
       <c r="C11">
-        <v>44.3</v>
+        <v>45.6</v>
       </c>
       <c r="D11">
-        <v>33.8</v>
+        <v>31.4</v>
       </c>
       <c r="E11">
         <v>44.8</v>
       </c>
       <c r="F11">
-        <v>28.5</v>
+        <v>27.7</v>
       </c>
       <c r="G11">
-        <v>45.3</v>
+        <v>47.59999999999999</v>
       </c>
       <c r="H11">
-        <v>75.90000000000001</v>
+        <v>74.8</v>
       </c>
       <c r="I11">
-        <v>68.8</v>
+        <v>69</v>
       </c>
       <c r="J11">
-        <v>49.5</v>
+        <v>46.6</v>
       </c>
       <c r="K11">
-        <v>23.1</v>
+        <v>21.6</v>
       </c>
       <c r="L11">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="M11">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="N11">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>96.5</v>
+        <v>97</v>
       </c>
       <c r="C12">
-        <v>79.5</v>
+        <v>77.3</v>
       </c>
       <c r="D12">
-        <v>82.59999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="E12">
-        <v>77.8</v>
+        <v>76.5</v>
       </c>
       <c r="F12">
-        <v>77.90000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="G12">
-        <v>26.5</v>
+        <v>25.9</v>
       </c>
       <c r="H12">
-        <v>11.1</v>
+        <v>10.7</v>
       </c>
       <c r="I12">
-        <v>5.5</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="J12">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="K12">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -3070,48 +3109,54 @@
       <c r="N12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>68.2</v>
+        <v>65.60000000000001</v>
       </c>
       <c r="C13">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D13">
-        <v>27.3</v>
+        <v>28.8</v>
       </c>
       <c r="E13">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F13">
-        <v>10.3</v>
+        <v>9.5</v>
       </c>
       <c r="G13">
-        <v>23.6</v>
+        <v>22.5</v>
       </c>
       <c r="H13">
-        <v>11.8</v>
+        <v>10.1</v>
       </c>
       <c r="I13">
-        <v>6.600000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K13">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="L13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>0</v>
       </c>
     </row>
@@ -3130,28 +3175,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3162,25 +3207,25 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2">
-        <v>98.38</v>
+        <v>99.77</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>134.72</v>
+        <v>137</v>
       </c>
       <c r="G2">
-        <v>0.667</v>
+        <v>0.769</v>
       </c>
       <c r="H2">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3191,25 +3236,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D3">
-        <v>114.67</v>
+        <v>116.23</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3">
-        <v>127.46</v>
+        <v>136.63</v>
       </c>
       <c r="G3">
-        <v>0.625</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H3">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3217,28 +3262,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D4">
-        <v>125.66</v>
+        <v>117.41</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>131.43</v>
+        <v>130.44</v>
       </c>
       <c r="G4">
-        <v>0.583</v>
+        <v>0.538</v>
       </c>
       <c r="H4">
-        <v>20.5</v>
+        <v>15</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3246,28 +3291,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D5">
-        <v>123.14</v>
+        <v>130.44</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>121.24</v>
+        <v>117.41</v>
       </c>
       <c r="G5">
-        <v>0.417</v>
+        <v>0.538</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3275,28 +3320,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D6">
-        <v>106.96</v>
+        <v>126.47</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>120.21</v>
+        <v>125.82</v>
       </c>
       <c r="G6">
-        <v>0.583</v>
+        <v>0.538</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3304,28 +3349,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D7">
-        <v>110.95</v>
+        <v>125.82</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>121.94</v>
+        <v>126.47</v>
       </c>
       <c r="G7">
-        <v>0.458</v>
+        <v>0.462</v>
       </c>
       <c r="H7">
-        <v>-1.5</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3333,28 +3378,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8">
+        <v>104.48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>119.36</v>
+      </c>
+      <c r="G8">
+        <v>0.615</v>
+      </c>
+      <c r="H8">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8">
-        <v>119.41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8">
-        <v>123.92</v>
-      </c>
-      <c r="G8">
-        <v>0.542</v>
-      </c>
-      <c r="H8">
-        <v>-6.5</v>
-      </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3362,28 +3407,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D9">
-        <v>117.29</v>
+        <v>119.36</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F9">
-        <v>108.95</v>
+        <v>104.48</v>
       </c>
       <c r="G9">
-        <v>0.25</v>
+        <v>0.154</v>
       </c>
       <c r="H9">
         <v>-7</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3391,28 +3436,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D10">
-        <v>126.59</v>
+        <v>111.01</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
       </c>
       <c r="F10">
-        <v>118.3</v>
+        <v>114.86</v>
       </c>
       <c r="G10">
-        <v>0.458</v>
+        <v>0.538</v>
       </c>
       <c r="H10">
-        <v>-7</v>
+        <v>-12</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3420,28 +3465,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D11">
-        <v>135.51</v>
+        <v>114.86</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11">
-        <v>118.91</v>
+        <v>111.01</v>
       </c>
       <c r="G11">
-        <v>0.583</v>
+        <v>0.308</v>
       </c>
       <c r="H11">
-        <v>-13.5</v>
+        <v>-16</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3449,28 +3494,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D12">
-        <v>133.17</v>
+        <v>136.63</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12">
-        <v>108.89</v>
+        <v>116.23</v>
       </c>
       <c r="G12">
-        <v>0.417</v>
+        <v>0.538</v>
       </c>
       <c r="H12">
-        <v>-22</v>
+        <v>-28</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3481,25 +3526,25 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D13">
-        <v>136.27</v>
+        <v>137</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F13">
-        <v>112.02</v>
+        <v>99.77</v>
       </c>
       <c r="G13">
-        <v>0.417</v>
+        <v>0.308</v>
       </c>
       <c r="H13">
-        <v>-28</v>
+        <v>-58</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3517,31 +3562,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3549,16 +3594,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C2">
-        <v>0.75</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="D2">
-        <v>136.2683333333333</v>
+        <v>136.9953846153846</v>
       </c>
       <c r="E2">
-        <v>1635.22</v>
+        <v>1780.94</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3567,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
         <v>101</v>
@@ -3578,16 +3623,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="D3">
-        <v>135.51</v>
+        <v>136.6323076923077</v>
       </c>
       <c r="E3">
-        <v>1626.12</v>
+        <v>1776.22</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -3596,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I3" t="s">
         <v>102</v>
@@ -3607,16 +3652,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C4">
-        <v>0.6666666666666666</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D4">
-        <v>123.1416666666667</v>
+        <v>119.3615384615385</v>
       </c>
       <c r="E4">
-        <v>1477.7</v>
+        <v>1551.7</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -3625,10 +3670,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3636,28 +3681,28 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C5">
-        <v>0.5833333333333334</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D5">
-        <v>133.175</v>
+        <v>130.4415384615385</v>
       </c>
       <c r="E5">
-        <v>1598.1</v>
+        <v>1695.74</v>
       </c>
       <c r="F5">
-        <v>99.8</v>
+        <v>99.2</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3665,28 +3710,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C6">
-        <v>0.5833333333333334</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D6">
-        <v>125.6566666666667</v>
+        <v>125.8246153846154</v>
       </c>
       <c r="E6">
-        <v>1507.88</v>
+        <v>1635.72</v>
       </c>
       <c r="F6">
-        <v>99.40000000000001</v>
+        <v>97</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3694,83 +3739,83 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C7">
-        <v>0.5833333333333334</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D7">
-        <v>119.4116666666667</v>
+        <v>117.4138461538462</v>
       </c>
       <c r="E7">
-        <v>1432.94</v>
+        <v>1526.38</v>
       </c>
       <c r="F7">
-        <v>97.3</v>
+        <v>91.10000000000001</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D8">
-        <v>117.285</v>
+        <v>116.2292307692308</v>
       </c>
       <c r="E8">
-        <v>1407.42</v>
+        <v>1510.98</v>
       </c>
       <c r="F8">
-        <v>80.40000000000001</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D9">
-        <v>114.675</v>
+        <v>114.8630769230769</v>
       </c>
       <c r="E9">
-        <v>1376.1</v>
+        <v>1493.22</v>
       </c>
       <c r="F9">
-        <v>68</v>
+        <v>81.2</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I9" t="s">
         <v>104</v>
@@ -3781,19 +3826,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C10">
-        <v>0.4166666666666667</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D10">
-        <v>126.5866666666667</v>
+        <v>126.4692307692308</v>
       </c>
       <c r="E10">
-        <v>1519.04</v>
+        <v>1644.1</v>
       </c>
       <c r="F10">
-        <v>50.8</v>
+        <v>48.9</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -3802,7 +3847,7 @@
         <v>97</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3810,28 +3855,28 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C11">
-        <v>0.3333333333333333</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D11">
-        <v>110.95</v>
+        <v>111.0107692307692</v>
       </c>
       <c r="E11">
-        <v>1331.4</v>
+        <v>1443.14</v>
       </c>
       <c r="F11">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
         <v>98</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3839,28 +3884,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C12">
-        <v>0.1666666666666667</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="D12">
-        <v>106.96</v>
+        <v>104.4815384615385</v>
       </c>
       <c r="E12">
-        <v>1283.52</v>
+        <v>1358.26</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>58.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="H12" t="s">
         <v>99</v>
       </c>
       <c r="I12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3871,19 +3916,19 @@
         <v>88</v>
       </c>
       <c r="C13">
-        <v>0.25</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D13">
-        <v>98.37666666666667</v>
+        <v>99.76769230769231</v>
       </c>
       <c r="E13">
-        <v>1180.52</v>
+        <v>1296.98</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>41.7</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
         <v>100</v>
@@ -3907,19 +3952,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3930,16 +3975,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3950,16 +3995,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3970,16 +4015,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3990,16 +4035,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D5">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4007,19 +4052,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4027,19 +4072,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4047,19 +4092,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4067,19 +4112,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>69</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4090,16 +4135,16 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D10">
-        <v>-5</v>
+        <v>-12</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4110,16 +4155,16 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D11">
         <v>-16</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4130,16 +4175,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D12">
-        <v>-30</v>
+        <v>-28</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4150,16 +4195,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D13">
         <v>-58</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4169,54 +4214,57 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>133</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4256,11 +4304,14 @@
       <c r="M2">
         <v>39</v>
       </c>
-      <c r="N2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2">
+        <v>47</v>
+      </c>
+      <c r="O2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4300,11 +4351,14 @@
       <c r="M3">
         <v>30</v>
       </c>
-      <c r="N3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="N3">
+        <v>31</v>
+      </c>
+      <c r="O3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -4344,11 +4398,14 @@
       <c r="M4">
         <v>17</v>
       </c>
-      <c r="N4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="N4">
+        <v>15</v>
+      </c>
+      <c r="O4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -4388,187 +4445,202 @@
       <c r="M5">
         <v>14</v>
       </c>
-      <c r="N5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="N5">
+        <v>14</v>
+      </c>
+      <c r="O5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>-1</v>
-      </c>
-      <c r="C6">
-        <v>-2</v>
-      </c>
       <c r="D6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="M6">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>8</v>
+      </c>
+      <c r="O6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>-5</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>-11</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>-11</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="I7">
+        <v>-7</v>
+      </c>
+      <c r="J7">
+        <v>-7</v>
+      </c>
+      <c r="K7">
+        <v>-5</v>
+      </c>
+      <c r="L7">
         <v>1</v>
-      </c>
-      <c r="J7">
-        <v>6</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>6</v>
       </c>
       <c r="M7">
         <v>2</v>
       </c>
-      <c r="N7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>-2</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>-2</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>4</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>6</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>11</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>4</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>2</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>-1</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>-8</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>3</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>-5</v>
-      </c>
-      <c r="F9">
-        <v>-11</v>
-      </c>
-      <c r="G9">
-        <v>-11</v>
-      </c>
-      <c r="H9">
-        <v>-10</v>
-      </c>
-      <c r="I9">
-        <v>-7</v>
-      </c>
-      <c r="J9">
-        <v>-7</v>
-      </c>
-      <c r="K9">
-        <v>-5</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
       </c>
       <c r="M9">
         <v>2</v>
       </c>
-      <c r="N9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="N9">
+        <v>-7</v>
+      </c>
+      <c r="O9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -4608,11 +4680,14 @@
       <c r="M10">
         <v>-5</v>
       </c>
-      <c r="N10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="N10">
+        <v>-12</v>
+      </c>
+      <c r="O10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -4652,11 +4727,14 @@
       <c r="M11">
         <v>-16</v>
       </c>
-      <c r="N11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="N11">
+        <v>-16</v>
+      </c>
+      <c r="O11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -4696,11 +4774,14 @@
       <c r="M12">
         <v>-30</v>
       </c>
-      <c r="N12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="N12">
+        <v>-28</v>
+      </c>
+      <c r="O12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -4740,8 +4821,11 @@
       <c r="M13">
         <v>-58</v>
       </c>
-      <c r="N13" t="s">
-        <v>119</v>
+      <c r="N13">
+        <v>-58</v>
+      </c>
+      <c r="O13" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/The Mike Daisy Sports IQ League 2025.xlsx
+++ b/leagues/The Mike Daisy Sports IQ League 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="131">
   <si>
     <t>Njigba's in Paris</t>
   </si>
@@ -61,37 +61,40 @@
     <t>Matt Gay Team</t>
   </si>
   <si>
-    <t>7-6-0</t>
-  </si>
-  <si>
-    <t>9-4-0</t>
-  </si>
-  <si>
-    <t>10-3-0</t>
-  </si>
-  <si>
-    <t>8-5-0</t>
-  </si>
-  <si>
-    <t>5-8-0</t>
-  </si>
-  <si>
-    <t>4-9-0</t>
-  </si>
-  <si>
-    <t>6-7-0</t>
-  </si>
-  <si>
-    <t>3-10-0</t>
-  </si>
-  <si>
-    <t>2-11-0</t>
-  </si>
-  <si>
-    <t>1-12-0</t>
-  </si>
-  <si>
-    <t>11-2-0</t>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>1-13-0</t>
+  </si>
+  <si>
+    <t>2-12-0</t>
+  </si>
+  <si>
+    <t>12-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -193,6 +196,9 @@
     <t>Week_14</t>
   </si>
   <si>
+    <t>Week_15</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -214,42 +220,42 @@
     <t>Games_Remaining</t>
   </si>
   <si>
+    <t>Julian LeMaire</t>
+  </si>
+  <si>
+    <t>Benjamin Frost</t>
+  </si>
+  <si>
+    <t>Bobby  Schnur</t>
+  </si>
+  <si>
+    <t>Mark Yanzuk</t>
+  </si>
+  <si>
+    <t>Dylan Sowers</t>
+  </si>
+  <si>
+    <t>Michael Daisey</t>
+  </si>
+  <si>
+    <t>Shjon Sowers</t>
+  </si>
+  <si>
+    <t>Rob Pernell</t>
+  </si>
+  <si>
+    <t>Nick DiNunzio</t>
+  </si>
+  <si>
+    <t>Matthew Jennings</t>
+  </si>
+  <si>
+    <t>David O'Kane</t>
+  </si>
+  <si>
     <t>Matt Peiffer</t>
   </si>
   <si>
-    <t>Julian LeMaire</t>
-  </si>
-  <si>
-    <t>Bobby  Schnur</t>
-  </si>
-  <si>
-    <t>Nick DiNunzio</t>
-  </si>
-  <si>
-    <t>Matthew Jennings</t>
-  </si>
-  <si>
-    <t>Michael Daisey</t>
-  </si>
-  <si>
-    <t>David O'Kane</t>
-  </si>
-  <si>
-    <t>Dylan Sowers</t>
-  </si>
-  <si>
-    <t>Shjon Sowers</t>
-  </si>
-  <si>
-    <t>Rob Pernell</t>
-  </si>
-  <si>
-    <t>Mark Yanzuk</t>
-  </si>
-  <si>
-    <t>Benjamin Frost</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -274,58 +280,7 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>10-3</t>
-  </si>
-  <si>
-    <t>9-4</t>
-  </si>
-  <si>
-    <t>8-5</t>
-  </si>
-  <si>
-    <t>7-6</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>4-9</t>
-  </si>
-  <si>
-    <t>2-11</t>
-  </si>
-  <si>
-    <t>10.8-3.2</t>
-  </si>
-  <si>
-    <t>9.6-4.3</t>
-  </si>
-  <si>
-    <t>8.6-5.4</t>
-  </si>
-  <si>
-    <t>7.6-6.4</t>
-  </si>
-  <si>
-    <t>7.5-6.5</t>
-  </si>
-  <si>
-    <t>7.4-6.6</t>
-  </si>
-  <si>
-    <t>7.3-6.6</t>
-  </si>
-  <si>
-    <t>6.5-7.5</t>
-  </si>
-  <si>
-    <t>4.5-9.5</t>
-  </si>
-  <si>
-    <t>2.4-11.6</t>
-  </si>
-  <si>
-    <t>4.2-9.8</t>
+    <t>7-7</t>
   </si>
   <si>
     <t>11-3</t>
@@ -334,22 +289,31 @@
     <t>10-4</t>
   </si>
   <si>
-    <t>9-5</t>
-  </si>
-  <si>
     <t>8-6</t>
   </si>
   <si>
-    <t>7-7</t>
-  </si>
-  <si>
-    <t>6-8</t>
-  </si>
-  <si>
     <t>4-10</t>
   </si>
   <si>
-    <t>2-12</t>
+    <t>3-11</t>
+  </si>
+  <si>
+    <t>7.0-7.0</t>
+  </si>
+  <si>
+    <t>11.0-3.0</t>
+  </si>
+  <si>
+    <t>10.0-4.0</t>
+  </si>
+  <si>
+    <t>8.0-6.0</t>
+  </si>
+  <si>
+    <t>4.0-10.0</t>
+  </si>
+  <si>
+    <t>3.0-11.0</t>
   </si>
   <si>
     <t>Owners</t>
@@ -361,33 +325,36 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑10</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
     <t>↑8</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
     <t>↓9</t>
   </si>
   <si>
-    <t>↓7</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -425,6 +392,9 @@
   </si>
   <si>
     <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
   <si>
     <t>Week</t>
@@ -855,34 +825,34 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
         <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -896,37 +866,37 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" t="s">
         <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -955,7 +925,7 @@
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
         <v>18</v>
@@ -975,40 +945,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1019,7 +989,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -1034,16 +1004,16 @@
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
         <v>12</v>
       </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
@@ -1078,10 +1048,10 @@
         <v>15</v>
       </c>
       <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
         <v>15</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
       </c>
       <c r="K7" t="s">
         <v>15</v>
@@ -1101,10 +1071,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
@@ -1128,7 +1098,7 @@
         <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s">
         <v>15</v>
@@ -1157,16 +1127,16 @@
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
         <v>12</v>
-      </c>
-      <c r="J9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" t="s">
-        <v>18</v>
       </c>
       <c r="L9" t="s">
         <v>18</v>
@@ -1183,10 +1153,10 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
         <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
@@ -1198,19 +1168,19 @@
         <v>13</v>
       </c>
       <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" t="s">
         <v>15</v>
       </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" t="s">
-        <v>12</v>
-      </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M10" t="s">
         <v>13</v>
@@ -1224,34 +1194,34 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" t="s">
         <v>15</v>
-      </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" t="s">
-        <v>12</v>
       </c>
       <c r="M11" t="s">
         <v>15</v>
@@ -1268,28 +1238,28 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s">
         <v>16</v>
       </c>
-      <c r="J12" t="s">
-        <v>17</v>
-      </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L12" t="s">
         <v>20</v>
@@ -1309,31 +1279,31 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
         <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
         <v>17</v>
       </c>
-      <c r="J13" t="s">
-        <v>19</v>
-      </c>
       <c r="K13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M13" t="s">
         <v>17</v>
@@ -1354,25 +1324,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1546,13 +1516,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1563,7 +1533,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -1577,10 +1547,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5.25</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1591,7 +1561,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>5.583333333333333</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1605,10 +1575,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>6.25</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1616,10 +1586,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>6.5</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1633,7 +1603,7 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>6.583333333333333</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -1644,13 +1614,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>6.583333333333333</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1661,7 +1631,7 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>6.666666666666667</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -1672,13 +1642,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>6.916666666666667</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1686,10 +1656,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>7.25</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1700,13 +1670,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>7.416666666666667</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1714,13 +1684,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1738,16 +1708,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1758,13 +1728,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>9.166666666666666</v>
+        <v>10.08333333333333</v>
       </c>
       <c r="D2">
-        <v>-0.8333333333333339</v>
+        <v>-0.9166666666666661</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1775,13 +1745,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>8.833333333333334</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="D3">
         <v>-0.1666666666666661</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1792,13 +1762,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>7.75</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="D4">
-        <v>0.75</v>
+        <v>0.3333333333333339</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1806,13 +1776,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>7.25</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1823,16 +1793,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>7.25</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D6">
-        <v>1.25</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1843,10 +1813,10 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>6.75</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="D7">
-        <v>-1.25</v>
+        <v>-0.833333333333333</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -1860,10 +1830,10 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>6.75</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D8">
-        <v>-0.25</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1877,13 +1847,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>6.25</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D9">
-        <v>-0.75</v>
+        <v>-1.416666666666667</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1894,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.666666666666667</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D10">
-        <v>-1.333333333333333</v>
+        <v>-0.583333333333333</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1928,10 +1898,10 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>4.416666666666667</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D12">
-        <v>2.416666666666667</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
@@ -1945,10 +1915,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>2.583333333333333</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D13">
-        <v>-1.416666666666667</v>
+        <v>-1.083333333333333</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
@@ -1969,57 +1939,57 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>86.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>13.4</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2037,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2057,13 +2027,13 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>13.4</v>
+        <v>100</v>
       </c>
       <c r="C3">
-        <v>86.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2101,28 +2071,28 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D4">
-        <v>65.5</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>13.9</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>15.3</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2145,7 +2115,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2154,25 +2124,25 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>20.2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>36.1</v>
+        <v>100</v>
       </c>
       <c r="F5">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>17.1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2184,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>99.2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2198,25 +2168,25 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>23.8</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>17.8</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>23.7</v>
+        <v>100</v>
       </c>
       <c r="I6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2228,12 +2198,12 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2242,25 +2212,25 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>16.1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>15.7</v>
+        <v>100</v>
       </c>
       <c r="G7">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>21.4</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>21.9</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -2272,12 +2242,12 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>91.09999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2286,25 +2256,25 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.7</v>
+        <v>100</v>
       </c>
       <c r="E8">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>14.2</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>17.1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -2316,12 +2286,12 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>82.59999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2330,25 +2300,25 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>20.3</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>21.1</v>
+        <v>100</v>
       </c>
       <c r="H9">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>24.8</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>18.8</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -2360,12 +2330,12 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>81.2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2380,19 +2350,19 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>24.7</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>10.7</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>51.1</v>
+        <v>100</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -2404,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>48.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2439,10 +2409,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>88.2</v>
+        <v>100</v>
       </c>
       <c r="L11">
-        <v>11.8</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2527,10 +2497,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.8</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>88.2</v>
+        <v>100</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -2546,245 +2516,260 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>15.4</v>
+      </c>
+      <c r="C2">
+        <v>66.3</v>
+      </c>
+      <c r="D2">
+        <v>43.3</v>
+      </c>
+      <c r="E2">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="F2">
+        <v>59.2</v>
+      </c>
+      <c r="G2">
+        <v>40.1</v>
+      </c>
+      <c r="H2">
+        <v>51.7</v>
+      </c>
+      <c r="I2">
+        <v>37.5</v>
+      </c>
+      <c r="J2">
+        <v>50.4</v>
+      </c>
+      <c r="K2">
+        <v>66.7</v>
+      </c>
+      <c r="L2">
         <v>51</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="M2">
+        <v>67.60000000000001</v>
+      </c>
+      <c r="N2">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="O2">
+        <v>65.7</v>
+      </c>
+      <c r="P2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>92.5</v>
+      </c>
+      <c r="D3">
+        <v>98.5</v>
+      </c>
+      <c r="E3">
+        <v>99.5</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>98.8</v>
+      </c>
+      <c r="H3">
+        <v>99.7</v>
+      </c>
+      <c r="I3">
+        <v>99.7</v>
+      </c>
+      <c r="J3">
+        <v>99.7</v>
+      </c>
+      <c r="K3">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+      <c r="O3">
+        <v>100</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>53</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>94.19999999999999</v>
-      </c>
-      <c r="D2">
-        <v>98.3</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>99</v>
-      </c>
-      <c r="H2">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="I2">
-        <v>99.7</v>
-      </c>
-      <c r="J2">
-        <v>100</v>
-      </c>
-      <c r="K2">
-        <v>100</v>
-      </c>
-      <c r="L2">
-        <v>100</v>
-      </c>
-      <c r="M2">
-        <v>100</v>
-      </c>
-      <c r="N2">
-        <v>100</v>
-      </c>
-      <c r="O2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>54.8</v>
-      </c>
-      <c r="C3">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="D3">
-        <v>69.8</v>
-      </c>
-      <c r="E3">
-        <v>52.6</v>
-      </c>
-      <c r="F3">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="G3">
-        <v>86.5</v>
-      </c>
-      <c r="H3">
-        <v>92.5</v>
-      </c>
-      <c r="I3">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="J3">
-        <v>92.2</v>
-      </c>
-      <c r="K3">
-        <v>99</v>
-      </c>
-      <c r="L3">
-        <v>99.8</v>
-      </c>
-      <c r="M3">
-        <v>100</v>
-      </c>
-      <c r="N3">
-        <v>100</v>
-      </c>
-      <c r="O3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="s">
+      <c r="C4">
+        <v>88</v>
+      </c>
+      <c r="D4">
+        <v>66.8</v>
+      </c>
+      <c r="E4">
+        <v>47.3</v>
+      </c>
+      <c r="F4">
+        <v>71.7</v>
+      </c>
+      <c r="G4">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="H4">
+        <v>94.3</v>
+      </c>
+      <c r="I4">
+        <v>97.2</v>
+      </c>
+      <c r="J4">
+        <v>94.3</v>
+      </c>
+      <c r="K4">
+        <v>98.7</v>
+      </c>
+      <c r="L4">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4">
-        <v>68</v>
-      </c>
-      <c r="D4">
-        <v>80.10000000000001</v>
-      </c>
-      <c r="E4">
-        <v>83.5</v>
-      </c>
-      <c r="F4">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="G4">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="H4">
-        <v>95.39999999999999</v>
-      </c>
-      <c r="I4">
-        <v>99.2</v>
-      </c>
-      <c r="J4">
-        <v>99.7</v>
-      </c>
-      <c r="K4">
-        <v>99.7</v>
-      </c>
-      <c r="L4">
-        <v>100</v>
-      </c>
-      <c r="M4">
-        <v>100</v>
-      </c>
-      <c r="N4">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="O4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="B5">
-        <v>37.4</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C5">
-        <v>79.40000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="D5">
-        <v>90</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="E5">
-        <v>77.7</v>
+        <v>83.3</v>
       </c>
       <c r="F5">
-        <v>75.90000000000001</v>
+        <v>91.8</v>
       </c>
       <c r="G5">
-        <v>89.8</v>
+        <v>96</v>
       </c>
       <c r="H5">
-        <v>97.3</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="I5">
-        <v>94.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="J5">
-        <v>97.89999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="K5">
-        <v>99.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="L5">
         <v>100</v>
       </c>
       <c r="M5">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="N5">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O5">
-        <v>99.09999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2792,272 +2777,287 @@
         <v>99.8</v>
       </c>
       <c r="C6">
-        <v>87.7</v>
+        <v>89.8</v>
       </c>
       <c r="D6">
         <v>95.7</v>
       </c>
       <c r="E6">
-        <v>98.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="F6">
-        <v>97.89999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="G6">
-        <v>95.3</v>
+        <v>94.8</v>
       </c>
       <c r="H6">
-        <v>84</v>
+        <v>84.8</v>
       </c>
       <c r="I6">
-        <v>69.09999999999999</v>
+        <v>70.19999999999999</v>
       </c>
       <c r="J6">
-        <v>84.7</v>
+        <v>84.89999999999999</v>
       </c>
       <c r="K6">
-        <v>77.2</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="L6">
-        <v>93.89999999999999</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="M6">
+        <v>97.5</v>
+      </c>
+      <c r="N6">
+        <v>93.30000000000001</v>
+      </c>
+      <c r="O6">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>82.3</v>
+      </c>
+      <c r="C7">
+        <v>63.7</v>
+      </c>
+      <c r="D7">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="E7">
+        <v>72.7</v>
+      </c>
+      <c r="F7">
+        <v>71.39999999999999</v>
+      </c>
+      <c r="G7">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="H7">
+        <v>90.5</v>
+      </c>
+      <c r="I7">
         <v>96.89999999999999</v>
       </c>
-      <c r="N6">
-        <v>92.30000000000001</v>
-      </c>
-      <c r="O6">
-        <v>96.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
+      <c r="J7">
+        <v>96.3</v>
+      </c>
+      <c r="K7">
+        <v>98.8</v>
+      </c>
+      <c r="L7">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="M7">
+        <v>75.3</v>
+      </c>
+      <c r="N7">
+        <v>84.8</v>
+      </c>
+      <c r="O7">
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>74.5</v>
+      </c>
+      <c r="D8">
+        <v>91.60000000000001</v>
+      </c>
+      <c r="E8">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="F8">
+        <v>76.5</v>
+      </c>
+      <c r="G8">
+        <v>90.8</v>
+      </c>
+      <c r="H8">
+        <v>98</v>
+      </c>
+      <c r="I8">
+        <v>93.5</v>
+      </c>
+      <c r="J8">
+        <v>98.3</v>
+      </c>
+      <c r="K8">
+        <v>99.7</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+      <c r="M8">
+        <v>99.2</v>
+      </c>
+      <c r="N8">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="O8">
+        <v>100</v>
+      </c>
+      <c r="P8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C9">
+        <v>85.39999999999999</v>
+      </c>
+      <c r="D9">
+        <v>31.2</v>
+      </c>
+      <c r="E9">
+        <v>16.3</v>
+      </c>
+      <c r="F9">
+        <v>27.3</v>
+      </c>
+      <c r="G9">
+        <v>60.5</v>
+      </c>
+      <c r="H9">
+        <v>35.4</v>
+      </c>
+      <c r="I9">
+        <v>60.9</v>
+      </c>
+      <c r="J9">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="K9">
+        <v>64.3</v>
+      </c>
+      <c r="L9">
+        <v>53.1</v>
+      </c>
+      <c r="M9">
+        <v>61.7</v>
+      </c>
+      <c r="N9">
+        <v>68.7</v>
+      </c>
+      <c r="O9">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="P9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7">
-        <v>11.3</v>
-      </c>
-      <c r="C7">
-        <v>46.8</v>
-      </c>
-      <c r="D7">
-        <v>82.09999999999999</v>
-      </c>
-      <c r="E7">
-        <v>93.89999999999999</v>
-      </c>
-      <c r="F7">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="G7">
-        <v>63.5</v>
-      </c>
-      <c r="H7">
-        <v>47.7</v>
-      </c>
-      <c r="I7">
-        <v>65.60000000000001</v>
-      </c>
-      <c r="J7">
-        <v>52</v>
-      </c>
-      <c r="K7">
-        <v>71.5</v>
-      </c>
-      <c r="L7">
-        <v>90.10000000000001</v>
-      </c>
-      <c r="M7">
-        <v>94.69999999999999</v>
-      </c>
-      <c r="N7">
-        <v>79.10000000000001</v>
-      </c>
-      <c r="O7">
-        <v>89.40000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>17.7</v>
-      </c>
-      <c r="C8">
-        <v>62.9</v>
-      </c>
-      <c r="D8">
-        <v>44.2</v>
-      </c>
-      <c r="E8">
-        <v>70.7</v>
-      </c>
-      <c r="F8">
-        <v>53.5</v>
-      </c>
-      <c r="G8">
-        <v>40.3</v>
-      </c>
-      <c r="H8">
-        <v>57.09999999999999</v>
-      </c>
-      <c r="I8">
-        <v>36.2</v>
-      </c>
-      <c r="J8">
-        <v>47.5</v>
-      </c>
-      <c r="K8">
-        <v>65.7</v>
-      </c>
-      <c r="L8">
-        <v>51.9</v>
-      </c>
-      <c r="M8">
-        <v>68.30000000000001</v>
-      </c>
-      <c r="N8">
-        <v>77.8</v>
-      </c>
-      <c r="O8">
-        <v>82.59999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>82.89999999999999</v>
-      </c>
-      <c r="C9">
-        <v>62</v>
-      </c>
-      <c r="D9">
-        <v>69</v>
-      </c>
-      <c r="E9">
-        <v>69.89999999999999</v>
-      </c>
-      <c r="F9">
-        <v>74</v>
-      </c>
-      <c r="G9">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="H9">
-        <v>91.3</v>
-      </c>
-      <c r="I9">
-        <v>96.39999999999999</v>
-      </c>
-      <c r="J9">
-        <v>96.2</v>
-      </c>
-      <c r="K9">
-        <v>98.8</v>
-      </c>
-      <c r="L9">
-        <v>93.30000000000001</v>
-      </c>
-      <c r="M9">
-        <v>77</v>
-      </c>
-      <c r="N9">
-        <v>83.8</v>
-      </c>
-      <c r="O9">
-        <v>82.59999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="B10">
-        <v>99.3</v>
+        <v>12.2</v>
       </c>
       <c r="C10">
-        <v>83.39999999999999</v>
+        <v>44.9</v>
       </c>
       <c r="D10">
-        <v>27.8</v>
+        <v>80.2</v>
       </c>
       <c r="E10">
-        <v>18.9</v>
+        <v>93.8</v>
       </c>
       <c r="F10">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="G10">
-        <v>55.60000000000001</v>
+        <v>63.1</v>
       </c>
       <c r="H10">
-        <v>39.5</v>
+        <v>51.6</v>
       </c>
       <c r="I10">
-        <v>59.7</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="J10">
-        <v>78.90000000000001</v>
+        <v>48.3</v>
       </c>
       <c r="K10">
-        <v>65.90000000000001</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="L10">
-        <v>55.2</v>
+        <v>90.5</v>
       </c>
       <c r="M10">
-        <v>59.3</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="N10">
-        <v>70.39999999999999</v>
+        <v>81</v>
       </c>
       <c r="O10">
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>51.5</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B11">
-        <v>34.2</v>
+        <v>33.1</v>
       </c>
       <c r="C11">
-        <v>45.6</v>
+        <v>43.6</v>
       </c>
       <c r="D11">
-        <v>31.4</v>
+        <v>34.7</v>
       </c>
       <c r="E11">
-        <v>44.8</v>
+        <v>45.7</v>
       </c>
       <c r="F11">
-        <v>27.7</v>
+        <v>30</v>
       </c>
       <c r="G11">
-        <v>47.59999999999999</v>
+        <v>45.2</v>
       </c>
       <c r="H11">
-        <v>74.8</v>
+        <v>78.60000000000001</v>
       </c>
       <c r="I11">
-        <v>69</v>
+        <v>67.2</v>
       </c>
       <c r="J11">
-        <v>46.6</v>
+        <v>44.1</v>
       </c>
       <c r="K11">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="L11">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="M11">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -3065,43 +3065,46 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>97</v>
+        <v>96.7</v>
       </c>
       <c r="C12">
-        <v>77.3</v>
+        <v>79.10000000000001</v>
       </c>
       <c r="D12">
-        <v>82.8</v>
+        <v>81.2</v>
       </c>
       <c r="E12">
-        <v>76.5</v>
+        <v>78.7</v>
       </c>
       <c r="F12">
-        <v>76.59999999999999</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="G12">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="H12">
-        <v>10.7</v>
+        <v>10.4</v>
       </c>
       <c r="I12">
-        <v>5.800000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="J12">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L12">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -3112,44 +3115,47 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>65.60000000000001</v>
+        <v>68.2</v>
       </c>
       <c r="C13">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D13">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="E13">
         <v>12.6</v>
       </c>
       <c r="F13">
-        <v>9.5</v>
+        <v>7.7</v>
       </c>
       <c r="G13">
-        <v>22.5</v>
+        <v>21.1</v>
       </c>
       <c r="H13">
-        <v>10.1</v>
+        <v>10.9</v>
       </c>
       <c r="I13">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>0.4</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
       <c r="M13">
         <v>0</v>
       </c>
@@ -3157,6 +3163,9 @@
         <v>0</v>
       </c>
       <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
         <v>0</v>
       </c>
     </row>
@@ -3175,28 +3184,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3204,28 +3213,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2">
-        <v>99.77</v>
+        <v>118.37</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.769</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3233,28 +3242,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D3">
-        <v>116.23</v>
+        <v>138.16</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3">
-        <v>136.63</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.6919999999999999</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3265,25 +3274,25 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D4">
-        <v>117.41</v>
+        <v>115.59</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4">
-        <v>130.44</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.538</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3291,28 +3300,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D5">
-        <v>130.44</v>
+        <v>138.33</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>117.41</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.538</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3320,28 +3329,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D6">
-        <v>126.47</v>
+        <v>118.7</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>125.82</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.538</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3352,25 +3361,25 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D7">
-        <v>125.82</v>
+        <v>123.66</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7">
-        <v>126.47</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.462</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3378,28 +3387,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D8">
-        <v>104.48</v>
+        <v>107.03</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F8">
-        <v>119.36</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.615</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3407,28 +3416,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D9">
-        <v>119.36</v>
+        <v>113.79</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
       </c>
       <c r="F9">
-        <v>104.48</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.154</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3436,28 +3445,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D10">
-        <v>111.01</v>
+        <v>129.43</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F10">
-        <v>114.86</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.538</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3465,28 +3474,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D11">
-        <v>114.86</v>
+        <v>127.56</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11">
-        <v>111.01</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.308</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3494,28 +3503,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D12">
-        <v>136.63</v>
+        <v>106.87</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F12">
-        <v>116.23</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.538</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3523,28 +3532,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D13">
-        <v>137</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F13">
-        <v>99.77</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.308</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>-58</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3562,48 +3571,48 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C2">
-        <v>0.7692307692307693</v>
+        <v>0.5</v>
       </c>
       <c r="D2">
-        <v>136.9953846153846</v>
+        <v>118.3685714285714</v>
       </c>
       <c r="E2">
-        <v>1780.94</v>
+        <v>1657.16</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3612,27 +3621,27 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C3">
-        <v>0.6923076923076923</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="D3">
-        <v>136.6323076923077</v>
+        <v>138.1557142857143</v>
       </c>
       <c r="E3">
-        <v>1776.22</v>
+        <v>1934.18</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -3641,27 +3650,27 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I3" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4">
-        <v>0.6153846153846154</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D4">
-        <v>119.3615384615385</v>
+        <v>138.3328571428571</v>
       </c>
       <c r="E4">
-        <v>1551.7</v>
+        <v>1936.66</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -3670,39 +3679,39 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C5">
-        <v>0.5384615384615384</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D5">
-        <v>130.4415384615385</v>
+        <v>118.7</v>
       </c>
       <c r="E5">
-        <v>1695.74</v>
+        <v>1661.8</v>
       </c>
       <c r="F5">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I5" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3710,144 +3719,144 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>125.8246153846154</v>
+        <v>123.6557142857143</v>
       </c>
       <c r="E6">
-        <v>1635.72</v>
+        <v>1731.18</v>
       </c>
       <c r="F6">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I6" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C7">
-        <v>0.5384615384615384</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D7">
-        <v>117.4138461538462</v>
+        <v>113.7914285714286</v>
       </c>
       <c r="E7">
-        <v>1526.38</v>
+        <v>1593.08</v>
       </c>
       <c r="F7">
-        <v>91.10000000000001</v>
+        <v>100</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I7" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C8">
-        <v>0.5384615384615384</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D8">
-        <v>116.2292307692308</v>
+        <v>129.4314285714286</v>
       </c>
       <c r="E8">
-        <v>1510.98</v>
+        <v>1812.04</v>
       </c>
       <c r="F8">
-        <v>82.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I8" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>114.8630769230769</v>
+        <v>127.5585714285714</v>
       </c>
       <c r="E9">
-        <v>1493.22</v>
+        <v>1785.82</v>
       </c>
       <c r="F9">
-        <v>81.2</v>
+        <v>100</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C10">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
-        <v>126.4692307692308</v>
+        <v>115.5928571428572</v>
       </c>
       <c r="E10">
-        <v>1644.1</v>
+        <v>1618.3</v>
       </c>
       <c r="F10">
-        <v>48.9</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3855,16 +3864,16 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C11">
-        <v>0.3076923076923077</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D11">
-        <v>111.0107692307692</v>
+        <v>107.0314285714286</v>
       </c>
       <c r="E11">
-        <v>1443.14</v>
+        <v>1498.44</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3873,10 +3882,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3884,16 +3893,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C12">
-        <v>0.1538461538461539</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="D12">
-        <v>104.4815384615385</v>
+        <v>106.8728571428571</v>
       </c>
       <c r="E12">
-        <v>1358.26</v>
+        <v>1496.22</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3902,10 +3911,10 @@
         <v>100</v>
       </c>
       <c r="H12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I12" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3913,16 +3922,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C13">
-        <v>0.3076923076923077</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D13">
-        <v>99.76769230769231</v>
+        <v>99.90142857142858</v>
       </c>
       <c r="E13">
-        <v>1296.98</v>
+        <v>1398.62</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -3931,10 +3940,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I13" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3952,19 +3961,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3975,16 +3984,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3995,16 +4004,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4015,16 +4024,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4035,16 +4044,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4055,16 +4064,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4075,16 +4084,16 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4095,7 +4104,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -4104,7 +4113,7 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4115,16 +4124,16 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D9">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4138,13 +4147,13 @@
         <v>72</v>
       </c>
       <c r="D10">
-        <v>-12</v>
+        <v>-19</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4152,19 +4161,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D11">
-        <v>-16</v>
+        <v>-20</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4172,19 +4181,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D12">
-        <v>-28</v>
+        <v>-25</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4195,16 +4204,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D13">
-        <v>-58</v>
+        <v>-56</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4214,57 +4223,60 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4307,11 +4319,14 @@
       <c r="N2">
         <v>47</v>
       </c>
-      <c r="O2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2">
+        <v>51</v>
+      </c>
+      <c r="P2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4354,11 +4369,14 @@
       <c r="N3">
         <v>31</v>
       </c>
-      <c r="O3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="O3">
+        <v>41</v>
+      </c>
+      <c r="P3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -4401,11 +4419,14 @@
       <c r="N4">
         <v>15</v>
       </c>
-      <c r="O4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="O4">
+        <v>12</v>
+      </c>
+      <c r="P4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -4448,11 +4469,14 @@
       <c r="N5">
         <v>14</v>
       </c>
-      <c r="O5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="O5">
+        <v>9</v>
+      </c>
+      <c r="P5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4495,11 +4519,14 @@
       <c r="N6">
         <v>8</v>
       </c>
-      <c r="O6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6">
+        <v>6</v>
+      </c>
+      <c r="P6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -4542,11 +4569,14 @@
       <c r="N7">
         <v>4</v>
       </c>
-      <c r="O7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -4589,11 +4619,14 @@
       <c r="N8">
         <v>2</v>
       </c>
-      <c r="O8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -4636,11 +4669,14 @@
       <c r="N9">
         <v>-7</v>
       </c>
-      <c r="O9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="O9">
+        <v>-5</v>
+      </c>
+      <c r="P9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -4683,105 +4719,114 @@
       <c r="N10">
         <v>-12</v>
       </c>
-      <c r="O10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="O10">
+        <v>-19</v>
+      </c>
+      <c r="P10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>-3</v>
+      </c>
+      <c r="C11">
+        <v>-2</v>
+      </c>
+      <c r="D11">
+        <v>-9</v>
+      </c>
+      <c r="E11">
+        <v>-7</v>
+      </c>
+      <c r="F11">
+        <v>-15</v>
+      </c>
+      <c r="G11">
+        <v>-19</v>
+      </c>
+      <c r="H11">
+        <v>-18</v>
+      </c>
+      <c r="I11">
+        <v>-22</v>
+      </c>
+      <c r="J11">
+        <v>-28</v>
+      </c>
+      <c r="K11">
+        <v>-34</v>
+      </c>
+      <c r="L11">
+        <v>-32</v>
+      </c>
+      <c r="M11">
+        <v>-30</v>
+      </c>
+      <c r="N11">
+        <v>-28</v>
+      </c>
+      <c r="O11">
+        <v>-20</v>
+      </c>
+      <c r="P11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>-2</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>-5</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>-4</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>-8</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>-10</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>-12</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>-9</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>-5</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>-10</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>-18</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>-18</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <v>-16</v>
       </c>
-      <c r="N11">
+      <c r="N12">
         <v>-16</v>
       </c>
-      <c r="O11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>-3</v>
-      </c>
-      <c r="C12">
-        <v>-2</v>
-      </c>
-      <c r="D12">
-        <v>-9</v>
-      </c>
-      <c r="E12">
-        <v>-7</v>
-      </c>
-      <c r="F12">
-        <v>-15</v>
-      </c>
-      <c r="G12">
-        <v>-19</v>
-      </c>
-      <c r="H12">
-        <v>-18</v>
-      </c>
-      <c r="I12">
-        <v>-22</v>
-      </c>
-      <c r="J12">
-        <v>-28</v>
-      </c>
-      <c r="K12">
-        <v>-34</v>
-      </c>
-      <c r="L12">
-        <v>-32</v>
-      </c>
-      <c r="M12">
-        <v>-30</v>
-      </c>
-      <c r="N12">
-        <v>-28</v>
-      </c>
-      <c r="O12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="O12">
+        <v>-25</v>
+      </c>
+      <c r="P12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -4824,8 +4869,11 @@
       <c r="N13">
         <v>-58</v>
       </c>
-      <c r="O13" t="s">
-        <v>115</v>
+      <c r="O13">
+        <v>-56</v>
+      </c>
+      <c r="P13" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/The Mike Daisy Sports IQ League 2025.xlsx
+++ b/leagues/The Mike Daisy Sports IQ League 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="136">
   <si>
     <t>Njigba's in Paris</t>
   </si>
@@ -61,10 +61,205 @@
     <t>Matt Gay Team</t>
   </si>
   <si>
+    <t>7-8-0</t>
+  </si>
+  <si>
+    <t>10-5-0</t>
+  </si>
+  <si>
+    <t>8-7-0</t>
+  </si>
+  <si>
+    <t>11-4-0</t>
+  </si>
+  <si>
+    <t>5-10-0</t>
+  </si>
+  <si>
+    <t>4-11-0</t>
+  </si>
+  <si>
+    <t>6-9-0</t>
+  </si>
+  <si>
+    <t>12-3-0</t>
+  </si>
+  <si>
+    <t>3-12-0</t>
+  </si>
+  <si>
+    <t>9-6-0</t>
+  </si>
+  <si>
+    <t>1-14-0</t>
+  </si>
+  <si>
+    <t>2-13-0</t>
+  </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>Wins Against Schedule</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Expected Wins</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>11th Place</t>
+  </si>
+  <si>
+    <t>12th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
+    <t>Week_7</t>
+  </si>
+  <si>
+    <t>Week_8</t>
+  </si>
+  <si>
+    <t>Week_9</t>
+  </si>
+  <si>
+    <t>Week_10</t>
+  </si>
+  <si>
+    <t>Week_11</t>
+  </si>
+  <si>
+    <t>Week_12</t>
+  </si>
+  <si>
+    <t>Week_13</t>
+  </si>
+  <si>
+    <t>Week_14</t>
+  </si>
+  <si>
+    <t>Week_15</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Team_Record</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Julian LeMaire</t>
+  </si>
+  <si>
+    <t>Benjamin Frost</t>
+  </si>
+  <si>
+    <t>Bobby  Schnur</t>
+  </si>
+  <si>
+    <t>Mark Yanzuk</t>
+  </si>
+  <si>
+    <t>Dylan Sowers</t>
+  </si>
+  <si>
+    <t>Michael Daisey</t>
+  </si>
+  <si>
+    <t>Shjon Sowers</t>
+  </si>
+  <si>
+    <t>Rob Pernell</t>
+  </si>
+  <si>
+    <t>Nick DiNunzio</t>
+  </si>
+  <si>
+    <t>Matthew Jennings</t>
+  </si>
+  <si>
+    <t>David O'Kane</t>
+  </si>
+  <si>
+    <t>Matt Peiffer</t>
+  </si>
+  <si>
     <t>7-7-0</t>
   </si>
   <si>
-    <t>9-5-0</t>
+    <t>11-3-0</t>
   </si>
   <si>
     <t>10-4-0</t>
@@ -73,189 +268,12 @@
     <t>8-6-0</t>
   </si>
   <si>
-    <t>5-9-0</t>
-  </si>
-  <si>
     <t>4-10-0</t>
   </si>
   <si>
-    <t>6-8-0</t>
-  </si>
-  <si>
-    <t>11-3-0</t>
-  </si>
-  <si>
     <t>3-11-0</t>
   </si>
   <si>
-    <t>1-13-0</t>
-  </si>
-  <si>
-    <t>2-12-0</t>
-  </si>
-  <si>
-    <t>12-2-0</t>
-  </si>
-  <si>
-    <t>Teams</t>
-  </si>
-  <si>
-    <t>Wins Against Schedule</t>
-  </si>
-  <si>
-    <t>Record</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Expected Wins</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>1st Place</t>
-  </si>
-  <si>
-    <t>2nd Place</t>
-  </si>
-  <si>
-    <t>3rd Place</t>
-  </si>
-  <si>
-    <t>4th Place</t>
-  </si>
-  <si>
-    <t>5th Place</t>
-  </si>
-  <si>
-    <t>6th Place</t>
-  </si>
-  <si>
-    <t>7th Place</t>
-  </si>
-  <si>
-    <t>8th Place</t>
-  </si>
-  <si>
-    <t>9th Place</t>
-  </si>
-  <si>
-    <t>10th Place</t>
-  </si>
-  <si>
-    <t>11th Place</t>
-  </si>
-  <si>
-    <t>12th Place</t>
-  </si>
-  <si>
-    <t>Chance of Making Playoffs</t>
-  </si>
-  <si>
-    <t>Week_1</t>
-  </si>
-  <si>
-    <t>Week_2</t>
-  </si>
-  <si>
-    <t>Week_3</t>
-  </si>
-  <si>
-    <t>Week_4</t>
-  </si>
-  <si>
-    <t>Week_5</t>
-  </si>
-  <si>
-    <t>Week_6</t>
-  </si>
-  <si>
-    <t>Week_7</t>
-  </si>
-  <si>
-    <t>Week_8</t>
-  </si>
-  <si>
-    <t>Week_9</t>
-  </si>
-  <si>
-    <t>Week_10</t>
-  </si>
-  <si>
-    <t>Week_11</t>
-  </si>
-  <si>
-    <t>Week_12</t>
-  </si>
-  <si>
-    <t>Week_13</t>
-  </si>
-  <si>
-    <t>Week_14</t>
-  </si>
-  <si>
-    <t>Week_15</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Avg_Points_For</t>
-  </si>
-  <si>
-    <t>Team_Record</t>
-  </si>
-  <si>
-    <t>Avg_Opp_Points_For</t>
-  </si>
-  <si>
-    <t>Avg_Opp_Win_Pct</t>
-  </si>
-  <si>
-    <t>Avg_Opp_LPI</t>
-  </si>
-  <si>
-    <t>Games_Remaining</t>
-  </si>
-  <si>
-    <t>Julian LeMaire</t>
-  </si>
-  <si>
-    <t>Benjamin Frost</t>
-  </si>
-  <si>
-    <t>Bobby  Schnur</t>
-  </si>
-  <si>
-    <t>Mark Yanzuk</t>
-  </si>
-  <si>
-    <t>Dylan Sowers</t>
-  </si>
-  <si>
-    <t>Michael Daisey</t>
-  </si>
-  <si>
-    <t>Shjon Sowers</t>
-  </si>
-  <si>
-    <t>Rob Pernell</t>
-  </si>
-  <si>
-    <t>Nick DiNunzio</t>
-  </si>
-  <si>
-    <t>Matthew Jennings</t>
-  </si>
-  <si>
-    <t>David O'Kane</t>
-  </si>
-  <si>
-    <t>Matt Peiffer</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -325,36 +343,30 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑2</t>
+  </si>
+  <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↑10</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓2</t>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑6</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
     <t>↓9</t>
   </si>
   <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓11</t>
+  </si>
+  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -395,6 +407,9 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
   </si>
   <si>
     <t>Week</t>
@@ -828,10 +843,10 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -840,7 +855,7 @@
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
         <v>18</v>
@@ -852,10 +867,10 @@
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -872,22 +887,22 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
       <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
         <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
       </c>
       <c r="I3" t="s">
         <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
@@ -896,7 +911,7 @@
         <v>13</v>
       </c>
       <c r="M3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -904,40 +919,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
       </c>
       <c r="I4" t="s">
         <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
         <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -945,37 +960,37 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
         <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M5" t="s">
         <v>13</v>
@@ -986,40 +1001,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
       <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
       </c>
       <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
         <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1027,16 +1042,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -1045,19 +1060,19 @@
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M7" t="s">
         <v>13</v>
@@ -1068,7 +1083,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -1095,13 +1110,13 @@
         <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1109,19 +1124,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -1130,19 +1145,19 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="s">
         <v>12</v>
       </c>
-      <c r="L9" t="s">
-        <v>18</v>
-      </c>
       <c r="M9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1150,37 +1165,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M10" t="s">
         <v>13</v>
@@ -1194,37 +1209,37 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
       </c>
       <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" t="s">
         <v>14</v>
       </c>
-      <c r="K11" t="s">
-        <v>12</v>
-      </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M11" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1262,10 +1277,10 @@
         <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1276,7 +1291,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -1285,13 +1300,13 @@
         <v>20</v>
       </c>
       <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
         <v>22</v>
       </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I13" t="s">
         <v>16</v>
@@ -1303,7 +1318,7 @@
         <v>17</v>
       </c>
       <c r="L13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M13" t="s">
         <v>17</v>
@@ -1316,7 +1331,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1324,25 +1339,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1447,58 +1462,6 @@
       </c>
       <c r="H5" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>-8</v>
-      </c>
-      <c r="F6">
-        <v>-28</v>
-      </c>
-      <c r="G6">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>-15</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1530,13 +1493,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>5.5</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1544,13 +1507,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>5.833333333333333</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1561,10 +1524,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>6.083333333333333</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1575,10 +1538,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>6.416666666666667</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1589,7 +1552,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>6.916666666666667</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1603,10 +1566,10 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1614,13 +1577,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>7.333333333333333</v>
+        <v>7.5</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1628,13 +1591,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>7.416666666666667</v>
+        <v>7.5</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1642,13 +1605,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>7.583333333333333</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1656,10 +1619,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>7.666666666666667</v>
+        <v>8.416666666666666</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1670,13 +1633,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>8.083333333333334</v>
+        <v>8.5</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1687,10 +1650,10 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>8.166666666666666</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1728,10 +1691,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>10.08333333333333</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="D2">
-        <v>-0.9166666666666661</v>
+        <v>-1.166666666666666</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -1745,13 +1708,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>9.833333333333334</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="D3">
-        <v>-0.1666666666666661</v>
+        <v>-0.3333333333333339</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1759,16 +1722,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>8.333333333333334</v>
+        <v>8.916666666666666</v>
       </c>
       <c r="D4">
-        <v>0.3333333333333339</v>
+        <v>0.9166666666666661</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1776,16 +1739,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>8.833333333333334</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.8333333333333339</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1793,16 +1756,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>7.416666666666667</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="D6">
-        <v>0.416666666666667</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1810,16 +1773,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>7.166666666666667</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="D7">
-        <v>-0.833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1827,16 +1790,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>6.833333333333333</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="D8">
-        <v>-0.166666666666667</v>
+        <v>-0.416666666666667</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1847,13 +1810,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>6.583333333333333</v>
+        <v>7.25</v>
       </c>
       <c r="D9">
-        <v>-1.416666666666667</v>
+        <v>-1.75</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1864,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.416666666666667</v>
+        <v>6.75</v>
       </c>
       <c r="D10">
-        <v>-0.583333333333333</v>
+        <v>-0.25</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1881,10 +1844,10 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>5.333333333333333</v>
+        <v>5.5</v>
       </c>
       <c r="D11">
-        <v>1.333333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
@@ -1898,13 +1861,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>5.083333333333333</v>
+        <v>5.25</v>
       </c>
       <c r="D12">
-        <v>2.083333333333333</v>
+        <v>1.25</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2574,46 +2537,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C2">
-        <v>66.3</v>
+        <v>64.5</v>
       </c>
       <c r="D2">
-        <v>43.3</v>
+        <v>46.3</v>
       </c>
       <c r="E2">
-        <v>74.40000000000001</v>
+        <v>71</v>
       </c>
       <c r="F2">
-        <v>59.2</v>
+        <v>55.60000000000001</v>
       </c>
       <c r="G2">
-        <v>40.1</v>
+        <v>37.2</v>
       </c>
       <c r="H2">
-        <v>51.7</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="I2">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J2">
-        <v>50.4</v>
+        <v>48.7</v>
       </c>
       <c r="K2">
-        <v>66.7</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="L2">
-        <v>51</v>
+        <v>52.8</v>
       </c>
       <c r="M2">
-        <v>67.60000000000001</v>
+        <v>69.69999999999999</v>
       </c>
       <c r="N2">
-        <v>76.59999999999999</v>
+        <v>79</v>
       </c>
       <c r="O2">
-        <v>65.7</v>
+        <v>67.10000000000001</v>
       </c>
       <c r="P2">
         <v>100</v>
@@ -2627,31 +2590,31 @@
         <v>100</v>
       </c>
       <c r="C3">
-        <v>92.5</v>
+        <v>92.2</v>
       </c>
       <c r="D3">
-        <v>98.5</v>
+        <v>98.8</v>
       </c>
       <c r="E3">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G3">
-        <v>98.8</v>
+        <v>99</v>
       </c>
       <c r="H3">
+        <v>99.3</v>
+      </c>
+      <c r="I3">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J3">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="K3">
         <v>99.7</v>
-      </c>
-      <c r="I3">
-        <v>99.7</v>
-      </c>
-      <c r="J3">
-        <v>99.7</v>
-      </c>
-      <c r="K3">
-        <v>99.90000000000001</v>
       </c>
       <c r="L3">
         <v>100</v>
@@ -2674,37 +2637,37 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>52.40000000000001</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="D4">
-        <v>66.8</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E4">
-        <v>47.3</v>
+        <v>51.7</v>
       </c>
       <c r="F4">
-        <v>71.7</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="G4">
-        <v>86.90000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="H4">
-        <v>94.3</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="I4">
-        <v>97.2</v>
+        <v>96.7</v>
       </c>
       <c r="J4">
-        <v>94.3</v>
+        <v>94.8</v>
       </c>
       <c r="K4">
-        <v>98.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="L4">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="M4">
         <v>100</v>
@@ -2724,43 +2687,43 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C5">
-        <v>69.59999999999999</v>
+        <v>67.80000000000001</v>
       </c>
       <c r="D5">
-        <v>80.90000000000001</v>
+        <v>79.60000000000001</v>
       </c>
       <c r="E5">
         <v>83.3</v>
       </c>
       <c r="F5">
-        <v>91.8</v>
+        <v>92.2</v>
       </c>
       <c r="G5">
-        <v>96</v>
+        <v>95.19999999999999</v>
       </c>
       <c r="H5">
-        <v>94.09999999999999</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="I5">
-        <v>98.90000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="J5">
-        <v>99.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="M5">
         <v>99.90000000000001</v>
       </c>
-      <c r="L5">
-        <v>100</v>
-      </c>
-      <c r="M5">
-        <v>100</v>
-      </c>
       <c r="N5">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="O5">
         <v>100</v>
@@ -2774,46 +2737,46 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="C6">
-        <v>89.8</v>
+        <v>88.8</v>
       </c>
       <c r="D6">
-        <v>95.7</v>
+        <v>94.5</v>
       </c>
       <c r="E6">
-        <v>97.8</v>
+        <v>98.8</v>
       </c>
       <c r="F6">
-        <v>99.5</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="G6">
-        <v>94.8</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="H6">
-        <v>84.8</v>
+        <v>84.2</v>
       </c>
       <c r="I6">
-        <v>70.19999999999999</v>
+        <v>69</v>
       </c>
       <c r="J6">
-        <v>84.89999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="K6">
-        <v>77.40000000000001</v>
+        <v>75.2</v>
       </c>
       <c r="L6">
-        <v>94.59999999999999</v>
+        <v>93.89999999999999</v>
       </c>
       <c r="M6">
-        <v>97.5</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="N6">
-        <v>93.30000000000001</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="O6">
-        <v>89.40000000000001</v>
+        <v>90</v>
       </c>
       <c r="P6">
         <v>100</v>
@@ -2824,43 +2787,43 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>82.3</v>
+        <v>85</v>
       </c>
       <c r="C7">
-        <v>63.7</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="D7">
-        <v>67.40000000000001</v>
+        <v>69.89999999999999</v>
       </c>
       <c r="E7">
-        <v>72.7</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="F7">
-        <v>71.39999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="G7">
-        <v>76.90000000000001</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="H7">
-        <v>90.5</v>
+        <v>90.10000000000001</v>
       </c>
       <c r="I7">
-        <v>96.89999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="J7">
-        <v>96.3</v>
+        <v>97.2</v>
       </c>
       <c r="K7">
-        <v>98.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="L7">
-        <v>92.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="M7">
-        <v>75.3</v>
+        <v>75.8</v>
       </c>
       <c r="N7">
-        <v>84.8</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="O7">
         <v>100</v>
@@ -2874,43 +2837,43 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>39.8</v>
       </c>
       <c r="C8">
-        <v>74.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D8">
-        <v>91.60000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="E8">
-        <v>77.90000000000001</v>
+        <v>77.10000000000001</v>
       </c>
       <c r="F8">
-        <v>76.5</v>
+        <v>79.7</v>
       </c>
       <c r="G8">
-        <v>90.8</v>
+        <v>90.3</v>
       </c>
       <c r="H8">
-        <v>98</v>
+        <v>97.5</v>
       </c>
       <c r="I8">
         <v>93.5</v>
       </c>
       <c r="J8">
-        <v>98.3</v>
+        <v>97.8</v>
       </c>
       <c r="K8">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="L8">
         <v>100</v>
       </c>
       <c r="M8">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="N8">
-        <v>95.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="O8">
         <v>100</v>
@@ -2924,46 +2887,46 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C9">
-        <v>85.39999999999999</v>
+        <v>85.2</v>
       </c>
       <c r="D9">
-        <v>31.2</v>
+        <v>29.1</v>
       </c>
       <c r="E9">
-        <v>16.3</v>
+        <v>18.9</v>
       </c>
       <c r="F9">
-        <v>27.3</v>
+        <v>28.4</v>
       </c>
       <c r="G9">
-        <v>60.5</v>
+        <v>60.6</v>
       </c>
       <c r="H9">
-        <v>35.4</v>
+        <v>35.8</v>
       </c>
       <c r="I9">
-        <v>60.9</v>
+        <v>59.2</v>
       </c>
       <c r="J9">
-        <v>79.40000000000001</v>
+        <v>78.60000000000001</v>
       </c>
       <c r="K9">
-        <v>64.3</v>
+        <v>63.3</v>
       </c>
       <c r="L9">
-        <v>53.1</v>
+        <v>55.40000000000001</v>
       </c>
       <c r="M9">
-        <v>61.7</v>
+        <v>61.1</v>
       </c>
       <c r="N9">
-        <v>68.7</v>
+        <v>67.30000000000001</v>
       </c>
       <c r="O9">
-        <v>93.40000000000001</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="P9">
         <v>100</v>
@@ -2974,46 +2937,46 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>12.2</v>
+        <v>11.6</v>
       </c>
       <c r="C10">
-        <v>44.9</v>
+        <v>45.2</v>
       </c>
       <c r="D10">
-        <v>80.2</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="E10">
-        <v>93.8</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="F10">
-        <v>89</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="G10">
-        <v>63.1</v>
+        <v>65.3</v>
       </c>
       <c r="H10">
-        <v>51.6</v>
+        <v>46.40000000000001</v>
       </c>
       <c r="I10">
-        <v>67.40000000000001</v>
+        <v>68.2</v>
       </c>
       <c r="J10">
         <v>48.3</v>
       </c>
       <c r="K10">
-        <v>71.09999999999999</v>
+        <v>75.7</v>
       </c>
       <c r="L10">
-        <v>90.5</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="M10">
-        <v>94.39999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="N10">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="O10">
-        <v>51.5</v>
+        <v>49.3</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -3024,37 +2987,37 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>33.1</v>
+        <v>30.2</v>
       </c>
       <c r="C11">
-        <v>43.6</v>
+        <v>44.6</v>
       </c>
       <c r="D11">
-        <v>34.7</v>
+        <v>33.5</v>
       </c>
       <c r="E11">
-        <v>45.7</v>
+        <v>47.59999999999999</v>
       </c>
       <c r="F11">
-        <v>30</v>
+        <v>27.2</v>
       </c>
       <c r="G11">
-        <v>45.2</v>
+        <v>46.7</v>
       </c>
       <c r="H11">
-        <v>78.60000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="I11">
-        <v>67.2</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="J11">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>21.7</v>
+        <v>22.8</v>
       </c>
       <c r="L11">
-        <v>17.5</v>
+        <v>14.9</v>
       </c>
       <c r="M11">
         <v>4.3</v>
@@ -3074,37 +3037,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>96.7</v>
+        <v>96</v>
       </c>
       <c r="C12">
-        <v>79.10000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="D12">
-        <v>81.2</v>
+        <v>82.19999999999999</v>
       </c>
       <c r="E12">
-        <v>78.7</v>
+        <v>76</v>
       </c>
       <c r="F12">
-        <v>75.90000000000001</v>
+        <v>75.7</v>
       </c>
       <c r="G12">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="H12">
-        <v>10.4</v>
+        <v>11.7</v>
       </c>
       <c r="I12">
-        <v>4.2</v>
+        <v>6.7</v>
       </c>
       <c r="J12">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="K12">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="L12">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -3124,37 +3087,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>68.2</v>
+        <v>69.89999999999999</v>
       </c>
       <c r="C13">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="D13">
-        <v>28.5</v>
+        <v>30.7</v>
       </c>
       <c r="E13">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="F13">
-        <v>7.7</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="G13">
-        <v>21.1</v>
+        <v>23.4</v>
       </c>
       <c r="H13">
-        <v>10.9</v>
+        <v>11.5</v>
       </c>
       <c r="I13">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="J13">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L13">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -3222,7 +3185,7 @@
         <v>118.37</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3251,7 +3214,7 @@
         <v>138.16</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3280,7 +3243,7 @@
         <v>115.59</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3309,7 +3272,7 @@
         <v>138.33</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3338,7 +3301,7 @@
         <v>118.7</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3367,7 +3330,7 @@
         <v>123.66</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3396,7 +3359,7 @@
         <v>107.03</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3425,7 +3388,7 @@
         <v>113.79</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3454,7 +3417,7 @@
         <v>129.43</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3483,7 +3446,7 @@
         <v>127.56</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3512,7 +3475,7 @@
         <v>106.87</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3541,7 +3504,7 @@
         <v>99.90000000000001</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -3574,28 +3537,28 @@
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3603,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -3621,10 +3584,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" t="s">
         <v>91</v>
-      </c>
-      <c r="I2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3632,7 +3595,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C3">
         <v>0.7857142857142857</v>
@@ -3650,10 +3613,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" t="s">
         <v>92</v>
-      </c>
-      <c r="I3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3661,7 +3624,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C4">
         <v>0.7142857142857143</v>
@@ -3679,10 +3642,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" t="s">
         <v>93</v>
-      </c>
-      <c r="I4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3690,7 +3653,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C5">
         <v>0.5714285714285714</v>
@@ -3708,10 +3671,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" t="s">
         <v>94</v>
-      </c>
-      <c r="I5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3719,7 +3682,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C6">
         <v>0.5</v>
@@ -3737,10 +3700,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" t="s">
         <v>91</v>
-      </c>
-      <c r="I6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3748,7 +3711,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C7">
         <v>0.5714285714285714</v>
@@ -3766,10 +3729,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" t="s">
         <v>94</v>
-      </c>
-      <c r="I7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3777,7 +3740,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C8">
         <v>0.5714285714285714</v>
@@ -3795,10 +3758,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" t="s">
         <v>94</v>
-      </c>
-      <c r="I8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3806,7 +3769,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C9">
         <v>0.5</v>
@@ -3824,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" t="s">
         <v>91</v>
-      </c>
-      <c r="I9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3835,7 +3798,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C10">
         <v>0.5</v>
@@ -3853,10 +3816,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" t="s">
         <v>91</v>
-      </c>
-      <c r="I10" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3864,7 +3827,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C11">
         <v>0.2857142857142857</v>
@@ -3882,10 +3845,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" t="s">
         <v>95</v>
-      </c>
-      <c r="I11" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3893,7 +3856,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C12">
         <v>0.2142857142857143</v>
@@ -3911,10 +3874,10 @@
         <v>100</v>
       </c>
       <c r="H12" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" t="s">
         <v>96</v>
-      </c>
-      <c r="I12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3922,7 +3885,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C13">
         <v>0.2857142857142857</v>
@@ -3940,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" t="s">
         <v>95</v>
-      </c>
-      <c r="I13" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3964,16 +3927,16 @@
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3987,13 +3950,13 @@
         <v>66</v>
       </c>
       <c r="D2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4007,13 +3970,13 @@
         <v>68</v>
       </c>
       <c r="D3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4027,13 +3990,13 @@
         <v>73</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4047,13 +4010,13 @@
         <v>67</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4061,19 +4024,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4081,19 +4044,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4110,10 +4073,10 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4127,13 +4090,13 @@
         <v>75</v>
       </c>
       <c r="D9">
-        <v>-5</v>
+        <v>-14</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4147,13 +4110,13 @@
         <v>72</v>
       </c>
       <c r="D10">
-        <v>-19</v>
+        <v>-17</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4173,7 +4136,7 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4187,13 +4150,13 @@
         <v>71</v>
       </c>
       <c r="D12">
-        <v>-25</v>
+        <v>-24</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4207,13 +4170,13 @@
         <v>76</v>
       </c>
       <c r="D13">
-        <v>-56</v>
+        <v>-67</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4223,60 +4186,63 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>128</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4322,11 +4288,14 @@
       <c r="O2">
         <v>51</v>
       </c>
-      <c r="P2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="P2">
+        <v>53</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4372,11 +4341,14 @@
       <c r="O3">
         <v>41</v>
       </c>
-      <c r="P3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="P3">
+        <v>43</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -4422,11 +4394,14 @@
       <c r="O4">
         <v>12</v>
       </c>
-      <c r="P4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="P4">
+        <v>16</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -4472,111 +4447,120 @@
       <c r="O5">
         <v>9</v>
       </c>
-      <c r="P5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="P5">
+        <v>12</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>-5</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>-11</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>-11</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="I6">
+        <v>-7</v>
+      </c>
+      <c r="J6">
+        <v>-7</v>
+      </c>
+      <c r="K6">
+        <v>-5</v>
+      </c>
+      <c r="L6">
         <v>1</v>
-      </c>
-      <c r="J6">
-        <v>6</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>6</v>
       </c>
       <c r="M6">
         <v>2</v>
       </c>
       <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
         <v>8</v>
       </c>
-      <c r="O6">
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="P6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7">
+      <c r="F7">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="E7">
-        <v>-5</v>
-      </c>
-      <c r="F7">
-        <v>-11</v>
-      </c>
-      <c r="G7">
-        <v>-11</v>
-      </c>
-      <c r="H7">
-        <v>-10</v>
-      </c>
-      <c r="I7">
-        <v>-7</v>
-      </c>
       <c r="J7">
-        <v>-7</v>
+        <v>6</v>
       </c>
       <c r="K7">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M7">
         <v>2</v>
       </c>
       <c r="N7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O7">
-        <v>4</v>
-      </c>
-      <c r="P7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>6</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -4622,11 +4606,14 @@
       <c r="O8">
         <v>2</v>
       </c>
-      <c r="P8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -4672,11 +4659,14 @@
       <c r="O9">
         <v>-5</v>
       </c>
-      <c r="P9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="P9">
+        <v>-14</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -4722,11 +4712,14 @@
       <c r="O10">
         <v>-19</v>
       </c>
-      <c r="P10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="P10">
+        <v>-17</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -4772,11 +4765,14 @@
       <c r="O11">
         <v>-20</v>
       </c>
-      <c r="P11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="P11">
+        <v>-20</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -4822,11 +4818,14 @@
       <c r="O12">
         <v>-25</v>
       </c>
-      <c r="P12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="P12">
+        <v>-24</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -4872,8 +4871,11 @@
       <c r="O13">
         <v>-56</v>
       </c>
-      <c r="P13" t="s">
-        <v>106</v>
+      <c r="P13">
+        <v>-67</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/The Mike Daisy Sports IQ League 2025.xlsx
+++ b/leagues/The Mike Daisy Sports IQ League 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="139">
   <si>
     <t>Njigba's in Paris</t>
   </si>
@@ -61,40 +61,43 @@
     <t>Matt Gay Team</t>
   </si>
   <si>
-    <t>7-8-0</t>
-  </si>
-  <si>
-    <t>10-5-0</t>
-  </si>
-  <si>
-    <t>8-7-0</t>
-  </si>
-  <si>
-    <t>11-4-0</t>
-  </si>
-  <si>
-    <t>5-10-0</t>
-  </si>
-  <si>
-    <t>4-11-0</t>
-  </si>
-  <si>
-    <t>6-9-0</t>
-  </si>
-  <si>
-    <t>12-3-0</t>
-  </si>
-  <si>
-    <t>3-12-0</t>
-  </si>
-  <si>
-    <t>9-6-0</t>
-  </si>
-  <si>
-    <t>1-14-0</t>
-  </si>
-  <si>
-    <t>2-13-0</t>
+    <t>7-9-0</t>
+  </si>
+  <si>
+    <t>10-6-0</t>
+  </si>
+  <si>
+    <t>8-8-0</t>
+  </si>
+  <si>
+    <t>11-5-0</t>
+  </si>
+  <si>
+    <t>5-11-0</t>
+  </si>
+  <si>
+    <t>4-12-0</t>
+  </si>
+  <si>
+    <t>13-3-0</t>
+  </si>
+  <si>
+    <t>6-10-0</t>
+  </si>
+  <si>
+    <t>12-4-0</t>
+  </si>
+  <si>
+    <t>9-7-0</t>
+  </si>
+  <si>
+    <t>2-14-0</t>
+  </si>
+  <si>
+    <t>3-13-0</t>
+  </si>
+  <si>
+    <t>1-15-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -343,28 +346,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑3</t>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓1</t>
   </si>
   <si>
     <t>↑6</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓11</t>
+    <t>↓6</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -410,6 +416,9 @@
   </si>
   <si>
     <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
   </si>
   <si>
     <t>Week</t>
@@ -840,37 +849,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -881,37 +890,37 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
         <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -922,22 +931,22 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
         <v>13</v>
@@ -949,7 +958,7 @@
         <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
@@ -963,25 +972,25 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
@@ -990,10 +999,10 @@
         <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1004,37 +1013,37 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" t="s">
-        <v>18</v>
-      </c>
       <c r="M6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1042,40 +1051,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" t="s">
         <v>14</v>
       </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" t="s">
-        <v>12</v>
-      </c>
       <c r="M7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1086,22 +1095,22 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -1113,10 +1122,10 @@
         <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1130,13 +1139,13 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -1206,40 +1215,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>15</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
         <v>21</v>
       </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>13</v>
       </c>
-      <c r="J11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" t="s">
-        <v>21</v>
-      </c>
       <c r="M11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1250,16 +1259,16 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -1268,13 +1277,13 @@
         <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
         <v>16</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
@@ -1294,19 +1303,19 @@
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
       </c>
       <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
         <v>22</v>
-      </c>
-      <c r="H13" t="s">
-        <v>23</v>
       </c>
       <c r="I13" t="s">
         <v>16</v>
@@ -1318,7 +1327,7 @@
         <v>17</v>
       </c>
       <c r="L13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M13" t="s">
         <v>17</v>
@@ -1339,25 +1348,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1443,25 +1452,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="F5">
-        <v>-18</v>
+        <v>17</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1479,13 +1488,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1493,13 +1502,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>6.416666666666667</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1507,13 +1516,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>6.416666666666667</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1521,13 +1530,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>6.833333333333333</v>
+        <v>7.25</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1535,13 +1544,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>7.083333333333333</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1549,13 +1558,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>7.166666666666667</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1563,10 +1572,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>7.416666666666667</v>
+        <v>7.75</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1580,10 +1589,10 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>7.5</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1591,13 +1600,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>7.5</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1608,10 +1617,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>8.083333333333334</v>
+        <v>8.5</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1622,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.416666666666666</v>
+        <v>8.583333333333334</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1633,13 +1642,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>8.5</v>
+        <v>9.083333333333334</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1647,13 +1656,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>8.666666666666666</v>
+        <v>9.083333333333334</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1671,16 +1680,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1691,13 +1700,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>10.83333333333333</v>
+        <v>11.5</v>
       </c>
       <c r="D2">
-        <v>-1.166666666666666</v>
+        <v>-1.5</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1708,10 +1717,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>10.66666666666667</v>
+        <v>11.16666666666667</v>
       </c>
       <c r="D3">
-        <v>-0.3333333333333339</v>
+        <v>0.1666666666666661</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -1725,13 +1734,13 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>8.916666666666666</v>
+        <v>9.916666666666666</v>
       </c>
       <c r="D4">
         <v>0.9166666666666661</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1756,13 +1765,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>7.833333333333333</v>
+        <v>8.583333333333334</v>
       </c>
       <c r="D6">
-        <v>-0.166666666666667</v>
+        <v>0.5833333333333339</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -1773,16 +1782,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>7.666666666666667</v>
+        <v>8.416666666666666</v>
       </c>
       <c r="D7">
-        <v>0.666666666666667</v>
+        <v>-0.5833333333333339</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1790,16 +1799,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>7.583333333333333</v>
+        <v>8.25</v>
       </c>
       <c r="D8">
-        <v>-0.416666666666667</v>
+        <v>-0.75</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1807,16 +1816,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>7.25</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D9">
-        <v>-1.75</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1824,16 +1833,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>6.75</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D10">
-        <v>-0.25</v>
+        <v>-1.666666666666667</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1844,13 +1853,13 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1861,10 +1870,10 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>5.25</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D12">
-        <v>1.25</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
@@ -1878,10 +1887,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>2.916666666666667</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D13">
-        <v>-1.083333333333333</v>
+        <v>-0.8333333333333335</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
@@ -1902,46 +1911,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2487,49 +2496,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2537,46 +2546,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="C2">
-        <v>64.5</v>
+        <v>63.7</v>
       </c>
       <c r="D2">
-        <v>46.3</v>
+        <v>46.5</v>
       </c>
       <c r="E2">
-        <v>71</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="F2">
-        <v>55.60000000000001</v>
+        <v>58.5</v>
       </c>
       <c r="G2">
-        <v>37.2</v>
+        <v>41.4</v>
       </c>
       <c r="H2">
-        <v>56.00000000000001</v>
+        <v>54.1</v>
       </c>
       <c r="I2">
-        <v>37.4</v>
+        <v>35.2</v>
       </c>
       <c r="J2">
-        <v>48.7</v>
+        <v>47.8</v>
       </c>
       <c r="K2">
-        <v>65.40000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="L2">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="M2">
-        <v>69.69999999999999</v>
+        <v>68.10000000000001</v>
       </c>
       <c r="N2">
-        <v>79</v>
+        <v>78.2</v>
       </c>
       <c r="O2">
-        <v>67.10000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="P2">
         <v>100</v>
@@ -2590,31 +2599,31 @@
         <v>100</v>
       </c>
       <c r="C3">
-        <v>92.2</v>
+        <v>91.7</v>
       </c>
       <c r="D3">
-        <v>98.8</v>
+        <v>99.3</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
       <c r="F3">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H3">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I3">
-        <v>99.59999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="J3">
         <v>99.90000000000001</v>
       </c>
       <c r="K3">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="L3">
         <v>100</v>
@@ -2637,40 +2646,40 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>52.40000000000001</v>
+        <v>58.4</v>
       </c>
       <c r="C4">
-        <v>89.09999999999999</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="D4">
-        <v>67.40000000000001</v>
+        <v>66</v>
       </c>
       <c r="E4">
-        <v>51.7</v>
+        <v>49.5</v>
       </c>
       <c r="F4">
-        <v>70.59999999999999</v>
+        <v>73.7</v>
       </c>
       <c r="G4">
-        <v>88.3</v>
+        <v>86.8</v>
       </c>
       <c r="H4">
-        <v>93.60000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="I4">
-        <v>96.7</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="J4">
-        <v>94.8</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="K4">
-        <v>98.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="L4">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="M4">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="N4">
         <v>100</v>
@@ -2687,43 +2696,43 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C5">
-        <v>67.80000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="D5">
-        <v>79.60000000000001</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="E5">
-        <v>83.3</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="F5">
-        <v>92.2</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="G5">
-        <v>95.19999999999999</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="H5">
-        <v>94.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="I5">
-        <v>98.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="J5">
-        <v>99.7</v>
+        <v>99</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="L5">
         <v>100</v>
       </c>
       <c r="M5">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="N5">
-        <v>99.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="O5">
         <v>100</v>
@@ -2737,46 +2746,46 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="C6">
-        <v>88.8</v>
+        <v>88</v>
       </c>
       <c r="D6">
-        <v>94.5</v>
+        <v>96</v>
       </c>
       <c r="E6">
-        <v>98.8</v>
+        <v>98.5</v>
       </c>
       <c r="F6">
-        <v>97.89999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="G6">
-        <v>94.19999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="H6">
-        <v>84.2</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="I6">
-        <v>69</v>
+        <v>69.19999999999999</v>
       </c>
       <c r="J6">
-        <v>87.09999999999999</v>
+        <v>86.5</v>
       </c>
       <c r="K6">
-        <v>75.2</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="L6">
-        <v>93.89999999999999</v>
+        <v>94</v>
       </c>
       <c r="M6">
-        <v>96.89999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="N6">
-        <v>92.30000000000001</v>
+        <v>92.2</v>
       </c>
       <c r="O6">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P6">
         <v>100</v>
@@ -2787,43 +2796,43 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>85</v>
+        <v>82.8</v>
       </c>
       <c r="C7">
-        <v>65.90000000000001</v>
+        <v>65</v>
       </c>
       <c r="D7">
-        <v>69.89999999999999</v>
+        <v>70.89999999999999</v>
       </c>
       <c r="E7">
-        <v>69.09999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="F7">
-        <v>74.2</v>
+        <v>69.3</v>
       </c>
       <c r="G7">
-        <v>74.09999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="H7">
-        <v>90.10000000000001</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="I7">
-        <v>97.09999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="J7">
-        <v>97.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="K7">
-        <v>98.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="L7">
-        <v>93.7</v>
+        <v>93.30000000000001</v>
       </c>
       <c r="M7">
-        <v>75.8</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="N7">
-        <v>84.59999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="O7">
         <v>100</v>
@@ -2837,43 +2846,43 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>39.8</v>
+        <v>38.3</v>
       </c>
       <c r="C8">
-        <v>76.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="D8">
-        <v>89.09999999999999</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="E8">
-        <v>77.10000000000001</v>
+        <v>78.60000000000001</v>
       </c>
       <c r="F8">
-        <v>79.7</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="G8">
-        <v>90.3</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="H8">
-        <v>97.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="I8">
-        <v>93.5</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="J8">
-        <v>97.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="L8">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="M8">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="N8">
-        <v>96</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="O8">
         <v>100</v>
@@ -2887,46 +2896,46 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="C9">
-        <v>85.2</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="D9">
-        <v>29.1</v>
+        <v>26.2</v>
       </c>
       <c r="E9">
-        <v>18.9</v>
+        <v>20.2</v>
       </c>
       <c r="F9">
-        <v>28.4</v>
+        <v>27.1</v>
       </c>
       <c r="G9">
-        <v>60.6</v>
+        <v>58.9</v>
       </c>
       <c r="H9">
-        <v>35.8</v>
+        <v>38.2</v>
       </c>
       <c r="I9">
-        <v>59.2</v>
+        <v>58.09999999999999</v>
       </c>
       <c r="J9">
-        <v>78.60000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="K9">
-        <v>63.3</v>
+        <v>64.2</v>
       </c>
       <c r="L9">
-        <v>55.40000000000001</v>
+        <v>52.90000000000001</v>
       </c>
       <c r="M9">
-        <v>61.1</v>
+        <v>62.6</v>
       </c>
       <c r="N9">
-        <v>67.30000000000001</v>
+        <v>67.60000000000001</v>
       </c>
       <c r="O9">
-        <v>93.60000000000001</v>
+        <v>91.7</v>
       </c>
       <c r="P9">
         <v>100</v>
@@ -2937,46 +2946,46 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>11.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C10">
-        <v>45.2</v>
+        <v>46.2</v>
       </c>
       <c r="D10">
-        <v>78.90000000000001</v>
+        <v>78.10000000000001</v>
       </c>
       <c r="E10">
-        <v>93.60000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="F10">
-        <v>88.90000000000001</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="G10">
-        <v>65.3</v>
+        <v>61</v>
       </c>
       <c r="H10">
-        <v>46.40000000000001</v>
+        <v>47.2</v>
       </c>
       <c r="I10">
-        <v>68.2</v>
+        <v>68.60000000000001</v>
       </c>
       <c r="J10">
-        <v>48.3</v>
+        <v>50.9</v>
       </c>
       <c r="K10">
-        <v>75.7</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="L10">
-        <v>88.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="M10">
-        <v>93.2</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="N10">
-        <v>80.90000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="O10">
-        <v>49.3</v>
+        <v>50.6</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2987,40 +2996,40 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>30.2</v>
+        <v>34</v>
       </c>
       <c r="C11">
-        <v>44.6</v>
+        <v>47.5</v>
       </c>
       <c r="D11">
-        <v>33.5</v>
+        <v>33.90000000000001</v>
       </c>
       <c r="E11">
-        <v>47.59999999999999</v>
+        <v>45.4</v>
       </c>
       <c r="F11">
-        <v>27.2</v>
+        <v>31.1</v>
       </c>
       <c r="G11">
-        <v>46.7</v>
+        <v>48.1</v>
       </c>
       <c r="H11">
-        <v>79.3</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="I11">
-        <v>66.90000000000001</v>
+        <v>69.39999999999999</v>
       </c>
       <c r="J11">
-        <v>44</v>
+        <v>45.1</v>
       </c>
       <c r="K11">
-        <v>22.8</v>
+        <v>22.2</v>
       </c>
       <c r="L11">
-        <v>14.9</v>
+        <v>15.5</v>
       </c>
       <c r="M11">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -3037,37 +3046,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>96</v>
+        <v>97.3</v>
       </c>
       <c r="C12">
-        <v>77.2</v>
+        <v>76.5</v>
       </c>
       <c r="D12">
-        <v>82.19999999999999</v>
+        <v>84</v>
       </c>
       <c r="E12">
-        <v>76</v>
+        <v>77.8</v>
       </c>
       <c r="F12">
-        <v>75.7</v>
+        <v>77.5</v>
       </c>
       <c r="G12">
-        <v>25.7</v>
+        <v>26.2</v>
       </c>
       <c r="H12">
-        <v>11.7</v>
+        <v>10.4</v>
       </c>
       <c r="I12">
-        <v>6.7</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="J12">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="K12">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="L12">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -3087,37 +3096,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>69.89999999999999</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="C13">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D13">
-        <v>30.7</v>
+        <v>26.8</v>
       </c>
       <c r="E13">
-        <v>12.9</v>
+        <v>11.2</v>
       </c>
       <c r="F13">
-        <v>9.700000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G13">
-        <v>23.4</v>
+        <v>22.2</v>
       </c>
       <c r="H13">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="I13">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="J13">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="K13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -3147,28 +3156,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3179,13 +3188,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2">
         <v>118.37</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3208,13 +3217,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D3">
         <v>138.16</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3237,13 +3246,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D4">
         <v>115.59</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3266,13 +3275,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5">
         <v>138.33</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3295,13 +3304,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D6">
         <v>118.7</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3324,13 +3333,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D7">
         <v>123.66</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3353,13 +3362,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8">
         <v>107.03</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3382,13 +3391,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9">
         <v>113.79</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3411,13 +3420,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D10">
         <v>129.43</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3440,13 +3449,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D11">
         <v>127.56</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3469,13 +3478,13 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D12">
         <v>106.87</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3498,13 +3507,13 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D13">
         <v>99.90000000000001</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -3534,31 +3543,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3566,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -3584,10 +3593,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3595,7 +3604,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C3">
         <v>0.7857142857142857</v>
@@ -3613,10 +3622,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3624,7 +3633,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4">
         <v>0.7142857142857143</v>
@@ -3642,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3653,7 +3662,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C5">
         <v>0.5714285714285714</v>
@@ -3671,10 +3680,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3682,7 +3691,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C6">
         <v>0.5</v>
@@ -3700,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3711,7 +3720,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C7">
         <v>0.5714285714285714</v>
@@ -3729,10 +3738,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3740,7 +3749,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8">
         <v>0.5714285714285714</v>
@@ -3758,10 +3767,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3769,7 +3778,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9">
         <v>0.5</v>
@@ -3787,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3798,7 +3807,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C10">
         <v>0.5</v>
@@ -3816,10 +3825,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3827,7 +3836,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C11">
         <v>0.2857142857142857</v>
@@ -3845,10 +3854,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3856,7 +3865,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C12">
         <v>0.2142857142857143</v>
@@ -3874,10 +3883,10 @@
         <v>100</v>
       </c>
       <c r="H12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3885,7 +3894,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C13">
         <v>0.2857142857142857</v>
@@ -3903,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3924,19 +3933,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3947,16 +3956,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3967,16 +3976,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3984,19 +3993,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4004,19 +4013,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4024,19 +4033,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4044,19 +4053,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4067,16 +4076,16 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4084,19 +4093,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D9">
         <v>-14</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4104,19 +4113,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D10">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4124,19 +4133,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D11">
-        <v>-20</v>
+        <v>-21</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4147,16 +4156,16 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D12">
-        <v>-24</v>
+        <v>-26</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4167,16 +4176,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D13">
-        <v>-67</v>
+        <v>-71</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4186,63 +4195,66 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+        <v>131</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4291,11 +4303,14 @@
       <c r="P2">
         <v>53</v>
       </c>
-      <c r="Q2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="Q2">
+        <v>51</v>
+      </c>
+      <c r="R2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4344,223 +4359,238 @@
       <c r="P3">
         <v>43</v>
       </c>
-      <c r="Q3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="Q3">
+        <v>48</v>
+      </c>
+      <c r="R3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>-5</v>
+      </c>
+      <c r="F4">
+        <v>-11</v>
+      </c>
+      <c r="G4">
+        <v>-11</v>
+      </c>
+      <c r="H4">
+        <v>-10</v>
+      </c>
+      <c r="I4">
+        <v>-7</v>
+      </c>
+      <c r="J4">
+        <v>-7</v>
+      </c>
+      <c r="K4">
+        <v>-5</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4">
+        <v>17</v>
+      </c>
+      <c r="R4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>8</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5">
+        <v>6</v>
+      </c>
+      <c r="Q5">
+        <v>14</v>
+      </c>
+      <c r="R5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
         <v>-4</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>-3</v>
       </c>
-      <c r="D4">
+      <c r="D6">
         <v>-6</v>
       </c>
-      <c r="E4">
+      <c r="E6">
         <v>-6</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="H6">
         <v>5</v>
       </c>
-      <c r="I4">
+      <c r="I6">
         <v>6</v>
       </c>
-      <c r="J4">
+      <c r="J6">
         <v>11</v>
       </c>
-      <c r="K4">
+      <c r="K6">
         <v>21</v>
       </c>
-      <c r="L4">
+      <c r="L6">
         <v>23</v>
       </c>
-      <c r="M4">
+      <c r="M6">
         <v>17</v>
       </c>
-      <c r="N4">
+      <c r="N6">
         <v>15</v>
       </c>
-      <c r="O4">
+      <c r="O6">
         <v>12</v>
       </c>
-      <c r="P4">
+      <c r="P6">
         <v>16</v>
       </c>
-      <c r="Q4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="1" t="s">
+      <c r="Q6">
+        <v>13</v>
+      </c>
+      <c r="R6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B7">
         <v>-8</v>
       </c>
-      <c r="C5">
+      <c r="C7">
         <v>-7</v>
       </c>
-      <c r="D5">
+      <c r="D7">
         <v>-4</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="F7">
         <v>8</v>
       </c>
-      <c r="G5">
+      <c r="G7">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="H7">
         <v>3</v>
       </c>
-      <c r="I5">
+      <c r="I7">
         <v>6</v>
       </c>
-      <c r="J5">
+      <c r="J7">
         <v>9</v>
       </c>
-      <c r="K5">
+      <c r="K7">
         <v>13</v>
       </c>
-      <c r="L5">
+      <c r="L7">
         <v>7</v>
       </c>
-      <c r="M5">
+      <c r="M7">
         <v>14</v>
       </c>
-      <c r="N5">
+      <c r="N7">
         <v>14</v>
       </c>
-      <c r="O5">
+      <c r="O7">
         <v>9</v>
       </c>
-      <c r="P5">
+      <c r="P7">
         <v>12</v>
       </c>
-      <c r="Q5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
+      <c r="Q7">
         <v>8</v>
       </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>-5</v>
-      </c>
-      <c r="F6">
-        <v>-11</v>
-      </c>
-      <c r="G6">
-        <v>-11</v>
-      </c>
-      <c r="H6">
-        <v>-10</v>
-      </c>
-      <c r="I6">
-        <v>-7</v>
-      </c>
-      <c r="J6">
-        <v>-7</v>
-      </c>
-      <c r="K6">
-        <v>-5</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6">
-        <v>4</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="P6">
-        <v>10</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>6</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>6</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="N7">
-        <v>8</v>
-      </c>
-      <c r="O7">
-        <v>6</v>
-      </c>
-      <c r="P7">
-        <v>6</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -4609,170 +4639,182 @@
       <c r="P8">
         <v>2</v>
       </c>
-      <c r="Q8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>-3</v>
+      </c>
+      <c r="C9">
+        <v>-2</v>
+      </c>
+      <c r="D9">
+        <v>-9</v>
+      </c>
+      <c r="E9">
+        <v>-7</v>
+      </c>
+      <c r="F9">
+        <v>-15</v>
+      </c>
+      <c r="G9">
+        <v>-19</v>
+      </c>
+      <c r="H9">
+        <v>-18</v>
+      </c>
+      <c r="I9">
+        <v>-22</v>
+      </c>
+      <c r="J9">
+        <v>-28</v>
+      </c>
+      <c r="K9">
+        <v>-34</v>
+      </c>
+      <c r="L9">
+        <v>-32</v>
+      </c>
+      <c r="M9">
+        <v>-30</v>
+      </c>
+      <c r="N9">
+        <v>-28</v>
+      </c>
+      <c r="O9">
+        <v>-20</v>
+      </c>
+      <c r="P9">
+        <v>-20</v>
+      </c>
+      <c r="Q9">
+        <v>-14</v>
+      </c>
+      <c r="R9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>4</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>6</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>11</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>4</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>2</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>-1</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>-8</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>3</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>2</v>
       </c>
-      <c r="N9">
+      <c r="N10">
         <v>-7</v>
       </c>
-      <c r="O9">
+      <c r="O10">
         <v>-5</v>
       </c>
-      <c r="P9">
+      <c r="P10">
         <v>-14</v>
       </c>
-      <c r="Q9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
+      <c r="Q10">
+        <v>-20</v>
+      </c>
+      <c r="R10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>-2</v>
-      </c>
-      <c r="C10">
-        <v>-2</v>
-      </c>
-      <c r="D10">
-        <v>-7</v>
-      </c>
-      <c r="E10">
-        <v>-2</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <v>7</v>
-      </c>
-      <c r="I10">
-        <v>13</v>
-      </c>
-      <c r="J10">
-        <v>16</v>
-      </c>
-      <c r="K10">
-        <v>9</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>-5</v>
-      </c>
-      <c r="N10">
-        <v>-12</v>
-      </c>
-      <c r="O10">
-        <v>-19</v>
-      </c>
-      <c r="P10">
-        <v>-17</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>-3</v>
       </c>
       <c r="C11">
         <v>-2</v>
       </c>
       <c r="D11">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="E11">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="F11">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>13</v>
+      </c>
+      <c r="J11">
+        <v>16</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>-5</v>
+      </c>
+      <c r="N11">
+        <v>-12</v>
+      </c>
+      <c r="O11">
         <v>-19</v>
       </c>
-      <c r="H11">
-        <v>-18</v>
-      </c>
-      <c r="I11">
-        <v>-22</v>
-      </c>
-      <c r="J11">
-        <v>-28</v>
-      </c>
-      <c r="K11">
-        <v>-34</v>
-      </c>
-      <c r="L11">
-        <v>-32</v>
-      </c>
-      <c r="M11">
-        <v>-30</v>
-      </c>
-      <c r="N11">
-        <v>-28</v>
-      </c>
-      <c r="O11">
-        <v>-20</v>
-      </c>
       <c r="P11">
-        <v>-20</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>-17</v>
+      </c>
+      <c r="Q11">
+        <v>-21</v>
+      </c>
+      <c r="R11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -4821,11 +4863,14 @@
       <c r="P12">
         <v>-24</v>
       </c>
-      <c r="Q12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="Q12">
+        <v>-26</v>
+      </c>
+      <c r="R12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -4874,8 +4919,11 @@
       <c r="P13">
         <v>-67</v>
       </c>
-      <c r="Q13" t="s">
-        <v>113</v>
+      <c r="Q13">
+        <v>-71</v>
+      </c>
+      <c r="R13" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/The Mike Daisy Sports IQ League 2025.xlsx
+++ b/leagues/The Mike Daisy Sports IQ League 2025.xlsx
@@ -2546,46 +2546,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.1</v>
+        <v>14.5</v>
       </c>
       <c r="C2">
-        <v>63.7</v>
+        <v>63.1</v>
       </c>
       <c r="D2">
-        <v>46.5</v>
+        <v>46.8</v>
       </c>
       <c r="E2">
-        <v>73.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="F2">
-        <v>58.5</v>
+        <v>57.4</v>
       </c>
       <c r="G2">
-        <v>41.4</v>
+        <v>40.8</v>
       </c>
       <c r="H2">
-        <v>54.1</v>
+        <v>51.3</v>
       </c>
       <c r="I2">
-        <v>35.2</v>
+        <v>37.2</v>
       </c>
       <c r="J2">
-        <v>47.8</v>
+        <v>51.3</v>
       </c>
       <c r="K2">
-        <v>65.5</v>
+        <v>65.8</v>
       </c>
       <c r="L2">
-        <v>52.7</v>
+        <v>54.50000000000001</v>
       </c>
       <c r="M2">
-        <v>68.10000000000001</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="N2">
-        <v>78.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="O2">
-        <v>66.7</v>
+        <v>66</v>
       </c>
       <c r="P2">
         <v>100</v>
@@ -2599,31 +2599,31 @@
         <v>100</v>
       </c>
       <c r="C3">
-        <v>91.7</v>
+        <v>91.3</v>
       </c>
       <c r="D3">
-        <v>99.3</v>
+        <v>99</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="G3">
-        <v>99.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="H3">
         <v>99.40000000000001</v>
       </c>
       <c r="I3">
-        <v>99.2</v>
+        <v>99.8</v>
       </c>
       <c r="J3">
         <v>99.90000000000001</v>
       </c>
       <c r="K3">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="L3">
         <v>100</v>
@@ -2646,40 +2646,40 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>58.4</v>
+        <v>58.7</v>
       </c>
       <c r="C4">
-        <v>88.90000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="D4">
-        <v>66</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E4">
-        <v>49.5</v>
+        <v>48.3</v>
       </c>
       <c r="F4">
-        <v>73.7</v>
+        <v>73.3</v>
       </c>
       <c r="G4">
-        <v>86.8</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="H4">
-        <v>92.7</v>
+        <v>92.80000000000001</v>
       </c>
       <c r="I4">
-        <v>96.89999999999999</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="J4">
-        <v>94.19999999999999</v>
+        <v>93.30000000000001</v>
       </c>
       <c r="K4">
-        <v>99.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="L4">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="M4">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="N4">
         <v>100</v>
@@ -2696,31 +2696,31 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C5">
-        <v>67.5</v>
+        <v>67.30000000000001</v>
       </c>
       <c r="D5">
-        <v>80.90000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="E5">
-        <v>82.89999999999999</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="F5">
-        <v>93.60000000000001</v>
+        <v>92.2</v>
       </c>
       <c r="G5">
-        <v>96.39999999999999</v>
+        <v>96</v>
       </c>
       <c r="H5">
-        <v>95</v>
+        <v>94.69999999999999</v>
       </c>
       <c r="I5">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="J5">
-        <v>99</v>
+        <v>99.3</v>
       </c>
       <c r="K5">
         <v>99.90000000000001</v>
@@ -2729,10 +2729,10 @@
         <v>100</v>
       </c>
       <c r="M5">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="N5">
-        <v>99.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="O5">
         <v>100</v>
@@ -2746,46 +2746,46 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>87.5</v>
       </c>
       <c r="D6">
-        <v>96</v>
+        <v>96.5</v>
       </c>
       <c r="E6">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F6">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G6">
-        <v>93.7</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="H6">
-        <v>84.59999999999999</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="I6">
-        <v>69.19999999999999</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="J6">
-        <v>86.5</v>
+        <v>85</v>
       </c>
       <c r="K6">
-        <v>74.90000000000001</v>
+        <v>74.8</v>
       </c>
       <c r="L6">
-        <v>94</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="M6">
-        <v>97.2</v>
+        <v>97.7</v>
       </c>
       <c r="N6">
-        <v>92.2</v>
+        <v>92.10000000000001</v>
       </c>
       <c r="O6">
-        <v>91</v>
+        <v>90.8</v>
       </c>
       <c r="P6">
         <v>100</v>
@@ -2796,43 +2796,43 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>82.8</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="C7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7">
+        <v>69.3</v>
+      </c>
+      <c r="E7">
         <v>70.89999999999999</v>
       </c>
-      <c r="E7">
-        <v>68.7</v>
-      </c>
       <c r="F7">
-        <v>69.3</v>
+        <v>71.2</v>
       </c>
       <c r="G7">
-        <v>77.3</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="H7">
-        <v>91.90000000000001</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="I7">
-        <v>98.5</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="J7">
-        <v>96.09999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="K7">
-        <v>98.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="L7">
-        <v>93.30000000000001</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="M7">
-        <v>75.40000000000001</v>
+        <v>74.8</v>
       </c>
       <c r="N7">
-        <v>84.3</v>
+        <v>85.5</v>
       </c>
       <c r="O7">
         <v>100</v>
@@ -2846,43 +2846,43 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>38.3</v>
+        <v>37.1</v>
       </c>
       <c r="C8">
-        <v>77</v>
+        <v>78.7</v>
       </c>
       <c r="D8">
-        <v>91.40000000000001</v>
+        <v>91.7</v>
       </c>
       <c r="E8">
-        <v>78.60000000000001</v>
+        <v>81</v>
       </c>
       <c r="F8">
-        <v>74.09999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="G8">
-        <v>88.90000000000001</v>
+        <v>89.3</v>
       </c>
       <c r="H8">
-        <v>96.59999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="I8">
-        <v>94.09999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="J8">
-        <v>98.40000000000001</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="K8">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="L8">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="M8">
-        <v>98.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="N8">
-        <v>96.09999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="O8">
         <v>100</v>
@@ -2896,46 +2896,46 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="C9">
-        <v>84.59999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="D9">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="E9">
-        <v>20.2</v>
+        <v>20.7</v>
       </c>
       <c r="F9">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="G9">
-        <v>58.9</v>
+        <v>57.09999999999999</v>
       </c>
       <c r="H9">
-        <v>38.2</v>
+        <v>36.4</v>
       </c>
       <c r="I9">
-        <v>58.09999999999999</v>
+        <v>56.8</v>
       </c>
       <c r="J9">
-        <v>78.7</v>
+        <v>77</v>
       </c>
       <c r="K9">
-        <v>64.2</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="L9">
-        <v>52.90000000000001</v>
+        <v>53.2</v>
       </c>
       <c r="M9">
-        <v>62.6</v>
+        <v>61.1</v>
       </c>
       <c r="N9">
-        <v>67.60000000000001</v>
+        <v>71</v>
       </c>
       <c r="O9">
-        <v>91.7</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="P9">
         <v>100</v>
@@ -2946,46 +2946,46 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>9.300000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="C10">
-        <v>46.2</v>
+        <v>46.1</v>
       </c>
       <c r="D10">
-        <v>78.10000000000001</v>
+        <v>80.80000000000001</v>
       </c>
       <c r="E10">
-        <v>93.8</v>
+        <v>93.2</v>
       </c>
       <c r="F10">
-        <v>88.40000000000001</v>
+        <v>90.10000000000001</v>
       </c>
       <c r="G10">
-        <v>61</v>
+        <v>61.8</v>
       </c>
       <c r="H10">
-        <v>47.2</v>
+        <v>52.3</v>
       </c>
       <c r="I10">
-        <v>68.60000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="J10">
-        <v>50.9</v>
+        <v>50</v>
       </c>
       <c r="K10">
-        <v>73.40000000000001</v>
+        <v>74</v>
       </c>
       <c r="L10">
-        <v>91.2</v>
+        <v>88.8</v>
       </c>
       <c r="M10">
-        <v>93.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="N10">
-        <v>82.09999999999999</v>
+        <v>81.10000000000001</v>
       </c>
       <c r="O10">
-        <v>50.6</v>
+        <v>51.3</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2996,40 +2996,40 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>34</v>
+        <v>30.8</v>
       </c>
       <c r="C11">
-        <v>47.5</v>
+        <v>46</v>
       </c>
       <c r="D11">
-        <v>33.90000000000001</v>
+        <v>35.8</v>
       </c>
       <c r="E11">
-        <v>45.4</v>
+        <v>43.5</v>
       </c>
       <c r="F11">
-        <v>31.1</v>
+        <v>29.5</v>
       </c>
       <c r="G11">
-        <v>48.1</v>
+        <v>45.3</v>
       </c>
       <c r="H11">
-        <v>78.90000000000001</v>
+        <v>78.60000000000001</v>
       </c>
       <c r="I11">
-        <v>69.39999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="J11">
-        <v>45.1</v>
+        <v>45.8</v>
       </c>
       <c r="K11">
-        <v>22.2</v>
+        <v>22.9</v>
       </c>
       <c r="L11">
-        <v>15.5</v>
+        <v>16.3</v>
       </c>
       <c r="M11">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -3046,37 +3046,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>97.3</v>
+        <v>97</v>
       </c>
       <c r="C12">
-        <v>76.5</v>
+        <v>78.7</v>
       </c>
       <c r="D12">
-        <v>84</v>
+        <v>83.8</v>
       </c>
       <c r="E12">
-        <v>77.8</v>
+        <v>76.8</v>
       </c>
       <c r="F12">
-        <v>77.5</v>
+        <v>76.2</v>
       </c>
       <c r="G12">
-        <v>26.2</v>
+        <v>27.3</v>
       </c>
       <c r="H12">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="I12">
-        <v>4.399999999999999</v>
+        <v>5.3</v>
       </c>
       <c r="J12">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="K12">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="L12">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -3096,37 +3096,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>65.40000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C13">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="D13">
-        <v>26.8</v>
+        <v>25.8</v>
       </c>
       <c r="E13">
-        <v>11.2</v>
+        <v>10.2</v>
       </c>
       <c r="F13">
-        <v>8.300000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="G13">
-        <v>22.2</v>
+        <v>24.1</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="I13">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="J13">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="L13">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M13">
         <v>0</v>

--- a/leagues/The Mike Daisy Sports IQ League 2025.xlsx
+++ b/leagues/The Mike Daisy Sports IQ League 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="136">
   <si>
     <t>Njigba's in Paris</t>
   </si>
@@ -61,43 +61,40 @@
     <t>Matt Gay Team</t>
   </si>
   <si>
-    <t>7-9-0</t>
-  </si>
-  <si>
-    <t>10-6-0</t>
-  </si>
-  <si>
-    <t>8-8-0</t>
-  </si>
-  <si>
-    <t>11-5-0</t>
-  </si>
-  <si>
-    <t>5-11-0</t>
-  </si>
-  <si>
-    <t>4-12-0</t>
-  </si>
-  <si>
-    <t>13-3-0</t>
-  </si>
-  <si>
-    <t>6-10-0</t>
-  </si>
-  <si>
-    <t>12-4-0</t>
-  </si>
-  <si>
-    <t>9-7-0</t>
-  </si>
-  <si>
-    <t>2-14-0</t>
-  </si>
-  <si>
-    <t>3-13-0</t>
-  </si>
-  <si>
-    <t>1-15-0</t>
+    <t>8-9-0</t>
+  </si>
+  <si>
+    <t>11-6-0</t>
+  </si>
+  <si>
+    <t>9-8-0</t>
+  </si>
+  <si>
+    <t>12-5-0</t>
+  </si>
+  <si>
+    <t>5-12-0</t>
+  </si>
+  <si>
+    <t>7-10-0</t>
+  </si>
+  <si>
+    <t>13-4-0</t>
+  </si>
+  <si>
+    <t>6-11-0</t>
+  </si>
+  <si>
+    <t>4-13-0</t>
+  </si>
+  <si>
+    <t>10-7-0</t>
+  </si>
+  <si>
+    <t>2-15-0</t>
+  </si>
+  <si>
+    <t>3-14-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -337,88 +334,82 @@
     <t>3.0-11.0</t>
   </si>
   <si>
-    <t>Owners</t>
-  </si>
-  <si>
-    <t>Louie Power Index (LPI)</t>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
+  </si>
+  <si>
+    <t>Week 17</t>
   </si>
   <si>
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑8</t>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓1</t>
   </si>
   <si>
     <t>↓3</t>
   </si>
   <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
     <t>↓4</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>Week 1</t>
-  </si>
-  <si>
-    <t>Week 2</t>
-  </si>
-  <si>
-    <t>Week 3</t>
-  </si>
-  <si>
-    <t>Week 4</t>
-  </si>
-  <si>
-    <t>Week 5</t>
-  </si>
-  <si>
-    <t>Week 6</t>
-  </si>
-  <si>
-    <t>Week 7</t>
-  </si>
-  <si>
-    <t>Week 8</t>
-  </si>
-  <si>
-    <t>Week 9</t>
-  </si>
-  <si>
-    <t>Week 10</t>
-  </si>
-  <si>
-    <t>Week 11</t>
-  </si>
-  <si>
-    <t>Week 12</t>
-  </si>
-  <si>
-    <t>Week 13</t>
-  </si>
-  <si>
-    <t>Week 14</t>
-  </si>
-  <si>
-    <t>Week 15</t>
-  </si>
-  <si>
-    <t>Week 16</t>
   </si>
   <si>
     <t>Week</t>
@@ -849,19 +840,19 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
@@ -876,7 +867,7 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M2" t="s">
         <v>13</v>
@@ -896,13 +887,13 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
         <v>18</v>
@@ -911,16 +902,16 @@
         <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -937,10 +928,10 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -952,7 +943,7 @@
         <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
         <v>13</v>
@@ -972,13 +963,13 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -987,13 +978,13 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
         <v>15</v>
@@ -1013,7 +1004,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1022,25 +1013,25 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M6" t="s">
         <v>21</v>
@@ -1054,10 +1045,10 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -1092,40 +1083,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
         <v>16</v>
       </c>
       <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
         <v>12</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" t="s">
-        <v>14</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
       </c>
       <c r="M8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1139,13 +1130,13 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -1157,7 +1148,7 @@
         <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
         <v>14</v>
@@ -1174,37 +1165,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
         <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
       <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
         <v>21</v>
       </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
         <v>21</v>
       </c>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
       <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" t="s">
         <v>14</v>
       </c>
-      <c r="K10" t="s">
-        <v>21</v>
-      </c>
       <c r="L10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M10" t="s">
         <v>13</v>
@@ -1230,7 +1221,7 @@
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
@@ -1239,7 +1230,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
         <v>21</v>
@@ -1259,10 +1250,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
         <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
       </c>
       <c r="E12" t="s">
         <v>19</v>
@@ -1286,10 +1277,10 @@
         <v>19</v>
       </c>
       <c r="L12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" t="s">
         <v>17</v>
-      </c>
-      <c r="M12" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1297,13 +1288,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
         <v>23</v>
@@ -1312,7 +1303,7 @@
         <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H13" t="s">
         <v>22</v>
@@ -1321,16 +1312,16 @@
         <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1340,7 +1331,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1348,25 +1339,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1400,25 +1391,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F3">
-        <v>-12</v>
+        <v>-17</v>
       </c>
       <c r="G3">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1426,25 +1417,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>-28</v>
+        <v>-75</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>-26</v>
       </c>
       <c r="G4">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1452,24 +1443,76 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>31</v>
+      </c>
+      <c r="F5">
+        <v>-12</v>
+      </c>
+      <c r="G5">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>-28</v>
+      </c>
+      <c r="F6">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="E5">
-        <v>48</v>
-      </c>
-      <c r="F5">
-        <v>17</v>
-      </c>
-      <c r="G5">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="E7">
+        <v>53</v>
+      </c>
+      <c r="F7">
+        <v>21</v>
+      </c>
+      <c r="G7">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1488,13 +1531,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1502,13 +1545,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>7.083333333333333</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1519,10 +1562,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>7.166666666666667</v>
+        <v>7.5</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1530,13 +1573,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>7.25</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1547,7 +1590,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>7.416666666666667</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1558,13 +1601,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>7.583333333333333</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1572,13 +1615,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>7.75</v>
+        <v>8.5</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1586,13 +1629,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>8.166666666666666</v>
+        <v>8.5</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1600,13 +1643,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>8.333333333333334</v>
+        <v>8.583333333333334</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1617,7 +1660,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>8.5</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1631,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.583333333333334</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1645,7 +1688,7 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>9.083333333333334</v>
+        <v>9.5</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -1659,10 +1702,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>9.083333333333334</v>
+        <v>9.916666666666666</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1680,16 +1723,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1700,10 +1743,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="D2">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -1717,13 +1760,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>11.16666666666667</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="D3">
-        <v>0.1666666666666661</v>
+        <v>0.6666666666666661</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1734,7 +1777,7 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>9.916666666666666</v>
+        <v>10.91666666666667</v>
       </c>
       <c r="D4">
         <v>0.9166666666666661</v>
@@ -1748,13 +1791,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>8.833333333333334</v>
+        <v>9.5</v>
       </c>
       <c r="D5">
-        <v>0.8333333333333339</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -1765,16 +1808,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>8.583333333333334</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>0.5833333333333339</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1782,13 +1825,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>8.416666666666666</v>
+        <v>8.916666666666666</v>
       </c>
       <c r="D7">
-        <v>-0.5833333333333339</v>
+        <v>-1.083333333333334</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
@@ -1799,16 +1842,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="D8">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1819,10 +1862,10 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.416666666666667</v>
+        <v>8.25</v>
       </c>
       <c r="D9">
-        <v>0.416666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1836,10 +1879,10 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>7.333333333333333</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="D10">
-        <v>-1.666666666666667</v>
+        <v>-1.916666666666666</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
@@ -1870,13 +1913,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>5.416666666666667</v>
+        <v>5.5</v>
       </c>
       <c r="D12">
-        <v>1.416666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1887,13 +1930,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>3.166666666666667</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D13">
-        <v>-0.8333333333333335</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1911,46 +1954,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2496,49 +2539,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2546,46 +2589,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.5</v>
+        <v>16.9</v>
       </c>
       <c r="C2">
-        <v>63.1</v>
+        <v>67.60000000000001</v>
       </c>
       <c r="D2">
-        <v>46.8</v>
+        <v>42.6</v>
       </c>
       <c r="E2">
-        <v>72.3</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="F2">
-        <v>57.4</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="G2">
-        <v>40.8</v>
+        <v>38.9</v>
       </c>
       <c r="H2">
-        <v>51.3</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="I2">
-        <v>37.2</v>
+        <v>35.8</v>
       </c>
       <c r="J2">
         <v>51.3</v>
       </c>
       <c r="K2">
-        <v>65.8</v>
+        <v>62.5</v>
       </c>
       <c r="L2">
-        <v>54.50000000000001</v>
+        <v>53.40000000000001</v>
       </c>
       <c r="M2">
-        <v>66.90000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="N2">
-        <v>74.59999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="O2">
-        <v>66</v>
+        <v>65.3</v>
       </c>
       <c r="P2">
         <v>100</v>
@@ -2599,31 +2642,31 @@
         <v>100</v>
       </c>
       <c r="C3">
-        <v>91.3</v>
+        <v>91.10000000000001</v>
       </c>
       <c r="D3">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E3">
-        <v>99.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="F3">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>98.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H3">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="I3">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J3">
         <v>99.90000000000001</v>
       </c>
       <c r="K3">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="L3">
         <v>100</v>
@@ -2646,40 +2689,40 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>58.7</v>
+        <v>53.8</v>
       </c>
       <c r="C4">
-        <v>88.7</v>
+        <v>89.3</v>
       </c>
       <c r="D4">
-        <v>65.40000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="E4">
-        <v>48.3</v>
+        <v>49.3</v>
       </c>
       <c r="F4">
-        <v>73.3</v>
+        <v>73.7</v>
       </c>
       <c r="G4">
-        <v>87.90000000000001</v>
+        <v>87.2</v>
       </c>
       <c r="H4">
         <v>92.80000000000001</v>
       </c>
       <c r="I4">
-        <v>97.89999999999999</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="J4">
-        <v>93.30000000000001</v>
+        <v>94.69999999999999</v>
       </c>
       <c r="K4">
-        <v>98.40000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="L4">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="M4">
         <v>99.90000000000001</v>
-      </c>
-      <c r="M4">
-        <v>100</v>
       </c>
       <c r="N4">
         <v>100</v>
@@ -2696,31 +2739,31 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C5">
-        <v>67.30000000000001</v>
+        <v>63.6</v>
       </c>
       <c r="D5">
-        <v>78.8</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="E5">
-        <v>84.59999999999999</v>
+        <v>84.39999999999999</v>
       </c>
       <c r="F5">
-        <v>92.2</v>
+        <v>93.5</v>
       </c>
       <c r="G5">
-        <v>96</v>
+        <v>95.8</v>
       </c>
       <c r="H5">
-        <v>94.69999999999999</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="I5">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="J5">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="K5">
         <v>99.90000000000001</v>
@@ -2729,7 +2772,7 @@
         <v>100</v>
       </c>
       <c r="M5">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="N5">
         <v>99.90000000000001</v>
@@ -2746,46 +2789,46 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C6">
-        <v>87.5</v>
+        <v>84.89999999999999</v>
       </c>
       <c r="D6">
-        <v>96.5</v>
+        <v>96.2</v>
       </c>
       <c r="E6">
-        <v>98.59999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F6">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="G6">
-        <v>95.09999999999999</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="H6">
-        <v>85.59999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="I6">
-        <v>70.59999999999999</v>
+        <v>68.89999999999999</v>
       </c>
       <c r="J6">
-        <v>85</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="K6">
-        <v>74.8</v>
+        <v>78.8</v>
       </c>
       <c r="L6">
-        <v>94.39999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="M6">
-        <v>97.7</v>
+        <v>97.3</v>
       </c>
       <c r="N6">
+        <v>93.5</v>
+      </c>
+      <c r="O6">
         <v>92.10000000000001</v>
-      </c>
-      <c r="O6">
-        <v>90.8</v>
       </c>
       <c r="P6">
         <v>100</v>
@@ -2796,43 +2839,43 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>82.59999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="C7">
-        <v>66</v>
+        <v>67.60000000000001</v>
       </c>
       <c r="D7">
-        <v>69.3</v>
+        <v>71</v>
       </c>
       <c r="E7">
-        <v>70.89999999999999</v>
+        <v>71.2</v>
       </c>
       <c r="F7">
-        <v>71.2</v>
+        <v>71.5</v>
       </c>
       <c r="G7">
-        <v>76.59999999999999</v>
+        <v>78.60000000000001</v>
       </c>
       <c r="H7">
-        <v>91.40000000000001</v>
+        <v>89.60000000000001</v>
       </c>
       <c r="I7">
-        <v>97.39999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J7">
-        <v>95.8</v>
+        <v>96</v>
       </c>
       <c r="K7">
-        <v>99.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="L7">
-        <v>92.40000000000001</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="M7">
-        <v>74.8</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="N7">
-        <v>85.5</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="O7">
         <v>100</v>
@@ -2846,31 +2889,31 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>37.1</v>
+        <v>40.1</v>
       </c>
       <c r="C8">
-        <v>78.7</v>
+        <v>77.7</v>
       </c>
       <c r="D8">
-        <v>91.7</v>
+        <v>90.2</v>
       </c>
       <c r="E8">
-        <v>81</v>
+        <v>81.2</v>
       </c>
       <c r="F8">
-        <v>76.8</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="G8">
-        <v>89.3</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="H8">
-        <v>96.3</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="I8">
-        <v>93.2</v>
+        <v>94.8</v>
       </c>
       <c r="J8">
-        <v>97.89999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="K8">
         <v>99.8</v>
@@ -2879,10 +2922,10 @@
         <v>100</v>
       </c>
       <c r="M8">
-        <v>99.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="N8">
-        <v>95.8</v>
+        <v>96.3</v>
       </c>
       <c r="O8">
         <v>100</v>
@@ -2896,46 +2939,46 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>99.5</v>
+        <v>99.2</v>
       </c>
       <c r="C9">
-        <v>83.7</v>
+        <v>85</v>
       </c>
       <c r="D9">
-        <v>26.3</v>
+        <v>28.6</v>
       </c>
       <c r="E9">
-        <v>20.7</v>
+        <v>18.8</v>
       </c>
       <c r="F9">
-        <v>26.9</v>
+        <v>27.9</v>
       </c>
       <c r="G9">
+        <v>59.59999999999999</v>
+      </c>
+      <c r="H9">
+        <v>36.3</v>
+      </c>
+      <c r="I9">
         <v>57.09999999999999</v>
       </c>
-      <c r="H9">
-        <v>36.4</v>
-      </c>
-      <c r="I9">
-        <v>56.8</v>
-      </c>
       <c r="J9">
-        <v>77</v>
+        <v>75.7</v>
       </c>
       <c r="K9">
-        <v>64.09999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="L9">
-        <v>53.2</v>
+        <v>54.40000000000001</v>
       </c>
       <c r="M9">
-        <v>61.1</v>
+        <v>62.5</v>
       </c>
       <c r="N9">
-        <v>71</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="O9">
-        <v>91.90000000000001</v>
+        <v>93.10000000000001</v>
       </c>
       <c r="P9">
         <v>100</v>
@@ -2949,43 +2992,43 @@
         <v>11.5</v>
       </c>
       <c r="C10">
-        <v>46.1</v>
+        <v>44.8</v>
       </c>
       <c r="D10">
-        <v>80.80000000000001</v>
+        <v>79</v>
       </c>
       <c r="E10">
-        <v>93.2</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="F10">
-        <v>90.10000000000001</v>
+        <v>88</v>
       </c>
       <c r="G10">
-        <v>61.8</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="H10">
-        <v>52.3</v>
+        <v>50.1</v>
       </c>
       <c r="I10">
-        <v>68.40000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="J10">
-        <v>50</v>
+        <v>47.2</v>
       </c>
       <c r="K10">
-        <v>74</v>
+        <v>72.39999999999999</v>
       </c>
       <c r="L10">
-        <v>88.8</v>
+        <v>91.2</v>
       </c>
       <c r="M10">
-        <v>95</v>
+        <v>93.7</v>
       </c>
       <c r="N10">
-        <v>81.10000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="O10">
-        <v>51.3</v>
+        <v>49.5</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2996,40 +3039,40 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>30.8</v>
+        <v>31.4</v>
       </c>
       <c r="C11">
-        <v>46</v>
+        <v>46.6</v>
       </c>
       <c r="D11">
-        <v>35.8</v>
+        <v>37.2</v>
       </c>
       <c r="E11">
-        <v>43.5</v>
+        <v>45</v>
       </c>
       <c r="F11">
-        <v>29.5</v>
+        <v>28.6</v>
       </c>
       <c r="G11">
-        <v>45.3</v>
+        <v>45.4</v>
       </c>
       <c r="H11">
-        <v>78.60000000000001</v>
+        <v>77</v>
       </c>
       <c r="I11">
-        <v>67.7</v>
+        <v>70.39999999999999</v>
       </c>
       <c r="J11">
-        <v>45.8</v>
+        <v>46.7</v>
       </c>
       <c r="K11">
         <v>22.9</v>
       </c>
       <c r="L11">
-        <v>16.3</v>
+        <v>14.7</v>
       </c>
       <c r="M11">
-        <v>5.5</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -3046,37 +3089,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>97</v>
+        <v>96.3</v>
       </c>
       <c r="C12">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="D12">
-        <v>83.8</v>
+        <v>82.19999999999999</v>
       </c>
       <c r="E12">
-        <v>76.8</v>
+        <v>76.2</v>
       </c>
       <c r="F12">
-        <v>76.2</v>
+        <v>79</v>
       </c>
       <c r="G12">
-        <v>27.3</v>
+        <v>25.1</v>
       </c>
       <c r="H12">
-        <v>10.3</v>
+        <v>11.5</v>
       </c>
       <c r="I12">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="J12">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="K12">
         <v>0.4</v>
       </c>
       <c r="L12">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -3096,34 +3139,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>68.40000000000001</v>
+        <v>67.10000000000001</v>
       </c>
       <c r="C13">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>10.2</v>
+        <v>9.6</v>
       </c>
       <c r="F13">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="G13">
-        <v>24.1</v>
+        <v>21.7</v>
       </c>
       <c r="H13">
-        <v>10.9</v>
+        <v>12.3</v>
       </c>
       <c r="I13">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="J13">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="K13">
-        <v>0.7000000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="L13">
         <v>0.3</v>
@@ -3156,28 +3199,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3188,13 +3231,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2">
         <v>118.37</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3217,13 +3260,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3">
         <v>138.16</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3246,13 +3289,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4">
         <v>115.59</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3275,13 +3318,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5">
         <v>138.33</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3304,13 +3347,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6">
         <v>118.7</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3333,13 +3376,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7">
         <v>123.66</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3362,13 +3405,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8">
         <v>107.03</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3391,13 +3434,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9">
         <v>113.79</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3420,13 +3463,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10">
         <v>129.43</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3449,13 +3492,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11">
         <v>127.56</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3478,13 +3521,13 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12">
         <v>106.87</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3507,13 +3550,13 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13">
         <v>99.90000000000001</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -3543,31 +3586,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3575,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -3593,10 +3636,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3604,7 +3647,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3">
         <v>0.7857142857142857</v>
@@ -3622,10 +3665,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3633,7 +3676,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4">
         <v>0.7142857142857143</v>
@@ -3651,10 +3694,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3662,7 +3705,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5">
         <v>0.5714285714285714</v>
@@ -3680,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3691,7 +3734,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6">
         <v>0.5</v>
@@ -3709,10 +3752,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3720,7 +3763,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7">
         <v>0.5714285714285714</v>
@@ -3738,10 +3781,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3749,7 +3792,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8">
         <v>0.5714285714285714</v>
@@ -3767,10 +3810,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3778,7 +3821,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9">
         <v>0.5</v>
@@ -3796,10 +3839,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3807,7 +3850,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10">
         <v>0.5</v>
@@ -3825,10 +3868,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3836,7 +3879,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11">
         <v>0.2857142857142857</v>
@@ -3854,10 +3897,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3865,7 +3908,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12">
         <v>0.2142857142857143</v>
@@ -3883,10 +3926,10 @@
         <v>100</v>
       </c>
       <c r="H12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3894,7 +3937,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13">
         <v>0.2857142857142857</v>
@@ -3912,10 +3955,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3924,276 +3967,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9">
-        <v>-14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10">
-        <v>-20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11">
-        <v>-21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12">
-        <v>-26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13">
-        <v>-71</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R13"/>
   <sheetViews>
@@ -4203,55 +3976,55 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -4306,8 +4079,8 @@
       <c r="Q2">
         <v>51</v>
       </c>
-      <c r="R2" t="s">
-        <v>107</v>
+      <c r="R2">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -4362,8 +4135,8 @@
       <c r="Q3">
         <v>48</v>
       </c>
-      <c r="R3" t="s">
-        <v>108</v>
+      <c r="R3">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -4418,8 +4191,8 @@
       <c r="Q4">
         <v>17</v>
       </c>
-      <c r="R4" t="s">
-        <v>109</v>
+      <c r="R4">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -4474,8 +4247,8 @@
       <c r="Q5">
         <v>14</v>
       </c>
-      <c r="R5" t="s">
-        <v>110</v>
+      <c r="R5">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -4530,8 +4303,8 @@
       <c r="Q6">
         <v>13</v>
       </c>
-      <c r="R6" t="s">
-        <v>111</v>
+      <c r="R6">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -4586,8 +4359,8 @@
       <c r="Q7">
         <v>8</v>
       </c>
-      <c r="R7" t="s">
-        <v>112</v>
+      <c r="R7">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -4642,8 +4415,8 @@
       <c r="Q8">
         <v>1</v>
       </c>
-      <c r="R8" t="s">
-        <v>113</v>
+      <c r="R8">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -4698,120 +4471,120 @@
       <c r="Q9">
         <v>-14</v>
       </c>
-      <c r="R9" t="s">
-        <v>114</v>
+      <c r="R9">
+        <v>-13</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>-7</v>
       </c>
       <c r="E10">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J10">
-        <v>-8</v>
+        <v>16</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="N10">
-        <v>-7</v>
+        <v>-12</v>
       </c>
       <c r="O10">
-        <v>-5</v>
+        <v>-19</v>
       </c>
       <c r="P10">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="Q10">
-        <v>-20</v>
-      </c>
-      <c r="R10" t="s">
-        <v>115</v>
+        <v>-21</v>
+      </c>
+      <c r="R10">
+        <v>-17</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>-1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>-8</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
         <v>-7</v>
       </c>
-      <c r="E11">
-        <v>-2</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>8</v>
-      </c>
-      <c r="H11">
-        <v>7</v>
-      </c>
-      <c r="I11">
-        <v>13</v>
-      </c>
-      <c r="J11">
-        <v>16</v>
-      </c>
-      <c r="K11">
-        <v>9</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
+      <c r="O11">
         <v>-5</v>
       </c>
-      <c r="N11">
-        <v>-12</v>
-      </c>
-      <c r="O11">
-        <v>-19</v>
-      </c>
       <c r="P11">
-        <v>-17</v>
+        <v>-14</v>
       </c>
       <c r="Q11">
-        <v>-21</v>
-      </c>
-      <c r="R11" t="s">
-        <v>112</v>
+        <v>-20</v>
+      </c>
+      <c r="R11">
+        <v>-26</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -4866,8 +4639,8 @@
       <c r="Q12">
         <v>-26</v>
       </c>
-      <c r="R12" t="s">
-        <v>107</v>
+      <c r="R12">
+        <v>-31</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -4922,8 +4695,785 @@
       <c r="Q13">
         <v>-71</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13">
+        <v>-75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="B1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>112</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>27</v>
+      </c>
+      <c r="F2">
+        <v>35</v>
+      </c>
+      <c r="G2">
+        <v>31</v>
+      </c>
+      <c r="H2">
+        <v>27</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>25</v>
+      </c>
+      <c r="K2">
+        <v>30</v>
+      </c>
+      <c r="L2">
+        <v>35</v>
+      </c>
+      <c r="M2">
+        <v>39</v>
+      </c>
+      <c r="N2">
+        <v>47</v>
+      </c>
+      <c r="O2">
+        <v>51</v>
+      </c>
+      <c r="P2">
+        <v>53</v>
+      </c>
+      <c r="Q2">
+        <v>51</v>
+      </c>
+      <c r="R2">
+        <v>53</v>
+      </c>
+      <c r="S2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>-3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>19</v>
+      </c>
+      <c r="K3">
+        <v>26</v>
+      </c>
+      <c r="L3">
+        <v>34</v>
+      </c>
+      <c r="M3">
+        <v>30</v>
+      </c>
+      <c r="N3">
+        <v>31</v>
+      </c>
+      <c r="O3">
+        <v>41</v>
+      </c>
+      <c r="P3">
+        <v>43</v>
+      </c>
+      <c r="Q3">
+        <v>48</v>
+      </c>
+      <c r="R3">
+        <v>50</v>
+      </c>
+      <c r="S3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>-5</v>
+      </c>
+      <c r="F4">
+        <v>-11</v>
+      </c>
+      <c r="G4">
+        <v>-11</v>
+      </c>
+      <c r="H4">
+        <v>-10</v>
+      </c>
+      <c r="I4">
+        <v>-7</v>
+      </c>
+      <c r="J4">
+        <v>-7</v>
+      </c>
+      <c r="K4">
+        <v>-5</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4">
+        <v>17</v>
+      </c>
+      <c r="R4">
+        <v>21</v>
+      </c>
+      <c r="S4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>8</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5">
+        <v>6</v>
+      </c>
+      <c r="Q5">
+        <v>14</v>
+      </c>
+      <c r="R5">
+        <v>18</v>
+      </c>
+      <c r="S5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>-4</v>
+      </c>
+      <c r="C6">
+        <v>-3</v>
+      </c>
+      <c r="D6">
+        <v>-6</v>
+      </c>
+      <c r="E6">
+        <v>-6</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>11</v>
+      </c>
+      <c r="K6">
+        <v>21</v>
+      </c>
+      <c r="L6">
+        <v>23</v>
+      </c>
+      <c r="M6">
+        <v>17</v>
+      </c>
+      <c r="N6">
+        <v>15</v>
+      </c>
+      <c r="O6">
+        <v>12</v>
+      </c>
+      <c r="P6">
+        <v>16</v>
+      </c>
+      <c r="Q6">
+        <v>13</v>
+      </c>
+      <c r="R6">
+        <v>12</v>
+      </c>
+      <c r="S6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>-8</v>
+      </c>
+      <c r="C7">
+        <v>-7</v>
+      </c>
+      <c r="D7">
+        <v>-4</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>13</v>
+      </c>
+      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="M7">
+        <v>14</v>
+      </c>
+      <c r="N7">
+        <v>14</v>
+      </c>
+      <c r="O7">
+        <v>9</v>
+      </c>
+      <c r="P7">
+        <v>12</v>
+      </c>
+      <c r="Q7">
+        <v>8</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>-2</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>-2</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>-3</v>
+      </c>
+      <c r="C9">
+        <v>-2</v>
+      </c>
+      <c r="D9">
+        <v>-9</v>
+      </c>
+      <c r="E9">
+        <v>-7</v>
+      </c>
+      <c r="F9">
+        <v>-15</v>
+      </c>
+      <c r="G9">
+        <v>-19</v>
+      </c>
+      <c r="H9">
+        <v>-18</v>
+      </c>
+      <c r="I9">
+        <v>-22</v>
+      </c>
+      <c r="J9">
+        <v>-28</v>
+      </c>
+      <c r="K9">
+        <v>-34</v>
+      </c>
+      <c r="L9">
+        <v>-32</v>
+      </c>
+      <c r="M9">
+        <v>-30</v>
+      </c>
+      <c r="N9">
+        <v>-28</v>
+      </c>
+      <c r="O9">
+        <v>-20</v>
+      </c>
+      <c r="P9">
+        <v>-20</v>
+      </c>
+      <c r="Q9">
+        <v>-14</v>
+      </c>
+      <c r="R9">
+        <v>-13</v>
+      </c>
+      <c r="S9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>-2</v>
+      </c>
+      <c r="C10">
+        <v>-2</v>
+      </c>
+      <c r="D10">
+        <v>-7</v>
+      </c>
+      <c r="E10">
+        <v>-2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>13</v>
+      </c>
+      <c r="J10">
+        <v>16</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>-5</v>
+      </c>
+      <c r="N10">
+        <v>-12</v>
+      </c>
+      <c r="O10">
+        <v>-19</v>
+      </c>
+      <c r="P10">
+        <v>-17</v>
+      </c>
+      <c r="Q10">
+        <v>-21</v>
+      </c>
+      <c r="R10">
+        <v>-17</v>
+      </c>
+      <c r="S10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>-1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>-8</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>-7</v>
+      </c>
+      <c r="O11">
+        <v>-5</v>
+      </c>
+      <c r="P11">
+        <v>-14</v>
+      </c>
+      <c r="Q11">
+        <v>-20</v>
+      </c>
+      <c r="R11">
+        <v>-26</v>
+      </c>
+      <c r="S11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>-2</v>
+      </c>
+      <c r="C12">
+        <v>-5</v>
+      </c>
+      <c r="D12">
+        <v>-4</v>
+      </c>
+      <c r="E12">
+        <v>-8</v>
+      </c>
+      <c r="F12">
+        <v>-10</v>
+      </c>
+      <c r="G12">
+        <v>-12</v>
+      </c>
+      <c r="H12">
+        <v>-9</v>
+      </c>
+      <c r="I12">
+        <v>-5</v>
+      </c>
+      <c r="J12">
+        <v>-10</v>
+      </c>
+      <c r="K12">
+        <v>-18</v>
+      </c>
+      <c r="L12">
+        <v>-18</v>
+      </c>
+      <c r="M12">
+        <v>-16</v>
+      </c>
+      <c r="N12">
+        <v>-16</v>
+      </c>
+      <c r="O12">
+        <v>-25</v>
+      </c>
+      <c r="P12">
+        <v>-24</v>
+      </c>
+      <c r="Q12">
+        <v>-26</v>
+      </c>
+      <c r="R12">
+        <v>-31</v>
+      </c>
+      <c r="S12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>-6</v>
+      </c>
+      <c r="C13">
+        <v>-11</v>
+      </c>
+      <c r="D13">
+        <v>-15</v>
+      </c>
+      <c r="E13">
+        <v>-19</v>
+      </c>
+      <c r="F13">
+        <v>-28</v>
+      </c>
+      <c r="G13">
+        <v>-30</v>
+      </c>
+      <c r="H13">
+        <v>-29</v>
+      </c>
+      <c r="I13">
+        <v>-38</v>
+      </c>
+      <c r="J13">
+        <v>-40</v>
+      </c>
+      <c r="K13">
+        <v>-49</v>
+      </c>
+      <c r="L13">
+        <v>-58</v>
+      </c>
+      <c r="M13">
+        <v>-58</v>
+      </c>
+      <c r="N13">
+        <v>-58</v>
+      </c>
+      <c r="O13">
+        <v>-56</v>
+      </c>
+      <c r="P13">
+        <v>-67</v>
+      </c>
+      <c r="Q13">
+        <v>-71</v>
+      </c>
+      <c r="R13">
+        <v>-75</v>
+      </c>
+      <c r="S13" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/The Mike Daisy Sports IQ League 2025.xlsx
+++ b/leagues/The Mike Daisy Sports IQ League 2025.xlsx
@@ -10,16 +10,20 @@
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
-    <sheet name="Louie Power Index" sheetId="4" r:id="rId4"/>
-    <sheet name="LPI By Week" sheetId="5" r:id="rId5"/>
-    <sheet name="Biggest Upsets" sheetId="6" r:id="rId6"/>
+    <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
+    <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
+    <sheet name="Remaining Schedule Difficulty" sheetId="6" r:id="rId6"/>
+    <sheet name="Record Odds" sheetId="7" r:id="rId7"/>
+    <sheet name="Louie Power Index" sheetId="8" r:id="rId8"/>
+    <sheet name="LPI By Week" sheetId="9" r:id="rId9"/>
+    <sheet name="Biggest Upsets" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="138">
   <si>
     <t>Njigba's in Paris</t>
   </si>
@@ -111,6 +115,225 @@
     <t>Difference</t>
   </si>
   <si>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>11th Place</t>
+  </si>
+  <si>
+    <t>12th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
+    <t>Week_7</t>
+  </si>
+  <si>
+    <t>Week_8</t>
+  </si>
+  <si>
+    <t>Week_9</t>
+  </si>
+  <si>
+    <t>Week_10</t>
+  </si>
+  <si>
+    <t>Week_11</t>
+  </si>
+  <si>
+    <t>Week_12</t>
+  </si>
+  <si>
+    <t>Week_13</t>
+  </si>
+  <si>
+    <t>Week_14</t>
+  </si>
+  <si>
+    <t>Week_15</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Team_Record</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Julian LeMaire</t>
+  </si>
+  <si>
+    <t>Benjamin Frost</t>
+  </si>
+  <si>
+    <t>Bobby  Schnur</t>
+  </si>
+  <si>
+    <t>Mark Yanzuk</t>
+  </si>
+  <si>
+    <t>Dylan Sowers</t>
+  </si>
+  <si>
+    <t>Michael Daisey</t>
+  </si>
+  <si>
+    <t>Shjon Sowers</t>
+  </si>
+  <si>
+    <t>Rob Pernell</t>
+  </si>
+  <si>
+    <t>Nick DiNunzio</t>
+  </si>
+  <si>
+    <t>Matthew Jennings</t>
+  </si>
+  <si>
+    <t>David O'Kane</t>
+  </si>
+  <si>
+    <t>Matt Peiffer</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>Current_Record</t>
+  </si>
+  <si>
+    <t>Current_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Score</t>
+  </si>
+  <si>
+    <t>Total_Points_For</t>
+  </si>
+  <si>
+    <t>Playoff_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Last_Place_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Expected_Final_Record</t>
+  </si>
+  <si>
+    <t>Most_Likely_Record</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>11-3</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
+    <t>3-11</t>
+  </si>
+  <si>
+    <t>7.0-7.0</t>
+  </si>
+  <si>
+    <t>11.0-3.0</t>
+  </si>
+  <si>
+    <t>10.0-4.0</t>
+  </si>
+  <si>
+    <t>8.0-6.0</t>
+  </si>
+  <si>
+    <t>4.0-10.0</t>
+  </si>
+  <si>
+    <t>3.0-11.0</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -118,42 +341,6 @@
   </si>
   <si>
     <t>Change From Last Week</t>
-  </si>
-  <si>
-    <t>Benjamin Frost</t>
-  </si>
-  <si>
-    <t>Mark Yanzuk</t>
-  </si>
-  <si>
-    <t>Matthew Jennings</t>
-  </si>
-  <si>
-    <t>Michael Daisey</t>
-  </si>
-  <si>
-    <t>Nick DiNunzio</t>
-  </si>
-  <si>
-    <t>Bobby  Schnur</t>
-  </si>
-  <si>
-    <t>Dylan Sowers</t>
-  </si>
-  <si>
-    <t>Julian LeMaire</t>
-  </si>
-  <si>
-    <t>Rob Pernell</t>
-  </si>
-  <si>
-    <t>David O'Kane</t>
-  </si>
-  <si>
-    <t>Shjon Sowers</t>
-  </si>
-  <si>
-    <t>Matt Peiffer</t>
   </si>
   <si>
     <t>↑2</t>
@@ -1148,6 +1335,198 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>-58</v>
+      </c>
+      <c r="G2">
+        <v>73</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>-17</v>
+      </c>
+      <c r="G3">
+        <v>67</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>-75</v>
+      </c>
+      <c r="F4">
+        <v>-26</v>
+      </c>
+      <c r="G4">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>31</v>
+      </c>
+      <c r="F5">
+        <v>-12</v>
+      </c>
+      <c r="G5">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>-28</v>
+      </c>
+      <c r="F6">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>53</v>
+      </c>
+      <c r="F7">
+        <v>21</v>
+      </c>
+      <c r="G7">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
@@ -1573,6 +1952,2028 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>100</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>100</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>16.5</v>
+      </c>
+      <c r="C2">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="D2">
+        <v>46.8</v>
+      </c>
+      <c r="E2">
+        <v>71.7</v>
+      </c>
+      <c r="F2">
+        <v>57.09999999999999</v>
+      </c>
+      <c r="G2">
+        <v>37</v>
+      </c>
+      <c r="H2">
+        <v>56.3</v>
+      </c>
+      <c r="I2">
+        <v>36.1</v>
+      </c>
+      <c r="J2">
+        <v>48.2</v>
+      </c>
+      <c r="K2">
+        <v>66.7</v>
+      </c>
+      <c r="L2">
+        <v>52</v>
+      </c>
+      <c r="M2">
+        <v>68</v>
+      </c>
+      <c r="N2">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="O2">
+        <v>66.5</v>
+      </c>
+      <c r="P2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="D3">
+        <v>98.8</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>98.3</v>
+      </c>
+      <c r="H3">
+        <v>99.2</v>
+      </c>
+      <c r="I3">
+        <v>99.7</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+      <c r="O3">
+        <v>100</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>54.90000000000001</v>
+      </c>
+      <c r="C4">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="D4">
+        <v>65.2</v>
+      </c>
+      <c r="E4">
+        <v>48.8</v>
+      </c>
+      <c r="F4">
+        <v>72.39999999999999</v>
+      </c>
+      <c r="G4">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="H4">
+        <v>93.2</v>
+      </c>
+      <c r="I4">
+        <v>97.5</v>
+      </c>
+      <c r="J4">
+        <v>93.60000000000001</v>
+      </c>
+      <c r="K4">
+        <v>98.8</v>
+      </c>
+      <c r="L4">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C5">
+        <v>65.2</v>
+      </c>
+      <c r="D5">
+        <v>79.7</v>
+      </c>
+      <c r="E5">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="F5">
+        <v>91.7</v>
+      </c>
+      <c r="G5">
+        <v>95.7</v>
+      </c>
+      <c r="H5">
+        <v>94.39999999999999</v>
+      </c>
+      <c r="I5">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="J5">
+        <v>99.3</v>
+      </c>
+      <c r="K5">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="M5">
+        <v>100</v>
+      </c>
+      <c r="N5">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="D6">
+        <v>95.8</v>
+      </c>
+      <c r="E6">
+        <v>99.2</v>
+      </c>
+      <c r="F6">
+        <v>99.2</v>
+      </c>
+      <c r="G6">
+        <v>93.10000000000001</v>
+      </c>
+      <c r="H6">
+        <v>84</v>
+      </c>
+      <c r="I6">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="J6">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="K6">
+        <v>79.2</v>
+      </c>
+      <c r="L6">
+        <v>95</v>
+      </c>
+      <c r="M6">
+        <v>96.5</v>
+      </c>
+      <c r="N6">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="O6">
+        <v>90.3</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>83.7</v>
+      </c>
+      <c r="C7">
+        <v>62.4</v>
+      </c>
+      <c r="D7">
+        <v>69</v>
+      </c>
+      <c r="E7">
+        <v>70.19999999999999</v>
+      </c>
+      <c r="F7">
+        <v>73.8</v>
+      </c>
+      <c r="G7">
+        <v>76.8</v>
+      </c>
+      <c r="H7">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="I7">
+        <v>97.7</v>
+      </c>
+      <c r="J7">
+        <v>96.39999999999999</v>
+      </c>
+      <c r="K7">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="L7">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="M7">
+        <v>75.5</v>
+      </c>
+      <c r="N7">
+        <v>86.7</v>
+      </c>
+      <c r="O7">
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>39.5</v>
+      </c>
+      <c r="C8">
+        <v>77.5</v>
+      </c>
+      <c r="D8">
+        <v>88.8</v>
+      </c>
+      <c r="E8">
+        <v>80.5</v>
+      </c>
+      <c r="F8">
+        <v>75.8</v>
+      </c>
+      <c r="G8">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="H8">
+        <v>96.8</v>
+      </c>
+      <c r="I8">
+        <v>92.30000000000001</v>
+      </c>
+      <c r="J8">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K8">
+        <v>99.5</v>
+      </c>
+      <c r="L8">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="M8">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="N8">
+        <v>95.8</v>
+      </c>
+      <c r="O8">
+        <v>100</v>
+      </c>
+      <c r="P8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>99.8</v>
+      </c>
+      <c r="C9">
+        <v>84.3</v>
+      </c>
+      <c r="D9">
+        <v>27.6</v>
+      </c>
+      <c r="E9">
+        <v>18.7</v>
+      </c>
+      <c r="F9">
+        <v>28.8</v>
+      </c>
+      <c r="G9">
+        <v>58.8</v>
+      </c>
+      <c r="H9">
+        <v>34.5</v>
+      </c>
+      <c r="I9">
+        <v>58.09999999999999</v>
+      </c>
+      <c r="J9">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="K9">
+        <v>64.3</v>
+      </c>
+      <c r="L9">
+        <v>53.7</v>
+      </c>
+      <c r="M9">
+        <v>61.4</v>
+      </c>
+      <c r="N9">
+        <v>68.8</v>
+      </c>
+      <c r="O9">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="P9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>11.8</v>
+      </c>
+      <c r="C10">
+        <v>47</v>
+      </c>
+      <c r="D10">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="E10">
+        <v>92.5</v>
+      </c>
+      <c r="F10">
+        <v>89.3</v>
+      </c>
+      <c r="G10">
+        <v>64.5</v>
+      </c>
+      <c r="H10">
+        <v>51.2</v>
+      </c>
+      <c r="I10">
+        <v>67.80000000000001</v>
+      </c>
+      <c r="J10">
+        <v>51.4</v>
+      </c>
+      <c r="K10">
+        <v>71.7</v>
+      </c>
+      <c r="L10">
+        <v>90.60000000000001</v>
+      </c>
+      <c r="M10">
+        <v>94.39999999999999</v>
+      </c>
+      <c r="N10">
+        <v>80</v>
+      </c>
+      <c r="O10">
+        <v>52.8</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>31.1</v>
+      </c>
+      <c r="C11">
+        <v>47.09999999999999</v>
+      </c>
+      <c r="D11">
+        <v>34.2</v>
+      </c>
+      <c r="E11">
+        <v>45.6</v>
+      </c>
+      <c r="F11">
+        <v>26.9</v>
+      </c>
+      <c r="G11">
+        <v>49.6</v>
+      </c>
+      <c r="H11">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="I11">
+        <v>70.19999999999999</v>
+      </c>
+      <c r="J11">
+        <v>43.9</v>
+      </c>
+      <c r="K11">
+        <v>20.8</v>
+      </c>
+      <c r="L11">
+        <v>15.5</v>
+      </c>
+      <c r="M11">
+        <v>4.6</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>96.3</v>
+      </c>
+      <c r="C12">
+        <v>78.60000000000001</v>
+      </c>
+      <c r="D12">
+        <v>84</v>
+      </c>
+      <c r="E12">
+        <v>77.8</v>
+      </c>
+      <c r="F12">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="G12">
+        <v>25.7</v>
+      </c>
+      <c r="H12">
+        <v>11.6</v>
+      </c>
+      <c r="I12">
+        <v>4.8</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>0.4</v>
+      </c>
+      <c r="L12">
+        <v>0.1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>66.5</v>
+      </c>
+      <c r="C13">
+        <v>2.4</v>
+      </c>
+      <c r="D13">
+        <v>29.7</v>
+      </c>
+      <c r="E13">
+        <v>9.4</v>
+      </c>
+      <c r="F13">
+        <v>9.1</v>
+      </c>
+      <c r="G13">
+        <v>22.8</v>
+      </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
+      <c r="I13">
+        <v>6.3</v>
+      </c>
+      <c r="J13">
+        <v>2.5</v>
+      </c>
+      <c r="K13">
+        <v>0.6</v>
+      </c>
+      <c r="L13">
+        <v>0.2</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2">
+        <v>118.37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3">
+        <v>138.16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4">
+        <v>115.59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5">
+        <v>138.33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6">
+        <v>118.7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7">
+        <v>123.66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8">
+        <v>107.03</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9">
+        <v>113.79</v>
+      </c>
+      <c r="E9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10">
+        <v>129.43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11">
+        <v>127.56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12">
+        <v>106.87</v>
+      </c>
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>118.3685714285714</v>
+      </c>
+      <c r="E2">
+        <v>1657.16</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="D3">
+        <v>138.1557142857143</v>
+      </c>
+      <c r="E3">
+        <v>1934.18</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D4">
+        <v>138.3328571428571</v>
+      </c>
+      <c r="E4">
+        <v>1936.66</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D5">
+        <v>118.7</v>
+      </c>
+      <c r="E5">
+        <v>1661.8</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>123.6557142857143</v>
+      </c>
+      <c r="E6">
+        <v>1731.18</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D7">
+        <v>113.7914285714286</v>
+      </c>
+      <c r="E7">
+        <v>1593.08</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D8">
+        <v>129.4314285714286</v>
+      </c>
+      <c r="E8">
+        <v>1812.04</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <v>127.5585714285714</v>
+      </c>
+      <c r="E9">
+        <v>1785.82</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="D10">
+        <v>115.5928571428572</v>
+      </c>
+      <c r="E10">
+        <v>1618.3</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D11">
+        <v>107.0314285714286</v>
+      </c>
+      <c r="E11">
+        <v>1498.44</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="D12">
+        <v>106.8728571428571</v>
+      </c>
+      <c r="E12">
+        <v>1496.22</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D13">
+        <v>99.90142857142858</v>
+      </c>
+      <c r="E13">
+        <v>1398.62</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1584,16 +3985,16 @@
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1604,7 +4005,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D2">
         <v>53</v>
@@ -1613,7 +4014,7 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1624,7 +4025,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="D3">
         <v>50</v>
@@ -1633,7 +4034,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1644,7 +4045,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>21</v>
@@ -1653,7 +4054,7 @@
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1664,7 +4065,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -1673,7 +4074,7 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1684,7 +4085,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="D6">
         <v>12</v>
@@ -1693,7 +4094,7 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1704,7 +4105,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -1713,7 +4114,7 @@
         <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1724,7 +4125,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -1733,7 +4134,7 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1744,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D9">
         <v>-13</v>
@@ -1753,7 +4154,7 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1764,7 +4165,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D10">
         <v>-17</v>
@@ -1773,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1784,7 +4185,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D11">
         <v>-26</v>
@@ -1793,7 +4194,7 @@
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1804,7 +4205,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D12">
         <v>-31</v>
@@ -1813,7 +4214,7 @@
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1824,7 +4225,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="D13">
         <v>-75</v>
@@ -1833,7 +4234,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1841,7 +4242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S13"/>
   <sheetViews>
@@ -1851,58 +4252,58 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -1961,7 +4362,7 @@
         <v>53</v>
       </c>
       <c r="S2" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2020,7 +4421,7 @@
         <v>50</v>
       </c>
       <c r="S3" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2079,7 +4480,7 @@
         <v>21</v>
       </c>
       <c r="S4" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2138,7 +4539,7 @@
         <v>18</v>
       </c>
       <c r="S5" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2197,7 +4598,7 @@
         <v>12</v>
       </c>
       <c r="S6" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -2256,7 +4657,7 @@
         <v>5</v>
       </c>
       <c r="S7" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -2315,7 +4716,7 @@
         <v>3</v>
       </c>
       <c r="S8" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -2374,7 +4775,7 @@
         <v>-13</v>
       </c>
       <c r="S9" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -2433,7 +4834,7 @@
         <v>-17</v>
       </c>
       <c r="S10" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2492,7 +4893,7 @@
         <v>-26</v>
       </c>
       <c r="S11" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2551,7 +4952,7 @@
         <v>-31</v>
       </c>
       <c r="S12" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -2610,199 +5011,7 @@
         <v>-75</v>
       </c>
       <c r="S13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>15</v>
-      </c>
-      <c r="F2">
-        <v>-58</v>
-      </c>
-      <c r="G2">
-        <v>73</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-      <c r="F3">
-        <v>-17</v>
-      </c>
-      <c r="G3">
-        <v>67</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>-75</v>
-      </c>
-      <c r="F4">
-        <v>-26</v>
-      </c>
-      <c r="G4">
-        <v>49</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>31</v>
-      </c>
-      <c r="F5">
-        <v>-12</v>
-      </c>
-      <c r="G5">
-        <v>43</v>
-      </c>
-      <c r="H5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>-28</v>
-      </c>
-      <c r="F6">
-        <v>14</v>
-      </c>
-      <c r="G6">
-        <v>42</v>
-      </c>
-      <c r="H6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>53</v>
-      </c>
-      <c r="F7">
-        <v>21</v>
-      </c>
-      <c r="G7">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
